--- a/Checklists/Mobile_App_Security_Checklist-Chinese_1.1.2.xlsx
+++ b/Checklists/Mobile_App_Security_Checklist-Chinese_1.1.2.xlsx
@@ -5,20 +5,20 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bob/Documents/OWASP Application Security/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bob/Documents/GitHub/owasp-mstg/Checklists/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEA11F94-1890-C648-ABC1-740A2586D37D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F6C6C20-815E-E94D-9040-7E9A7AE0B98E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38400" yWindow="2100" windowWidth="38400" windowHeight="21140" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38200" yWindow="2100" windowWidth="38400" windowHeight="20120" tabRatio="500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="仪表板" sheetId="1" r:id="rId1"/>
     <sheet name="管理概述" sheetId="2" r:id="rId2"/>
     <sheet name="安全要求 - Android" sheetId="3" r:id="rId3"/>
-    <sheet name="Anti-RE - Android" sheetId="4" r:id="rId4"/>
+    <sheet name="反逆向 - Android" sheetId="4" r:id="rId4"/>
     <sheet name="安全要求 - iOS" sheetId="5" r:id="rId5"/>
-    <sheet name="Anti-RE - iOS" sheetId="6" r:id="rId6"/>
+    <sheet name="反逆向 - iOS" sheetId="6" r:id="rId6"/>
     <sheet name="版本历史" sheetId="7" r:id="rId7"/>
   </sheets>
   <definedNames>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1000" uniqueCount="438">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1000" uniqueCount="432">
   <si>
     <t>1.1.4</t>
   </si>
@@ -81,9 +81,6 @@
     <t>MSTG-ID</t>
   </si>
   <si>
-    <t>Detailed Verification Requirement</t>
-  </si>
-  <si>
     <t>Level 1</t>
   </si>
   <si>
@@ -102,18 +99,12 @@
     <t>V1</t>
   </si>
   <si>
-    <t>Architecture, design and threat modelling</t>
-  </si>
-  <si>
     <t>1.1</t>
   </si>
   <si>
     <t>MSTG-ARCH-1</t>
   </si>
   <si>
-    <t>All app components are identified and known to be needed.</t>
-  </si>
-  <si>
     <t>✓</t>
   </si>
   <si>
@@ -123,36 +114,24 @@
     <t>MSTG-ARCH-2</t>
   </si>
   <si>
-    <t>Security controls are never enforced only on the client side, but on the respective remote endpoints.</t>
-  </si>
-  <si>
     <t>1.3</t>
   </si>
   <si>
     <t>MSTG-ARCH-3</t>
   </si>
   <si>
-    <t>A high-level architecture for the mobile app and all connected remote services has been defined and security has been addressed in that architecture.</t>
-  </si>
-  <si>
     <t>1.4</t>
   </si>
   <si>
     <t>MSTG-ARCH-4</t>
   </si>
   <si>
-    <t>Data considered sensitive in the context of the mobile app is clearly identified.</t>
-  </si>
-  <si>
     <t>1.5</t>
   </si>
   <si>
     <t>MSTG-ARCH-5</t>
   </si>
   <si>
-    <t>All app components are defined in terms of the business functions and/or security functions they provide.</t>
-  </si>
-  <si>
     <t>N/A</t>
   </si>
   <si>
@@ -162,645 +141,414 @@
     <t>MSTG-ARCH-6</t>
   </si>
   <si>
-    <t>A threat model for the mobile app and the associated remote services has been produced that identifies potential threats and countermeasures.</t>
-  </si>
-  <si>
     <t>1.7</t>
   </si>
   <si>
     <t>MSTG-ARCH-7</t>
   </si>
   <si>
-    <t>All security controls have a centralized implementation.</t>
-  </si>
-  <si>
     <t>1.8</t>
   </si>
   <si>
     <t>MSTG-ARCH-8</t>
   </si>
   <si>
-    <t>There is an explicit policy for how cryptographic keys (if any) are managed, and the lifecycle of cryptographic keys is enforced. Ideally, follow a key management standard such as NIST SP 800-57.</t>
-  </si>
-  <si>
     <t>1.9</t>
   </si>
   <si>
     <t>MSTG-ARCH-9</t>
   </si>
   <si>
-    <t>A mechanism for enforcing updates of the mobile app exists.</t>
-  </si>
-  <si>
     <t>1.10</t>
   </si>
   <si>
     <t>MSTG-ARCH-10</t>
   </si>
   <si>
-    <t>Security is addressed within all parts of the software development lifecycle.</t>
-  </si>
-  <si>
     <t>V2</t>
   </si>
   <si>
-    <t>Data Storage and Privacy</t>
-  </si>
-  <si>
     <t>2.1</t>
   </si>
   <si>
     <t>MSTG-STORAGE‑1</t>
   </si>
   <si>
-    <t>System credential storage facilities are used appropriately to store sensitive data, such as PII, user credentials or cryptographic keys.</t>
-  </si>
-  <si>
     <t>2.2</t>
   </si>
   <si>
     <t>MSTG-STORAGE‑2</t>
   </si>
   <si>
-    <t>No sensitive data should be stored outside of the app container or system credential storage facilities.</t>
-  </si>
-  <si>
     <t>2.3</t>
   </si>
   <si>
     <t>MSTG-STORAGE‑3</t>
   </si>
   <si>
-    <t>No sensitive data is written to application logs.</t>
-  </si>
-  <si>
     <t>2.4</t>
   </si>
   <si>
     <t>MSTG-STORAGE‑4</t>
   </si>
   <si>
-    <t>No sensitive data is shared with third parties unless it is a necessary part of the architecture.</t>
-  </si>
-  <si>
     <t>2.5</t>
   </si>
   <si>
     <t>MSTG-STORAGE‑5</t>
   </si>
   <si>
-    <t>The keyboard cache is disabled on text inputs that process sensitive data.</t>
-  </si>
-  <si>
     <t>2.6</t>
   </si>
   <si>
     <t>MSTG-STORAGE‑6</t>
   </si>
   <si>
-    <t>No sensitive data is exposed via IPC mechanisms.</t>
-  </si>
-  <si>
     <t>2.7</t>
   </si>
   <si>
     <t>MSTG-STORAGE‑7</t>
   </si>
   <si>
-    <t>No sensitive data, such as passwords or pins, is exposed through the user interface.</t>
-  </si>
-  <si>
     <t>2.8</t>
   </si>
   <si>
     <t>MSTG-STORAGE‑8</t>
   </si>
   <si>
-    <t>No sensitive data is included in backups generated by the mobile operating system.</t>
-  </si>
-  <si>
     <t>2.9</t>
   </si>
   <si>
     <t>MSTG-STORAGE‑9</t>
   </si>
   <si>
-    <t>The app removes sensitive data from views when moved to the background.</t>
-  </si>
-  <si>
     <t>2.10</t>
   </si>
   <si>
     <t>MSTG-STORAGE‑10</t>
   </si>
   <si>
-    <t>The app does not hold sensitive data in memory longer than necessary, and memory is cleared explicitly after use.</t>
-  </si>
-  <si>
     <t>2.11</t>
   </si>
   <si>
     <t>MSTG-STORAGE‑11</t>
   </si>
   <si>
-    <t>The app enforces a minimum device-access-security policy, such as requiring the user to set a device passcode.</t>
-  </si>
-  <si>
     <t>2.12</t>
   </si>
   <si>
     <t>MSTG-STORAGE‑12</t>
   </si>
   <si>
-    <t>The app educates the user about the types of personally identifiable information processed, as well as security best practices the user should follow in using the app.</t>
-  </si>
-  <si>
     <t>V3</t>
   </si>
   <si>
-    <t xml:space="preserve">Cryptography </t>
-  </si>
-  <si>
     <t>3.1</t>
   </si>
   <si>
     <t>MSTG‑CRYPTO‑1</t>
   </si>
   <si>
-    <t>The app does not rely on symmetric cryptography with hardcoded keys as a sole method of encryption.</t>
-  </si>
-  <si>
     <t>3.2</t>
   </si>
   <si>
     <t>MSTG‑CRYPTO‑2</t>
   </si>
   <si>
-    <t>The app uses proven implementations of cryptographic primitives.</t>
-  </si>
-  <si>
     <t>3.3</t>
   </si>
   <si>
     <t>MSTG‑CRYPTO‑3</t>
   </si>
   <si>
-    <t>The app uses cryptographic primitives that are appropriate for the particular use-case, configured with parameters that adhere to industry best practices.</t>
-  </si>
-  <si>
     <t>3.4</t>
   </si>
   <si>
     <t>MSTG‑CRYPTO‑4</t>
   </si>
   <si>
-    <t>The app does not use cryptographic protocols or algorithms that are widely considered depreciated for security purposes.</t>
-  </si>
-  <si>
     <t>3.5</t>
   </si>
   <si>
     <t>MSTG‑CRYPTO‑5</t>
   </si>
   <si>
-    <t>The app doesn't re-use the same cryptographic key for multiple purposes.</t>
-  </si>
-  <si>
     <t>3.6</t>
   </si>
   <si>
     <t>MSTG‑CRYPTO‑6</t>
   </si>
   <si>
-    <t>All random values are generated using a sufficiently secure random number generator.</t>
-  </si>
-  <si>
     <t>V4</t>
   </si>
   <si>
-    <t>Authentication and Session Management</t>
-  </si>
-  <si>
     <t>4.1</t>
   </si>
   <si>
     <t>MSTG-AUTH-1</t>
   </si>
   <si>
-    <t>If the app provides users access to a remote service, some form of authentication, such as username/password authentication, is performed at the remote endpoint.</t>
-  </si>
-  <si>
     <t>4.2</t>
   </si>
   <si>
     <t>MSTG-AUTH-2</t>
   </si>
   <si>
-    <t>If stateful session management is used, the remote endpoint uses randomly generated session identifiers to authenticate client requests without sending the user's credentials.</t>
-  </si>
-  <si>
     <t>4.3</t>
   </si>
   <si>
     <t>MSTG-AUTH-3</t>
   </si>
   <si>
-    <t>If stateless token-based authentication is used, the server provides a token that has been signed using a secure algorithm.</t>
-  </si>
-  <si>
     <t>4.4</t>
   </si>
   <si>
     <t>MSTG-AUTH-4</t>
   </si>
   <si>
-    <t>The remote endpoint terminates the existing session when the user logs out.</t>
-  </si>
-  <si>
     <t>4.5</t>
   </si>
   <si>
     <t>MSTG-AUTH-5</t>
   </si>
   <si>
-    <t>A password policy exists and is enforced at the remote endpoint.</t>
-  </si>
-  <si>
     <t>4.6</t>
   </si>
   <si>
     <t>MSTG-AUTH-6</t>
   </si>
   <si>
-    <t>The remote endpoint implements a mechanism to protect against the submission of credentials an excessive number of times.</t>
-  </si>
-  <si>
     <t>4.7</t>
   </si>
   <si>
     <t>MSTG-AUTH-7</t>
   </si>
   <si>
-    <t>Sessions are invalidated at the remote endpoint after a predefined period of inactivity and access tokens expire.</t>
-  </si>
-  <si>
     <t>4.8</t>
   </si>
   <si>
     <t>MSTG-AUTH-8</t>
   </si>
   <si>
-    <t>Biometric authentication, if any, is not event-bound (i.e. using an API that simply returns "true" or "false"). Instead, it is based on unlocking the keychain/keystore.</t>
-  </si>
-  <si>
     <t>4.9</t>
   </si>
   <si>
     <t>MSTG-AUTH-9</t>
   </si>
   <si>
-    <t>A second factor of authentication exists at the remote endpoint and the 2FA requirement is consistently enforced.</t>
-  </si>
-  <si>
     <t>4.10</t>
   </si>
   <si>
     <t>MSTG-AUTH-10</t>
   </si>
   <si>
-    <t>Sensitive transactions require step-up authentication.</t>
-  </si>
-  <si>
     <t>4.11</t>
   </si>
   <si>
     <t>MSTG-AUTH-11</t>
   </si>
   <si>
-    <t>The app informs the user of all login activities with their account. Users are able view a list of devices used to access the account, and to block specific devices.</t>
-  </si>
-  <si>
     <t>V5</t>
   </si>
   <si>
-    <t>Network Communication</t>
-  </si>
-  <si>
     <t>5.1</t>
   </si>
   <si>
     <t>MSTG-NETWORK-1</t>
   </si>
   <si>
-    <t>Data is encrypted on the network using TLS. The secure channel is used consistently throughout the app.</t>
-  </si>
-  <si>
     <t>5.2</t>
   </si>
   <si>
     <t>MSTG-NETWORK-2</t>
   </si>
   <si>
-    <t>The TLS settings are in line with current best practices, or as close as possible if the mobile operating system does not support the recommended standards.</t>
-  </si>
-  <si>
     <t>5.3</t>
   </si>
   <si>
     <t>MSTG-NETWORK-3</t>
   </si>
   <si>
-    <t>The app verifies the X.509 certificate of the remote endpoint when the secure channel is established. Only certificates signed by a trusted CA are accepted.</t>
-  </si>
-  <si>
     <t>5.4</t>
   </si>
   <si>
     <t>MSTG-NETWORK-4</t>
   </si>
   <si>
-    <t>The app either uses its own certificate store, or pins the endpoint certificate or public key, and subsequently does not establish connections with endpoints that offer a different certificate or key, even if signed by a trusted CA.</t>
-  </si>
-  <si>
     <t>5.5</t>
   </si>
   <si>
     <t>MSTG-NETWORK-5</t>
   </si>
   <si>
-    <t>The app doesn't rely on a single insecure communication channel (email or SMS) for critical operations, such as enrollments and account recovery.</t>
-  </si>
-  <si>
     <t>5.6</t>
   </si>
   <si>
     <t>MSTG-NETWORK-6</t>
   </si>
   <si>
-    <t>The app only depends on up-to-date connectivity and security libraries.</t>
-  </si>
-  <si>
     <t>V6</t>
   </si>
   <si>
-    <t>Platform Interaction</t>
-  </si>
-  <si>
     <t>6.1</t>
   </si>
   <si>
     <t>MSTG-PLATFORM-1</t>
   </si>
   <si>
-    <t>The app only requests the minimum set of permissions necessary.</t>
-  </si>
-  <si>
     <t>6.2</t>
   </si>
   <si>
     <t>MSTG-PLATFORM-2</t>
   </si>
   <si>
-    <t>All inputs from external sources and the user are validated and if necessary sanitized. This includes data received via the UI, IPC mechanisms such as intents, custom URLs, and network sources.</t>
-  </si>
-  <si>
     <t>6.3</t>
   </si>
   <si>
     <t>MSTG-PLATFORM-3</t>
   </si>
   <si>
-    <t>The app does not export sensitive functionality via custom URL schemes, unless these mechanisms are properly protected.</t>
-  </si>
-  <si>
     <t>6.4</t>
   </si>
   <si>
     <t>MSTG-PLATFORM-4</t>
   </si>
   <si>
-    <t>The app does not export sensitive functionality through IPC facilities, unless these mechanisms are properly protected.</t>
-  </si>
-  <si>
     <t>6.5</t>
   </si>
   <si>
     <t>MSTG-PLATFORM-5</t>
   </si>
   <si>
-    <t>JavaScript is disabled in WebViews unless explicitly required.</t>
-  </si>
-  <si>
     <t>6.6</t>
   </si>
   <si>
     <t>MSTG-PLATFORM-6</t>
   </si>
   <si>
-    <t>WebViews are configured to allow only the minimum set of protocol handlers required (ideally, only https is supported). Potentially dangerous handlers, such as file, tel and app-id, are disabled.</t>
-  </si>
-  <si>
     <t>6.7</t>
   </si>
   <si>
     <t>MSTG-PLATFORM-7</t>
   </si>
   <si>
-    <t>If native methods of the app are exposed to a WebView, verify that the WebView only renders JavaScript contained within the app package.</t>
-  </si>
-  <si>
     <t>6.8</t>
   </si>
   <si>
     <t>MSTG-PLATFORM-8</t>
   </si>
   <si>
-    <t>Object deserialization, if any, is implemented using safe serialization APIs.</t>
-  </si>
-  <si>
     <t>V7</t>
   </si>
   <si>
-    <t>Code Quality and Build Settings</t>
-  </si>
-  <si>
     <t>7.1</t>
   </si>
   <si>
     <t>MSTG-CODE-1</t>
   </si>
   <si>
-    <t>The app is signed and provisioned with a valid certificate, of which the private key is properly protected.</t>
-  </si>
-  <si>
     <t>7.2</t>
   </si>
   <si>
     <t>MSTG-CODE-2</t>
   </si>
   <si>
-    <t>The app has been built in release mode, with settings appropriate for a release build (e.g. non-debuggable).</t>
-  </si>
-  <si>
     <t>7.3</t>
   </si>
   <si>
     <t>MSTG-CODE-3</t>
   </si>
   <si>
-    <t>Debugging symbols have been removed from native binaries.</t>
-  </si>
-  <si>
     <t>7.4</t>
   </si>
   <si>
     <t>MSTG-CODE-4</t>
   </si>
   <si>
-    <t>Debugging code has been removed, and the app does not log verbose errors or debugging messages.</t>
-  </si>
-  <si>
     <t>7.5</t>
   </si>
   <si>
     <t>MSTG-CODE-5</t>
   </si>
   <si>
-    <t>All third party components used by the mobile app, such as libraries and frameworks, are identified, and checked for known vulnerabilities.</t>
-  </si>
-  <si>
     <t>7.6</t>
   </si>
   <si>
     <t>MSTG-CODE-6</t>
   </si>
   <si>
-    <t>The app catches and handles possible exceptions.</t>
-  </si>
-  <si>
     <t>7.7</t>
   </si>
   <si>
     <t>MSTG-CODE-7</t>
   </si>
   <si>
-    <t>Error handling logic in security controls denies access by default.</t>
-  </si>
-  <si>
     <t>7.8</t>
   </si>
   <si>
     <t>MSTG-CODE-8</t>
   </si>
   <si>
-    <t>In unmanaged code, memory is allocated, freed and used securely.</t>
-  </si>
-  <si>
     <t>7.9</t>
   </si>
   <si>
     <t>MSTG-CODE-9</t>
   </si>
   <si>
-    <t>Free security features offered by the toolchain, such as byte-code minification, stack protection, PIE support and automatic reference counting, are activated.</t>
-  </si>
-  <si>
     <t>Legend</t>
   </si>
   <si>
-    <t>Symbol</t>
-  </si>
-  <si>
-    <t>Definition</t>
-  </si>
-  <si>
     <t>Pass</t>
   </si>
   <si>
-    <t>Requirement is applicable to mobile App and implemented according to best practices.</t>
-  </si>
-  <si>
     <t>Fail</t>
   </si>
   <si>
-    <t xml:space="preserve">Requirement is applicable to mobile App but not fulfilled. </t>
-  </si>
-  <si>
-    <t>Requirement is not applicable to mobile App.</t>
-  </si>
-  <si>
-    <t>Resiliency Against Reverse Engineering Requirements</t>
-  </si>
-  <si>
     <t>R</t>
   </si>
   <si>
-    <t>Impede Dynamic Analysis and Tampering</t>
-  </si>
-  <si>
     <t>8.1</t>
   </si>
   <si>
     <t>MSTG-RESILIENCE-1</t>
   </si>
   <si>
-    <t>The app detects, and responds to, the presence of a rooted or jailbroken device either by alerting the user or terminating the app.</t>
-  </si>
-  <si>
     <t>8.2</t>
   </si>
   <si>
     <t>MSTG-RESILIENCE-2</t>
   </si>
   <si>
-    <t>The app prevents debugging and/or detects, and responds to, a debugger being attached. All available debugging protocols must be covered.</t>
-  </si>
-  <si>
     <t>8.3</t>
   </si>
   <si>
     <t>MSTG-RESILIENCE-3</t>
   </si>
   <si>
-    <t>The app detects, and responds to, tampering with executable files and critical data within its own sandbox.</t>
-  </si>
-  <si>
     <t>8.4</t>
   </si>
   <si>
     <t>MSTG-RESILIENCE-4</t>
   </si>
   <si>
-    <t>The app detects, and responds to, the presence of widely used reverse engineering tools and frameworks on the device.</t>
-  </si>
-  <si>
     <t>8.5</t>
   </si>
   <si>
     <t>MSTG-RESILIENCE-5</t>
   </si>
   <si>
-    <t>The app detects, and responds to, being run in an emulator.</t>
-  </si>
-  <si>
     <t>8.6</t>
   </si>
   <si>
     <t>MSTG-RESILIENCE-6</t>
   </si>
   <si>
-    <t>The app detects, and responds to, tampering the code and data in its own memory space.</t>
-  </si>
-  <si>
     <t>8.7</t>
   </si>
   <si>
     <t>MSTG-RESILIENCE-7</t>
   </si>
   <si>
-    <t>The app implements multiple mechanisms in each defense category (8.1 to 8.6). Note that resiliency scales with the amount, diversity of the originality of the mechanisms used.</t>
-  </si>
-  <si>
     <t xml:space="preserve"> -</t>
   </si>
   <si>
@@ -810,9 +558,6 @@
     <t>MSTG-RESILIENCE-8</t>
   </si>
   <si>
-    <t>The detection mechanisms trigger responses of different types, including delayed and stealthy responses.</t>
-  </si>
-  <si>
     <t>-</t>
   </si>
   <si>
@@ -822,46 +567,22 @@
     <t>MSTG-RESILIENCE-9</t>
   </si>
   <si>
-    <t>Obfuscation is applied to programmatic defenses, which in turn impede de-obfuscation via dynamic analysis.</t>
-  </si>
-  <si>
-    <t>Device Binding</t>
-  </si>
-  <si>
     <t>8.10</t>
   </si>
   <si>
     <t>MSTG-RESILIENCE-10</t>
   </si>
   <si>
-    <t>The app implements a 'device binding' functionality using a device fingerprint derived from multiple properties unique to the device.</t>
-  </si>
-  <si>
-    <t>Impede Comprehension</t>
-  </si>
-  <si>
     <t>8.11</t>
   </si>
   <si>
     <t>MSTG-RESILIENCE-11</t>
   </si>
   <si>
-    <t>All executable files and libraries belonging to the app are either encrypted on the file level and/or important code and data segments inside the executables are encrypted or packed. Trivial static analysis does not reveal important code or data.</t>
-  </si>
-  <si>
     <t>8.12</t>
   </si>
   <si>
     <t>MSTG-RESILIENCE-12</t>
-  </si>
-  <si>
-    <t>If the goal of obfuscation is to protect sensitive computations, an obfuscation scheme is used that is both appropriate for the particular task and robust against manual and automated de-obfuscation methods, considering currently published research. The effectiveness of the obfuscation scheme must be verified through manual testing. Note that hardware-based isolation features are preferred over obfuscation whenever possible.</t>
-  </si>
-  <si>
-    <t>Mobile Application Security Requirements - iOS</t>
-  </si>
-  <si>
-    <t>Resiliency Against Reverse Engineering - iOS</t>
   </si>
   <si>
     <t>XLS Version History</t>
@@ -1520,6 +1241,267 @@
   </si>
   <si>
     <t>该要求不适用于移动应用。</t>
+  </si>
+  <si>
+    <t>应用程序只请求所需的最小权限集。</t>
+  </si>
+  <si>
+    <t>所有来自外部资源和用户的输入都经过验证，并在必要时进行消毒。这包括通过UI接收的数据、IPC机制(如intent、自定义url和网络源)。</t>
+  </si>
+  <si>
+    <t>应用程序不会通过自定义URL模式导出敏感的功能，除非这些机制得到了适当的保护。</t>
+  </si>
+  <si>
+    <t>除非这些机制得到适当保护，否则应用程序不会通过IPC工具导出敏感功能。</t>
+  </si>
+  <si>
+    <t>除非明确要求，否则在webview中禁用JavaScript。</t>
+  </si>
+  <si>
+    <t>将webview配置为只允许所需的最小协议处理程序集(理想情况下，只支持https)。禁用潜在的危险处理程序，如文件、tel和app-id。</t>
+  </si>
+  <si>
+    <t>如果应用程序的本机方法暴露给WebView，请验证WebView只呈现包含在应用程序包中的JavaScript。</t>
+  </si>
+  <si>
+    <t>对象反序列化(如果有)是使用安全的序列化api实现的。</t>
+  </si>
+  <si>
+    <t>应用程序使用有效的证书进行签名和供应，该证书的私钥受到适当的保护。</t>
+  </si>
+  <si>
+    <t>该应用程序已经在发布模式下构建，具有适合发布构建的设置(例如不可调试)。</t>
+  </si>
+  <si>
+    <t>调试符号已从本机二进制文件中删除。</t>
+  </si>
+  <si>
+    <t>调试代码已被删除，应用程序不会记录详细的错误或调试消息。</t>
+  </si>
+  <si>
+    <t>移动应用程序使用的所有第三方组件，如库和框架，都将被识别，并检查已知的漏洞。</t>
+  </si>
+  <si>
+    <t>应用程序捕获并处理可能的异常。</t>
+  </si>
+  <si>
+    <t>安全控制中的错误处理逻辑默认拒绝访问。</t>
+  </si>
+  <si>
+    <t>在非托管代码中，内存是安全分配、释放和使用的。</t>
+  </si>
+  <si>
+    <t>工具链提供的免费安全特性，如字节码缩小、堆栈保护、饼图支持和自动引用计数，将被激活。</t>
+  </si>
+  <si>
+    <t>对逆向工程需求的弹性</t>
+  </si>
+  <si>
+    <t>测试程序(s)</t>
+  </si>
+  <si>
+    <t>妨碍动态分析和篡改</t>
+  </si>
+  <si>
+    <t>该应用程序通过警告用户或终止应用程序来检测和响应有根设备或越狱设备的存在。</t>
+  </si>
+  <si>
+    <t>应用程序可以防止调试和/或检测并响应附加的调试器。必须覆盖所有可用的调试协议。</t>
+  </si>
+  <si>
+    <t>该应用程序在自己的沙箱中检测、响应、篡改可执行文件和关键数据。</t>
+  </si>
+  <si>
+    <t>该应用程序检测并响应设备上广泛使用的逆向工程工具和框架。</t>
+  </si>
+  <si>
+    <t>应用程序检测并响应正在模拟器中运行的程序。</t>
+  </si>
+  <si>
+    <t>应用程序在自己的内存空间中检测、响应并篡改代码和数据。</t>
+  </si>
+  <si>
+    <t>该应用程序在每个防御类中实现多个机制(8.1到8.6)。请注意，弹性的规模与数量，多样性的原始使用的机制。</t>
+  </si>
+  <si>
+    <t>检测机制触发不同类型的响应，包括延迟响应和隐形响应。</t>
+  </si>
+  <si>
+    <t>混淆化被应用于程序化的防御，这反过来又通过动态分析阻碍去混淆化。</t>
+  </si>
+  <si>
+    <t>设备绑定</t>
+  </si>
+  <si>
+    <t>该应用程序实现了一个“设备绑定”功能，使用一个设备指纹衍生自该设备的多个独特属性。</t>
+  </si>
+  <si>
+    <t>阻碍理解</t>
+  </si>
+  <si>
+    <t>应用程序的所有可执行文件和库都在文件级加密，可执行文件中的重要代码和数据段都加密或打包。简单的静态分析并不能揭示重要的代码或数据。</t>
+  </si>
+  <si>
+    <t>如果模糊化的目标是保护敏感的计算结果，那么考虑到目前发表的研究成果，模糊化方案既适用于特定的任务，又对手动和自动去模糊化方法具有较强的鲁棒性。模糊化方案的有效性必须通过人工测试来验证。请注意，尽可能使用基于硬件的隔离特性而不是混淆。</t>
+  </si>
+  <si>
+    <t>要求适用于移动应用程序，并根据最佳实践实施。</t>
+  </si>
+  <si>
+    <t>要求是适用于移动应用程序，但不满足。</t>
+  </si>
+  <si>
+    <t>要求不适用于移动应用。</t>
+  </si>
+  <si>
+    <t>移动应用安全需求  - iOS</t>
+  </si>
+  <si>
+    <t>详细的验证要求</t>
+  </si>
+  <si>
+    <t>架构、设计和威胁建模</t>
+  </si>
+  <si>
+    <t>数据储存及私隐</t>
+  </si>
+  <si>
+    <t>网络通信</t>
+  </si>
+  <si>
+    <t>平台交互</t>
+  </si>
+  <si>
+    <t>所有的应用程序组件都被标识出来，并被认为是需要的。</t>
+  </si>
+  <si>
+    <t>安全控制从未仅在客户端强制执行，而是在各个远程端点强制执行。</t>
+  </si>
+  <si>
+    <t>已经为移动应用程序和所有连接的远程服务定义了一个高级架构，并在该架构中解决了安全性问题。</t>
+  </si>
+  <si>
+    <t>在移动应用程序上下文中被认为是敏感的数据被清楚地标识出来。</t>
+  </si>
+  <si>
+    <t>所有应用程序组件都是根据它们提供的业务功能和/或安全功能来定义的。</t>
+  </si>
+  <si>
+    <t>已经为移动应用程序和相关的远程服务生成了一个威胁模型，用于识别潜在的威胁和应对措施。</t>
+  </si>
+  <si>
+    <t>所有的安全控制都有一个集中的实现。</t>
+  </si>
+  <si>
+    <t>对于如何管理加密密钥(如果有的话)有一个明确的策略，并且强制执行加密密钥的生命周期。理想情况下，应遵循NIST SP 800-57等密钥管理标准。</t>
+  </si>
+  <si>
+    <t>存在强制更新移动应用程序的机制。</t>
+  </si>
+  <si>
+    <t>安全性在软件开发生命周期的所有部分中都得到了解决。</t>
+  </si>
+  <si>
+    <t>系统凭据存储设施可适当地用于存储敏感数据，如PII、用户凭据或加密密钥。</t>
+  </si>
+  <si>
+    <t>不应将敏感数据存储在app容器或系统凭据存储设施之外。</t>
+  </si>
+  <si>
+    <t>没有敏感数据被写入应用程序日志。</t>
+  </si>
+  <si>
+    <t>除非敏感数据是体系结构的必要部分，否则不会与第三方共享。</t>
+  </si>
+  <si>
+    <t>在处理敏感数据的文本输入上禁用键盘缓存。</t>
+  </si>
+  <si>
+    <t>没有敏感数据通过IPC机制公开。</t>
+  </si>
+  <si>
+    <t>用户界面不会暴露密码或pin等敏感数据。</t>
+  </si>
+  <si>
+    <t>当移动到后台时，应用程序会从视图中删除敏感数据。</t>
+  </si>
+  <si>
+    <t>该应用程序在内存中保存敏感数据的时间不会超过必要的时间，并且在使用后会显式地清除内存。</t>
+  </si>
+  <si>
+    <t>该应用程序强制执行最低设备访问安全策略，比如要求用户设置设备密码。</t>
+  </si>
+  <si>
+    <t>该应用程序向用户介绍处理的个人身份信息的类型，以及用户在使用应用程序时应遵循的安全最佳实践。</t>
+  </si>
+  <si>
+    <t>该应用程序使用了经过验证的密码原语实现。</t>
+  </si>
+  <si>
+    <t>应用程序使用适合于特定用例的密码原语，并使用符合行业最佳实践的参数进行配置。</t>
+  </si>
+  <si>
+    <t>该应用程序不使用加密协议或算法，这些协议或算法被广泛认为是出于安全目的而被贬低的。</t>
+  </si>
+  <si>
+    <t>这个应用程序不会为了多种目的重复使用同一个密钥。</t>
+  </si>
+  <si>
+    <t>所有随机值都是使用一个足够安全的随机数生成器生成的。</t>
+  </si>
+  <si>
+    <t>如果应用程序为用户提供对远程服务的访问，则在远程端点执行某种形式的身份验证，如用户名/密码身份验证。</t>
+  </si>
+  <si>
+    <t>如果使用有状态会话管理，则远程端点使用随机生成的会话标识符对客户机请求进行身份验证，而不发送用户的凭据。</t>
+  </si>
+  <si>
+    <t>如果使用基于无状态令牌的身份验证，则服务器提供使用安全算法签名的令牌。</t>
+  </si>
+  <si>
+    <t>当用户注销时，远程端点终止现有会话。</t>
+  </si>
+  <si>
+    <t>存在密码策略，并在远程端点强制执行。</t>
+  </si>
+  <si>
+    <t>远程端点实现一种机制来防止过多次数地提交凭据。</t>
+  </si>
+  <si>
+    <t>在预定义的不活动期间和访问令牌过期后，会话在远程端点失效。</t>
+  </si>
+  <si>
+    <t>生物特征认证，如果有的话，是不受事件限制的(例如，使用一个只返回“真”或“假”的API)。相反，它基于解锁密钥链/密钥存储库。</t>
+  </si>
+  <si>
+    <t>第二个身份验证因素存在于远程端点，并且始终强制执行2FA要求。</t>
+  </si>
+  <si>
+    <t>敏感事务需要逐步进行身份验证。</t>
+  </si>
+  <si>
+    <t>该应用程序通知用户所有的登录活动与他们的帐户。用户可以查看用于访问帐户和阻止特定设备的设备列表。</t>
+  </si>
+  <si>
+    <t>数据在网络上使用TLS加密。安全通道在整个应用程序中始终如一地使用。</t>
+  </si>
+  <si>
+    <t>TLS设置符合当前的最佳实践，如果移动操作系统不支持推荐的标准，则尽可能接近。</t>
+  </si>
+  <si>
+    <t>应用程序在建立安全通道时验证远程端点的X.509证书。只接受由受信任的CA签名的证书。</t>
+  </si>
+  <si>
+    <t>该应用程序要么使用自己的证书存储，要么对端点证书或公钥进行pin，并且随后不会与提供不同证书或密钥的端点建立连接，即使是由受信任的CA签署的。</t>
+  </si>
+  <si>
+    <t>该应用程序不依赖单一的非安全通信渠道(电子邮件或短信)进行关键操作，如登记和帐户恢复。</t>
+  </si>
+  <si>
+    <t>该应用程序只依赖于最新的连接和安全库。</t>
+  </si>
+  <si>
+    <t>对抗逆向工程的弹性 - iOS</t>
   </si>
 </sst>
 </file>
@@ -2129,7 +2111,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="168">
+  <cellXfs count="170">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
@@ -2457,9 +2439,6 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2532,9 +2511,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="6" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2545,6 +2521,9 @@
     <xf numFmtId="1" fontId="12" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2556,6 +2535,15 @@
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -3942,7 +3930,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:D50"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A28" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="B50" sqref="B50:C50"/>
     </sheetView>
   </sheetViews>
@@ -3957,336 +3945,336 @@
   <sheetData>
     <row r="1" spans="2:4" ht="8" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="2:4" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="156" t="s">
-        <v>329</v>
-      </c>
-      <c r="C2" s="156"/>
-      <c r="D2" s="156"/>
+      <c r="B2" s="155" t="s">
+        <v>236</v>
+      </c>
+      <c r="C2" s="155"/>
+      <c r="D2" s="155"/>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B3" s="156"/>
-      <c r="C3" s="156"/>
-      <c r="D3" s="156"/>
+      <c r="B3" s="155"/>
+      <c r="C3" s="155"/>
+      <c r="D3" s="155"/>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B4" s="156"/>
-      <c r="C4" s="156"/>
-      <c r="D4" s="156"/>
+      <c r="B4" s="155"/>
+      <c r="C4" s="155"/>
+      <c r="D4" s="155"/>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B5" s="156"/>
-      <c r="C5" s="156"/>
-      <c r="D5" s="156"/>
+      <c r="B5" s="155"/>
+      <c r="C5" s="155"/>
+      <c r="D5" s="155"/>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B6" s="156"/>
-      <c r="C6" s="156"/>
-      <c r="D6" s="156"/>
+      <c r="B6" s="155"/>
+      <c r="C6" s="155"/>
+      <c r="D6" s="155"/>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B7" s="156"/>
-      <c r="C7" s="156"/>
-      <c r="D7" s="156"/>
+      <c r="B7" s="155"/>
+      <c r="C7" s="155"/>
+      <c r="D7" s="155"/>
     </row>
     <row r="8" spans="2:4" hidden="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="156"/>
-      <c r="C8" s="156"/>
-      <c r="D8" s="156"/>
+      <c r="B8" s="155"/>
+      <c r="C8" s="155"/>
+      <c r="D8" s="155"/>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B9" s="153"/>
-      <c r="C9" s="153"/>
-      <c r="D9" s="153"/>
+      <c r="B9" s="152"/>
+      <c r="C9" s="152"/>
+      <c r="D9" s="152"/>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
-        <v>330</v>
+        <v>237</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="3"/>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B11" s="157" t="s">
-        <v>331</v>
-      </c>
-      <c r="C11" s="157"/>
+      <c r="B11" s="156" t="s">
+        <v>238</v>
+      </c>
+      <c r="C11" s="156"/>
       <c r="D11" s="4" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B12" s="154" t="s">
-        <v>332</v>
-      </c>
-      <c r="C12" s="154"/>
+      <c r="B12" s="153" t="s">
+        <v>239</v>
+      </c>
+      <c r="C12" s="153"/>
       <c r="D12" s="5" t="str">
         <f>HYPERLINK(CONCATENATE( "https://github.com/OWASP/owasp-masvs/blob/", MASVS_VERSION, "/Document/"))</f>
         <v>https://github.com/OWASP/owasp-masvs/blob/1.1.4/Document/</v>
       </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B13" s="158" t="s">
-        <v>344</v>
-      </c>
-      <c r="C13" s="158"/>
+      <c r="B13" s="157" t="s">
+        <v>251</v>
+      </c>
+      <c r="C13" s="157"/>
       <c r="D13" s="6" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="2:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="B14" s="154" t="s">
-        <v>333</v>
-      </c>
-      <c r="C14" s="154"/>
+      <c r="B14" s="153" t="s">
+        <v>240</v>
+      </c>
+      <c r="C14" s="153"/>
       <c r="D14" s="7" t="str">
         <f>HYPERLINK(CONCATENATE( "https://github.com/OWASP/owasp-mstg/blob/", MSTG_VERSION, "/Document/"))</f>
         <v>https://github.com/OWASP/owasp-mstg/blob/1.1.3/Document/</v>
       </c>
     </row>
     <row r="15" spans="2:4" ht="32" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="155" t="s">
-        <v>334</v>
-      </c>
-      <c r="C15" s="155"/>
-      <c r="D15" s="155"/>
+      <c r="B15" s="154" t="s">
+        <v>241</v>
+      </c>
+      <c r="C15" s="154"/>
+      <c r="D15" s="154"/>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B16" s="151" t="s">
-        <v>335</v>
-      </c>
-      <c r="C16" s="151"/>
+      <c r="B16" s="150" t="s">
+        <v>242</v>
+      </c>
+      <c r="C16" s="150"/>
       <c r="D16" s="6"/>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B17" s="154" t="s">
-        <v>336</v>
-      </c>
-      <c r="C17" s="154"/>
+      <c r="B17" s="153" t="s">
+        <v>243</v>
+      </c>
+      <c r="C17" s="153"/>
       <c r="D17" s="6"/>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B18" s="151" t="s">
-        <v>337</v>
-      </c>
-      <c r="C18" s="151"/>
+      <c r="B18" s="150" t="s">
+        <v>244</v>
+      </c>
+      <c r="C18" s="150"/>
       <c r="D18" s="6"/>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B19" s="151" t="s">
-        <v>338</v>
-      </c>
-      <c r="C19" s="151"/>
+      <c r="B19" s="150" t="s">
+        <v>245</v>
+      </c>
+      <c r="C19" s="150"/>
       <c r="D19" s="6"/>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B20" s="151" t="s">
-        <v>339</v>
-      </c>
-      <c r="C20" s="151"/>
+      <c r="B20" s="150" t="s">
+        <v>246</v>
+      </c>
+      <c r="C20" s="150"/>
       <c r="D20" s="6"/>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B21" s="151" t="s">
-        <v>340</v>
-      </c>
-      <c r="C21" s="151"/>
+      <c r="B21" s="150" t="s">
+        <v>247</v>
+      </c>
+      <c r="C21" s="150"/>
       <c r="D21" s="6" t="s">
-        <v>341</v>
+        <v>248</v>
       </c>
     </row>
     <row r="22" spans="2:4" ht="70.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="151" t="s">
-        <v>342</v>
-      </c>
-      <c r="C22" s="151"/>
+      <c r="B22" s="150" t="s">
+        <v>249</v>
+      </c>
+      <c r="C22" s="150"/>
       <c r="D22" s="6" t="s">
-        <v>343</v>
+        <v>250</v>
       </c>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B23" s="153"/>
-      <c r="C23" s="153"/>
-      <c r="D23" s="153"/>
+      <c r="B23" s="152"/>
+      <c r="C23" s="152"/>
+      <c r="D23" s="152"/>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B24" s="8" t="s">
-        <v>345</v>
+        <v>252</v>
       </c>
       <c r="C24" s="9"/>
       <c r="D24" s="10"/>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B25" s="11" t="s">
-        <v>346</v>
+        <v>253</v>
       </c>
       <c r="C25" s="12"/>
       <c r="D25" s="6"/>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B26" s="151" t="s">
-        <v>347</v>
-      </c>
-      <c r="C26" s="151"/>
+      <c r="B26" s="150" t="s">
+        <v>254</v>
+      </c>
+      <c r="C26" s="150"/>
       <c r="D26" s="6"/>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B27" s="151" t="s">
-        <v>348</v>
-      </c>
-      <c r="C27" s="151"/>
+      <c r="B27" s="150" t="s">
+        <v>255</v>
+      </c>
+      <c r="C27" s="150"/>
       <c r="D27" s="6"/>
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B28" s="151" t="s">
-        <v>349</v>
-      </c>
-      <c r="C28" s="151"/>
+      <c r="B28" s="150" t="s">
+        <v>256</v>
+      </c>
+      <c r="C28" s="150"/>
       <c r="D28" s="6"/>
     </row>
     <row r="29" spans="2:4" ht="66" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="152" t="s">
-        <v>350</v>
-      </c>
-      <c r="C29" s="152"/>
+      <c r="B29" s="151" t="s">
+        <v>257</v>
+      </c>
+      <c r="C29" s="151"/>
       <c r="D29" s="6"/>
     </row>
     <row r="30" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B30" s="153"/>
-      <c r="C30" s="153"/>
-      <c r="D30" s="153"/>
+      <c r="B30" s="152"/>
+      <c r="C30" s="152"/>
+      <c r="D30" s="152"/>
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B31" s="8" t="s">
-        <v>351</v>
+        <v>258</v>
       </c>
       <c r="C31" s="9"/>
       <c r="D31" s="10"/>
     </row>
     <row r="32" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B32" s="11" t="s">
-        <v>352</v>
+        <v>259</v>
       </c>
       <c r="C32" s="12"/>
       <c r="D32" s="6"/>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B33" s="151" t="s">
-        <v>353</v>
-      </c>
-      <c r="C33" s="151"/>
+      <c r="B33" s="150" t="s">
+        <v>260</v>
+      </c>
+      <c r="C33" s="150"/>
       <c r="D33" s="6"/>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B34" s="151" t="s">
-        <v>354</v>
-      </c>
-      <c r="C34" s="151"/>
+      <c r="B34" s="150" t="s">
+        <v>261</v>
+      </c>
+      <c r="C34" s="150"/>
       <c r="D34" s="6"/>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B35" s="151" t="s">
-        <v>349</v>
-      </c>
-      <c r="C35" s="151"/>
+      <c r="B35" s="150" t="s">
+        <v>256</v>
+      </c>
+      <c r="C35" s="150"/>
       <c r="D35" s="6"/>
     </row>
     <row r="36" spans="2:4" ht="63" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B36" s="152" t="s">
-        <v>355</v>
-      </c>
-      <c r="C36" s="152"/>
+      <c r="B36" s="151" t="s">
+        <v>262</v>
+      </c>
+      <c r="C36" s="151"/>
       <c r="D36" s="6"/>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B37" s="153"/>
-      <c r="C37" s="153"/>
-      <c r="D37" s="153"/>
+      <c r="B37" s="152"/>
+      <c r="C37" s="152"/>
+      <c r="D37" s="152"/>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B38" s="8" t="s">
-        <v>356</v>
+        <v>263</v>
       </c>
       <c r="C38" s="9"/>
       <c r="D38" s="10"/>
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B39" s="150"/>
-      <c r="C39" s="150"/>
-      <c r="D39" s="150"/>
+      <c r="B39" s="149"/>
+      <c r="C39" s="149"/>
+      <c r="D39" s="149"/>
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B40" s="149" t="s">
-        <v>361</v>
-      </c>
-      <c r="C40" s="149"/>
+      <c r="B40" s="148" t="s">
+        <v>268</v>
+      </c>
+      <c r="C40" s="148"/>
       <c r="D40" s="13"/>
     </row>
     <row r="41" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B41" s="149" t="s">
-        <v>357</v>
-      </c>
-      <c r="C41" s="149"/>
+      <c r="B41" s="148" t="s">
+        <v>264</v>
+      </c>
+      <c r="C41" s="148"/>
       <c r="D41" s="13"/>
     </row>
     <row r="42" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B42" s="149" t="s">
-        <v>358</v>
-      </c>
-      <c r="C42" s="149"/>
+      <c r="B42" s="148" t="s">
+        <v>265</v>
+      </c>
+      <c r="C42" s="148"/>
       <c r="D42" s="13"/>
     </row>
     <row r="43" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B43" s="149" t="s">
-        <v>359</v>
-      </c>
-      <c r="C43" s="149"/>
+      <c r="B43" s="148" t="s">
+        <v>266</v>
+      </c>
+      <c r="C43" s="148"/>
       <c r="D43" s="14"/>
     </row>
     <row r="44" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B44" s="149" t="s">
-        <v>360</v>
-      </c>
-      <c r="C44" s="149"/>
+      <c r="B44" s="148" t="s">
+        <v>267</v>
+      </c>
+      <c r="C44" s="148"/>
       <c r="D44" s="13"/>
     </row>
     <row r="45" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B45" s="150"/>
-      <c r="C45" s="150"/>
-      <c r="D45" s="150"/>
+      <c r="B45" s="149"/>
+      <c r="C45" s="149"/>
+      <c r="D45" s="149"/>
     </row>
     <row r="46" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B46" s="149" t="s">
-        <v>361</v>
-      </c>
-      <c r="C46" s="149"/>
+      <c r="B46" s="148" t="s">
+        <v>268</v>
+      </c>
+      <c r="C46" s="148"/>
       <c r="D46" s="13"/>
     </row>
     <row r="47" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B47" s="149" t="s">
-        <v>357</v>
-      </c>
-      <c r="C47" s="149"/>
+      <c r="B47" s="148" t="s">
+        <v>264</v>
+      </c>
+      <c r="C47" s="148"/>
       <c r="D47" s="13"/>
     </row>
     <row r="48" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B48" s="149" t="s">
-        <v>358</v>
-      </c>
-      <c r="C48" s="149"/>
+      <c r="B48" s="148" t="s">
+        <v>265</v>
+      </c>
+      <c r="C48" s="148"/>
       <c r="D48" s="13"/>
     </row>
     <row r="49" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B49" s="149" t="s">
-        <v>359</v>
-      </c>
-      <c r="C49" s="149"/>
+      <c r="B49" s="148" t="s">
+        <v>266</v>
+      </c>
+      <c r="C49" s="148"/>
       <c r="D49" s="14"/>
     </row>
     <row r="50" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B50" s="149" t="s">
-        <v>360</v>
-      </c>
-      <c r="C50" s="149"/>
+      <c r="B50" s="148" t="s">
+        <v>267</v>
+      </c>
+      <c r="C50" s="148"/>
       <c r="D50" s="13"/>
     </row>
   </sheetData>
@@ -4358,7 +4346,7 @@
     <row r="2" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B2" s="16"/>
       <c r="C2" s="17" t="s">
-        <v>362</v>
+        <v>269</v>
       </c>
       <c r="D2" s="18"/>
       <c r="E2" s="18"/>
@@ -4372,11 +4360,11 @@
       <c r="F3" s="18"/>
     </row>
     <row r="4" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B4" s="161"/>
-      <c r="C4" s="161"/>
-      <c r="D4" s="161"/>
-      <c r="E4" s="161"/>
-      <c r="F4" s="161"/>
+      <c r="B4" s="159"/>
+      <c r="C4" s="159"/>
+      <c r="D4" s="159"/>
+      <c r="E4" s="159"/>
+      <c r="F4" s="159"/>
     </row>
     <row r="5" spans="2:24" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="19"/>
@@ -4391,16 +4379,16 @@
       <c r="D6" s="20"/>
       <c r="E6" s="20"/>
       <c r="F6" s="20"/>
-      <c r="G6" s="162" t="s">
-        <v>363</v>
-      </c>
-      <c r="H6" s="162"/>
-      <c r="I6" s="162"/>
-      <c r="V6" s="162" t="s">
-        <v>363</v>
-      </c>
-      <c r="W6" s="162"/>
-      <c r="X6" s="162"/>
+      <c r="G6" s="160" t="s">
+        <v>270</v>
+      </c>
+      <c r="H6" s="160"/>
+      <c r="I6" s="160"/>
+      <c r="V6" s="160" t="s">
+        <v>270</v>
+      </c>
+      <c r="W6" s="160"/>
+      <c r="X6" s="160"/>
     </row>
     <row r="7" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B7" s="21"/>
@@ -4415,18 +4403,18 @@
       <c r="D8" s="19"/>
       <c r="E8" s="19"/>
       <c r="F8" s="19"/>
-      <c r="G8" s="163">
+      <c r="G8" s="161">
         <f>AVERAGE(G43:G50)*5</f>
         <v>0</v>
       </c>
-      <c r="H8" s="163"/>
-      <c r="I8" s="163"/>
-      <c r="V8" s="163">
+      <c r="H8" s="161"/>
+      <c r="I8" s="161"/>
+      <c r="V8" s="161">
         <f>AVERAGE(K43:K50)*5</f>
         <v>0</v>
       </c>
-      <c r="W8" s="163"/>
-      <c r="X8" s="163"/>
+      <c r="W8" s="161"/>
+      <c r="X8" s="161"/>
     </row>
     <row r="9" spans="2:24" ht="91" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="20"/>
@@ -4434,12 +4422,12 @@
       <c r="D9" s="20"/>
       <c r="E9" s="20"/>
       <c r="F9" s="20"/>
-      <c r="G9" s="163"/>
-      <c r="H9" s="163"/>
-      <c r="I9" s="163"/>
-      <c r="V9" s="163"/>
-      <c r="W9" s="163"/>
-      <c r="X9" s="163"/>
+      <c r="G9" s="161"/>
+      <c r="H9" s="161"/>
+      <c r="I9" s="161"/>
+      <c r="V9" s="161"/>
+      <c r="W9" s="161"/>
+      <c r="X9" s="161"/>
     </row>
     <row r="10" spans="2:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="21"/>
@@ -4447,12 +4435,12 @@
       <c r="D10" s="21"/>
       <c r="E10" s="21"/>
       <c r="F10" s="21"/>
-      <c r="G10" s="163"/>
-      <c r="H10" s="163"/>
-      <c r="I10" s="163"/>
-      <c r="V10" s="163"/>
-      <c r="W10" s="163"/>
-      <c r="X10" s="163"/>
+      <c r="G10" s="161"/>
+      <c r="H10" s="161"/>
+      <c r="I10" s="161"/>
+      <c r="V10" s="161"/>
+      <c r="W10" s="161"/>
+      <c r="X10" s="161"/>
     </row>
     <row r="11" spans="2:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="21"/>
@@ -4460,19 +4448,19 @@
       <c r="D11" s="21"/>
       <c r="E11" s="21"/>
       <c r="F11" s="21"/>
-      <c r="G11" s="163"/>
-      <c r="H11" s="163"/>
-      <c r="I11" s="163"/>
-      <c r="V11" s="163"/>
-      <c r="W11" s="163"/>
-      <c r="X11" s="163"/>
+      <c r="G11" s="161"/>
+      <c r="H11" s="161"/>
+      <c r="I11" s="161"/>
+      <c r="V11" s="161"/>
+      <c r="W11" s="161"/>
+      <c r="X11" s="161"/>
     </row>
     <row r="12" spans="2:24" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="159"/>
-      <c r="C12" s="159"/>
-      <c r="D12" s="159"/>
-      <c r="E12" s="159"/>
-      <c r="F12" s="159"/>
+      <c r="B12" s="162"/>
+      <c r="C12" s="162"/>
+      <c r="D12" s="162"/>
+      <c r="E12" s="162"/>
+      <c r="F12" s="162"/>
     </row>
     <row r="13" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B13" s="22"/>
@@ -4496,11 +4484,11 @@
       <c r="F15" s="21"/>
     </row>
     <row r="16" spans="2:24" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="159"/>
-      <c r="C16" s="159"/>
-      <c r="D16" s="159"/>
-      <c r="E16" s="159"/>
-      <c r="F16" s="159"/>
+      <c r="B16" s="162"/>
+      <c r="C16" s="162"/>
+      <c r="D16" s="162"/>
+      <c r="E16" s="162"/>
+      <c r="F16" s="162"/>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B17" s="22"/>
@@ -4553,18 +4541,18 @@
     </row>
     <row r="35" spans="3:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="41" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="D41" s="160" t="s">
+      <c r="D41" s="158" t="s">
         <v>4</v>
       </c>
-      <c r="E41" s="160"/>
-      <c r="F41" s="160"/>
-      <c r="G41" s="160"/>
-      <c r="H41" s="160" t="s">
+      <c r="E41" s="158"/>
+      <c r="F41" s="158"/>
+      <c r="G41" s="158"/>
+      <c r="H41" s="158" t="s">
         <v>5</v>
       </c>
-      <c r="I41" s="160"/>
-      <c r="J41" s="160"/>
-      <c r="K41" s="160"/>
+      <c r="I41" s="158"/>
+      <c r="J41" s="158"/>
+      <c r="K41" s="158"/>
     </row>
     <row r="42" spans="3:11" x14ac:dyDescent="0.2">
       <c r="D42" s="26" t="s">
@@ -4594,7 +4582,7 @@
     </row>
     <row r="43" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C43" s="27" t="s">
-        <v>364</v>
+        <v>271</v>
       </c>
       <c r="D43" s="28">
         <f>COUNTIFS('安全要求 - Android'!G5:G14,'安全要求 - Android'!B79)</f>
@@ -4631,7 +4619,7 @@
     </row>
     <row r="44" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C44" s="27" t="s">
-        <v>365</v>
+        <v>272</v>
       </c>
       <c r="D44" s="28">
         <f>COUNTIFS('安全要求 - Android'!G16:G27,'安全要求 - Android'!B79)</f>
@@ -4668,7 +4656,7 @@
     </row>
     <row r="45" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C45" s="27" t="s">
-        <v>366</v>
+        <v>273</v>
       </c>
       <c r="D45" s="28">
         <f>COUNTIFS('安全要求 - Android'!G29:G34,'安全要求 - Android'!B79)</f>
@@ -4705,7 +4693,7 @@
     </row>
     <row r="46" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C46" s="27" t="s">
-        <v>367</v>
+        <v>274</v>
       </c>
       <c r="D46" s="28">
         <f>COUNTIFS('安全要求 - Android'!G36:G46,'安全要求 - Android'!B79)</f>
@@ -4742,7 +4730,7 @@
     </row>
     <row r="47" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C47" s="27" t="s">
-        <v>368</v>
+        <v>275</v>
       </c>
       <c r="D47" s="28">
         <f>COUNTIFS('安全要求 - Android'!G48:G53,'安全要求 - Android'!B79)</f>
@@ -4779,7 +4767,7 @@
     </row>
     <row r="48" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C48" s="27" t="s">
-        <v>369</v>
+        <v>276</v>
       </c>
       <c r="D48" s="28">
         <f>COUNTIFS('安全要求 - Android'!G55:G62,'安全要求 - Android'!B79)</f>
@@ -4816,7 +4804,7 @@
     </row>
     <row r="49" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C49" s="27" t="s">
-        <v>370</v>
+        <v>277</v>
       </c>
       <c r="D49" s="28">
         <f>COUNTIFS('安全要求 - Android'!G64:G72,'安全要求 - Android'!B79)</f>
@@ -4853,18 +4841,18 @@
     </row>
     <row r="50" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C50" s="27" t="s">
-        <v>371</v>
+        <v>278</v>
       </c>
       <c r="D50" s="28">
-        <f>COUNTIFS('Anti-RE - Android'!F4:F18,'安全要求 - Android'!B79)</f>
+        <f>COUNTIFS('反逆向 - Android'!F4:F18,'安全要求 - Android'!B79)</f>
         <v>0</v>
       </c>
       <c r="E50" s="28">
-        <f>COUNTIFS('Anti-RE - Android'!F4:F18,'安全要求 - Android'!B80)</f>
+        <f>COUNTIFS('反逆向 - Android'!F4:F18,'安全要求 - Android'!B80)</f>
         <v>0</v>
       </c>
       <c r="F50" s="28">
-        <f>COUNTIFS('Anti-RE - Android'!F4:F18,'安全要求 - Android'!B81)</f>
+        <f>COUNTIFS('反逆向 - Android'!F4:F18,'安全要求 - Android'!B81)</f>
         <v>12</v>
       </c>
       <c r="G50" s="30">
@@ -4872,15 +4860,15 @@
         <v>0</v>
       </c>
       <c r="H50" s="28">
-        <f>COUNTIFS('Anti-RE - iOS'!F4:F18,'安全要求 - Android'!B79)</f>
+        <f>COUNTIFS('反逆向 - iOS'!F4:F18,'安全要求 - Android'!B79)</f>
         <v>0</v>
       </c>
       <c r="I50" s="28">
-        <f>COUNTIFS('Anti-RE - iOS'!F4:F18,'安全要求 - Android'!B80)</f>
+        <f>COUNTIFS('反逆向 - iOS'!F4:F18,'安全要求 - Android'!B80)</f>
         <v>0</v>
       </c>
       <c r="J50" s="28">
-        <f>COUNTIFS('Anti-RE - iOS'!F4:F18,'安全要求 - Android'!B81)</f>
+        <f>COUNTIFS('反逆向 - iOS'!F4:F18,'安全要求 - Android'!B81)</f>
         <v>12</v>
       </c>
       <c r="K50" s="30">
@@ -4890,15 +4878,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="D41:G41"/>
+    <mergeCell ref="H41:K41"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="G6:I6"/>
     <mergeCell ref="V6:X6"/>
     <mergeCell ref="G8:I11"/>
     <mergeCell ref="V8:X11"/>
     <mergeCell ref="B12:F12"/>
     <mergeCell ref="B16:F16"/>
-    <mergeCell ref="D41:G41"/>
-    <mergeCell ref="H41:K41"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="G6:I6"/>
   </mergeCells>
   <conditionalFormatting sqref="F14">
     <cfRule type="iconSet" priority="2">
@@ -4938,8 +4926,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AMK85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A60" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
-      <selection activeCell="I53" sqref="I53"/>
+    <sheetView topLeftCell="A56" zoomScale="158" zoomScaleNormal="158" workbookViewId="0">
+      <selection activeCell="D72" sqref="D72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4960,18 +4948,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:11" ht="19" x14ac:dyDescent="0.2">
-      <c r="B1" s="164" t="s">
-        <v>377</v>
-      </c>
-      <c r="C1" s="164"/>
-      <c r="D1" s="164"/>
-      <c r="E1" s="164"/>
-      <c r="F1" s="164"/>
-      <c r="G1" s="164"/>
-      <c r="H1" s="164"/>
-      <c r="I1" s="164"/>
-      <c r="J1" s="164"/>
-      <c r="K1" s="164"/>
+      <c r="B1" s="163" t="s">
+        <v>284</v>
+      </c>
+      <c r="C1" s="163"/>
+      <c r="D1" s="163"/>
+      <c r="E1" s="163"/>
+      <c r="F1" s="163"/>
+      <c r="G1" s="163"/>
+      <c r="H1" s="163"/>
+      <c r="I1" s="163"/>
+      <c r="J1" s="163"/>
+      <c r="K1" s="163"/>
     </row>
     <row r="2" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B2" s="34"/>
@@ -4993,33 +4981,33 @@
         <v>11</v>
       </c>
       <c r="D3" s="40" t="s">
-        <v>378</v>
+        <v>285</v>
       </c>
       <c r="E3" s="41" t="s">
-        <v>375</v>
+        <v>282</v>
       </c>
       <c r="F3" s="41" t="s">
-        <v>376</v>
+        <v>283</v>
       </c>
       <c r="G3" s="41" t="s">
-        <v>374</v>
-      </c>
-      <c r="H3" s="165" t="s">
-        <v>372</v>
-      </c>
-      <c r="I3" s="165"/>
+        <v>281</v>
+      </c>
+      <c r="H3" s="164" t="s">
+        <v>279</v>
+      </c>
+      <c r="I3" s="164"/>
       <c r="J3" s="42"/>
       <c r="K3" s="43" t="s">
-        <v>373</v>
+        <v>280</v>
       </c>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B4" s="44" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C4" s="45"/>
       <c r="D4" s="46" t="s">
-        <v>379</v>
+        <v>286</v>
       </c>
       <c r="E4" s="47"/>
       <c r="F4" s="47"/>
@@ -5031,26 +5019,26 @@
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B5" s="50" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C5" s="51" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D5" s="52" t="s">
-        <v>380</v>
+        <v>287</v>
       </c>
       <c r="E5" s="53" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F5" s="54" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G5" s="55"/>
-      <c r="H5" s="144" t="str">
+      <c r="H5" s="143" t="str">
         <f>HYPERLINK(CONCATENATE( BASE_URL, "0x04b-Mobile-App-Security-Testing.md#architectural-information"), "架构信息")</f>
         <v>架构信息</v>
       </c>
-      <c r="I5" s="144" t="str">
+      <c r="I5" s="143" t="str">
         <f>HYPERLINK(CONCATENATE( BASE_URL, "0x05h-Testing-Platform-Interaction.md#testing-for-insecure-configuration-of-instant-apps-mstg-arch-1-mstg-arch-7"), "测试即时应用程序的不安全配置 (MSTG-ARCH-1, MSTG-ARCH-7)")</f>
         <v>测试即时应用程序的不安全配置 (MSTG-ARCH-1, MSTG-ARCH-7)</v>
       </c>
@@ -5059,26 +5047,26 @@
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B6" s="50" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C6" s="51" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D6" s="52" t="s">
-        <v>381</v>
+        <v>288</v>
       </c>
       <c r="E6" s="53" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F6" s="54" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G6" s="55"/>
-      <c r="H6" s="145" t="str">
+      <c r="H6" s="144" t="str">
         <f>HYPERLINK(CONCATENATE( BASE_URL, "0x04h-Testing-Code-Quality.md#injection-flaws-mstg-arch-2-and-mstg-platform-2"), "注入缺陷 (MSTG-ARCH-2 and MSTG-PLATFORM-2)")</f>
         <v>注入缺陷 (MSTG-ARCH-2 and MSTG-PLATFORM-2)</v>
       </c>
-      <c r="I6" s="146" t="str">
+      <c r="I6" s="145" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x04e-Testing-Authentication-and-Session-Management.md#verifying-that-appropriate-authentication-is-in-place-mstg-arch-2-and-mstg-auth-1"),"验证适当的身份验证是否到位 (MSTG-ARCH-2 and MSTG-AUTH-1)")</f>
         <v>验证适当的身份验证是否到位 (MSTG-ARCH-2 and MSTG-AUTH-1)</v>
       </c>
@@ -5087,22 +5075,22 @@
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B7" s="50" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C7" s="51" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D7" s="52" t="s">
-        <v>382</v>
+        <v>289</v>
       </c>
       <c r="E7" s="53" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F7" s="54" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G7" s="55"/>
-      <c r="H7" s="144" t="str">
+      <c r="H7" s="143" t="str">
         <f>HYPERLINK(CONCATENATE( BASE_URL, "0x04b-Mobile-App-Security-Testing.md#architectural-information"), "架构信息")</f>
         <v>架构信息</v>
       </c>
@@ -5112,22 +5100,22 @@
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B8" s="50" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C8" s="51" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D8" s="52" t="s">
-        <v>383</v>
+        <v>290</v>
       </c>
       <c r="E8" s="53" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F8" s="54" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G8" s="55"/>
-      <c r="H8" s="144" t="str">
+      <c r="H8" s="143" t="str">
         <f>HYPERLINK(CONCATENATE( BASE_URL, "0x04b-Mobile-App-Security-Testing.md#identifying-sensitive-data"), "识别敏感信息")</f>
         <v>识别敏感信息</v>
       </c>
@@ -5137,22 +5125,22 @@
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B9" s="50" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="C9" s="51" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D9" s="52" t="s">
-        <v>384</v>
+        <v>291</v>
       </c>
       <c r="E9" s="61"/>
       <c r="F9" s="54" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G9" s="55" t="s">
-        <v>36</v>
-      </c>
-      <c r="H9" s="144" t="str">
+        <v>29</v>
+      </c>
+      <c r="H9" s="143" t="str">
         <f>HYPERLINK(CONCATENATE( BASE_URL, "0x04b-Mobile-App-Security-Testing.md#environmental-information"), "运行环境信息")</f>
         <v>运行环境信息</v>
       </c>
@@ -5162,22 +5150,22 @@
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B10" s="50" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="C10" s="51" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="D10" s="52" t="s">
-        <v>385</v>
+        <v>292</v>
       </c>
       <c r="E10" s="61"/>
       <c r="F10" s="54" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G10" s="55" t="s">
-        <v>36</v>
-      </c>
-      <c r="H10" s="144" t="str">
+        <v>29</v>
+      </c>
+      <c r="H10" s="143" t="str">
         <f>HYPERLINK(CONCATENATE( BASE_URL, "0x04b-Mobile-App-Security-Testing.md#mapping-the-application"), "应用关联")</f>
         <v>应用关联</v>
       </c>
@@ -5187,30 +5175,30 @@
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B11" s="50" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="C11" s="51" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="D11" s="52" t="s">
-        <v>386</v>
+        <v>293</v>
       </c>
       <c r="E11" s="61"/>
       <c r="F11" s="54" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G11" s="55" t="s">
-        <v>36</v>
-      </c>
-      <c r="H11" s="144" t="str">
+        <v>29</v>
+      </c>
+      <c r="H11" s="143" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05h-Testing-Platform-Interaction.md#testing-for-insecure-configuration-of-instant-apps-mstg-arch-1-mstg-arch-7"),"测试即时应用程序的不安全配置 (MSTG-ARCH-1, MSTG-ARCH-7)")</f>
         <v>测试即时应用程序的不安全配置 (MSTG-ARCH-1, MSTG-ARCH-7)</v>
       </c>
-      <c r="I11" s="146" t="str">
+      <c r="I11" s="145" t="str">
         <f>HYPERLINK(CONCATENATE( BASE_URL, "0x04b-Mobile-App-Security-Testing.md#principles-of-testing"), "测试原则")</f>
         <v>测试原则</v>
       </c>
-      <c r="J11" s="147" t="str">
+      <c r="J11" s="146" t="str">
         <f>HYPERLINK(CONCATENATE( BASE_URL, "0x04b-Mobile-App-Security-Testing.md#penetration-testing-aka-pentesting"), "渗透测试 (a.k.a. Pentesting)")</f>
         <v>渗透测试 (a.k.a. Pentesting)</v>
       </c>
@@ -5218,22 +5206,22 @@
     </row>
     <row r="12" spans="2:11" ht="32" x14ac:dyDescent="0.2">
       <c r="B12" s="50" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="C12" s="51" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="D12" s="52" t="s">
-        <v>387</v>
+        <v>294</v>
       </c>
       <c r="E12" s="61"/>
       <c r="F12" s="54" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G12" s="55" t="s">
-        <v>36</v>
-      </c>
-      <c r="H12" s="144" t="str">
+        <v>29</v>
+      </c>
+      <c r="H12" s="143" t="str">
         <f>HYPERLINK(CONCATENATE( BASE_URL, "0x04g-Testing-Cryptography.md#cryptographic-policy"), "加密策略")</f>
         <v>加密策略</v>
       </c>
@@ -5243,22 +5231,22 @@
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B13" s="50" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="C13" s="51" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="D13" s="52" t="s">
-        <v>388</v>
+        <v>295</v>
       </c>
       <c r="E13" s="61"/>
       <c r="F13" s="54" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G13" s="55" t="s">
-        <v>36</v>
-      </c>
-      <c r="H13" s="144" t="str">
+        <v>29</v>
+      </c>
+      <c r="H13" s="143" t="str">
         <f>HYPERLINK(CONCATENATE( BASE_URL, "0x05h-Testing-Platform-Interaction.md#testing-enforced-updating-mstg-arch-9"), "强制更新测试 (MSTG-ARCH-9)")</f>
         <v>强制更新测试 (MSTG-ARCH-9)</v>
       </c>
@@ -5268,22 +5256,22 @@
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B14" s="50" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="C14" s="51" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="D14" s="52" t="s">
-        <v>389</v>
+        <v>296</v>
       </c>
       <c r="E14" s="61"/>
       <c r="F14" s="54" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G14" s="55" t="s">
-        <v>36</v>
-      </c>
-      <c r="H14" s="144" t="str">
+        <v>29</v>
+      </c>
+      <c r="H14" s="143" t="str">
         <f>HYPERLINK(CONCATENATE( BASE_URL, "0x04b-Mobile-App-Security-Testing.md#security-testing-and-the-sdlc"), "安全测试 和 软件开发生命周期")</f>
         <v>安全测试 和 软件开发生命周期</v>
       </c>
@@ -5293,11 +5281,11 @@
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B15" s="62" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="C15" s="63"/>
       <c r="D15" s="64" t="s">
-        <v>390</v>
+        <v>297</v>
       </c>
       <c r="E15" s="65"/>
       <c r="F15" s="66"/>
@@ -5309,26 +5297,26 @@
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B16" s="70" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="C16" s="71" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="D16" s="52" t="s">
-        <v>391</v>
+        <v>298</v>
       </c>
       <c r="E16" s="53" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F16" s="54" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G16" s="55"/>
-      <c r="H16" s="144" t="str">
+      <c r="H16" s="143" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05d-Testing-Data-Storage.md#testing-local-storage-for-sensitive-data-mstg-storage-1-and-mstg-storage-2"),"测试本地存储中的敏感数据 (MSTG-STORAGE-1 and MSTG-STORAGE-2)")</f>
         <v>测试本地存储中的敏感数据 (MSTG-STORAGE-1 and MSTG-STORAGE-2)</v>
       </c>
-      <c r="I16" s="144" t="str">
+      <c r="I16" s="143" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05e-Testing-Cryptography.md#testing-key-management-mstg-storage-1-mstg-crypto-1-and-mstg-crypto-5"),"测试密钥管理 (MSTG-STORAGE-1, MSTG-CRYPTO-1 and MSTG-CRYPTO-5)")</f>
         <v>测试密钥管理 (MSTG-STORAGE-1, MSTG-CRYPTO-1 and MSTG-CRYPTO-5)</v>
       </c>
@@ -5337,18 +5325,18 @@
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B17" s="70" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="C17" s="71" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="D17" s="52" t="s">
-        <v>392</v>
+        <v>299</v>
       </c>
       <c r="E17" s="53"/>
       <c r="F17" s="54"/>
       <c r="G17" s="55"/>
-      <c r="H17" s="144" t="str">
+      <c r="H17" s="143" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05d-Testing-Data-Storage.md#testing-local-storage-for-sensitive-data-mstg-storage-1-and-mstg-storage-2"),"测试本地存储中的敏感数据 (MSTG-STORAGE-1 and MSTG-STORAGE-2)")</f>
         <v>测试本地存储中的敏感数据 (MSTG-STORAGE-1 and MSTG-STORAGE-2)</v>
       </c>
@@ -5358,22 +5346,22 @@
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B18" s="70" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="C18" s="71" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="D18" s="52" t="s">
-        <v>393</v>
+        <v>300</v>
       </c>
       <c r="E18" s="53" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F18" s="54" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G18" s="55"/>
-      <c r="H18" s="144" t="str">
+      <c r="H18" s="143" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05d-Testing-Data-Storage.md#testing-logs-for-sensitive-data-mstg-storage-3"),"测试日志以获取敏感数据 (MSTG-STORAGE-3)")</f>
         <v>测试日志以获取敏感数据 (MSTG-STORAGE-3)</v>
       </c>
@@ -5383,22 +5371,22 @@
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B19" s="70" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="C19" s="71" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="D19" s="52" t="s">
-        <v>394</v>
+        <v>301</v>
       </c>
       <c r="E19" s="53" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F19" s="54" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G19" s="55"/>
-      <c r="H19" s="144" t="str">
+      <c r="H19" s="143" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05d-Testing-Data-Storage.md#determining-whether-sensitive-data-is-sent-to-third-parties-mstg-storage-4"),"确定是否将敏感数据发送给第三方 (MSTG-STORAGE-4)")</f>
         <v>确定是否将敏感数据发送给第三方 (MSTG-STORAGE-4)</v>
       </c>
@@ -5408,22 +5396,22 @@
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B20" s="70" t="s">
-        <v>66</v>
+        <v>49</v>
       </c>
       <c r="C20" s="71" t="s">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="D20" s="75" t="s">
-        <v>395</v>
+        <v>302</v>
       </c>
       <c r="E20" s="53" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F20" s="54" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G20" s="55"/>
-      <c r="H20" s="144" t="str">
+      <c r="H20" s="143" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05d-Testing-Data-Storage.md#determining-whether-the-keyboard-cache-is-disabled-for-text-input-fields-mstg-storage-5"),"确定是否为文本输入字段禁用了键盘缓存 (MSTG-STORAGE-5)")</f>
         <v>确定是否为文本输入字段禁用了键盘缓存 (MSTG-STORAGE-5)</v>
       </c>
@@ -5433,22 +5421,22 @@
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B21" s="70" t="s">
-        <v>69</v>
+        <v>51</v>
       </c>
       <c r="C21" s="71" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="D21" s="75" t="s">
-        <v>396</v>
+        <v>303</v>
       </c>
       <c r="E21" s="53" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F21" s="54" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G21" s="55"/>
-      <c r="H21" s="144" t="str">
+      <c r="H21" s="143" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05d-Testing-Data-Storage.md#determining-whether-sensitive-stored-data-has-been-exposed-via-ipc-mechanisms-mstg-storage-6"),"确定是否已通过IPC机制公开了敏感的存储数据 (MSTG-STORAGE-6)")</f>
         <v>确定是否已通过IPC机制公开了敏感的存储数据 (MSTG-STORAGE-6)</v>
       </c>
@@ -5458,22 +5446,22 @@
     </row>
     <row r="22" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B22" s="70" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="C22" s="71" t="s">
-        <v>73</v>
+        <v>54</v>
       </c>
       <c r="D22" s="75" t="s">
-        <v>397</v>
+        <v>304</v>
       </c>
       <c r="E22" s="53" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F22" s="54" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G22" s="55"/>
-      <c r="H22" s="144" t="str">
+      <c r="H22" s="143" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05d-Testing-Data-Storage.md#checking-for-sensitive-data-disclosure-through-the-user-interface-mstg-storage-7"),"通过用户界面检查敏感数据披露 (MSTG-STORAGE-7)")</f>
         <v>通过用户界面检查敏感数据披露 (MSTG-STORAGE-7)</v>
       </c>
@@ -5483,22 +5471,22 @@
     </row>
     <row r="23" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B23" s="70" t="s">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="C23" s="71" t="s">
-        <v>76</v>
+        <v>56</v>
       </c>
       <c r="D23" s="75" t="s">
-        <v>398</v>
+        <v>305</v>
       </c>
       <c r="E23" s="76"/>
       <c r="F23" s="54" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G23" s="55" t="s">
-        <v>36</v>
-      </c>
-      <c r="H23" s="144" t="str">
+        <v>29</v>
+      </c>
+      <c r="H23" s="143" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05d-Testing-Data-Storage.md#testing-backups-for-sensitive-data-mstg-storage-8"),"测试备份以获取敏感数据 (MSTG-STORAGE-8)")</f>
         <v>测试备份以获取敏感数据 (MSTG-STORAGE-8)</v>
       </c>
@@ -5508,22 +5496,22 @@
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B24" s="70" t="s">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="C24" s="71" t="s">
-        <v>79</v>
+        <v>58</v>
       </c>
       <c r="D24" s="75" t="s">
-        <v>399</v>
+        <v>306</v>
       </c>
       <c r="E24" s="76"/>
       <c r="F24" s="54" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G24" s="55" t="s">
-        <v>36</v>
-      </c>
-      <c r="H24" s="144" t="str">
+        <v>29</v>
+      </c>
+      <c r="H24" s="143" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05d-Testing-Data-Storage.md#finding-sensitive-information-in-auto-generated-screenshots-mstg-storage-9"),"在自动生成的屏幕截图中查找敏感信息 (MSTG-STORAGE-9)")</f>
         <v>在自动生成的屏幕截图中查找敏感信息 (MSTG-STORAGE-9)</v>
       </c>
@@ -5533,22 +5521,22 @@
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B25" s="70" t="s">
-        <v>81</v>
+        <v>59</v>
       </c>
       <c r="C25" s="71" t="s">
-        <v>82</v>
+        <v>60</v>
       </c>
       <c r="D25" s="75" t="s">
-        <v>400</v>
+        <v>307</v>
       </c>
       <c r="E25" s="76"/>
       <c r="F25" s="54" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G25" s="55" t="s">
-        <v>36</v>
-      </c>
-      <c r="H25" s="144" t="str">
+        <v>29</v>
+      </c>
+      <c r="H25" s="143" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05d-Testing-Data-Storage.md#checking-memory-for-sensitive-data-mstg-storage-10"),"检查内存中的敏感数据 (MSTG-STORAGE-10)")</f>
         <v>检查内存中的敏感数据 (MSTG-STORAGE-10)</v>
       </c>
@@ -5558,26 +5546,26 @@
     </row>
     <row r="26" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B26" s="70" t="s">
-        <v>84</v>
+        <v>61</v>
       </c>
       <c r="C26" s="71" t="s">
-        <v>85</v>
+        <v>62</v>
       </c>
       <c r="D26" s="75" t="s">
-        <v>401</v>
+        <v>308</v>
       </c>
       <c r="E26" s="76"/>
       <c r="F26" s="54" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G26" s="55" t="s">
-        <v>36</v>
-      </c>
-      <c r="H26" s="144" t="str">
+        <v>29</v>
+      </c>
+      <c r="H26" s="143" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05d-Testing-Data-Storage.md#testing-the-device-access-security-policy-mstg-storage-11"),"测试设备访问安全策略 (MSTG-STORAGE-11)")</f>
         <v>测试设备访问安全策略 (MSTG-STORAGE-11)</v>
       </c>
-      <c r="I26" s="146" t="str">
+      <c r="I26" s="145" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05f-Testing-Local-Authentication.md#testing-confirm-credentials-mstg-auth-1-and-mstg-storage-11"),"测试确认凭证 (MSTG-AUTH-1 and MSTG-STORAGE-11)")</f>
         <v>测试确认凭证 (MSTG-AUTH-1 and MSTG-STORAGE-11)</v>
       </c>
@@ -5586,20 +5574,20 @@
     </row>
     <row r="27" spans="2:11" ht="32" x14ac:dyDescent="0.2">
       <c r="B27" s="70" t="s">
-        <v>87</v>
+        <v>63</v>
       </c>
       <c r="C27" s="51" t="s">
-        <v>88</v>
-      </c>
-      <c r="D27" s="148" t="s">
-        <v>402</v>
+        <v>64</v>
+      </c>
+      <c r="D27" s="147" t="s">
+        <v>309</v>
       </c>
       <c r="E27" s="76"/>
       <c r="F27" s="54" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G27" s="55" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="H27" s="77" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x04i-Testing-user-interaction.md#testing-user-education-mstg-storage-12"),"测试用户教育 (MSTG-STORAGE-12)")</f>
@@ -5611,11 +5599,11 @@
     </row>
     <row r="28" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B28" s="62" t="s">
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="C28" s="63"/>
       <c r="D28" s="64" t="s">
-        <v>403</v>
+        <v>310</v>
       </c>
       <c r="E28" s="65"/>
       <c r="F28" s="66"/>
@@ -5627,26 +5615,26 @@
     </row>
     <row r="29" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B29" s="70" t="s">
-        <v>92</v>
+        <v>66</v>
       </c>
       <c r="C29" s="71" t="s">
-        <v>93</v>
+        <v>67</v>
       </c>
       <c r="D29" s="75" t="s">
-        <v>404</v>
+        <v>311</v>
       </c>
       <c r="E29" s="53" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F29" s="54" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G29" s="55"/>
-      <c r="H29" s="144" t="str">
+      <c r="H29" s="143" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05e-Testing-Cryptography.md#testing-key-management-mstg-storage-1-mstg-crypto-1-and-mstg-crypto-5"),"测试密钥管理 (MSTG-STORAGE-1, MSTG-CRYPTO-1 and MSTG-CRYPTO-5)")</f>
         <v>测试密钥管理 (MSTG-STORAGE-1, MSTG-CRYPTO-1 and MSTG-CRYPTO-5)</v>
       </c>
-      <c r="I29" s="144" t="str">
+      <c r="I29" s="143" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x04g-Testing-Cryptography.md#common-configuration-issues-mstg-crypto-1-mstg-crypto-2-and-mstg-crypto-3"),"常见配置问题 (MSTG-CRYPTO-1, MSTG-CRYPTO-2 and MSTG-CRYPTO-3)")</f>
         <v>常见配置问题 (MSTG-CRYPTO-1, MSTG-CRYPTO-2 and MSTG-CRYPTO-3)</v>
       </c>
@@ -5655,26 +5643,26 @@
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B30" s="70" t="s">
-        <v>95</v>
+        <v>68</v>
       </c>
       <c r="C30" s="71" t="s">
-        <v>96</v>
+        <v>69</v>
       </c>
       <c r="D30" s="75" t="s">
-        <v>405</v>
+        <v>312</v>
       </c>
       <c r="E30" s="53" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F30" s="54" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G30" s="55"/>
-      <c r="H30" s="144" t="str">
+      <c r="H30" s="143" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x04g-Testing-Cryptography.md#common-configuration-issues-mstg-crypto-1-mstg-crypto-2-and-mstg-crypto-3"),"常见配置问题 (MSTG-CRYPTO-1, MSTG-CRYPTO-2 and MSTG-CRYPTO-3)")</f>
         <v>常见配置问题 (MSTG-CRYPTO-1, MSTG-CRYPTO-2 and MSTG-CRYPTO-3)</v>
       </c>
-      <c r="I30" s="144" t="str">
+      <c r="I30" s="143" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05e-Testing-Cryptography.md#testing-the-configuration-of-cryptographic-standard-algorithms-mstg-crypto-2-mstg-crypto-3-and-mstg-crypto-4"),"测试密码标准算法的配置 (MSTG-CRYPTO-2, MSTG-CRYPTO-3 and MSTG-CRYPTO-4)")</f>
         <v>测试密码标准算法的配置 (MSTG-CRYPTO-2, MSTG-CRYPTO-3 and MSTG-CRYPTO-4)</v>
       </c>
@@ -5683,26 +5671,26 @@
     </row>
     <row r="31" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B31" s="70" t="s">
-        <v>98</v>
+        <v>70</v>
       </c>
       <c r="C31" s="71" t="s">
-        <v>99</v>
+        <v>71</v>
       </c>
       <c r="D31" s="52" t="s">
-        <v>406</v>
+        <v>313</v>
       </c>
       <c r="E31" s="53" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F31" s="54" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G31" s="55"/>
-      <c r="H31" s="144" t="str">
+      <c r="H31" s="143" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05e-Testing-Cryptography.md#testing-the-configuration-of-cryptographic-standard-algorithms-mstg-crypto-2-mstg-crypto-3-and-mstg-crypto-4"),"测试密码标准算法的配置 (MSTG-CRYPTO-2, MSTG-CRYPTO-3 and MSTG-CRYPTO-4)")</f>
         <v>测试密码标准算法的配置 (MSTG-CRYPTO-2, MSTG-CRYPTO-3 and MSTG-CRYPTO-4)</v>
       </c>
-      <c r="I31" s="144" t="str">
+      <c r="I31" s="143" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x04g-Testing-Cryptography.md#common-configuration-issues-mstg-crypto-1-mstg-crypto-2-and-mstg-crypto-3"),"常见配置问题 (MSTG-CRYPTO-1, MSTG-CRYPTO-2 and MSTG-CRYPTO-3)")</f>
         <v>常见配置问题 (MSTG-CRYPTO-1, MSTG-CRYPTO-2 and MSTG-CRYPTO-3)</v>
       </c>
@@ -5711,26 +5699,26 @@
     </row>
     <row r="32" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B32" s="70" t="s">
-        <v>101</v>
+        <v>72</v>
       </c>
       <c r="C32" s="71" t="s">
-        <v>102</v>
+        <v>73</v>
       </c>
       <c r="D32" s="75" t="s">
-        <v>407</v>
+        <v>314</v>
       </c>
       <c r="E32" s="53" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F32" s="54" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G32" s="55"/>
-      <c r="H32" s="144" t="str">
+      <c r="H32" s="143" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x04g-Testing-Cryptography.md#identifying-insecure-andor-deprecated-cryptographic-algorithms-mstg-crypto-4"),"识别不安全和/或不建议使用的加密算法 (MSTG-CRYPTO-4)")</f>
         <v>识别不安全和/或不建议使用的加密算法 (MSTG-CRYPTO-4)</v>
       </c>
-      <c r="I32" s="144" t="str">
+      <c r="I32" s="143" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05e-Testing-Cryptography.md#testing-the-configuration-of-cryptographic-standard-algorithms-mstg-crypto-2-mstg-crypto-3-and-mstg-crypto-4"),"测试密码标准算法的配置 (MSTG-CRYPTO-2, MSTG-CRYPTO-3 and MSTG-CRYPTO-4)")</f>
         <v>测试密码标准算法的配置 (MSTG-CRYPTO-2, MSTG-CRYPTO-3 and MSTG-CRYPTO-4)</v>
       </c>
@@ -5739,22 +5727,22 @@
     </row>
     <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B33" s="70" t="s">
-        <v>104</v>
+        <v>74</v>
       </c>
       <c r="C33" s="71" t="s">
-        <v>105</v>
+        <v>75</v>
       </c>
       <c r="D33" s="75" t="s">
-        <v>408</v>
+        <v>315</v>
       </c>
       <c r="E33" s="53" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F33" s="54" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G33" s="55"/>
-      <c r="H33" s="144" t="str">
+      <c r="H33" s="143" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05e-Testing-Cryptography.md#testing-key-management-mstg-storage-1-mstg-crypto-1-and-mstg-crypto-5"),"测试密钥管理 (MSTG-STORAGE-1, MSTG-CRYPTO-1 and MSTG-CRYPTO-5)")</f>
         <v>测试密钥管理 (MSTG-STORAGE-1, MSTG-CRYPTO-1 and MSTG-CRYPTO-5)</v>
       </c>
@@ -5764,22 +5752,22 @@
     </row>
     <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B34" s="70" t="s">
-        <v>107</v>
+        <v>76</v>
       </c>
       <c r="C34" s="71" t="s">
-        <v>108</v>
+        <v>77</v>
       </c>
       <c r="D34" s="75" t="s">
-        <v>409</v>
+        <v>316</v>
       </c>
       <c r="E34" s="53" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F34" s="54" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G34" s="55"/>
-      <c r="H34" s="144" t="str">
+      <c r="H34" s="143" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05e-Testing-Cryptography.md#testing-random-number-generation-mstg-crypto-6"),"测试随机数生成 (MSTG-CRYPTO-6)")</f>
         <v>测试随机数生成 (MSTG-CRYPTO-6)</v>
       </c>
@@ -5789,11 +5777,11 @@
     </row>
     <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B35" s="62" t="s">
-        <v>110</v>
+        <v>78</v>
       </c>
       <c r="C35" s="63"/>
       <c r="D35" s="64" t="s">
-        <v>410</v>
+        <v>317</v>
       </c>
       <c r="E35" s="65"/>
       <c r="F35" s="66"/>
@@ -5805,30 +5793,30 @@
     </row>
     <row r="36" spans="2:13" ht="32" x14ac:dyDescent="0.2">
       <c r="B36" s="70" t="s">
-        <v>112</v>
+        <v>79</v>
       </c>
       <c r="C36" s="71" t="s">
-        <v>113</v>
+        <v>80</v>
       </c>
       <c r="D36" s="79" t="s">
-        <v>418</v>
+        <v>325</v>
       </c>
       <c r="E36" s="53" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F36" s="54" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G36" s="55"/>
-      <c r="H36" s="144" t="str">
+      <c r="H36" s="143" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05f-Testing-Local-Authentication.md#testing-confirm-credentials-mstg-auth-1-and-mstg-storage-11"),"测试确认凭证 (MSTG-AUTH-1 and MSTG-STORAGE-11)")</f>
         <v>测试确认凭证 (MSTG-AUTH-1 and MSTG-STORAGE-11)</v>
       </c>
-      <c r="I36" s="146" t="str">
+      <c r="I36" s="145" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x04e-Testing-Authentication-and-Session-Management.md#verifying-that-appropriate-authentication-is-in-place-mstg-arch-2-and-mstg-auth-1"),"验证适当的身份验证是否到位 (MSTG-ARCH-2 and MSTG-AUTH-1)")</f>
         <v>验证适当的身份验证是否到位 (MSTG-ARCH-2 and MSTG-AUTH-1)</v>
       </c>
-      <c r="J36" s="146" t="str">
+      <c r="J36" s="145" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x04e-Testing-Authentication-and-Session-Management.md#testing-oauth-20-flows-mstg-auth-1-and-mstg-auth-3"),"测试OAuth 2.0流程 (MSTG-AUTH-1 and MSTG-AUTH-3)")</f>
         <v>测试OAuth 2.0流程 (MSTG-AUTH-1 and MSTG-AUTH-3)</v>
       </c>
@@ -5836,22 +5824,22 @@
     </row>
     <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="70" t="s">
-        <v>115</v>
+        <v>81</v>
       </c>
       <c r="C37" s="71" t="s">
-        <v>116</v>
+        <v>82</v>
       </c>
       <c r="D37" s="79" t="s">
-        <v>419</v>
+        <v>326</v>
       </c>
       <c r="E37" s="53" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F37" s="54" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G37" s="55"/>
-      <c r="H37" s="144" t="str">
+      <c r="H37" s="143" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x04e-Testing-Authentication-and-Session-Management.md#testing-stateful-session-management-mstg-auth-2"),"测试状态会话管理 (MSTG-AUTH-2)")</f>
         <v>测试状态会话管理 (MSTG-AUTH-2)</v>
       </c>
@@ -5861,26 +5849,26 @@
     </row>
     <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B38" s="70" t="s">
-        <v>118</v>
+        <v>83</v>
       </c>
       <c r="C38" s="71" t="s">
-        <v>119</v>
+        <v>84</v>
       </c>
       <c r="D38" s="79" t="s">
-        <v>420</v>
+        <v>327</v>
       </c>
       <c r="E38" s="53" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F38" s="54" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G38" s="55"/>
-      <c r="H38" s="144" t="str">
+      <c r="H38" s="143" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x04e-Testing-Authentication-and-Session-Management.md#testing-stateless-token-based-authentication-mstg-auth-3"),"测试无状态（基于令牌）身份验证 (MSTG-AUTH-3)")</f>
         <v>测试无状态（基于令牌）身份验证 (MSTG-AUTH-3)</v>
       </c>
-      <c r="I38" s="146" t="str">
+      <c r="I38" s="145" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x04e-Testing-Authentication-and-Session-Management.md#testing-oauth-20-flows-mstg-auth-1-and-mstg-auth-3"),"测试OAuth 2.0流程 (MSTG-AUTH-1 and MSTG-AUTH-3)")</f>
         <v>测试OAuth 2.0流程 (MSTG-AUTH-1 and MSTG-AUTH-3)</v>
       </c>
@@ -5890,18 +5878,18 @@
     </row>
     <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B39" s="70" t="s">
-        <v>121</v>
+        <v>85</v>
       </c>
       <c r="C39" s="71" t="s">
-        <v>122</v>
+        <v>86</v>
       </c>
       <c r="D39" s="79" t="s">
-        <v>421</v>
+        <v>328</v>
       </c>
       <c r="E39" s="53"/>
       <c r="F39" s="54"/>
       <c r="G39" s="55"/>
-      <c r="H39" s="144" t="str">
+      <c r="H39" s="143" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x04e-Testing-Authentication-and-Session-Management.md#testing-user-logout-mstg-auth-4"),"测试用户注销 (MSTG-AUTH-4)")</f>
         <v>测试用户注销 (MSTG-AUTH-4)</v>
       </c>
@@ -5912,22 +5900,22 @@
     </row>
     <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B40" s="70" t="s">
-        <v>124</v>
+        <v>87</v>
       </c>
       <c r="C40" s="71" t="s">
-        <v>125</v>
+        <v>88</v>
       </c>
       <c r="D40" s="79" t="s">
-        <v>422</v>
+        <v>329</v>
       </c>
       <c r="E40" s="53" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F40" s="54" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G40" s="55"/>
-      <c r="H40" s="144" t="str">
+      <c r="H40" s="143" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x04e-Testing-Authentication-and-Session-Management.md#testing-best-practices-for-passwords-mstg-auth-5-and-mstg-auth-6"),"测试密码最佳做法 (MSTG-AUTH-5 and MSTG-AUTH-6)")</f>
         <v>测试密码最佳做法 (MSTG-AUTH-5 and MSTG-AUTH-6)</v>
       </c>
@@ -5937,26 +5925,26 @@
     </row>
     <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B41" s="70" t="s">
-        <v>127</v>
+        <v>89</v>
       </c>
       <c r="C41" s="71" t="s">
-        <v>128</v>
+        <v>90</v>
       </c>
       <c r="D41" s="79" t="s">
-        <v>423</v>
+        <v>330</v>
       </c>
       <c r="E41" s="53" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F41" s="54" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G41" s="55"/>
-      <c r="H41" s="144" t="str">
+      <c r="H41" s="143" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x04e-Testing-Authentication-and-Session-Management.md#testing-best-practices-for-passwords-mstg-auth-5-and-mstg-auth-6"),"测试密码最佳做法 (MSTG-AUTH-5 and MSTG-AUTH-6)")</f>
         <v>测试密码最佳做法 (MSTG-AUTH-5 and MSTG-AUTH-6)</v>
       </c>
-      <c r="I41" s="146" t="str">
+      <c r="I41" s="145" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x04e-Testing-Authentication-and-Session-Management.md#dynamic-testing-mstg-auth-6"),"动态测试 (MSTG-AUTH-6)")</f>
         <v>动态测试 (MSTG-AUTH-6)</v>
       </c>
@@ -5965,22 +5953,22 @@
     </row>
     <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B42" s="70" t="s">
-        <v>130</v>
+        <v>91</v>
       </c>
       <c r="C42" s="71" t="s">
-        <v>131</v>
+        <v>92</v>
       </c>
       <c r="D42" s="79" t="s">
-        <v>424</v>
+        <v>331</v>
       </c>
       <c r="E42" s="53" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F42" s="54" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G42" s="55"/>
-      <c r="H42" s="144" t="str">
+      <c r="H42" s="143" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x04e-Testing-Authentication-and-Session-Management.md#testing-session-timeout-mstg-auth-7"),"测试会话超时 (MSTG-AUTH-7)")</f>
         <v>测试会话超时 (MSTG-AUTH-7)</v>
       </c>
@@ -5990,22 +5978,22 @@
     </row>
     <row r="43" spans="2:13" ht="32" x14ac:dyDescent="0.2">
       <c r="B43" s="70" t="s">
-        <v>133</v>
+        <v>93</v>
       </c>
       <c r="C43" s="71" t="s">
-        <v>134</v>
+        <v>94</v>
       </c>
       <c r="D43" s="79" t="s">
-        <v>425</v>
+        <v>332</v>
       </c>
       <c r="E43" s="76"/>
       <c r="F43" s="54" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G43" s="55" t="s">
-        <v>36</v>
-      </c>
-      <c r="H43" s="144" t="str">
+        <v>29</v>
+      </c>
+      <c r="H43" s="143" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05f-Testing-Local-Authentication.md#testing-biometric-authentication-mstg-auth-8"),"测试生物特征认证 (MSTG-AUTH-8)")</f>
         <v>测试生物特征认证 (MSTG-AUTH-8)</v>
       </c>
@@ -6015,22 +6003,22 @@
     </row>
     <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B44" s="70" t="s">
-        <v>136</v>
+        <v>95</v>
       </c>
       <c r="C44" s="71" t="s">
-        <v>137</v>
+        <v>96</v>
       </c>
       <c r="D44" s="79" t="s">
-        <v>426</v>
+        <v>333</v>
       </c>
       <c r="E44" s="76"/>
       <c r="F44" s="54" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G44" s="55" t="s">
-        <v>36</v>
-      </c>
-      <c r="H44" s="144" t="str">
+        <v>29</v>
+      </c>
+      <c r="H44" s="143" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x04e-Testing-Authentication-and-Session-Management.md#testing-two-factor-authentication-and-step-up-authentication-mstg-auth-9-and-mstg-auth-10"),"测试两因素身份验证和逐步身份验证 (MSTG-AUTH-9 and MSTG-AUTH-10)")</f>
         <v>测试两因素身份验证和逐步身份验证 (MSTG-AUTH-9 and MSTG-AUTH-10)</v>
       </c>
@@ -6040,22 +6028,22 @@
     </row>
     <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B45" s="70" t="s">
-        <v>139</v>
+        <v>97</v>
       </c>
       <c r="C45" s="71" t="s">
-        <v>140</v>
+        <v>98</v>
       </c>
       <c r="D45" s="79" t="s">
-        <v>427</v>
+        <v>334</v>
       </c>
       <c r="E45" s="76"/>
       <c r="F45" s="54" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G45" s="55" t="s">
-        <v>36</v>
-      </c>
-      <c r="H45" s="144" t="str">
+        <v>29</v>
+      </c>
+      <c r="H45" s="143" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x04e-Testing-Authentication-and-Session-Management.md#testing-two-factor-authentication-and-step-up-authentication-mstg-auth-9-and-mstg-auth-10"),"测试两因素身份验证和逐步身份验证 (MSTG-AUTH-9 and MSTG-AUTH-10)")</f>
         <v>测试两因素身份验证和逐步身份验证 (MSTG-AUTH-9 and MSTG-AUTH-10)</v>
       </c>
@@ -6065,22 +6053,22 @@
     </row>
     <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B46" s="70" t="s">
-        <v>142</v>
+        <v>99</v>
       </c>
       <c r="C46" s="71" t="s">
-        <v>143</v>
+        <v>100</v>
       </c>
       <c r="D46" s="79" t="s">
-        <v>428</v>
+        <v>335</v>
       </c>
       <c r="E46" s="76"/>
       <c r="F46" s="54" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G46" s="55" t="s">
-        <v>36</v>
-      </c>
-      <c r="H46" s="144" t="str">
+        <v>29</v>
+      </c>
+      <c r="H46" s="143" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x04e-Testing-Authentication-and-Session-Management.md#testing-login-activity-and-device-blocking-mstg-auth-11"),"测试登录活动和设备阻止 (MSTG-AUTH-11)")</f>
         <v>测试登录活动和设备阻止 (MSTG-AUTH-11)</v>
       </c>
@@ -6090,11 +6078,11 @@
     </row>
     <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B47" s="62" t="s">
-        <v>145</v>
+        <v>101</v>
       </c>
       <c r="C47" s="63"/>
       <c r="D47" s="64" t="s">
-        <v>411</v>
+        <v>318</v>
       </c>
       <c r="E47" s="65"/>
       <c r="F47" s="66"/>
@@ -6106,22 +6094,22 @@
     </row>
     <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B48" s="70" t="s">
-        <v>147</v>
+        <v>102</v>
       </c>
       <c r="C48" s="71" t="s">
-        <v>148</v>
+        <v>103</v>
       </c>
       <c r="D48" s="75" t="s">
-        <v>429</v>
+        <v>336</v>
       </c>
       <c r="E48" s="53" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F48" s="54" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G48" s="55"/>
-      <c r="H48" s="144" t="str">
+      <c r="H48" s="143" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x04f-Testing-Network-Communication.md#verifying-data-encryption-on-the-network-mstg-network-1-and-mstg-network-2"),"验证网络上的数据加密 (MSTG-NETWORK-1 and MSTG-NETWORK-2)")</f>
         <v>验证网络上的数据加密 (MSTG-NETWORK-1 and MSTG-NETWORK-2)</v>
       </c>
@@ -6131,22 +6119,22 @@
     </row>
     <row r="49" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B49" s="70" t="s">
-        <v>150</v>
+        <v>104</v>
       </c>
       <c r="C49" s="71" t="s">
-        <v>151</v>
+        <v>105</v>
       </c>
       <c r="D49" s="79" t="s">
-        <v>430</v>
+        <v>337</v>
       </c>
       <c r="E49" s="53" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F49" s="54" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G49" s="55"/>
-      <c r="H49" s="144" t="str">
+      <c r="H49" s="143" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x04f-Testing-Network-Communication.md#verifying-data-encryption-on-the-network-mstg-network-1-and-mstg-network-2"),"验证网络上的数据加密 (MSTG-NETWORK-1 and MSTG-NETWORK-2)")</f>
         <v>验证网络上的数据加密 (MSTG-NETWORK-1 and MSTG-NETWORK-2)</v>
       </c>
@@ -6156,22 +6144,22 @@
     </row>
     <row r="50" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B50" s="70" t="s">
-        <v>153</v>
+        <v>106</v>
       </c>
       <c r="C50" s="71" t="s">
-        <v>154</v>
+        <v>107</v>
       </c>
       <c r="D50" s="79" t="s">
-        <v>431</v>
+        <v>338</v>
       </c>
       <c r="E50" s="53" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F50" s="54" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G50" s="55"/>
-      <c r="H50" s="144" t="str">
+      <c r="H50" s="143" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05g-Testing-Network-Communication.md#testing-endpoint-identify-verification-mstg-network-3"),"测试端点身份验证 (MSTG-NETWORK-3)")</f>
         <v>测试端点身份验证 (MSTG-NETWORK-3)</v>
       </c>
@@ -6181,26 +6169,26 @@
     </row>
     <row r="51" spans="2:11" ht="32" x14ac:dyDescent="0.2">
       <c r="B51" s="70" t="s">
-        <v>156</v>
+        <v>108</v>
       </c>
       <c r="C51" s="71" t="s">
-        <v>157</v>
+        <v>109</v>
       </c>
       <c r="D51" s="79" t="s">
-        <v>432</v>
+        <v>339</v>
       </c>
       <c r="E51" s="76"/>
       <c r="F51" s="54" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G51" s="55" t="s">
-        <v>36</v>
-      </c>
-      <c r="H51" s="144" t="str">
+        <v>29</v>
+      </c>
+      <c r="H51" s="143" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05g-Testing-Network-Communication.md#testing-custom-certificate-stores-and-certificate-pinning-mstg-network-4"),"测试自定义证书存储和证书固定 (MSTG-NETWORK-4)")</f>
         <v>测试自定义证书存储和证书固定 (MSTG-NETWORK-4)</v>
       </c>
-      <c r="I51" s="144" t="str">
+      <c r="I51" s="143" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05g-Testing-Network-Communication.md#testing-the-network-security-configuration-settings-mstg-network-4"),"测试网络安全配置设置 (MSTG-NETWORK-4)")</f>
         <v>测试网络安全配置设置 (MSTG-NETWORK-4)</v>
       </c>
@@ -6209,22 +6197,22 @@
     </row>
     <row r="52" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B52" s="70" t="s">
-        <v>159</v>
+        <v>110</v>
       </c>
       <c r="C52" s="71" t="s">
-        <v>160</v>
+        <v>111</v>
       </c>
       <c r="D52" s="79" t="s">
-        <v>433</v>
+        <v>340</v>
       </c>
       <c r="E52" s="76"/>
       <c r="F52" s="54" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G52" s="55" t="s">
-        <v>36</v>
-      </c>
-      <c r="H52" s="144" t="str">
+        <v>29</v>
+      </c>
+      <c r="H52" s="143" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x04f-Testing-Network-Communication.md#making-sure-that-critical-operations-use-secure-communication-channels-mstg-network-5"),"确保关键操作使用安全的通信通道 (MSTG-NETWORK-5)")</f>
         <v>确保关键操作使用安全的通信通道 (MSTG-NETWORK-5)</v>
       </c>
@@ -6234,22 +6222,22 @@
     </row>
     <row r="53" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B53" s="70" t="s">
-        <v>162</v>
+        <v>112</v>
       </c>
       <c r="C53" s="71" t="s">
-        <v>163</v>
+        <v>113</v>
       </c>
       <c r="D53" s="79" t="s">
-        <v>434</v>
+        <v>341</v>
       </c>
       <c r="E53" s="76"/>
       <c r="F53" s="54" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G53" s="55" t="s">
-        <v>36</v>
-      </c>
-      <c r="H53" s="144" t="str">
+        <v>29</v>
+      </c>
+      <c r="H53" s="143" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05g-Testing-Network-Communication.md#testing-the-security-provider-mstg-network-6"),"测试安全提供者 (MSTG-NETWORK-6)")</f>
         <v>测试安全提供者 (MSTG-NETWORK-6)</v>
       </c>
@@ -6259,11 +6247,11 @@
     </row>
     <row r="54" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B54" s="62" t="s">
-        <v>165</v>
+        <v>114</v>
       </c>
       <c r="C54" s="63"/>
       <c r="D54" s="64" t="s">
-        <v>412</v>
+        <v>319</v>
       </c>
       <c r="E54" s="65"/>
       <c r="F54" s="66"/>
@@ -6275,24 +6263,24 @@
     </row>
     <row r="55" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B55" s="70" t="s">
-        <v>167</v>
+        <v>115</v>
       </c>
       <c r="C55" s="71" t="s">
-        <v>168</v>
+        <v>116</v>
       </c>
       <c r="D55" s="75" t="s">
-        <v>169</v>
+        <v>345</v>
       </c>
       <c r="E55" s="53" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F55" s="54" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G55" s="55"/>
-      <c r="H55" s="73" t="str">
-        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05h-Testing-Platform-Interaction.md#testing-app-permissions-mstg-platform-1"),"Testing App Permissions (MSTG-PLATFORM-1)")</f>
-        <v>Testing App Permissions (MSTG-PLATFORM-1)</v>
+      <c r="H55" s="143" t="str">
+        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05h-Testing-Platform-Interaction.md#testing-app-permissions-mstg-platform-1"),"测试应用权限 (MSTG-PLATFORM-1)")</f>
+        <v>测试应用权限 (MSTG-PLATFORM-1)</v>
       </c>
       <c r="I55" s="60"/>
       <c r="J55" s="60"/>
@@ -6300,52 +6288,52 @@
     </row>
     <row r="56" spans="2:11" ht="32" x14ac:dyDescent="0.2">
       <c r="B56" s="70" t="s">
-        <v>170</v>
+        <v>117</v>
       </c>
       <c r="C56" s="71" t="s">
-        <v>171</v>
+        <v>118</v>
       </c>
       <c r="D56" s="79" t="s">
-        <v>172</v>
+        <v>346</v>
       </c>
       <c r="E56" s="53" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F56" s="54" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G56" s="55"/>
-      <c r="H56" s="73" t="str">
-        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x04h-Testing-Code-Quality.md#testing-for-injection-flaws-mstg-platform-2"),"Testing for Injection Flaws (MSTG-PLATFORM-2)")</f>
-        <v>Testing for Injection Flaws (MSTG-PLATFORM-2)</v>
-      </c>
-      <c r="I56" s="73" t="str">
-        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x04h-Testing-Code-Quality.md#testing-for-fragment-injection-mstg-platform-2"),"Testing for Fragment Injection (MSTG-PLATFORM-2)")</f>
-        <v>Testing for Fragment Injection (MSTG-PLATFORM-2)</v>
+      <c r="H56" s="77" t="str">
+        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x04h-Testing-Code-Quality.md#testing-for-injection-flaws-mstg-platform-2"),"测试注入缺陷 (MSTG-PLATFORM-2)")</f>
+        <v>测试注入缺陷 (MSTG-PLATFORM-2)</v>
+      </c>
+      <c r="I56" s="77" t="str">
+        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x04h-Testing-Code-Quality.md#testing-for-fragment-injection-mstg-platform-2"),"测试片段注入 (MSTG-PLATFORM-2)")</f>
+        <v>测试片段注入 (MSTG-PLATFORM-2)</v>
       </c>
       <c r="J56" s="57"/>
       <c r="K56" s="58"/>
     </row>
     <row r="57" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B57" s="70" t="s">
-        <v>173</v>
+        <v>119</v>
       </c>
       <c r="C57" s="71" t="s">
-        <v>174</v>
+        <v>120</v>
       </c>
       <c r="D57" s="75" t="s">
-        <v>175</v>
+        <v>347</v>
       </c>
       <c r="E57" s="53" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F57" s="54" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G57" s="55"/>
-      <c r="H57" s="73" t="str">
-        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05h-Testing-Platform-Interaction.md#testing-custom-url-schemes-mstg-platform-3"),"Testing Custom URL Schemes (MSTG-PLATFORM-3)")</f>
-        <v>Testing Custom URL Schemes (MSTG-PLATFORM-3)</v>
+      <c r="H57" s="143" t="str">
+        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05h-Testing-Platform-Interaction.md#testing-custom-url-schemes-mstg-platform-3"),"测试自定义连接 (MSTG-PLATFORM-3)")</f>
+        <v>测试自定义连接 (MSTG-PLATFORM-3)</v>
       </c>
       <c r="I57" s="60"/>
       <c r="J57" s="60"/>
@@ -6353,24 +6341,24 @@
     </row>
     <row r="58" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B58" s="70" t="s">
-        <v>176</v>
+        <v>121</v>
       </c>
       <c r="C58" s="71" t="s">
-        <v>177</v>
+        <v>122</v>
       </c>
       <c r="D58" s="75" t="s">
-        <v>178</v>
+        <v>348</v>
       </c>
       <c r="E58" s="53" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F58" s="54" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G58" s="55"/>
-      <c r="H58" s="73" t="str">
-        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05h-Testing-Platform-Interaction.md#testing-for-sensitive-functionality-exposure-through-ipc-mstg-platform-4"),"Testing for Sensitive Functionality Exposure Through IPC (MSTG-PLATFORM-4)")</f>
-        <v>Testing for Sensitive Functionality Exposure Through IPC (MSTG-PLATFORM-4)</v>
+      <c r="H58" s="143" t="str">
+        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05h-Testing-Platform-Interaction.md#testing-for-sensitive-functionality-exposure-through-ipc-mstg-platform-4"),"测试铭感功能通过IPC 暴露 (MSTG-PLATFORM-4)")</f>
+        <v>测试铭感功能通过IPC 暴露 (MSTG-PLATFORM-4)</v>
       </c>
       <c r="I58" s="60"/>
       <c r="J58" s="60"/>
@@ -6378,24 +6366,24 @@
     </row>
     <row r="59" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B59" s="70" t="s">
-        <v>179</v>
+        <v>123</v>
       </c>
       <c r="C59" s="71" t="s">
-        <v>180</v>
+        <v>124</v>
       </c>
       <c r="D59" s="75" t="s">
-        <v>181</v>
+        <v>349</v>
       </c>
       <c r="E59" s="53" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F59" s="54" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G59" s="55"/>
-      <c r="H59" s="73" t="str">
-        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05h-Testing-Platform-Interaction.md#testing-javascript-execution-in-webviews-mstg-platform-5"),"Testing JavaScript Execution in WebViews (MSTG-PLATFORM-5)")</f>
-        <v>Testing JavaScript Execution in WebViews (MSTG-PLATFORM-5)</v>
+      <c r="H59" s="143" t="str">
+        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05h-Testing-Platform-Interaction.md#testing-javascript-execution-in-webviews-mstg-platform-5"),"测试在网页浏览模式中的JAVASCRIPT (MSTG-PLATFORM-5)")</f>
+        <v>测试在网页浏览模式中的JAVASCRIPT (MSTG-PLATFORM-5)</v>
       </c>
       <c r="I59" s="60"/>
       <c r="J59" s="60"/>
@@ -6403,49 +6391,49 @@
     </row>
     <row r="60" spans="2:11" ht="32" x14ac:dyDescent="0.2">
       <c r="B60" s="70" t="s">
-        <v>182</v>
+        <v>125</v>
       </c>
       <c r="C60" s="71" t="s">
-        <v>183</v>
+        <v>126</v>
       </c>
       <c r="D60" s="79" t="s">
-        <v>184</v>
+        <v>350</v>
       </c>
       <c r="E60" s="53" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F60" s="54" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G60" s="55"/>
-      <c r="H60" s="73" t="str">
-        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05h-Testing-Platform-Interaction.md#testing-webview-protocol-handlers-mstg-platform-6"),"Testing WebView Protocol Handlers (MSTG-PLATFORM-6)")</f>
-        <v>Testing WebView Protocol Handlers (MSTG-PLATFORM-6)</v>
+      <c r="H60" s="143" t="str">
+        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05h-Testing-Platform-Interaction.md#testing-webview-protocol-handlers-mstg-platform-6"),"测试网页模式中的协议处理 (MSTG-PLATFORM-6)")</f>
+        <v>测试网页模式中的协议处理 (MSTG-PLATFORM-6)</v>
       </c>
       <c r="I60" s="60"/>
       <c r="J60" s="60"/>
       <c r="K60" s="58"/>
     </row>
-    <row r="61" spans="2:11" ht="32" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B61" s="70" t="s">
-        <v>185</v>
+        <v>127</v>
       </c>
       <c r="C61" s="71" t="s">
-        <v>186</v>
+        <v>128</v>
       </c>
       <c r="D61" s="79" t="s">
-        <v>187</v>
+        <v>351</v>
       </c>
       <c r="E61" s="53" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F61" s="54" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G61" s="55"/>
-      <c r="H61" s="73" t="str">
-        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05h-Testing-Platform-Interaction.md#determining-whether-java-objects-are-exposed-through-webviews-mstg-platform-7"),"Determining Whether Java Objects Are Exposed Through WebViews (MSTG-PLATFORM-7)")</f>
-        <v>Determining Whether Java Objects Are Exposed Through WebViews (MSTG-PLATFORM-7)</v>
+      <c r="H61" s="143" t="str">
+        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05h-Testing-Platform-Interaction.md#determining-whether-java-objects-are-exposed-through-webviews-mstg-platform-7"),"确定Java 对象是否通过网页浏览模式暴露 (MSTG-PLATFORM-7)")</f>
+        <v>确定Java 对象是否通过网页浏览模式暴露 (MSTG-PLATFORM-7)</v>
       </c>
       <c r="I61" s="60"/>
       <c r="J61" s="60"/>
@@ -6453,24 +6441,24 @@
     </row>
     <row r="62" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B62" s="70" t="s">
-        <v>188</v>
+        <v>129</v>
       </c>
       <c r="C62" s="71" t="s">
-        <v>189</v>
+        <v>130</v>
       </c>
       <c r="D62" s="75" t="s">
-        <v>190</v>
+        <v>352</v>
       </c>
       <c r="E62" s="53" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F62" s="54" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G62" s="55"/>
-      <c r="H62" s="73" t="str">
-        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05h-Testing-Platform-Interaction.md#testing-object-persistence-mstg-platform-8"),"Testing Object Persistence (MSTG-PLATFORM-8)")</f>
-        <v>Testing Object Persistence (MSTG-PLATFORM-8)</v>
+      <c r="H62" s="143" t="str">
+        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05h-Testing-Platform-Interaction.md#testing-object-persistence-mstg-platform-8"),"测试对象持久性(MSTG-PLATFORM-8)")</f>
+        <v>测试对象持久性(MSTG-PLATFORM-8)</v>
       </c>
       <c r="I62" s="60"/>
       <c r="J62" s="60"/>
@@ -6478,11 +6466,11 @@
     </row>
     <row r="63" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B63" s="62" t="s">
-        <v>191</v>
+        <v>131</v>
       </c>
       <c r="C63" s="63"/>
       <c r="D63" s="64" t="s">
-        <v>413</v>
+        <v>320</v>
       </c>
       <c r="E63" s="65"/>
       <c r="F63" s="66"/>
@@ -6494,24 +6482,24 @@
     </row>
     <row r="64" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B64" s="70" t="s">
-        <v>193</v>
+        <v>132</v>
       </c>
       <c r="C64" s="71" t="s">
-        <v>194</v>
+        <v>133</v>
       </c>
       <c r="D64" s="75" t="s">
-        <v>195</v>
+        <v>353</v>
       </c>
       <c r="E64" s="53" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F64" s="54" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G64" s="55"/>
-      <c r="H64" s="73" t="str">
-        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05i-Testing-Code-Quality-and-Build-Settings.md#making-sure-that-the-app-is-properly-signed-mstg-code-1"),"Making Sure That the App is Properly Signed (MSTG-CODE-1)")</f>
-        <v>Making Sure That the App is Properly Signed (MSTG-CODE-1)</v>
+      <c r="H64" s="143" t="str">
+        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05i-Testing-Code-Quality-and-Build-Settings.md#making-sure-that-the-app-is-properly-signed-mstg-code-1"),"确保应用程序已正确签名 (MSTG-CODE-1)")</f>
+        <v>确保应用程序已正确签名 (MSTG-CODE-1)</v>
       </c>
       <c r="I64" s="60"/>
       <c r="J64" s="60"/>
@@ -6519,24 +6507,24 @@
     </row>
     <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B65" s="70" t="s">
-        <v>196</v>
+        <v>134</v>
       </c>
       <c r="C65" s="71" t="s">
-        <v>197</v>
+        <v>135</v>
       </c>
       <c r="D65" s="75" t="s">
-        <v>198</v>
+        <v>354</v>
       </c>
       <c r="E65" s="53" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F65" s="54" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G65" s="55"/>
-      <c r="H65" s="73" t="str">
-        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05i-Testing-Code-Quality-and-Build-Settings.md#testing-whether-the-app-is-debuggable-mstg-code-2"),"Testing Whether the App is Debuggable (MSTG-CODE-2)")</f>
-        <v>Testing Whether the App is Debuggable (MSTG-CODE-2)</v>
+      <c r="H65" s="143" t="str">
+        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05i-Testing-Code-Quality-and-Build-Settings.md#testing-whether-the-app-is-debuggable-mstg-code-2"),"测试应用程序是否可调试 (MSTG-CODE-2)")</f>
+        <v>测试应用程序是否可调试 (MSTG-CODE-2)</v>
       </c>
       <c r="I65" s="60"/>
       <c r="J65" s="60"/>
@@ -6544,24 +6532,24 @@
     </row>
     <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B66" s="70" t="s">
-        <v>199</v>
+        <v>136</v>
       </c>
       <c r="C66" s="71" t="s">
-        <v>200</v>
+        <v>137</v>
       </c>
       <c r="D66" s="75" t="s">
-        <v>201</v>
+        <v>355</v>
       </c>
       <c r="E66" s="53" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F66" s="54" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G66" s="55"/>
-      <c r="H66" s="73" t="str">
-        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05i-Testing-Code-Quality-and-Build-Settings.md#testing-for-debugging-symbols-mstg-code-3"),"Testing for Debugging Symbols (MSTG-CODE-3)")</f>
-        <v>Testing for Debugging Symbols (MSTG-CODE-3)</v>
+      <c r="H66" s="143" t="str">
+        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05i-Testing-Code-Quality-and-Build-Settings.md#testing-for-debugging-symbols-mstg-code-3"),"测试调试符号 (MSTG-CODE-3)")</f>
+        <v>测试调试符号 (MSTG-CODE-3)</v>
       </c>
       <c r="I66" s="60"/>
       <c r="J66" s="60"/>
@@ -6569,49 +6557,49 @@
     </row>
     <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B67" s="70" t="s">
-        <v>202</v>
+        <v>138</v>
       </c>
       <c r="C67" s="71" t="s">
-        <v>203</v>
+        <v>139</v>
       </c>
       <c r="D67" s="75" t="s">
-        <v>204</v>
+        <v>356</v>
       </c>
       <c r="E67" s="53" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F67" s="54" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G67" s="55"/>
-      <c r="H67" s="73" t="str">
-        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05i-Testing-Code-Quality-and-Build-Settings.md#testing-for-debugging-code-and-verbose-error-logging-mstg-code-4"),"Testing for Debugging Code and Verbose Error Logging (MSTG-CODE-4)")</f>
-        <v>Testing for Debugging Code and Verbose Error Logging (MSTG-CODE-4)</v>
+      <c r="H67" s="143" t="str">
+        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05i-Testing-Code-Quality-and-Build-Settings.md#testing-for-debugging-code-and-verbose-error-logging-mstg-code-4"),"调试代码和详细错误日志的测试 (MSTG-CODE-4)")</f>
+        <v>调试代码和详细错误日志的测试 (MSTG-CODE-4)</v>
       </c>
       <c r="I67" s="60"/>
       <c r="J67" s="60"/>
       <c r="K67" s="58"/>
     </row>
-    <row r="68" spans="2:12" ht="32" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B68" s="70" t="s">
-        <v>205</v>
+        <v>140</v>
       </c>
       <c r="C68" s="71" t="s">
-        <v>206</v>
+        <v>141</v>
       </c>
       <c r="D68" s="52" t="s">
-        <v>207</v>
+        <v>357</v>
       </c>
       <c r="E68" s="53" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F68" s="54" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G68" s="55"/>
-      <c r="H68" s="83" t="str">
-        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05i-Testing-Code-Quality-and-Build-Settings.md#checking-for-weaknesses-in-third-party-libraries-mstg-code-5"),"Checking for Weaknesses in Third Party Libraries (MSTG-CODE-5)")</f>
-        <v>Checking for Weaknesses in Third Party Libraries (MSTG-CODE-5)</v>
+      <c r="H68" s="143" t="str">
+        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05i-Testing-Code-Quality-and-Build-Settings.md#checking-for-weaknesses-in-third-party-libraries-mstg-code-5"),"检查第三方库中的弱点 (MSTG-CODE-5)")</f>
+        <v>检查第三方库中的弱点 (MSTG-CODE-5)</v>
       </c>
       <c r="I68" s="60"/>
       <c r="J68" s="60"/>
@@ -6619,24 +6607,24 @@
     </row>
     <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B69" s="70" t="s">
-        <v>208</v>
+        <v>142</v>
       </c>
       <c r="C69" s="71" t="s">
-        <v>209</v>
+        <v>143</v>
       </c>
       <c r="D69" s="75" t="s">
-        <v>210</v>
+        <v>358</v>
       </c>
       <c r="E69" s="53" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F69" s="54" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G69" s="55"/>
-      <c r="H69" s="73" t="str">
-        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05i-Testing-Code-Quality-and-Build-Settings.md#testing-exception-handling-mstg-code-6-and-mstg-code-7"),"Testing Exception Handling (MSTG-CODE-6 and MSTG-CODE-7)")</f>
-        <v>Testing Exception Handling (MSTG-CODE-6 and MSTG-CODE-7)</v>
+      <c r="H69" s="143" t="str">
+        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05i-Testing-Code-Quality-and-Build-Settings.md#testing-exception-handling-mstg-code-6-and-mstg-code-7"),"测试异常处理 (MSTG-CODE-6 and MSTG-CODE-7)")</f>
+        <v>测试异常处理 (MSTG-CODE-6 and MSTG-CODE-7)</v>
       </c>
       <c r="I69" s="60"/>
       <c r="J69" s="60"/>
@@ -6644,24 +6632,24 @@
     </row>
     <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B70" s="70" t="s">
-        <v>211</v>
+        <v>144</v>
       </c>
       <c r="C70" s="71" t="s">
-        <v>212</v>
+        <v>145</v>
       </c>
       <c r="D70" s="75" t="s">
-        <v>213</v>
+        <v>359</v>
       </c>
       <c r="E70" s="53" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F70" s="54" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G70" s="55"/>
-      <c r="H70" s="73" t="str">
-        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05i-Testing-Code-Quality-and-Build-Settings.md#testing-exception-handling-mstg-code-6-and-mstg-code-7"),"Testing Exception Handling (MSTG-CODE-6 and MSTG-CODE-7)")</f>
-        <v>Testing Exception Handling (MSTG-CODE-6 and MSTG-CODE-7)</v>
+      <c r="H70" s="143" t="str">
+        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05i-Testing-Code-Quality-and-Build-Settings.md#testing-exception-handling-mstg-code-6-and-mstg-code-7"),"测试异常处理 (MSTG-CODE-6 and MSTG-CODE-7)")</f>
+        <v>测试异常处理 (MSTG-CODE-6 and MSTG-CODE-7)</v>
       </c>
       <c r="I70" s="60"/>
       <c r="J70" s="60"/>
@@ -6669,50 +6657,50 @@
     </row>
     <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B71" s="70" t="s">
-        <v>214</v>
+        <v>146</v>
       </c>
       <c r="C71" s="71" t="s">
-        <v>215</v>
+        <v>147</v>
       </c>
       <c r="D71" s="75" t="s">
-        <v>216</v>
+        <v>360</v>
       </c>
       <c r="E71" s="53" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F71" s="54" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G71" s="55"/>
-      <c r="H71" s="73" t="str">
-        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x04h-Testing-Code-Quality.md#memory-corruption-bugs-mstg-code-8"),"Memory Corruption Bugs (MSTG-CODE-8)")</f>
-        <v>Memory Corruption Bugs (MSTG-CODE-8)</v>
+      <c r="H71" s="143" t="str">
+        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x04h-Testing-Code-Quality.md#memory-corruption-bugs-mstg-code-8"),"内存泄露错误 (MSTG-CODE-8)")</f>
+        <v>内存泄露错误 (MSTG-CODE-8)</v>
       </c>
       <c r="I71" s="60"/>
       <c r="J71" s="60"/>
       <c r="K71" s="86"/>
       <c r="L71" s="87"/>
     </row>
-    <row r="72" spans="2:12" ht="32" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B72" s="70" t="s">
-        <v>217</v>
+        <v>148</v>
       </c>
       <c r="C72" s="71" t="s">
-        <v>218</v>
+        <v>149</v>
       </c>
       <c r="D72" s="52" t="s">
-        <v>219</v>
+        <v>361</v>
       </c>
       <c r="E72" s="53" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F72" s="54" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G72" s="55"/>
-      <c r="H72" s="73" t="str">
-        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05i-Testing-Code-Quality-and-Build-Settings.md#make-sure-that-free-security-features-are-activated-mstg-code-9"),"Make Sure That Free Security Features Are Activated (MSTG-CODE-9)")</f>
-        <v>Make Sure That Free Security Features Are Activated (MSTG-CODE-9)</v>
+      <c r="H72" s="143" t="str">
+        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05i-Testing-Code-Quality-and-Build-Settings.md#make-sure-that-free-security-features-are-activated-mstg-code-9"),"确保激活了免费的安全功能 (MSTG-CODE-9)")</f>
+        <v>确保激活了免费的安全功能 (MSTG-CODE-9)</v>
       </c>
       <c r="I72" s="60"/>
       <c r="J72" s="60"/>
@@ -6768,7 +6756,7 @@
     </row>
     <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B77" s="98" t="s">
-        <v>220</v>
+        <v>150</v>
       </c>
       <c r="C77" s="98"/>
       <c r="D77" s="95"/>
@@ -6782,11 +6770,11 @@
     </row>
     <row r="78" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B78" s="99" t="s">
-        <v>414</v>
+        <v>321</v>
       </c>
       <c r="C78" s="99"/>
       <c r="D78" s="100" t="s">
-        <v>417</v>
+        <v>324</v>
       </c>
       <c r="E78" s="96"/>
       <c r="F78" s="96"/>
@@ -6798,11 +6786,11 @@
     </row>
     <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="101" t="s">
-        <v>415</v>
+        <v>322</v>
       </c>
       <c r="C79" s="101"/>
       <c r="D79" s="102" t="s">
-        <v>435</v>
+        <v>342</v>
       </c>
       <c r="E79" s="96"/>
       <c r="F79" s="96"/>
@@ -6814,11 +6802,11 @@
     </row>
     <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B80" s="101" t="s">
-        <v>416</v>
+        <v>323</v>
       </c>
       <c r="C80" s="101"/>
       <c r="D80" s="102" t="s">
-        <v>436</v>
+        <v>343</v>
       </c>
       <c r="E80" s="96"/>
       <c r="F80" s="96"/>
@@ -6830,11 +6818,11 @@
     </row>
     <row r="81" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B81" s="101" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C81" s="101"/>
       <c r="D81" s="102" t="s">
-        <v>437</v>
+        <v>344</v>
       </c>
       <c r="E81" s="96"/>
       <c r="F81" s="96"/>
@@ -6916,8 +6904,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AMK29"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="134" zoomScaleNormal="134" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView zoomScale="134" zoomScaleNormal="134" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6935,7 +6923,7 @@
   <sheetData>
     <row r="1" spans="2:8" ht="19" x14ac:dyDescent="0.25">
       <c r="B1" s="103" t="s">
-        <v>328</v>
+        <v>235</v>
       </c>
       <c r="C1" s="103"/>
       <c r="D1" s="95"/>
@@ -6961,47 +6949,47 @@
         <v>11</v>
       </c>
       <c r="D3" s="40" t="s">
-        <v>228</v>
+        <v>362</v>
       </c>
       <c r="E3" s="41" t="s">
-        <v>229</v>
+        <v>153</v>
       </c>
       <c r="F3" s="41" t="s">
-        <v>15</v>
+        <v>281</v>
       </c>
       <c r="G3" s="104" t="s">
-        <v>16</v>
+        <v>363</v>
       </c>
       <c r="H3" s="43" t="s">
-        <v>17</v>
+        <v>280</v>
       </c>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B4" s="62"/>
       <c r="C4" s="63"/>
       <c r="D4" s="64" t="s">
-        <v>230</v>
+        <v>364</v>
       </c>
       <c r="E4" s="65"/>
       <c r="F4" s="65"/>
       <c r="G4" s="105"/>
       <c r="H4" s="69"/>
     </row>
-    <row r="5" spans="2:8" ht="32" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B5" s="50" t="s">
-        <v>231</v>
+        <v>154</v>
       </c>
       <c r="C5" s="51" t="s">
-        <v>232</v>
+        <v>155</v>
       </c>
       <c r="D5" s="79" t="s">
-        <v>233</v>
+        <v>365</v>
       </c>
       <c r="E5" s="106" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F5" s="55" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G5" s="107" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05j-Testing-Resiliency-Against-Reverse-Engineering.md#testing-root-detection-mstg-resilience-1"),"Testing Root Detection (MSTG-RESILIENCE-1)")</f>
@@ -7009,21 +6997,21 @@
       </c>
       <c r="H5" s="108"/>
     </row>
-    <row r="6" spans="2:8" ht="32" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:8" ht="17" x14ac:dyDescent="0.2">
       <c r="B6" s="50" t="s">
-        <v>234</v>
+        <v>156</v>
       </c>
       <c r="C6" s="51" t="s">
-        <v>235</v>
+        <v>157</v>
       </c>
       <c r="D6" s="79" t="s">
-        <v>236</v>
+        <v>366</v>
       </c>
       <c r="E6" s="106" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F6" s="55" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G6" s="109" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05j-Testing-Resiliency-Against-Reverse-Engineering.md#testing-anti-debugging-detection-mstg-resilience-2"),"Testing Anti-Debugging Detection (MSTG-RESILIENCE-2)")</f>
@@ -7033,19 +7021,19 @@
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B7" s="50" t="s">
-        <v>237</v>
+        <v>158</v>
       </c>
       <c r="C7" s="51" t="s">
-        <v>238</v>
+        <v>159</v>
       </c>
       <c r="D7" s="75" t="s">
-        <v>239</v>
+        <v>367</v>
       </c>
       <c r="E7" s="106" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F7" s="55" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G7" s="107" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05j-Testing-Resiliency-Against-Reverse-Engineering.md#testing-file-integrity-checks-mstg-resilience-3"),"Testing File Integrity Checks (MSTG-RESILIENCE-3)")</f>
@@ -7055,19 +7043,19 @@
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B8" s="50" t="s">
-        <v>240</v>
+        <v>160</v>
       </c>
       <c r="C8" s="51" t="s">
-        <v>241</v>
+        <v>161</v>
       </c>
       <c r="D8" s="75" t="s">
-        <v>242</v>
+        <v>368</v>
       </c>
       <c r="E8" s="106" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F8" s="55" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G8" s="107" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05j-Testing-Resiliency-Against-Reverse-Engineering.md#testing-reverse-engineering-tools-detection-mstg-resilience-4"),"Testing Reverse Engineering Tools Detection (MSTG-RESILIENCE-4)")</f>
@@ -7077,19 +7065,19 @@
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B9" s="50" t="s">
-        <v>243</v>
+        <v>162</v>
       </c>
       <c r="C9" s="51" t="s">
-        <v>244</v>
+        <v>163</v>
       </c>
       <c r="D9" s="75" t="s">
-        <v>245</v>
+        <v>369</v>
       </c>
       <c r="E9" s="106" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F9" s="55" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G9" s="107" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05j-Testing-Resiliency-Against-Reverse-Engineering.md#testing-emulator-detection-mstg-resilience-5"),"Testing Emulator Detection (MSTG-RESILIENCE-5)")</f>
@@ -7099,19 +7087,19 @@
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B10" s="50" t="s">
-        <v>246</v>
+        <v>164</v>
       </c>
       <c r="C10" s="51" t="s">
-        <v>247</v>
+        <v>165</v>
       </c>
       <c r="D10" s="75" t="s">
-        <v>248</v>
+        <v>370</v>
       </c>
       <c r="E10" s="106" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F10" s="55" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G10" s="107" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05j-Testing-Resiliency-Against-Reverse-Engineering.md#testing-run-time-integrity-checks-mstg-resilience-6"),"Testing Run Time Integrity Checks (MSTG-RESILIENCE-6)")</f>
@@ -7119,63 +7107,63 @@
       </c>
       <c r="H10" s="108"/>
     </row>
-    <row r="11" spans="2:8" ht="32" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:8" ht="17" x14ac:dyDescent="0.2">
       <c r="B11" s="50" t="s">
-        <v>249</v>
+        <v>166</v>
       </c>
       <c r="C11" s="51" t="s">
-        <v>250</v>
+        <v>167</v>
       </c>
       <c r="D11" s="79" t="s">
-        <v>251</v>
+        <v>371</v>
       </c>
       <c r="E11" s="106" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F11" s="55" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G11" s="110" t="s">
-        <v>252</v>
+        <v>168</v>
       </c>
       <c r="H11" s="108"/>
     </row>
     <row r="12" spans="2:8" ht="17" x14ac:dyDescent="0.2">
       <c r="B12" s="50" t="s">
-        <v>253</v>
+        <v>169</v>
       </c>
       <c r="C12" s="51" t="s">
-        <v>254</v>
+        <v>170</v>
       </c>
       <c r="D12" s="75" t="s">
-        <v>255</v>
+        <v>372</v>
       </c>
       <c r="E12" s="106" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F12" s="55" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G12" s="111" t="s">
-        <v>256</v>
+        <v>171</v>
       </c>
       <c r="H12" s="108"/>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B13" s="50" t="s">
-        <v>257</v>
+        <v>172</v>
       </c>
       <c r="C13" s="51" t="s">
-        <v>258</v>
+        <v>173</v>
       </c>
       <c r="D13" s="75" t="s">
-        <v>259</v>
+        <v>373</v>
       </c>
       <c r="E13" s="106" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F13" s="55" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G13" s="107" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05j-Testing-Resiliency-Against-Reverse-Engineering.md#testing-obfuscation-mstg-resilience-9"),"Testing Obfuscation (MSTG-RESILIENCE-9)")</f>
@@ -7187,7 +7175,7 @@
       <c r="B14" s="62"/>
       <c r="C14" s="63"/>
       <c r="D14" s="64" t="s">
-        <v>260</v>
+        <v>374</v>
       </c>
       <c r="E14" s="65"/>
       <c r="F14" s="65"/>
@@ -7196,19 +7184,19 @@
     </row>
     <row r="15" spans="2:8" ht="32" x14ac:dyDescent="0.2">
       <c r="B15" s="50" t="s">
-        <v>261</v>
+        <v>174</v>
       </c>
       <c r="C15" s="51" t="s">
-        <v>262</v>
+        <v>175</v>
       </c>
       <c r="D15" s="79" t="s">
-        <v>263</v>
+        <v>375</v>
       </c>
       <c r="E15" s="106" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F15" s="55" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G15" s="107" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05j-Testing-Resiliency-Against-Reverse-Engineering.md#testing-device-binding-mstg-resilience-10"),"Testing Device Binding (MSTG-RESILIENCE-10)")</f>
@@ -7220,7 +7208,7 @@
       <c r="B16" s="62"/>
       <c r="C16" s="63"/>
       <c r="D16" s="64" t="s">
-        <v>264</v>
+        <v>376</v>
       </c>
       <c r="E16" s="65"/>
       <c r="F16" s="65"/>
@@ -7229,19 +7217,19 @@
     </row>
     <row r="17" spans="2:8" ht="32" x14ac:dyDescent="0.2">
       <c r="B17" s="50" t="s">
-        <v>265</v>
+        <v>176</v>
       </c>
       <c r="C17" s="51" t="s">
-        <v>266</v>
+        <v>177</v>
       </c>
       <c r="D17" s="79" t="s">
-        <v>267</v>
+        <v>377</v>
       </c>
       <c r="E17" s="106" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F17" s="55" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G17" s="107" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05j-Testing-Resiliency-Against-Reverse-Engineering.md#testing-obfuscation-mstg-resilience-9"),"Testing Obfuscation (MSTG-RESILIENCE-9)")</f>
@@ -7249,24 +7237,24 @@
       </c>
       <c r="H17" s="108"/>
     </row>
-    <row r="18" spans="2:8" ht="64" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:8" ht="48" x14ac:dyDescent="0.2">
       <c r="B18" s="50" t="s">
-        <v>268</v>
+        <v>178</v>
       </c>
       <c r="C18" s="51" t="s">
-        <v>269</v>
+        <v>179</v>
       </c>
       <c r="D18" s="79" t="s">
-        <v>270</v>
+        <v>378</v>
       </c>
       <c r="E18" s="106" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F18" s="55" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G18" s="111" t="s">
-        <v>252</v>
+        <v>168</v>
       </c>
       <c r="H18" s="108"/>
     </row>
@@ -7299,7 +7287,7 @@
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B22" s="98" t="s">
-        <v>220</v>
+        <v>150</v>
       </c>
       <c r="C22" s="98"/>
       <c r="D22" s="95"/>
@@ -7310,11 +7298,11 @@
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B23" s="99" t="s">
-        <v>221</v>
+        <v>321</v>
       </c>
       <c r="C23" s="99"/>
       <c r="D23" s="100" t="s">
-        <v>222</v>
+        <v>324</v>
       </c>
       <c r="E23" s="96"/>
       <c r="F23" s="96"/>
@@ -7323,11 +7311,11 @@
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B24" s="101" t="s">
-        <v>223</v>
+        <v>151</v>
       </c>
       <c r="C24" s="101"/>
       <c r="D24" s="102" t="s">
-        <v>224</v>
+        <v>379</v>
       </c>
       <c r="E24" s="96"/>
       <c r="F24" s="96"/>
@@ -7336,11 +7324,11 @@
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B25" s="101" t="s">
-        <v>225</v>
+        <v>152</v>
       </c>
       <c r="C25" s="101"/>
       <c r="D25" s="102" t="s">
-        <v>226</v>
+        <v>380</v>
       </c>
       <c r="E25" s="96"/>
       <c r="F25" s="96"/>
@@ -7349,11 +7337,11 @@
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B26" s="101" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C26" s="101"/>
       <c r="D26" s="102" t="s">
-        <v>227</v>
+        <v>381</v>
       </c>
       <c r="E26" s="96"/>
       <c r="F26" s="96"/>
@@ -7403,15 +7391,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B1:M85"/>
   <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" zoomScale="107" zoomScaleNormal="107" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3:J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="1.83203125" customWidth="1"/>
     <col min="2" max="2" width="8" style="112" customWidth="1"/>
-    <col min="3" max="3" width="15.6640625" style="112" customWidth="1"/>
+    <col min="3" max="3" width="21.5" style="112" customWidth="1"/>
     <col min="4" max="4" width="97.33203125" style="113" customWidth="1"/>
     <col min="5" max="6" width="6.6640625" customWidth="1"/>
     <col min="7" max="7" width="5.83203125" customWidth="1"/>
@@ -7425,7 +7413,7 @@
   <sheetData>
     <row r="1" spans="2:11" ht="19" x14ac:dyDescent="0.25">
       <c r="B1" s="114" t="s">
-        <v>271</v>
+        <v>382</v>
       </c>
       <c r="C1" s="114"/>
       <c r="D1" s="115"/>
@@ -7457,33 +7445,33 @@
         <v>11</v>
       </c>
       <c r="D3" s="40" t="s">
+        <v>383</v>
+      </c>
+      <c r="E3" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="41" t="s">
+      <c r="F3" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="41" t="s">
-        <v>14</v>
-      </c>
       <c r="G3" s="41" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" s="166" t="s">
+        <v>281</v>
+      </c>
+      <c r="H3" s="165" t="s">
+        <v>363</v>
+      </c>
+      <c r="I3" s="165"/>
+      <c r="J3" s="165"/>
+      <c r="K3" s="43" t="s">
         <v>16</v>
-      </c>
-      <c r="I3" s="166"/>
-      <c r="J3" s="166"/>
-      <c r="K3" s="43" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B4" s="44" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C4" s="45"/>
       <c r="D4" s="46" t="s">
-        <v>19</v>
+        <v>384</v>
       </c>
       <c r="E4" s="47"/>
       <c r="F4" s="47"/>
@@ -7495,24 +7483,24 @@
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B5" s="50" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C5" s="51" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D5" s="52" t="s">
-        <v>22</v>
+        <v>388</v>
       </c>
       <c r="E5" s="53" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F5" s="54" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G5" s="55"/>
-      <c r="H5" s="56" t="str">
-        <f>HYPERLINK(CONCATENATE( BASE_URL, "0x04b-Mobile-App-Security-Testing.md#architectural-information"), "Architectural Information")</f>
-        <v>Architectural Information</v>
+      <c r="H5" s="143" t="str">
+        <f>HYPERLINK(CONCATENATE( BASE_URL, "0x04b-Mobile-App-Security-Testing.md#architectural-information"), "架构信息")</f>
+        <v>架构信息</v>
       </c>
       <c r="I5" s="60"/>
       <c r="J5" s="60"/>
@@ -7520,19 +7508,19 @@
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B6" s="50" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C6" s="51" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D6" s="52" t="s">
-        <v>26</v>
+        <v>389</v>
       </c>
       <c r="E6" s="53" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F6" s="54" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G6" s="55"/>
       <c r="H6" s="56" t="str">
@@ -7546,21 +7534,21 @@
       <c r="J6" s="117"/>
       <c r="K6" s="58"/>
     </row>
-    <row r="7" spans="2:11" ht="32" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B7" s="50" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C7" s="51" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D7" s="52" t="s">
-        <v>29</v>
+        <v>390</v>
       </c>
       <c r="E7" s="53" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F7" s="54" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G7" s="55"/>
       <c r="H7" s="56" t="str">
@@ -7573,19 +7561,19 @@
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B8" s="50" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C8" s="51" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D8" s="52" t="s">
-        <v>32</v>
+        <v>391</v>
       </c>
       <c r="E8" s="53" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F8" s="54" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G8" s="55"/>
       <c r="H8" s="56" t="str">
@@ -7598,20 +7586,20 @@
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B9" s="50" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="C9" s="51" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D9" s="52" t="s">
-        <v>35</v>
+        <v>392</v>
       </c>
       <c r="E9" s="61"/>
       <c r="F9" s="54" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G9" s="55" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="H9" s="56" t="str">
         <f>HYPERLINK(CONCATENATE( BASE_URL, "0x04b-Mobile-App-Security-Testing.md#environmental-information"), "Environmental Information")</f>
@@ -7621,22 +7609,22 @@
       <c r="J9" s="60"/>
       <c r="K9" s="58"/>
     </row>
-    <row r="10" spans="2:11" ht="32" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B10" s="50" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="C10" s="51" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="D10" s="52" t="s">
-        <v>39</v>
+        <v>393</v>
       </c>
       <c r="E10" s="61"/>
       <c r="F10" s="54" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G10" s="55" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="H10" s="56" t="str">
         <f>HYPERLINK(CONCATENATE( BASE_URL, "0x04b-Mobile-App-Security-Testing.md#mapping-the-application"), "Mapping the Application")</f>
@@ -7648,20 +7636,20 @@
     </row>
     <row r="11" spans="2:11" ht="17" x14ac:dyDescent="0.2">
       <c r="B11" s="50" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="C11" s="51" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="D11" s="52" t="s">
-        <v>42</v>
+        <v>394</v>
       </c>
       <c r="E11" s="61"/>
       <c r="F11" s="54" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G11" s="55" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="H11" s="56" t="str">
         <f>HYPERLINK(CONCATENATE( BASE_URL, "0x04b-Mobile-App-Security-Testing.md#principles-of-testing"), "Principles of Testing")</f>
@@ -7676,20 +7664,20 @@
     </row>
     <row r="12" spans="2:11" ht="32" x14ac:dyDescent="0.2">
       <c r="B12" s="50" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="C12" s="51" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="D12" s="52" t="s">
-        <v>45</v>
+        <v>395</v>
       </c>
       <c r="E12" s="61"/>
       <c r="F12" s="54" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G12" s="55" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="H12" s="56" t="str">
         <f>HYPERLINK(CONCATENATE( BASE_URL, "0x04g-Testing-Cryptography.md#cryptographic-policy"), "Cryptographic policy")</f>
@@ -7701,20 +7689,20 @@
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B13" s="50" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="C13" s="51" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="D13" s="52" t="s">
-        <v>48</v>
+        <v>396</v>
       </c>
       <c r="E13" s="61"/>
       <c r="F13" s="54" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G13" s="55" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="H13" s="56" t="str">
         <f>HYPERLINK(CONCATENATE( BASE_URL, "0x06h-Testing-Platform-Interaction.md#testing-enforced-updating-mstg-arch-9"), "Testing enforced updating (MSTG-ARCH-9)")</f>
@@ -7726,20 +7714,20 @@
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B14" s="50" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="C14" s="51" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="D14" s="52" t="s">
-        <v>51</v>
+        <v>397</v>
       </c>
       <c r="E14" s="61"/>
       <c r="F14" s="54" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G14" s="55" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="H14" s="56" t="str">
         <f>HYPERLINK(CONCATENATE( BASE_URL, "0x04b-Mobile-App-Security-Testing.md#security-testing-and-the-sdlc"), "Security Testing and the SDLC")</f>
@@ -7751,11 +7739,11 @@
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B15" s="62" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="C15" s="63"/>
       <c r="D15" s="64" t="s">
-        <v>53</v>
+        <v>385</v>
       </c>
       <c r="E15" s="65"/>
       <c r="F15" s="66"/>
@@ -7765,21 +7753,21 @@
       <c r="J15" s="68"/>
       <c r="K15" s="78"/>
     </row>
-    <row r="16" spans="2:11" ht="32" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B16" s="70" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="C16" s="71" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="D16" s="52" t="s">
-        <v>56</v>
+        <v>398</v>
       </c>
       <c r="E16" s="53" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F16" s="54" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G16" s="55"/>
       <c r="H16" s="73" t="str">
@@ -7792,13 +7780,13 @@
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B17" s="70" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="C17" s="71" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="D17" s="52" t="s">
-        <v>59</v>
+        <v>399</v>
       </c>
       <c r="E17" s="53"/>
       <c r="F17" s="54"/>
@@ -7813,19 +7801,19 @@
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B18" s="70" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="C18" s="71" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="D18" s="52" t="s">
-        <v>62</v>
+        <v>400</v>
       </c>
       <c r="E18" s="53" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F18" s="54" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G18" s="55"/>
       <c r="H18" s="73" t="str">
@@ -7838,19 +7826,19 @@
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B19" s="70" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="C19" s="71" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="D19" s="52" t="s">
-        <v>65</v>
+        <v>401</v>
       </c>
       <c r="E19" s="53" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F19" s="54" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G19" s="55"/>
       <c r="H19" s="73" t="str">
@@ -7863,19 +7851,19 @@
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B20" s="70" t="s">
-        <v>66</v>
+        <v>49</v>
       </c>
       <c r="C20" s="71" t="s">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="D20" s="75" t="s">
-        <v>68</v>
+        <v>402</v>
       </c>
       <c r="E20" s="53" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F20" s="54" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G20" s="55"/>
       <c r="H20" s="73" t="str">
@@ -7888,19 +7876,19 @@
     </row>
     <row r="21" spans="2:12" ht="17" x14ac:dyDescent="0.2">
       <c r="B21" s="70" t="s">
-        <v>69</v>
+        <v>51</v>
       </c>
       <c r="C21" s="71" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="D21" s="75" t="s">
-        <v>71</v>
+        <v>403</v>
       </c>
       <c r="E21" s="53" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F21" s="54" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G21" s="55"/>
       <c r="H21" s="72" t="str">
@@ -7913,19 +7901,19 @@
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B22" s="70" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="C22" s="71" t="s">
-        <v>73</v>
+        <v>54</v>
       </c>
       <c r="D22" s="75" t="s">
-        <v>74</v>
+        <v>404</v>
       </c>
       <c r="E22" s="53" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F22" s="54" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G22" s="55"/>
       <c r="H22" s="73" t="str">
@@ -7938,20 +7926,20 @@
     </row>
     <row r="23" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B23" s="70" t="s">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="C23" s="71" t="s">
-        <v>76</v>
+        <v>56</v>
       </c>
       <c r="D23" s="75" t="s">
-        <v>77</v>
+        <v>305</v>
       </c>
       <c r="E23" s="76"/>
       <c r="F23" s="54" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G23" s="55" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="H23" s="73" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x06d-Testing-Data-Storage.md#testing-backups-for-sensitive-data-mstg-storage-8"),"Testing Backups for Sensitive Data (MSTG-STORAGE-8)")</f>
@@ -7963,20 +7951,20 @@
     </row>
     <row r="24" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B24" s="70" t="s">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="C24" s="71" t="s">
-        <v>79</v>
+        <v>58</v>
       </c>
       <c r="D24" s="75" t="s">
-        <v>80</v>
+        <v>405</v>
       </c>
       <c r="E24" s="76"/>
       <c r="F24" s="54" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G24" s="55" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="H24" s="73" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x06d-Testing-Data-Storage.md#testing-auto-generated-screenshots-for-sensitive-information-mstg-storage-9"),"Testing Auto-Generated Screenshots for Sensitive Information (MSTG-STORAGE-9)")</f>
@@ -7986,22 +7974,22 @@
       <c r="J24" s="60"/>
       <c r="K24" s="58"/>
     </row>
-    <row r="25" spans="2:12" ht="32" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B25" s="70" t="s">
-        <v>81</v>
+        <v>59</v>
       </c>
       <c r="C25" s="71" t="s">
-        <v>82</v>
+        <v>60</v>
       </c>
       <c r="D25" s="75" t="s">
-        <v>83</v>
+        <v>406</v>
       </c>
       <c r="E25" s="76"/>
       <c r="F25" s="54" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G25" s="55" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="H25" s="73" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x06d-Testing-Data-Storage.md#testing-memory-for-sensitive-data-mstg-storage-10"),"Testing Memory for Sensitive Data (MSTG-STORAGE-10)")</f>
@@ -8011,22 +7999,22 @@
       <c r="J25" s="60"/>
       <c r="K25" s="58"/>
     </row>
-    <row r="26" spans="2:12" ht="32" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B26" s="70" t="s">
-        <v>84</v>
+        <v>61</v>
       </c>
       <c r="C26" s="71" t="s">
-        <v>85</v>
+        <v>62</v>
       </c>
       <c r="D26" s="75" t="s">
-        <v>86</v>
+        <v>407</v>
       </c>
       <c r="E26" s="76"/>
       <c r="F26" s="54" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G26" s="55" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="H26" s="73" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x06f-Testing-Local-Authentication.md#testing-local-authentication-mstg-auth-8-and-mstg-storage-11"),"Testing Local Authentication (MSTG-AUTH-8 and MSTG-STORAGE-11)")</f>
@@ -8037,22 +8025,22 @@
       <c r="K26" s="58"/>
       <c r="L26" s="118"/>
     </row>
-    <row r="27" spans="2:12" ht="32" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:12" ht="17" x14ac:dyDescent="0.2">
       <c r="B27" s="70" t="s">
-        <v>87</v>
+        <v>63</v>
       </c>
       <c r="C27" s="71" t="s">
-        <v>88</v>
+        <v>64</v>
       </c>
       <c r="D27" s="52" t="s">
-        <v>89</v>
+        <v>408</v>
       </c>
       <c r="E27" s="76"/>
       <c r="F27" s="54" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G27" s="55" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="H27" s="83" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x04i-Testing-user-interaction.md#testing-user-education-mstg-storage-12"),"Testing User Education (MSTG-STORAGE-12)")</f>
@@ -8065,11 +8053,11 @@
     </row>
     <row r="28" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B28" s="62" t="s">
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="C28" s="63"/>
       <c r="D28" s="64" t="s">
-        <v>91</v>
+        <v>310</v>
       </c>
       <c r="E28" s="65"/>
       <c r="F28" s="66"/>
@@ -8081,19 +8069,19 @@
     </row>
     <row r="29" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B29" s="70" t="s">
-        <v>92</v>
+        <v>66</v>
       </c>
       <c r="C29" s="71" t="s">
-        <v>93</v>
+        <v>67</v>
       </c>
       <c r="D29" s="75" t="s">
-        <v>94</v>
+        <v>311</v>
       </c>
       <c r="E29" s="53" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F29" s="54" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G29" s="55"/>
       <c r="H29" s="73" t="str">
@@ -8106,19 +8094,19 @@
     </row>
     <row r="30" spans="2:12" ht="17" x14ac:dyDescent="0.2">
       <c r="B30" s="70" t="s">
-        <v>95</v>
+        <v>68</v>
       </c>
       <c r="C30" s="71" t="s">
-        <v>96</v>
+        <v>69</v>
       </c>
       <c r="D30" s="75" t="s">
-        <v>97</v>
+        <v>409</v>
       </c>
       <c r="E30" s="53" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F30" s="54" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G30" s="55"/>
       <c r="H30" s="72" t="str">
@@ -8129,21 +8117,21 @@
       <c r="J30" s="60"/>
       <c r="K30" s="58"/>
     </row>
-    <row r="31" spans="2:12" ht="32" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:12" ht="17" x14ac:dyDescent="0.2">
       <c r="B31" s="70" t="s">
-        <v>98</v>
+        <v>70</v>
       </c>
       <c r="C31" s="71" t="s">
-        <v>99</v>
+        <v>71</v>
       </c>
       <c r="D31" s="52" t="s">
-        <v>100</v>
+        <v>410</v>
       </c>
       <c r="E31" s="53" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F31" s="54" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G31" s="55"/>
       <c r="H31" s="72" t="str">
@@ -8156,19 +8144,19 @@
     </row>
     <row r="32" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B32" s="70" t="s">
-        <v>101</v>
+        <v>72</v>
       </c>
       <c r="C32" s="71" t="s">
-        <v>102</v>
+        <v>73</v>
       </c>
       <c r="D32" s="75" t="s">
-        <v>103</v>
+        <v>411</v>
       </c>
       <c r="E32" s="53" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F32" s="54" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G32" s="55"/>
       <c r="H32" s="73" t="str">
@@ -8181,19 +8169,19 @@
     </row>
     <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B33" s="70" t="s">
-        <v>104</v>
+        <v>74</v>
       </c>
       <c r="C33" s="71" t="s">
-        <v>105</v>
+        <v>75</v>
       </c>
       <c r="D33" s="75" t="s">
-        <v>106</v>
+        <v>412</v>
       </c>
       <c r="E33" s="53" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F33" s="54" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G33" s="55"/>
       <c r="H33" s="73" t="str">
@@ -8206,19 +8194,19 @@
     </row>
     <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B34" s="70" t="s">
-        <v>107</v>
+        <v>76</v>
       </c>
       <c r="C34" s="71" t="s">
-        <v>108</v>
+        <v>77</v>
       </c>
       <c r="D34" s="75" t="s">
-        <v>109</v>
+        <v>413</v>
       </c>
       <c r="E34" s="53" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F34" s="54" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G34" s="55"/>
       <c r="H34" s="73" t="str">
@@ -8231,11 +8219,11 @@
     </row>
     <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B35" s="62" t="s">
-        <v>110</v>
+        <v>78</v>
       </c>
       <c r="C35" s="63"/>
       <c r="D35" s="64" t="s">
-        <v>111</v>
+        <v>317</v>
       </c>
       <c r="E35" s="65"/>
       <c r="F35" s="66"/>
@@ -8245,21 +8233,21 @@
       <c r="J35" s="68"/>
       <c r="K35" s="78"/>
     </row>
-    <row r="36" spans="2:13" ht="32" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B36" s="70" t="s">
-        <v>112</v>
+        <v>79</v>
       </c>
       <c r="C36" s="71" t="s">
-        <v>113</v>
+        <v>80</v>
       </c>
       <c r="D36" s="79" t="s">
-        <v>114</v>
+        <v>414</v>
       </c>
       <c r="E36" s="53" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F36" s="54" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G36" s="55"/>
       <c r="H36" s="73" t="str">
@@ -8275,19 +8263,19 @@
     </row>
     <row r="37" spans="2:13" ht="32" x14ac:dyDescent="0.2">
       <c r="B37" s="70" t="s">
-        <v>115</v>
+        <v>81</v>
       </c>
       <c r="C37" s="71" t="s">
-        <v>116</v>
+        <v>82</v>
       </c>
       <c r="D37" s="79" t="s">
-        <v>117</v>
+        <v>415</v>
       </c>
       <c r="E37" s="53" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F37" s="54" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G37" s="55"/>
       <c r="H37" s="73" t="str">
@@ -8300,19 +8288,19 @@
     </row>
     <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B38" s="70" t="s">
-        <v>118</v>
+        <v>83</v>
       </c>
       <c r="C38" s="71" t="s">
-        <v>119</v>
+        <v>84</v>
       </c>
       <c r="D38" s="79" t="s">
-        <v>120</v>
+        <v>416</v>
       </c>
       <c r="E38" s="53" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F38" s="54" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G38" s="55"/>
       <c r="H38" s="73" t="str">
@@ -8328,13 +8316,13 @@
     </row>
     <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B39" s="70" t="s">
-        <v>121</v>
+        <v>85</v>
       </c>
       <c r="C39" s="71" t="s">
-        <v>122</v>
+        <v>86</v>
       </c>
       <c r="D39" s="79" t="s">
-        <v>123</v>
+        <v>417</v>
       </c>
       <c r="E39" s="53"/>
       <c r="F39" s="54"/>
@@ -8350,19 +8338,19 @@
     </row>
     <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B40" s="70" t="s">
-        <v>124</v>
+        <v>87</v>
       </c>
       <c r="C40" s="71" t="s">
-        <v>125</v>
+        <v>88</v>
       </c>
       <c r="D40" s="79" t="s">
-        <v>126</v>
+        <v>418</v>
       </c>
       <c r="E40" s="53" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F40" s="54" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G40" s="55"/>
       <c r="H40" s="73" t="str">
@@ -8374,21 +8362,21 @@
       <c r="K40" s="108"/>
       <c r="M40" s="80"/>
     </row>
-    <row r="41" spans="2:13" ht="32" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B41" s="70" t="s">
-        <v>127</v>
+        <v>89</v>
       </c>
       <c r="C41" s="71" t="s">
-        <v>128</v>
+        <v>90</v>
       </c>
       <c r="D41" s="79" t="s">
-        <v>129</v>
+        <v>419</v>
       </c>
       <c r="E41" s="53" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F41" s="54" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G41" s="55"/>
       <c r="H41" s="73" t="str">
@@ -8404,19 +8392,19 @@
     </row>
     <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B42" s="70" t="s">
-        <v>130</v>
+        <v>91</v>
       </c>
       <c r="C42" s="71" t="s">
-        <v>131</v>
+        <v>92</v>
       </c>
       <c r="D42" s="79" t="s">
-        <v>132</v>
+        <v>420</v>
       </c>
       <c r="E42" s="53" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F42" s="54" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G42" s="55"/>
       <c r="H42" s="73" t="str">
@@ -8429,20 +8417,20 @@
     </row>
     <row r="43" spans="2:13" ht="32" x14ac:dyDescent="0.2">
       <c r="B43" s="70" t="s">
-        <v>133</v>
+        <v>93</v>
       </c>
       <c r="C43" s="71" t="s">
-        <v>134</v>
+        <v>94</v>
       </c>
       <c r="D43" s="79" t="s">
-        <v>135</v>
+        <v>421</v>
       </c>
       <c r="E43" s="76"/>
       <c r="F43" s="54" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G43" s="55" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="H43" s="73" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x06f-Testing-Local-Authentication.md#testing-local-authentication-mstg-auth-8-and-mstg-storage-11"),"Testing Local Authentication (MSTG-AUTH-8 and MSTG-STORAGE-11)")</f>
@@ -8454,20 +8442,20 @@
     </row>
     <row r="44" spans="2:13" ht="17" x14ac:dyDescent="0.2">
       <c r="B44" s="70" t="s">
-        <v>136</v>
+        <v>95</v>
       </c>
       <c r="C44" s="71" t="s">
-        <v>137</v>
+        <v>96</v>
       </c>
       <c r="D44" s="79" t="s">
-        <v>138</v>
+        <v>422</v>
       </c>
       <c r="E44" s="76"/>
       <c r="F44" s="54" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G44" s="55" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="H44" s="72" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x04e-Testing-Authentication-and-Session-Management.md#testing-two-factor-authentication-and-step-up-authentication-mstg-auth-9-and-mstg-auth-10"),"Testing Two-Factor Authentication and Step-up Authentication (MSTG-AUTH-9 and MSTG-AUTH-10)")</f>
@@ -8479,20 +8467,20 @@
     </row>
     <row r="45" spans="2:13" ht="17" x14ac:dyDescent="0.2">
       <c r="B45" s="70" t="s">
-        <v>139</v>
+        <v>97</v>
       </c>
       <c r="C45" s="71" t="s">
-        <v>140</v>
+        <v>98</v>
       </c>
       <c r="D45" s="79" t="s">
-        <v>141</v>
+        <v>423</v>
       </c>
       <c r="E45" s="76"/>
       <c r="F45" s="54" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G45" s="55" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="H45" s="72" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x04e-Testing-Authentication-and-Session-Management.md#testing-two-factor-authentication-and-step-up-authentication-mstg-auth-9-and-mstg-auth-10"),"Testing Two-Factor Authentication and Step-up Authentication (MSTG-AUTH-9 and MSTG-AUTH-10)")</f>
@@ -8502,22 +8490,22 @@
       <c r="J45" s="60"/>
       <c r="K45" s="58"/>
     </row>
-    <row r="46" spans="2:13" ht="32" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:13" ht="17" x14ac:dyDescent="0.2">
       <c r="B46" s="70" t="s">
-        <v>142</v>
+        <v>99</v>
       </c>
       <c r="C46" s="71" t="s">
-        <v>143</v>
+        <v>100</v>
       </c>
       <c r="D46" s="79" t="s">
-        <v>144</v>
+        <v>424</v>
       </c>
       <c r="E46" s="76"/>
       <c r="F46" s="54" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G46" s="55" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="H46" s="83" t="str">
         <f>HYPERLINK(CONCATENATE( BASE_URL, "0x04e-Testing-Authentication-and-Session-Management.md#testing-login-activity-and-device-blocking-mstg-auth-11"), "Testing Login Activity and Device Blocking (MSTG-AUTH-11)")</f>
@@ -8529,11 +8517,11 @@
     </row>
     <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B47" s="62" t="s">
-        <v>145</v>
+        <v>101</v>
       </c>
       <c r="C47" s="63"/>
       <c r="D47" s="64" t="s">
-        <v>146</v>
+        <v>386</v>
       </c>
       <c r="E47" s="65"/>
       <c r="F47" s="66"/>
@@ -8545,19 +8533,19 @@
     </row>
     <row r="48" spans="2:13" ht="17" x14ac:dyDescent="0.2">
       <c r="B48" s="70" t="s">
-        <v>147</v>
+        <v>102</v>
       </c>
       <c r="C48" s="71" t="s">
-        <v>148</v>
+        <v>103</v>
       </c>
       <c r="D48" s="75" t="s">
-        <v>149</v>
+        <v>425</v>
       </c>
       <c r="E48" s="53" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F48" s="54" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G48" s="55"/>
       <c r="H48" s="72" t="str">
@@ -8568,21 +8556,21 @@
       <c r="J48" s="59"/>
       <c r="K48" s="85"/>
     </row>
-    <row r="49" spans="2:11" ht="32" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:11" ht="17" x14ac:dyDescent="0.2">
       <c r="B49" s="70" t="s">
-        <v>150</v>
+        <v>104</v>
       </c>
       <c r="C49" s="71" t="s">
-        <v>151</v>
+        <v>105</v>
       </c>
       <c r="D49" s="79" t="s">
-        <v>152</v>
+        <v>426</v>
       </c>
       <c r="E49" s="53" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F49" s="54" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G49" s="55"/>
       <c r="H49" s="72" t="str">
@@ -8596,21 +8584,21 @@
       <c r="J49" s="59"/>
       <c r="K49" s="85"/>
     </row>
-    <row r="50" spans="2:11" ht="32" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B50" s="70" t="s">
-        <v>153</v>
+        <v>106</v>
       </c>
       <c r="C50" s="71" t="s">
-        <v>154</v>
+        <v>107</v>
       </c>
       <c r="D50" s="79" t="s">
-        <v>155</v>
+        <v>427</v>
       </c>
       <c r="E50" s="53" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F50" s="54" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G50" s="55"/>
       <c r="H50" s="73" t="str">
@@ -8623,20 +8611,20 @@
     </row>
     <row r="51" spans="2:11" ht="32" x14ac:dyDescent="0.2">
       <c r="B51" s="70" t="s">
-        <v>156</v>
+        <v>108</v>
       </c>
       <c r="C51" s="71" t="s">
-        <v>157</v>
+        <v>109</v>
       </c>
       <c r="D51" s="79" t="s">
-        <v>158</v>
+        <v>428</v>
       </c>
       <c r="E51" s="76"/>
       <c r="F51" s="54" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G51" s="55" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="H51" s="73" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x06g-Testing-Network-Communication.md#testing-custom-certificate-stores-and-certificate-pinning-mstg-network-3-and-mstg-network-4"),"Testing Custom Certificate Stores and Certificate Pinning (MSTG-NETWORK-3 and MSTG-NETWORK-4)")</f>
@@ -8646,22 +8634,22 @@
       <c r="J51" s="60"/>
       <c r="K51" s="58"/>
     </row>
-    <row r="52" spans="2:11" ht="32" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:11" ht="17" x14ac:dyDescent="0.2">
       <c r="B52" s="70" t="s">
-        <v>159</v>
+        <v>110</v>
       </c>
       <c r="C52" s="71" t="s">
-        <v>160</v>
+        <v>111</v>
       </c>
       <c r="D52" s="79" t="s">
-        <v>161</v>
+        <v>429</v>
       </c>
       <c r="E52" s="76"/>
       <c r="F52" s="54" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G52" s="55" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="H52" s="72" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x04f-Testing-Network-Communication.md#making-sure-that-critical-operations-use-secure-communication-channels-mstg-network-5"),"Making Sure that Critical Operations Use Secure Communication Channels (MSTG-NETWORK-5)")</f>
@@ -8673,20 +8661,20 @@
     </row>
     <row r="53" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B53" s="70" t="s">
-        <v>162</v>
+        <v>112</v>
       </c>
       <c r="C53" s="71" t="s">
-        <v>163</v>
+        <v>113</v>
       </c>
       <c r="D53" s="79" t="s">
-        <v>164</v>
+        <v>430</v>
       </c>
       <c r="E53" s="76"/>
       <c r="F53" s="54" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G53" s="55" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="H53" s="73" t="str">
         <f>HYPERLINK(CONCATENATE( BASE_URL, "0x06i-Testing-Code-Quality-and-Build-Settings.md#checking-for-weaknesses-in-third-party-libraries-mstg-code-5"), "Checking for Weaknesses in Third Party Libraries (MSTG-CODE-5)")</f>
@@ -8698,11 +8686,11 @@
     </row>
     <row r="54" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B54" s="62" t="s">
-        <v>165</v>
+        <v>114</v>
       </c>
       <c r="C54" s="63"/>
       <c r="D54" s="64" t="s">
-        <v>166</v>
+        <v>387</v>
       </c>
       <c r="E54" s="65"/>
       <c r="F54" s="66"/>
@@ -8712,21 +8700,21 @@
       <c r="J54" s="68"/>
       <c r="K54" s="78"/>
     </row>
-    <row r="55" spans="2:11" ht="32" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B55" s="70" t="s">
-        <v>167</v>
+        <v>115</v>
       </c>
       <c r="C55" s="71" t="s">
-        <v>168</v>
+        <v>116</v>
       </c>
       <c r="D55" s="75" t="s">
-        <v>169</v>
+        <v>345</v>
       </c>
       <c r="E55" s="53" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F55" s="54" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G55" s="55"/>
       <c r="H55" s="73" t="str">
@@ -8739,19 +8727,19 @@
     </row>
     <row r="56" spans="2:11" ht="32" x14ac:dyDescent="0.2">
       <c r="B56" s="70" t="s">
-        <v>170</v>
+        <v>117</v>
       </c>
       <c r="C56" s="71" t="s">
-        <v>171</v>
+        <v>118</v>
       </c>
       <c r="D56" s="79" t="s">
-        <v>172</v>
+        <v>346</v>
       </c>
       <c r="E56" s="53" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F56" s="54" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G56" s="55"/>
       <c r="H56" s="73" t="str">
@@ -8762,21 +8750,21 @@
       <c r="J56" s="60"/>
       <c r="K56" s="58"/>
     </row>
-    <row r="57" spans="2:11" ht="32" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B57" s="70" t="s">
-        <v>173</v>
+        <v>119</v>
       </c>
       <c r="C57" s="71" t="s">
-        <v>174</v>
+        <v>120</v>
       </c>
       <c r="D57" s="75" t="s">
-        <v>175</v>
+        <v>347</v>
       </c>
       <c r="E57" s="53" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F57" s="54" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G57" s="55"/>
       <c r="H57" s="73" t="str">
@@ -8787,21 +8775,21 @@
       <c r="J57" s="60"/>
       <c r="K57" s="58"/>
     </row>
-    <row r="58" spans="2:11" ht="32" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B58" s="70" t="s">
-        <v>176</v>
+        <v>121</v>
       </c>
       <c r="C58" s="71" t="s">
-        <v>177</v>
+        <v>122</v>
       </c>
       <c r="D58" s="75" t="s">
-        <v>178</v>
+        <v>348</v>
       </c>
       <c r="E58" s="53" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F58" s="54" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G58" s="55"/>
       <c r="H58" s="56" t="str">
@@ -8812,21 +8800,21 @@
       <c r="J58" s="60"/>
       <c r="K58" s="58"/>
     </row>
-    <row r="59" spans="2:11" ht="32" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B59" s="70" t="s">
-        <v>179</v>
+        <v>123</v>
       </c>
       <c r="C59" s="71" t="s">
-        <v>180</v>
+        <v>124</v>
       </c>
       <c r="D59" s="75" t="s">
-        <v>181</v>
+        <v>349</v>
       </c>
       <c r="E59" s="53" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F59" s="54" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G59" s="55"/>
       <c r="H59" s="73" t="str">
@@ -8839,19 +8827,19 @@
     </row>
     <row r="60" spans="2:11" ht="32" x14ac:dyDescent="0.2">
       <c r="B60" s="70" t="s">
-        <v>182</v>
+        <v>125</v>
       </c>
       <c r="C60" s="71" t="s">
-        <v>183</v>
+        <v>126</v>
       </c>
       <c r="D60" s="79" t="s">
-        <v>184</v>
+        <v>350</v>
       </c>
       <c r="E60" s="53" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F60" s="54" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G60" s="55"/>
       <c r="H60" s="73" t="str">
@@ -8862,21 +8850,21 @@
       <c r="J60" s="60"/>
       <c r="K60" s="58"/>
     </row>
-    <row r="61" spans="2:11" ht="32" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B61" s="70" t="s">
-        <v>185</v>
+        <v>127</v>
       </c>
       <c r="C61" s="71" t="s">
-        <v>186</v>
+        <v>128</v>
       </c>
       <c r="D61" s="79" t="s">
-        <v>187</v>
+        <v>351</v>
       </c>
       <c r="E61" s="53" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F61" s="54" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G61" s="55"/>
       <c r="H61" s="73" t="str">
@@ -8887,21 +8875,21 @@
       <c r="J61" s="60"/>
       <c r="K61" s="58"/>
     </row>
-    <row r="62" spans="2:11" ht="32" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B62" s="70" t="s">
-        <v>188</v>
+        <v>129</v>
       </c>
       <c r="C62" s="71" t="s">
-        <v>189</v>
+        <v>130</v>
       </c>
       <c r="D62" s="75" t="s">
-        <v>190</v>
+        <v>352</v>
       </c>
       <c r="E62" s="53" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F62" s="54" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G62" s="55"/>
       <c r="H62" s="73" t="str">
@@ -8914,11 +8902,11 @@
     </row>
     <row r="63" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B63" s="62" t="s">
-        <v>191</v>
+        <v>131</v>
       </c>
       <c r="C63" s="63"/>
       <c r="D63" s="64" t="s">
-        <v>192</v>
+        <v>320</v>
       </c>
       <c r="E63" s="65"/>
       <c r="F63" s="66"/>
@@ -8930,19 +8918,19 @@
     </row>
     <row r="64" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B64" s="70" t="s">
-        <v>193</v>
+        <v>132</v>
       </c>
       <c r="C64" s="71" t="s">
-        <v>194</v>
+        <v>133</v>
       </c>
       <c r="D64" s="75" t="s">
-        <v>195</v>
+        <v>353</v>
       </c>
       <c r="E64" s="53" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F64" s="54" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G64" s="55"/>
       <c r="H64" s="73" t="str">
@@ -8955,19 +8943,19 @@
     </row>
     <row r="65" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B65" s="70" t="s">
-        <v>196</v>
+        <v>134</v>
       </c>
       <c r="C65" s="71" t="s">
-        <v>197</v>
+        <v>135</v>
       </c>
       <c r="D65" s="75" t="s">
-        <v>198</v>
+        <v>354</v>
       </c>
       <c r="E65" s="53" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F65" s="54" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G65" s="55"/>
       <c r="H65" s="73" t="str">
@@ -8980,19 +8968,19 @@
     </row>
     <row r="66" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B66" s="70" t="s">
-        <v>199</v>
+        <v>136</v>
       </c>
       <c r="C66" s="71" t="s">
-        <v>200</v>
+        <v>137</v>
       </c>
       <c r="D66" s="75" t="s">
-        <v>201</v>
+        <v>355</v>
       </c>
       <c r="E66" s="53" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F66" s="54" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G66" s="55"/>
       <c r="H66" s="73" t="str">
@@ -9005,19 +8993,19 @@
     </row>
     <row r="67" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B67" s="70" t="s">
-        <v>202</v>
+        <v>138</v>
       </c>
       <c r="C67" s="71" t="s">
-        <v>203</v>
+        <v>139</v>
       </c>
       <c r="D67" s="75" t="s">
-        <v>204</v>
+        <v>356</v>
       </c>
       <c r="E67" s="53" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F67" s="54" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G67" s="55"/>
       <c r="H67" s="73" t="str">
@@ -9028,21 +9016,21 @@
       <c r="J67" s="60"/>
       <c r="K67" s="58"/>
     </row>
-    <row r="68" spans="2:11" ht="32" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:11" ht="17" x14ac:dyDescent="0.2">
       <c r="B68" s="70" t="s">
-        <v>205</v>
+        <v>140</v>
       </c>
       <c r="C68" s="71" t="s">
-        <v>206</v>
+        <v>141</v>
       </c>
       <c r="D68" s="52" t="s">
-        <v>207</v>
+        <v>357</v>
       </c>
       <c r="E68" s="53" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F68" s="54" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G68" s="55"/>
       <c r="H68" s="83" t="str">
@@ -9055,19 +9043,19 @@
     </row>
     <row r="69" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B69" s="70" t="s">
-        <v>208</v>
+        <v>142</v>
       </c>
       <c r="C69" s="71" t="s">
-        <v>209</v>
+        <v>143</v>
       </c>
       <c r="D69" s="75" t="s">
-        <v>210</v>
+        <v>358</v>
       </c>
       <c r="E69" s="53" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F69" s="54" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G69" s="55"/>
       <c r="H69" s="73" t="str">
@@ -9080,19 +9068,19 @@
     </row>
     <row r="70" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B70" s="70" t="s">
-        <v>211</v>
+        <v>144</v>
       </c>
       <c r="C70" s="71" t="s">
-        <v>212</v>
+        <v>145</v>
       </c>
       <c r="D70" s="75" t="s">
-        <v>213</v>
+        <v>359</v>
       </c>
       <c r="E70" s="53" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F70" s="54" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G70" s="55"/>
       <c r="H70" s="73" t="str">
@@ -9105,19 +9093,19 @@
     </row>
     <row r="71" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B71" s="70" t="s">
-        <v>214</v>
+        <v>146</v>
       </c>
       <c r="C71" s="71" t="s">
-        <v>215</v>
+        <v>147</v>
       </c>
       <c r="D71" s="75" t="s">
-        <v>216</v>
+        <v>360</v>
       </c>
       <c r="E71" s="53" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F71" s="54" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G71" s="55"/>
       <c r="H71" s="73" t="str">
@@ -9128,21 +9116,21 @@
       <c r="J71" s="60"/>
       <c r="K71" s="58"/>
     </row>
-    <row r="72" spans="2:11" ht="32" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B72" s="70" t="s">
-        <v>217</v>
+        <v>148</v>
       </c>
       <c r="C72" s="71" t="s">
-        <v>218</v>
+        <v>149</v>
       </c>
       <c r="D72" s="52" t="s">
-        <v>219</v>
+        <v>361</v>
       </c>
       <c r="E72" s="53" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F72" s="54" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G72" s="55"/>
       <c r="H72" s="73" t="str">
@@ -9203,7 +9191,7 @@
     </row>
     <row r="77" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B77" s="124" t="s">
-        <v>220</v>
+        <v>150</v>
       </c>
       <c r="C77" s="124"/>
       <c r="D77" s="75"/>
@@ -9217,11 +9205,11 @@
     </row>
     <row r="78" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B78" s="99" t="s">
-        <v>221</v>
+        <v>321</v>
       </c>
       <c r="C78" s="99"/>
       <c r="D78" s="100" t="s">
-        <v>222</v>
+        <v>324</v>
       </c>
       <c r="E78" s="97"/>
       <c r="F78" s="97"/>
@@ -9233,11 +9221,11 @@
     </row>
     <row r="79" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B79" s="101" t="s">
-        <v>223</v>
+        <v>151</v>
       </c>
       <c r="C79" s="101"/>
       <c r="D79" s="102" t="s">
-        <v>224</v>
+        <v>379</v>
       </c>
       <c r="E79" s="97"/>
       <c r="F79" s="97"/>
@@ -9249,11 +9237,11 @@
     </row>
     <row r="80" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B80" s="101" t="s">
-        <v>225</v>
+        <v>152</v>
       </c>
       <c r="C80" s="101"/>
       <c r="D80" s="102" t="s">
-        <v>226</v>
+        <v>380</v>
       </c>
       <c r="E80" s="97"/>
       <c r="F80" s="97"/>
@@ -9265,11 +9253,11 @@
     </row>
     <row r="81" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B81" s="101" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C81" s="101"/>
       <c r="D81" s="102" t="s">
-        <v>227</v>
+        <v>381</v>
       </c>
       <c r="E81" s="97"/>
       <c r="F81" s="97"/>
@@ -9368,10 +9356,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="B1:H32"/>
+  <dimension ref="A1:H32"/>
   <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17:G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9389,7 +9377,7 @@
   <sheetData>
     <row r="1" spans="2:8" ht="19" x14ac:dyDescent="0.25">
       <c r="B1" s="114" t="s">
-        <v>272</v>
+        <v>431</v>
       </c>
       <c r="C1" s="114"/>
       <c r="G1" s="97"/>
@@ -9407,221 +9395,221 @@
         <v>11</v>
       </c>
       <c r="D3" s="40" t="s">
-        <v>228</v>
+        <v>362</v>
       </c>
       <c r="E3" s="41" t="s">
-        <v>229</v>
+        <v>153</v>
       </c>
       <c r="F3" s="41" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="104" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="104" t="s">
+      <c r="H3" s="43" t="s">
         <v>16</v>
-      </c>
-      <c r="H3" s="43" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B4" s="62"/>
       <c r="C4" s="63"/>
       <c r="D4" s="64" t="s">
-        <v>230</v>
+        <v>364</v>
       </c>
       <c r="E4" s="65"/>
       <c r="F4" s="65"/>
       <c r="G4" s="105"/>
       <c r="H4" s="69"/>
     </row>
-    <row r="5" spans="2:8" ht="32" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B5" s="50" t="s">
-        <v>231</v>
+        <v>154</v>
       </c>
       <c r="C5" s="51" t="s">
-        <v>232</v>
+        <v>155</v>
       </c>
       <c r="D5" s="79" t="s">
-        <v>233</v>
+        <v>365</v>
       </c>
       <c r="E5" s="106" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F5" s="55" t="s">
-        <v>36</v>
-      </c>
-      <c r="G5" s="107" t="str">
-        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x06j-Testing-Resiliency-Against-Reverse-Engineering.md#jailbreak-detection-mstg-resilience-1"),"Jailbreak Detection (MSTG-RESILIENCE-1)")</f>
-        <v>Jailbreak Detection (MSTG-RESILIENCE-1)</v>
+        <v>29</v>
+      </c>
+      <c r="G5" s="146" t="str">
+        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x06j-Testing-Resiliency-Against-Reverse-Engineering.md#jailbreak-detection-mstg-resilience-1"),"越狱检测 (MSTG-RESILIENCE-1)")</f>
+        <v>越狱检测 (MSTG-RESILIENCE-1)</v>
       </c>
       <c r="H5" s="108"/>
     </row>
-    <row r="6" spans="2:8" ht="32" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B6" s="50" t="s">
-        <v>234</v>
+        <v>156</v>
       </c>
       <c r="C6" s="51" t="s">
-        <v>235</v>
+        <v>157</v>
       </c>
       <c r="D6" s="79" t="s">
-        <v>236</v>
+        <v>366</v>
       </c>
       <c r="E6" s="106" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F6" s="55" t="s">
-        <v>36</v>
-      </c>
-      <c r="G6" s="107" t="str">
-        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x06j-Testing-Resiliency-Against-Reverse-Engineering.md#anti-debugging-checks-mstg-resilience-2"),"Anti-Debugging Checks (MSTG-RESILIENCE-2)")</f>
-        <v>Anti-Debugging Checks (MSTG-RESILIENCE-2)</v>
+        <v>29</v>
+      </c>
+      <c r="G6" s="146" t="str">
+        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x06j-Testing-Resiliency-Against-Reverse-Engineering.md#anti-debugging-checks-mstg-resilience-2"),"Anti-Debugging 检查 H7(MSTG-RESILIENCE-2)")</f>
+        <v>Anti-Debugging 检查 H7(MSTG-RESILIENCE-2)</v>
       </c>
       <c r="H6" s="108"/>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B7" s="50" t="s">
-        <v>237</v>
+        <v>158</v>
       </c>
       <c r="C7" s="51" t="s">
-        <v>238</v>
+        <v>159</v>
       </c>
       <c r="D7" s="75" t="s">
-        <v>239</v>
+        <v>367</v>
       </c>
       <c r="E7" s="106" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F7" s="55" t="s">
-        <v>36</v>
-      </c>
-      <c r="G7" s="107" t="str">
-        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x06j-Testing-Resiliency-Against-Reverse-Engineering.md#file-integrity-checks-mstg-resilience-3-and-mstg-resilience-11"),"File Integrity Checks (MSTG-RESILIENCE-3 and MSTG-RESILIENCE-11)")</f>
-        <v>File Integrity Checks (MSTG-RESILIENCE-3 and MSTG-RESILIENCE-11)</v>
+        <v>29</v>
+      </c>
+      <c r="G7" s="146" t="str">
+        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x06j-Testing-Resiliency-Against-Reverse-Engineering.md#file-integrity-checks-mstg-resilience-3-and-mstg-resilience-11"),"文件完整性检查 (MSTG-RESILIENCE-3 and MSTG-RESILIENCE-11)")</f>
+        <v>文件完整性检查 (MSTG-RESILIENCE-3 and MSTG-RESILIENCE-11)</v>
       </c>
       <c r="H7" s="108"/>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B8" s="50" t="s">
-        <v>240</v>
+        <v>160</v>
       </c>
       <c r="C8" s="51" t="s">
-        <v>241</v>
+        <v>161</v>
       </c>
       <c r="D8" s="75" t="s">
-        <v>242</v>
+        <v>368</v>
       </c>
       <c r="E8" s="106" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F8" s="55" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G8" s="125" t="s">
-        <v>256</v>
+        <v>171</v>
       </c>
       <c r="H8" s="108"/>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B9" s="50" t="s">
-        <v>243</v>
+        <v>162</v>
       </c>
       <c r="C9" s="51" t="s">
-        <v>244</v>
+        <v>163</v>
       </c>
       <c r="D9" s="75" t="s">
-        <v>245</v>
+        <v>369</v>
       </c>
       <c r="E9" s="106" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F9" s="55" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G9" s="125" t="s">
-        <v>256</v>
+        <v>171</v>
       </c>
       <c r="H9" s="108"/>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B10" s="50" t="s">
-        <v>246</v>
+        <v>164</v>
       </c>
       <c r="C10" s="51" t="s">
-        <v>247</v>
+        <v>165</v>
       </c>
       <c r="D10" s="75" t="s">
-        <v>248</v>
+        <v>370</v>
       </c>
       <c r="E10" s="106" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F10" s="55" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G10" s="125" t="s">
-        <v>256</v>
+        <v>171</v>
       </c>
       <c r="H10" s="108"/>
     </row>
-    <row r="11" spans="2:8" ht="32" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:8" ht="17" x14ac:dyDescent="0.2">
       <c r="B11" s="50" t="s">
-        <v>249</v>
+        <v>166</v>
       </c>
       <c r="C11" s="51" t="s">
-        <v>250</v>
+        <v>167</v>
       </c>
       <c r="D11" s="79" t="s">
-        <v>251</v>
+        <v>371</v>
       </c>
       <c r="E11" s="106" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F11" s="55" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G11" s="111" t="s">
-        <v>256</v>
+        <v>171</v>
       </c>
       <c r="H11" s="108"/>
     </row>
     <row r="12" spans="2:8" ht="17" x14ac:dyDescent="0.2">
       <c r="B12" s="50" t="s">
-        <v>253</v>
+        <v>169</v>
       </c>
       <c r="C12" s="51" t="s">
-        <v>254</v>
+        <v>170</v>
       </c>
       <c r="D12" s="75" t="s">
-        <v>255</v>
+        <v>372</v>
       </c>
       <c r="E12" s="106" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F12" s="55" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G12" s="111" t="s">
-        <v>256</v>
+        <v>171</v>
       </c>
       <c r="H12" s="108"/>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B13" s="50" t="s">
-        <v>257</v>
+        <v>172</v>
       </c>
       <c r="C13" s="51" t="s">
-        <v>258</v>
+        <v>173</v>
       </c>
       <c r="D13" s="75" t="s">
-        <v>259</v>
+        <v>373</v>
       </c>
       <c r="E13" s="106" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F13" s="55" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G13" s="125" t="s">
-        <v>256</v>
+        <v>171</v>
       </c>
       <c r="H13" s="108"/>
     </row>
@@ -9629,32 +9617,32 @@
       <c r="B14" s="62"/>
       <c r="C14" s="63"/>
       <c r="D14" s="64" t="s">
-        <v>260</v>
+        <v>374</v>
       </c>
       <c r="E14" s="65"/>
       <c r="F14" s="65"/>
       <c r="G14" s="105"/>
       <c r="H14" s="69"/>
     </row>
-    <row r="15" spans="2:8" ht="32" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B15" s="50" t="s">
-        <v>261</v>
+        <v>174</v>
       </c>
       <c r="C15" s="51" t="s">
-        <v>262</v>
+        <v>175</v>
       </c>
       <c r="D15" s="79" t="s">
-        <v>263</v>
+        <v>375</v>
       </c>
       <c r="E15" s="106" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F15" s="55" t="s">
-        <v>36</v>
-      </c>
-      <c r="G15" s="107" t="str">
-        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x06j-Testing-Resiliency-Against-Reverse-Engineering.md#device-binding-mstg-resilience-10"),"Device Binding (MSTG-RESILIENCE-10)")</f>
-        <v>Device Binding (MSTG-RESILIENCE-10)</v>
+        <v>29</v>
+      </c>
+      <c r="G15" s="146" t="str">
+        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x06j-Testing-Resiliency-Against-Reverse-Engineering.md#device-binding-mstg-resilience-10"),"设备绑定 (MSTG-RESILIENCE-10)")</f>
+        <v>设备绑定 (MSTG-RESILIENCE-10)</v>
       </c>
       <c r="H15" s="108"/>
     </row>
@@ -9662,57 +9650,58 @@
       <c r="B16" s="62"/>
       <c r="C16" s="63"/>
       <c r="D16" s="64" t="s">
-        <v>264</v>
+        <v>376</v>
       </c>
       <c r="E16" s="65"/>
       <c r="F16" s="65"/>
       <c r="G16" s="105"/>
       <c r="H16" s="69"/>
     </row>
-    <row r="17" spans="2:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+      <c r="A17" s="167"/>
       <c r="B17" s="50" t="s">
-        <v>265</v>
+        <v>176</v>
       </c>
       <c r="C17" s="51" t="s">
-        <v>266</v>
-      </c>
-      <c r="D17" s="79" t="s">
-        <v>267</v>
+        <v>177</v>
+      </c>
+      <c r="D17" s="168" t="s">
+        <v>377</v>
       </c>
       <c r="E17" s="106" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F17" s="55" t="s">
-        <v>36</v>
-      </c>
-      <c r="G17" s="126" t="str">
-        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x06j-Testing-Resiliency-Against-Reverse-Engineering.md#file-integrity-checks-mstg-resilience-3-and-mstg-resilience-11"),"File Integrity Checks (MSTG-RESILIENCE-3 and MSTG-RESILIENCE-11)")</f>
-        <v>File Integrity Checks (MSTG-RESILIENCE-3 and MSTG-RESILIENCE-11)</v>
+        <v>29</v>
+      </c>
+      <c r="G17" s="169" t="str">
+        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x06j-Testing-Resiliency-Against-Reverse-Engineering.md#file-integrity-checks-mstg-resilience-3-and-mstg-resilience-11"),"文件完整性检查 (MSTG-RESILIENCE-3 and MSTG-RESILIENCE-11)")</f>
+        <v>文件完整性检查 (MSTG-RESILIENCE-3 and MSTG-RESILIENCE-11)</v>
       </c>
       <c r="H17" s="108"/>
     </row>
-    <row r="18" spans="2:8" ht="64" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="B18" s="50" t="s">
-        <v>268</v>
+        <v>178</v>
       </c>
       <c r="C18" s="51" t="s">
-        <v>269</v>
+        <v>179</v>
       </c>
       <c r="D18" s="79" t="s">
-        <v>270</v>
+        <v>378</v>
       </c>
       <c r="E18" s="106" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F18" s="55" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G18" s="111" t="s">
-        <v>256</v>
+        <v>171</v>
       </c>
       <c r="H18" s="108"/>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B19" s="88"/>
       <c r="C19" s="89"/>
       <c r="D19" s="90"/>
@@ -9721,7 +9710,7 @@
       <c r="G19" s="104"/>
       <c r="H19" s="93"/>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B20" s="123"/>
       <c r="C20" s="123"/>
       <c r="D20" s="75"/>
@@ -9730,7 +9719,7 @@
       <c r="G20" s="97"/>
       <c r="H20" s="75"/>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B21" s="123"/>
       <c r="C21" s="123"/>
       <c r="D21" s="75"/>
@@ -9739,9 +9728,9 @@
       <c r="G21" s="97"/>
       <c r="H21" s="75"/>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B22" s="124" t="s">
-        <v>220</v>
+        <v>150</v>
       </c>
       <c r="C22" s="124"/>
       <c r="D22" s="75"/>
@@ -9750,59 +9739,59 @@
       <c r="G22" s="97"/>
       <c r="H22" s="75"/>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B23" s="99" t="s">
-        <v>221</v>
+        <v>321</v>
       </c>
       <c r="C23" s="99"/>
       <c r="D23" s="100" t="s">
-        <v>222</v>
+        <v>324</v>
       </c>
       <c r="E23" s="97"/>
       <c r="F23" s="97"/>
       <c r="G23" s="97"/>
       <c r="H23" s="75"/>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B24" s="101" t="s">
-        <v>223</v>
+        <v>151</v>
       </c>
       <c r="C24" s="101"/>
       <c r="D24" s="102" t="s">
-        <v>224</v>
+        <v>379</v>
       </c>
       <c r="E24" s="97"/>
       <c r="F24" s="97"/>
       <c r="G24" s="97"/>
       <c r="H24" s="75"/>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B25" s="101" t="s">
-        <v>225</v>
+        <v>152</v>
       </c>
       <c r="C25" s="101"/>
       <c r="D25" s="102" t="s">
-        <v>226</v>
+        <v>380</v>
       </c>
       <c r="E25" s="97"/>
       <c r="F25" s="97"/>
       <c r="G25" s="97"/>
       <c r="H25" s="75"/>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B26" s="101" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C26" s="101"/>
       <c r="D26" s="102" t="s">
-        <v>227</v>
+        <v>381</v>
       </c>
       <c r="E26" s="97"/>
       <c r="F26" s="97"/>
       <c r="G26" s="97"/>
       <c r="H26" s="75"/>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B27" s="123"/>
       <c r="C27" s="123"/>
       <c r="D27" s="75"/>
@@ -9811,7 +9800,7 @@
       <c r="G27" s="97"/>
       <c r="H27" s="75"/>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B28" s="123"/>
       <c r="C28" s="123"/>
       <c r="D28" s="75"/>
@@ -9820,7 +9809,7 @@
       <c r="G28" s="97"/>
       <c r="H28" s="75"/>
     </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B29" s="123"/>
       <c r="C29" s="123"/>
       <c r="D29" s="75"/>
@@ -9829,21 +9818,21 @@
       <c r="G29" s="97"/>
       <c r="H29" s="75"/>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B30" s="123"/>
       <c r="C30" s="123"/>
       <c r="D30" s="75"/>
       <c r="E30" s="97"/>
       <c r="F30" s="97"/>
     </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B31" s="123"/>
       <c r="C31" s="123"/>
       <c r="D31" s="75"/>
       <c r="E31" s="97"/>
       <c r="F31" s="97"/>
     </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B32" s="123"/>
       <c r="C32" s="123"/>
       <c r="D32" s="75"/>
@@ -9906,7 +9895,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:E27"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A15" zoomScale="77" zoomScaleNormal="75" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="77" zoomScaleNormal="75" workbookViewId="0">
       <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
@@ -9921,430 +9910,430 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="167" t="s">
-        <v>273</v>
-      </c>
-      <c r="B1" s="167"/>
-      <c r="C1" s="127"/>
+      <c r="A1" s="166" t="s">
+        <v>180</v>
+      </c>
+      <c r="B1" s="166"/>
+      <c r="C1" s="126"/>
       <c r="D1" s="37"/>
       <c r="E1" s="37"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="128" t="s">
-        <v>274</v>
-      </c>
-      <c r="B2" s="128" t="s">
+      <c r="A2" s="127" t="s">
+        <v>181</v>
+      </c>
+      <c r="B2" s="127" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="128" t="s">
-        <v>275</v>
-      </c>
-      <c r="D2" s="128" t="s">
-        <v>276</v>
-      </c>
-      <c r="E2" s="128" t="s">
-        <v>17</v>
+      <c r="C2" s="127" t="s">
+        <v>182</v>
+      </c>
+      <c r="D2" s="127" t="s">
+        <v>183</v>
+      </c>
+      <c r="E2" s="127" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="129" t="s">
-        <v>277</v>
-      </c>
-      <c r="B3" s="130">
+      <c r="A3" s="128" t="s">
+        <v>184</v>
+      </c>
+      <c r="B3" s="129">
         <v>0.1</v>
       </c>
-      <c r="C3" s="130"/>
-      <c r="D3" s="131">
+      <c r="C3" s="129"/>
+      <c r="D3" s="130">
         <v>42765</v>
       </c>
-      <c r="E3" s="132" t="s">
-        <v>278</v>
+      <c r="E3" s="131" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="132" t="s">
-        <v>279</v>
-      </c>
-      <c r="B4" s="130">
+      <c r="A4" s="131" t="s">
+        <v>186</v>
+      </c>
+      <c r="B4" s="129">
         <v>0.2</v>
       </c>
-      <c r="C4" s="130"/>
-      <c r="D4" s="131">
+      <c r="C4" s="129"/>
+      <c r="D4" s="130">
         <v>42766</v>
       </c>
-      <c r="E4" s="132" t="s">
-        <v>280</v>
+      <c r="E4" s="131" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="132" t="s">
-        <v>281</v>
-      </c>
-      <c r="B5" s="130">
+      <c r="A5" s="131" t="s">
+        <v>188</v>
+      </c>
+      <c r="B5" s="129">
         <v>0.3</v>
       </c>
-      <c r="C5" s="130"/>
-      <c r="D5" s="131">
+      <c r="C5" s="129"/>
+      <c r="D5" s="130">
         <v>42778</v>
       </c>
-      <c r="E5" s="132" t="s">
-        <v>282</v>
+      <c r="E5" s="131" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="132" t="s">
-        <v>283</v>
-      </c>
-      <c r="B6" s="130" t="s">
-        <v>284</v>
-      </c>
-      <c r="C6" s="130"/>
-      <c r="D6" s="131">
+      <c r="A6" s="131" t="s">
+        <v>190</v>
+      </c>
+      <c r="B6" s="129" t="s">
+        <v>191</v>
+      </c>
+      <c r="C6" s="129"/>
+      <c r="D6" s="130">
         <v>42780</v>
       </c>
-      <c r="E6" s="132" t="s">
-        <v>285</v>
+      <c r="E6" s="131" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="132" t="s">
-        <v>279</v>
-      </c>
-      <c r="B7" s="133" t="s">
-        <v>286</v>
-      </c>
-      <c r="C7" s="133"/>
-      <c r="D7" s="131">
+      <c r="A7" s="131" t="s">
+        <v>186</v>
+      </c>
+      <c r="B7" s="132" t="s">
+        <v>193</v>
+      </c>
+      <c r="C7" s="132"/>
+      <c r="D7" s="130">
         <v>42781</v>
       </c>
-      <c r="E7" s="132" t="s">
-        <v>287</v>
+      <c r="E7" s="131" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="132" t="s">
-        <v>283</v>
-      </c>
-      <c r="B8" s="133" t="s">
-        <v>288</v>
-      </c>
-      <c r="C8" s="133"/>
-      <c r="D8" s="131">
+      <c r="A8" s="131" t="s">
+        <v>190</v>
+      </c>
+      <c r="B8" s="132" t="s">
+        <v>195</v>
+      </c>
+      <c r="C8" s="132"/>
+      <c r="D8" s="130">
         <v>42829</v>
       </c>
-      <c r="E8" s="132" t="s">
-        <v>289</v>
+      <c r="E8" s="131" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="132" t="s">
-        <v>279</v>
-      </c>
-      <c r="B9" s="133" t="s">
-        <v>288</v>
-      </c>
-      <c r="C9" s="133"/>
-      <c r="D9" s="131">
+      <c r="A9" s="131" t="s">
+        <v>186</v>
+      </c>
+      <c r="B9" s="132" t="s">
+        <v>195</v>
+      </c>
+      <c r="C9" s="132"/>
+      <c r="D9" s="130">
         <v>42919</v>
       </c>
-      <c r="E9" s="132" t="s">
-        <v>290</v>
+      <c r="E9" s="131" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="132" t="s">
-        <v>279</v>
-      </c>
-      <c r="B10" s="133" t="s">
-        <v>291</v>
-      </c>
-      <c r="C10" s="133"/>
-      <c r="D10" s="131">
+      <c r="A10" s="131" t="s">
+        <v>186</v>
+      </c>
+      <c r="B10" s="132" t="s">
+        <v>198</v>
+      </c>
+      <c r="C10" s="132"/>
+      <c r="D10" s="130">
         <v>42963</v>
       </c>
-      <c r="E10" s="132" t="s">
-        <v>292</v>
+      <c r="E10" s="131" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="132" t="s">
-        <v>279</v>
-      </c>
-      <c r="B11" s="133" t="s">
-        <v>293</v>
-      </c>
-      <c r="C11" s="133"/>
-      <c r="D11" s="131">
+      <c r="A11" s="131" t="s">
+        <v>186</v>
+      </c>
+      <c r="B11" s="132" t="s">
+        <v>200</v>
+      </c>
+      <c r="C11" s="132"/>
+      <c r="D11" s="130">
         <v>43113</v>
       </c>
-      <c r="E11" s="132" t="s">
-        <v>294</v>
+      <c r="E11" s="131" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="132" t="s">
-        <v>279</v>
-      </c>
-      <c r="B12" s="133">
+      <c r="A12" s="131" t="s">
+        <v>186</v>
+      </c>
+      <c r="B12" s="132">
         <v>1.1000000000000001</v>
       </c>
-      <c r="C12" s="133"/>
-      <c r="D12" s="131">
+      <c r="C12" s="132"/>
+      <c r="D12" s="130">
         <v>43289</v>
       </c>
-      <c r="E12" s="132" t="s">
-        <v>295</v>
+      <c r="E12" s="131" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="132" t="s">
-        <v>296</v>
-      </c>
-      <c r="B13" s="134" t="s">
-        <v>297</v>
-      </c>
-      <c r="C13" s="135"/>
-      <c r="D13" s="131">
+      <c r="A13" s="131" t="s">
+        <v>203</v>
+      </c>
+      <c r="B13" s="133" t="s">
+        <v>204</v>
+      </c>
+      <c r="C13" s="134"/>
+      <c r="D13" s="130">
         <v>43464</v>
       </c>
-      <c r="E13" s="136" t="s">
-        <v>298</v>
+      <c r="E13" s="135" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="132" t="s">
-        <v>299</v>
-      </c>
-      <c r="B14" s="134" t="s">
-        <v>300</v>
-      </c>
-      <c r="C14" s="135"/>
-      <c r="D14" s="131">
+      <c r="A14" s="131" t="s">
+        <v>206</v>
+      </c>
+      <c r="B14" s="133" t="s">
+        <v>207</v>
+      </c>
+      <c r="C14" s="134"/>
+      <c r="D14" s="130">
         <v>43469</v>
       </c>
-      <c r="E14" s="136" t="s">
-        <v>298</v>
+      <c r="E14" s="135" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="409" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="137" t="s">
-        <v>301</v>
-      </c>
-      <c r="B15" s="133" t="s">
-        <v>302</v>
-      </c>
-      <c r="C15" s="133" t="s">
-        <v>303</v>
-      </c>
-      <c r="D15" s="131">
+      <c r="A15" s="136" t="s">
+        <v>208</v>
+      </c>
+      <c r="B15" s="132" t="s">
+        <v>209</v>
+      </c>
+      <c r="C15" s="132" t="s">
+        <v>210</v>
+      </c>
+      <c r="D15" s="130">
         <v>43471</v>
       </c>
-      <c r="E15" s="138" t="s">
-        <v>304</v>
+      <c r="E15" s="137" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="132" t="s">
-        <v>296</v>
-      </c>
-      <c r="B16" s="134" t="s">
-        <v>305</v>
-      </c>
-      <c r="C16" s="133" t="s">
-        <v>303</v>
-      </c>
-      <c r="D16" s="139">
+      <c r="A16" s="131" t="s">
+        <v>203</v>
+      </c>
+      <c r="B16" s="133" t="s">
+        <v>212</v>
+      </c>
+      <c r="C16" s="132" t="s">
+        <v>210</v>
+      </c>
+      <c r="D16" s="138">
         <v>43475</v>
       </c>
-      <c r="E16" s="136" t="s">
-        <v>306</v>
+      <c r="E16" s="135" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="85" x14ac:dyDescent="0.2">
-      <c r="A17" s="137" t="s">
-        <v>301</v>
-      </c>
-      <c r="B17" s="134" t="s">
-        <v>307</v>
-      </c>
-      <c r="C17" s="133" t="s">
-        <v>303</v>
-      </c>
-      <c r="D17" s="131">
+      <c r="A17" s="136" t="s">
+        <v>208</v>
+      </c>
+      <c r="B17" s="133" t="s">
+        <v>214</v>
+      </c>
+      <c r="C17" s="132" t="s">
+        <v>210</v>
+      </c>
+      <c r="D17" s="130">
         <v>43476</v>
       </c>
-      <c r="E17" s="137" t="s">
-        <v>308</v>
+      <c r="E17" s="136" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="51" x14ac:dyDescent="0.2">
-      <c r="A18" s="137" t="s">
-        <v>301</v>
-      </c>
-      <c r="B18" s="134" t="s">
-        <v>309</v>
-      </c>
-      <c r="C18" s="133" t="s">
-        <v>303</v>
-      </c>
-      <c r="D18" s="131">
+      <c r="A18" s="136" t="s">
+        <v>208</v>
+      </c>
+      <c r="B18" s="133" t="s">
+        <v>216</v>
+      </c>
+      <c r="C18" s="132" t="s">
+        <v>210</v>
+      </c>
+      <c r="D18" s="130">
         <v>43478</v>
       </c>
-      <c r="E18" s="137" t="s">
-        <v>310</v>
+      <c r="E18" s="136" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="51" x14ac:dyDescent="0.2">
-      <c r="A19" s="137" t="s">
-        <v>301</v>
-      </c>
-      <c r="B19" s="134" t="s">
-        <v>311</v>
-      </c>
-      <c r="C19" s="133" t="s">
-        <v>303</v>
-      </c>
-      <c r="D19" s="131">
+      <c r="A19" s="136" t="s">
+        <v>208</v>
+      </c>
+      <c r="B19" s="133" t="s">
+        <v>218</v>
+      </c>
+      <c r="C19" s="132" t="s">
+        <v>210</v>
+      </c>
+      <c r="D19" s="130">
         <v>43478</v>
       </c>
-      <c r="E19" s="137" t="s">
-        <v>312</v>
+      <c r="E19" s="136" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="119" x14ac:dyDescent="0.2">
-      <c r="A20" s="137" t="s">
-        <v>296</v>
-      </c>
-      <c r="B20" s="134" t="s">
-        <v>313</v>
-      </c>
-      <c r="C20" s="133" t="s">
+      <c r="A20" s="136" t="s">
+        <v>203</v>
+      </c>
+      <c r="B20" s="133" t="s">
+        <v>220</v>
+      </c>
+      <c r="C20" s="132" t="s">
         <v>0</v>
       </c>
-      <c r="D20" s="131">
+      <c r="D20" s="130">
         <v>43641</v>
       </c>
-      <c r="E20" s="138" t="s">
-        <v>314</v>
+      <c r="E20" s="137" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A21" s="137" t="s">
-        <v>296</v>
-      </c>
-      <c r="B21" s="134" t="s">
-        <v>315</v>
-      </c>
-      <c r="C21" s="133" t="s">
+      <c r="A21" s="136" t="s">
+        <v>203</v>
+      </c>
+      <c r="B21" s="133" t="s">
+        <v>222</v>
+      </c>
+      <c r="C21" s="132" t="s">
         <v>0</v>
       </c>
-      <c r="D21" s="131">
+      <c r="D21" s="130">
         <v>43642</v>
       </c>
-      <c r="E21" s="137" t="s">
-        <v>316</v>
+      <c r="E21" s="136" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="51" x14ac:dyDescent="0.2">
-      <c r="A22" s="137" t="s">
-        <v>296</v>
-      </c>
-      <c r="B22" s="134" t="s">
-        <v>317</v>
-      </c>
-      <c r="C22" s="133" t="s">
+      <c r="A22" s="136" t="s">
+        <v>203</v>
+      </c>
+      <c r="B22" s="133" t="s">
+        <v>224</v>
+      </c>
+      <c r="C22" s="132" t="s">
         <v>0</v>
       </c>
-      <c r="D22" s="131">
+      <c r="D22" s="130">
         <v>43649</v>
       </c>
-      <c r="E22" s="137" t="s">
-        <v>318</v>
+      <c r="E22" s="136" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A23" s="137" t="s">
-        <v>296</v>
-      </c>
-      <c r="B23" s="134" t="s">
-        <v>317</v>
-      </c>
-      <c r="C23" s="133" t="s">
+      <c r="A23" s="136" t="s">
+        <v>203</v>
+      </c>
+      <c r="B23" s="133" t="s">
+        <v>224</v>
+      </c>
+      <c r="C23" s="132" t="s">
         <v>0</v>
       </c>
-      <c r="D23" s="131">
+      <c r="D23" s="130">
         <v>43672</v>
       </c>
-      <c r="E23" s="137" t="s">
-        <v>319</v>
+      <c r="E23" s="136" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A24" s="137" t="s">
-        <v>296</v>
-      </c>
-      <c r="B24" s="134" t="s">
-        <v>317</v>
-      </c>
-      <c r="C24" s="133" t="s">
+      <c r="A24" s="136" t="s">
+        <v>203</v>
+      </c>
+      <c r="B24" s="133" t="s">
+        <v>224</v>
+      </c>
+      <c r="C24" s="132" t="s">
         <v>0</v>
       </c>
-      <c r="D24" s="131">
+      <c r="D24" s="130">
         <v>43674</v>
       </c>
-      <c r="E24" s="137" t="s">
-        <v>320</v>
+      <c r="E24" s="136" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="51" x14ac:dyDescent="0.2">
-      <c r="A25" s="137" t="s">
-        <v>296</v>
-      </c>
-      <c r="B25" s="134" t="s">
-        <v>321</v>
-      </c>
-      <c r="C25" s="133" t="s">
+      <c r="A25" s="136" t="s">
+        <v>203</v>
+      </c>
+      <c r="B25" s="133" t="s">
+        <v>228</v>
+      </c>
+      <c r="C25" s="132" t="s">
         <v>0</v>
       </c>
-      <c r="D25" s="131">
+      <c r="D25" s="130">
         <v>43685</v>
       </c>
-      <c r="E25" s="137" t="s">
-        <v>322</v>
+      <c r="E25" s="136" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="51" x14ac:dyDescent="0.2">
-      <c r="A26" s="137" t="s">
-        <v>323</v>
-      </c>
-      <c r="B26" s="134" t="s">
-        <v>321</v>
-      </c>
-      <c r="C26" s="133" t="s">
+      <c r="A26" s="136" t="s">
+        <v>230</v>
+      </c>
+      <c r="B26" s="133" t="s">
+        <v>228</v>
+      </c>
+      <c r="C26" s="132" t="s">
         <v>0</v>
       </c>
-      <c r="D26" s="131">
+      <c r="D26" s="130">
         <v>43719</v>
       </c>
-      <c r="E26" s="137" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" s="143" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A27" s="140" t="s">
-        <v>325</v>
-      </c>
-      <c r="B27" s="141" t="s">
-        <v>321</v>
-      </c>
-      <c r="C27" s="142" t="s">
+      <c r="E26" s="136" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" s="142" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A27" s="139" t="s">
+        <v>232</v>
+      </c>
+      <c r="B27" s="140" t="s">
+        <v>228</v>
+      </c>
+      <c r="C27" s="141" t="s">
         <v>0</v>
       </c>
-      <c r="D27" s="143" t="s">
-        <v>326</v>
-      </c>
-      <c r="E27" s="143" t="s">
-        <v>327</v>
+      <c r="D27" s="142" t="s">
+        <v>233</v>
+      </c>
+      <c r="E27" s="142" t="s">
+        <v>234</v>
       </c>
     </row>
   </sheetData>

--- a/Checklists/Mobile_App_Security_Checklist-Chinese_1.1.2.xlsx
+++ b/Checklists/Mobile_App_Security_Checklist-Chinese_1.1.2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Bob\Documents\GitHub\owasp-mstg\Checklists\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A603CA85-2F46-49C6-A179-A42FAFBF08B7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61EB4EC2-6C23-4CF6-A0EC-9D68A19AA436}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15330" yWindow="1200" windowWidth="20685" windowHeight="19860" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1395" yWindow="1230" windowWidth="24315" windowHeight="19455" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="仪表板" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
     <sheet name="版本历史" sheetId="7" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2">'安全要求 - Android'!$B$3:$L$72</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2">'安全要求 - Android'!$B$3:$L$74</definedName>
     <definedName name="BASE_URL">仪表板!$D$14</definedName>
     <definedName name="MASVS_VERSION">仪表板!$D$11</definedName>
     <definedName name="MSTG_VERSION">仪表板!$D$13</definedName>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="996" uniqueCount="430">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1007" uniqueCount="439">
   <si>
     <t>1.1.4</t>
   </si>
@@ -992,46 +992,10 @@
     <t>MASVS 合规评分 ( / 5)</t>
   </si>
   <si>
-    <t>测试流程(s)</t>
-  </si>
-  <si>
     <t>评论</t>
   </si>
   <si>
     <t>状态</t>
-  </si>
-  <si>
-    <t>等级 1</t>
-  </si>
-  <si>
-    <t>等级 2</t>
-  </si>
-  <si>
-    <t>详细验证要求</t>
-  </si>
-  <si>
-    <t>体系结构，设计和威胁建模</t>
-  </si>
-  <si>
-    <t>明确识别了在移动应用程序上下文中被认为敏感的数据。</t>
-  </si>
-  <si>
-    <t>所有应用程序组件均根据其提供的业务功能和/或安全功能进行定义。</t>
-  </si>
-  <si>
-    <t>已经为移动应用程序和关联的远程服务创建了威胁模型，该模型可以识别潜在威胁和对策。</t>
-  </si>
-  <si>
-    <t>所有安全控制都有集中的实现。</t>
-  </si>
-  <si>
-    <t>对于如何管理加密密钥（如果有）以及实施加密密钥的生命周期，有一个明确的策略。 理想情况下，请遵循诸如NIST SP 800-57之类的密钥管理标准。</t>
-  </si>
-  <si>
-    <t>存在强制执行移动应用程序更新的机制。</t>
-  </si>
-  <si>
-    <t>在软件开发生命周期的所有部分中都解决了安全问题。</t>
   </si>
   <si>
     <t>数据存储和隐私</t>
@@ -1485,16 +1449,79 @@
     <t>V8: 逆向工程的弹性 (Resiliency Against Reverse Engineering)</t>
   </si>
   <si>
-    <t>测试工具</t>
-  </si>
-  <si>
-    <t>确定了所有应用程序组件，并确定它们是必需的. (All app components are identified and known to be needed.)</t>
-  </si>
-  <si>
     <t>安全控制永远不会仅强制在客户端上，而其相应的远程端点上也需要. (Security controls are never enforced only on the client side, but on the respective remote endpoints.)</t>
   </si>
   <si>
-    <t>已经为移动应用程序和所有连接的远程服务定义了高级体系结构，并在该体系结构中解决了安全问题. (A high-level architecture for the mobile app and all connected remote services has been defined and security has been addressed in that architecture.)</t>
+    <t>移动应用的高级架构图 和 所有连接的远程服务已被定义, 并且安全在此架构中被关注. (A high-level architecture for the mobile app and all connected remote services has been defined and security has been addressed in that architecture.)</t>
+  </si>
+  <si>
+    <t>所有应用程序组件被识别，并确定其需要性. (All app components are identified and known to be needed.)</t>
+  </si>
+  <si>
+    <t>在移动应用环境下被认为敏感的数据清楚的被识别出来. (Data considered sensitive in the context of the mobile app is clearly identified.)</t>
+  </si>
+  <si>
+    <t>详细验证要求 (Detailed Verification Requirement)</t>
+  </si>
+  <si>
+    <t>体系结构，设计和威胁建模 (Architecture, design and threat modelling)</t>
+  </si>
+  <si>
+    <t>等级 1 (Level 1)</t>
+  </si>
+  <si>
+    <t>等级 2 (Level 2)</t>
+  </si>
+  <si>
+    <t>状态 (Status)</t>
+  </si>
+  <si>
+    <t>所有提供的基于业务功能和/或安全功能的应用组件被定义和识别. (All app components are defined in terms of the business functions and/or security functions they provide.)</t>
+  </si>
+  <si>
+    <t>移动应用和其相关联远程服务都通过生成威胁建模的方式, 识别其潜在威胁和应对措施. (A threat model for the mobile app and the associated remote services has been produced that identifies potential threats and countermeasures.)</t>
+  </si>
+  <si>
+    <t>所有安全控制都可以集中执行. (All security controls have a centralized implementation.)</t>
+  </si>
+  <si>
+    <t>关于"加密秘钥如何被管理(如果存在)" 和 "加密秘钥生命周期是否被强制" 应有明确策略. 理想情况下, 应遵循 NIST SP 800-57 密钥管理标准. (There is an explicit policy for how cryptographic keys (if any) are managed, and the lifecycle of cryptographic keys is enforced. Ideally, follow a key management standard such as NIST SP 800-57.)</t>
+  </si>
+  <si>
+    <t>已存在一种强制更新移动应用的机制. (A mechanism for enforcing updates of the mobile app exists.)</t>
+  </si>
+  <si>
+    <t>在整个 SDLC (软件开发生命周期) 中, 安全被关注. (Security is addressed within all parts of the software development lifecycle.)</t>
+  </si>
+  <si>
+    <t>1.11</t>
+  </si>
+  <si>
+    <t>1.12</t>
+  </si>
+  <si>
+    <t>MSTG-ARCH-11</t>
+  </si>
+  <si>
+    <t>MSTG-ARCH-12</t>
+  </si>
+  <si>
+    <t>一份负责信息披露政策应存在并有效的应用. (A responsible disclosure policy is in place and effectively applied.)</t>
+  </si>
+  <si>
+    <t>其应用应该遵循隐私法和条例. (The app should comply with privacy laws and regulations.)</t>
+  </si>
+  <si>
+    <t>Chef Inspec</t>
+  </si>
+  <si>
+    <t>测试流程(s) (Testing Procedure(s))</t>
+  </si>
+  <si>
+    <t>测试工具 (Testing Tools)</t>
+  </si>
+  <si>
+    <t>评论 (Comments)</t>
   </si>
 </sst>
 </file>
@@ -1507,7 +1534,7 @@
     <numFmt numFmtId="166" formatCode="0.00\ %"/>
     <numFmt numFmtId="167" formatCode="[$-407]dd/mm/yyyy"/>
   </numFmts>
-  <fonts count="28" x14ac:knownFonts="1">
+  <fonts count="29" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -1711,6 +1738,13 @@
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF5F5F5F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="13">
     <fill>
@@ -1786,7 +1820,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="26">
+  <borders count="28">
     <border>
       <left/>
       <right/>
@@ -2087,13 +2121,35 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="2"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="2" tint="-9.9948118533890809E-2"/>
+      </left>
+      <right style="thin">
+        <color theme="2"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="161">
+  <cellXfs count="166">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
@@ -2237,9 +2293,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2294,6 +2347,9 @@
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="8" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -2507,6 +2563,21 @@
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -3909,7 +3980,7 @@
     <row r="1" spans="2:4" ht="8.1" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="147" t="s">
-        <v>416</v>
+        <v>404</v>
       </c>
       <c r="C2" s="147"/>
       <c r="D2" s="147"/>
@@ -4309,7 +4380,7 @@
     <row r="2" spans="2:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B2" s="16"/>
       <c r="C2" s="17" t="s">
-        <v>417</v>
+        <v>405</v>
       </c>
       <c r="D2" s="18"/>
       <c r="E2" s="18"/>
@@ -4545,18 +4616,18 @@
     </row>
     <row r="43" spans="3:11" ht="16.5" x14ac:dyDescent="0.25">
       <c r="C43" s="158" t="s">
-        <v>418</v>
+        <v>406</v>
       </c>
       <c r="D43" s="27">
-        <f>COUNTIFS('安全要求 - Android'!G5:G14,'安全要求 - Android'!B79)</f>
+        <f>COUNTIFS('安全要求 - Android'!G5:G14,'安全要求 - Android'!B81)</f>
         <v>0</v>
       </c>
       <c r="E43" s="27">
-        <f>COUNTIFS('安全要求 - Android'!G5:G14,'安全要求 - Android'!B80)</f>
+        <f>COUNTIFS('安全要求 - Android'!G5:G14,'安全要求 - Android'!B82)</f>
         <v>0</v>
       </c>
       <c r="F43" s="28">
-        <f>COUNTIFS('安全要求 - Android'!G5:G14,'安全要求 - Android'!B81)</f>
+        <f>COUNTIFS('安全要求 - Android'!G5:G14,'安全要求 - Android'!B83)</f>
         <v>6</v>
       </c>
       <c r="G43" s="29">
@@ -4564,15 +4635,15 @@
         <v>0</v>
       </c>
       <c r="H43" s="27">
-        <f>COUNTIFS('安全要求 - iOS'!G5:G14,'安全要求 - Android'!B79)</f>
+        <f>COUNTIFS('安全要求 - iOS'!G5:G14,'安全要求 - Android'!B81)</f>
         <v>0</v>
       </c>
       <c r="I43" s="27">
-        <f>COUNTIFS('安全要求 - iOS'!G5:G14,'安全要求 - Android'!B80)</f>
+        <f>COUNTIFS('安全要求 - iOS'!G5:G14,'安全要求 - Android'!B82)</f>
         <v>0</v>
       </c>
       <c r="J43" s="28">
-        <f>COUNTIFS('安全要求 - iOS'!G5:G14,'安全要求 - Android'!B81)</f>
+        <f>COUNTIFS('安全要求 - iOS'!G5:G14,'安全要求 - Android'!B83)</f>
         <v>6</v>
       </c>
       <c r="K43" s="29">
@@ -4582,18 +4653,18 @@
     </row>
     <row r="44" spans="3:11" ht="16.5" x14ac:dyDescent="0.25">
       <c r="C44" s="158" t="s">
-        <v>419</v>
+        <v>407</v>
       </c>
       <c r="D44" s="27">
-        <f>COUNTIFS('安全要求 - Android'!G16:G27,'安全要求 - Android'!B79)</f>
+        <f>COUNTIFS('安全要求 - Android'!G18:G29,'安全要求 - Android'!B81)</f>
         <v>0</v>
       </c>
       <c r="E44" s="27">
-        <f>COUNTIFS('安全要求 - Android'!G16:G27,'安全要求 - Android'!B80)</f>
+        <f>COUNTIFS('安全要求 - Android'!G18:G29,'安全要求 - Android'!B82)</f>
         <v>0</v>
       </c>
       <c r="F44" s="27">
-        <f>COUNTIFS('安全要求 - Android'!G16:G27,'安全要求 - Android'!B81)</f>
+        <f>COUNTIFS('安全要求 - Android'!G18:G29,'安全要求 - Android'!B83)</f>
         <v>5</v>
       </c>
       <c r="G44" s="29">
@@ -4601,15 +4672,15 @@
         <v>0</v>
       </c>
       <c r="H44" s="27">
-        <f>COUNTIFS('安全要求 - iOS'!G16:G27,'安全要求 - Android'!B79)</f>
+        <f>COUNTIFS('安全要求 - iOS'!G16:G27,'安全要求 - Android'!B81)</f>
         <v>0</v>
       </c>
       <c r="I44" s="27">
-        <f>COUNTIFS('安全要求 - iOS'!G16:G27,'安全要求 - Android'!B80)</f>
+        <f>COUNTIFS('安全要求 - iOS'!G16:G27,'安全要求 - Android'!B82)</f>
         <v>0</v>
       </c>
       <c r="J44" s="27">
-        <f>COUNTIFS('安全要求 - iOS'!G16:G27,'安全要求 - Android'!B81)</f>
+        <f>COUNTIFS('安全要求 - iOS'!G16:G27,'安全要求 - Android'!B83)</f>
         <v>5</v>
       </c>
       <c r="K44" s="29">
@@ -4619,18 +4690,18 @@
     </row>
     <row r="45" spans="3:11" ht="16.5" x14ac:dyDescent="0.25">
       <c r="C45" s="158" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
       <c r="D45" s="27">
-        <f>COUNTIFS('安全要求 - Android'!G29:G34,'安全要求 - Android'!B79)</f>
+        <f>COUNTIFS('安全要求 - Android'!G31:G36,'安全要求 - Android'!B81)</f>
         <v>0</v>
       </c>
       <c r="E45" s="27">
-        <f>COUNTIFS('安全要求 - Android'!G29:G34,'安全要求 - Android'!B80)</f>
+        <f>COUNTIFS('安全要求 - Android'!G31:G36,'安全要求 - Android'!B82)</f>
         <v>0</v>
       </c>
       <c r="F45" s="27">
-        <f>COUNTIFS('安全要求 - Android'!G29:G34,'安全要求 - Android'!B81)</f>
+        <f>COUNTIFS('安全要求 - Android'!G31:G36,'安全要求 - Android'!B83)</f>
         <v>0</v>
       </c>
       <c r="G45" s="29">
@@ -4638,15 +4709,15 @@
         <v>0</v>
       </c>
       <c r="H45" s="27">
-        <f>COUNTIFS('安全要求 - iOS'!G29:G34,'安全要求 - Android'!B79)</f>
+        <f>COUNTIFS('安全要求 - iOS'!G29:G34,'安全要求 - Android'!B81)</f>
         <v>0</v>
       </c>
       <c r="I45" s="27">
-        <f>COUNTIFS('安全要求 - iOS'!G29:G34,'安全要求 - Android'!B80)</f>
+        <f>COUNTIFS('安全要求 - iOS'!G29:G34,'安全要求 - Android'!B82)</f>
         <v>0</v>
       </c>
       <c r="J45" s="27">
-        <f>COUNTIFS('安全要求 - iOS'!G29:G34,'安全要求 - Android'!B81)</f>
+        <f>COUNTIFS('安全要求 - iOS'!G29:G34,'安全要求 - Android'!B83)</f>
         <v>0</v>
       </c>
       <c r="K45" s="29">
@@ -4656,18 +4727,18 @@
     </row>
     <row r="46" spans="3:11" ht="16.5" x14ac:dyDescent="0.25">
       <c r="C46" s="158" t="s">
-        <v>421</v>
+        <v>409</v>
       </c>
       <c r="D46" s="27">
-        <f>COUNTIFS('安全要求 - Android'!G36:G46,'安全要求 - Android'!B79)</f>
+        <f>COUNTIFS('安全要求 - Android'!G38:G48,'安全要求 - Android'!B81)</f>
         <v>0</v>
       </c>
       <c r="E46" s="27">
-        <f>COUNTIFS('安全要求 - Android'!G36:G46,'安全要求 - Android'!B80)</f>
+        <f>COUNTIFS('安全要求 - Android'!G38:G48,'安全要求 - Android'!B82)</f>
         <v>0</v>
       </c>
       <c r="F46" s="27">
-        <f>COUNTIFS('安全要求 - Android'!G36:G46,'安全要求 - Android'!B81)</f>
+        <f>COUNTIFS('安全要求 - Android'!G38:G48,'安全要求 - Android'!B83)</f>
         <v>4</v>
       </c>
       <c r="G46" s="29">
@@ -4675,15 +4746,15 @@
         <v>0</v>
       </c>
       <c r="H46" s="27">
-        <f>COUNTIFS('安全要求 - iOS'!G36:G46,'安全要求 - Android'!B79)</f>
+        <f>COUNTIFS('安全要求 - iOS'!G36:G46,'安全要求 - Android'!B81)</f>
         <v>0</v>
       </c>
       <c r="I46" s="27">
-        <f>COUNTIFS('安全要求 - iOS'!G36:G46,'安全要求 - Android'!B80)</f>
+        <f>COUNTIFS('安全要求 - iOS'!G36:G46,'安全要求 - Android'!B82)</f>
         <v>0</v>
       </c>
       <c r="J46" s="27">
-        <f>COUNTIFS('安全要求 - iOS'!G36:G46,'安全要求 - Android'!B81)</f>
+        <f>COUNTIFS('安全要求 - iOS'!G36:G46,'安全要求 - Android'!B83)</f>
         <v>4</v>
       </c>
       <c r="K46" s="29">
@@ -4693,18 +4764,18 @@
     </row>
     <row r="47" spans="3:11" ht="16.5" x14ac:dyDescent="0.25">
       <c r="C47" s="158" t="s">
-        <v>422</v>
+        <v>410</v>
       </c>
       <c r="D47" s="27">
-        <f>COUNTIFS('安全要求 - Android'!G48:G53,'安全要求 - Android'!B79)</f>
+        <f>COUNTIFS('安全要求 - Android'!G50:G55,'安全要求 - Android'!B81)</f>
         <v>0</v>
       </c>
       <c r="E47" s="27">
-        <f>COUNTIFS('安全要求 - Android'!G48:G53,'安全要求 - Android'!B80)</f>
+        <f>COUNTIFS('安全要求 - Android'!G50:G55,'安全要求 - Android'!B82)</f>
         <v>0</v>
       </c>
       <c r="F47" s="27">
-        <f>COUNTIFS('安全要求 - Android'!G48:G53,'安全要求 - Android'!B81)</f>
+        <f>COUNTIFS('安全要求 - Android'!G50:G55,'安全要求 - Android'!B83)</f>
         <v>3</v>
       </c>
       <c r="G47" s="29">
@@ -4712,15 +4783,15 @@
         <v>0</v>
       </c>
       <c r="H47" s="27">
-        <f>COUNTIFS('安全要求 - iOS'!G48:G53,'安全要求 - Android'!B79)</f>
+        <f>COUNTIFS('安全要求 - iOS'!G48:G53,'安全要求 - Android'!B81)</f>
         <v>0</v>
       </c>
       <c r="I47" s="27">
-        <f>COUNTIFS('安全要求 - iOS'!G48:G53,'安全要求 - Android'!B80)</f>
+        <f>COUNTIFS('安全要求 - iOS'!G48:G53,'安全要求 - Android'!B82)</f>
         <v>0</v>
       </c>
       <c r="J47" s="27">
-        <f>COUNTIFS('安全要求 - iOS'!G48:G53,'安全要求 - Android'!B81)</f>
+        <f>COUNTIFS('安全要求 - iOS'!G48:G53,'安全要求 - Android'!B83)</f>
         <v>3</v>
       </c>
       <c r="K47" s="29">
@@ -4730,18 +4801,18 @@
     </row>
     <row r="48" spans="3:11" ht="16.5" x14ac:dyDescent="0.25">
       <c r="C48" s="158" t="s">
-        <v>423</v>
+        <v>411</v>
       </c>
       <c r="D48" s="27">
-        <f>COUNTIFS('安全要求 - Android'!G55:G62,'安全要求 - Android'!B79)</f>
+        <f>COUNTIFS('安全要求 - Android'!G57:G64,'安全要求 - Android'!B81)</f>
         <v>0</v>
       </c>
       <c r="E48" s="27">
-        <f>COUNTIFS('安全要求 - Android'!G55:G62,'安全要求 - Android'!B80)</f>
+        <f>COUNTIFS('安全要求 - Android'!G57:G64,'安全要求 - Android'!B82)</f>
         <v>0</v>
       </c>
       <c r="F48" s="27">
-        <f>COUNTIFS('安全要求 - Android'!G55:G62,'安全要求 - Android'!B81)</f>
+        <f>COUNTIFS('安全要求 - Android'!G57:G64,'安全要求 - Android'!B83)</f>
         <v>0</v>
       </c>
       <c r="G48" s="29">
@@ -4749,15 +4820,15 @@
         <v>0</v>
       </c>
       <c r="H48" s="27">
-        <f>COUNTIFS('安全要求 - iOS'!G55:G62,'安全要求 - Android'!B79)</f>
+        <f>COUNTIFS('安全要求 - iOS'!G55:G62,'安全要求 - Android'!B81)</f>
         <v>0</v>
       </c>
       <c r="I48" s="27">
-        <f>COUNTIFS('安全要求 - iOS'!G55:G62,'安全要求 - Android'!B80)</f>
+        <f>COUNTIFS('安全要求 - iOS'!G55:G62,'安全要求 - Android'!B82)</f>
         <v>0</v>
       </c>
       <c r="J48" s="27">
-        <f>COUNTIFS('安全要求 - iOS'!G55:G62,'安全要求 - Android'!B81)</f>
+        <f>COUNTIFS('安全要求 - iOS'!G55:G62,'安全要求 - Android'!B83)</f>
         <v>0</v>
       </c>
       <c r="K48" s="29">
@@ -4767,18 +4838,18 @@
     </row>
     <row r="49" spans="3:11" ht="16.5" x14ac:dyDescent="0.25">
       <c r="C49" s="158" t="s">
-        <v>424</v>
+        <v>412</v>
       </c>
       <c r="D49" s="27">
-        <f>COUNTIFS('安全要求 - Android'!G64:G72,'安全要求 - Android'!B79)</f>
+        <f>COUNTIFS('安全要求 - Android'!G66:G74,'安全要求 - Android'!B81)</f>
         <v>0</v>
       </c>
       <c r="E49" s="27">
-        <f>COUNTIFS('安全要求 - Android'!G64:G72,'安全要求 - Android'!B80)</f>
+        <f>COUNTIFS('安全要求 - Android'!G66:G74,'安全要求 - Android'!B82)</f>
         <v>0</v>
       </c>
       <c r="F49" s="27">
-        <f>COUNTIFS('安全要求 - Android'!G64:G72,'安全要求 - Android'!B81)</f>
+        <f>COUNTIFS('安全要求 - Android'!G66:G74,'安全要求 - Android'!B83)</f>
         <v>0</v>
       </c>
       <c r="G49" s="29">
@@ -4786,15 +4857,15 @@
         <v>0</v>
       </c>
       <c r="H49" s="27">
-        <f>COUNTIFS('安全要求 - iOS'!G64:G72,'安全要求 - Android'!B79)</f>
+        <f>COUNTIFS('安全要求 - iOS'!G64:G72,'安全要求 - Android'!B81)</f>
         <v>0</v>
       </c>
       <c r="I49" s="27">
-        <f>COUNTIFS('安全要求 - iOS'!G64:G72,'安全要求 - Android'!B80)</f>
+        <f>COUNTIFS('安全要求 - iOS'!G64:G72,'安全要求 - Android'!B82)</f>
         <v>0</v>
       </c>
       <c r="J49" s="27">
-        <f>COUNTIFS('安全要求 - iOS'!G64:G72,'安全要求 - Android'!B81)</f>
+        <f>COUNTIFS('安全要求 - iOS'!G64:G72,'安全要求 - Android'!B83)</f>
         <v>0</v>
       </c>
       <c r="K49" s="29">
@@ -4804,18 +4875,18 @@
     </row>
     <row r="50" spans="3:11" ht="16.5" x14ac:dyDescent="0.25">
       <c r="C50" s="158" t="s">
-        <v>425</v>
+        <v>413</v>
       </c>
       <c r="D50" s="27">
-        <f>COUNTIFS('反逆向 - Android'!F4:F18,'安全要求 - Android'!B79)</f>
+        <f>COUNTIFS('反逆向 - Android'!F4:F18,'安全要求 - Android'!B81)</f>
         <v>0</v>
       </c>
       <c r="E50" s="27">
-        <f>COUNTIFS('反逆向 - Android'!F4:F18,'安全要求 - Android'!B80)</f>
+        <f>COUNTIFS('反逆向 - Android'!F4:F18,'安全要求 - Android'!B82)</f>
         <v>0</v>
       </c>
       <c r="F50" s="27">
-        <f>COUNTIFS('反逆向 - Android'!F4:F18,'安全要求 - Android'!B81)</f>
+        <f>COUNTIFS('反逆向 - Android'!F4:F18,'安全要求 - Android'!B83)</f>
         <v>12</v>
       </c>
       <c r="G50" s="29">
@@ -4823,15 +4894,15 @@
         <v>0</v>
       </c>
       <c r="H50" s="27">
-        <f>COUNTIFS('反逆向 - iOS'!F4:F18,'安全要求 - Android'!B79)</f>
+        <f>COUNTIFS('反逆向 - iOS'!F4:F18,'安全要求 - Android'!B81)</f>
         <v>0</v>
       </c>
       <c r="I50" s="27">
-        <f>COUNTIFS('反逆向 - iOS'!F4:F18,'安全要求 - Android'!B80)</f>
+        <f>COUNTIFS('反逆向 - iOS'!F4:F18,'安全要求 - Android'!B82)</f>
         <v>0</v>
       </c>
       <c r="J50" s="27">
-        <f>COUNTIFS('反逆向 - iOS'!F4:F18,'安全要求 - Android'!B81)</f>
+        <f>COUNTIFS('反逆向 - iOS'!F4:F18,'安全要求 - Android'!B83)</f>
         <v>12</v>
       </c>
       <c r="K50" s="29">
@@ -4887,10 +4958,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:AML85"/>
+  <dimension ref="A1:AML87"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4912,7 +4983,7 @@
   <sheetData>
     <row r="1" spans="2:12" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B1" s="155" t="s">
-        <v>415</v>
+        <v>403</v>
       </c>
       <c r="C1" s="155"/>
       <c r="D1" s="155"/>
@@ -4946,27 +5017,27 @@
         <v>11</v>
       </c>
       <c r="D3" s="39" t="s">
-        <v>271</v>
+        <v>418</v>
       </c>
       <c r="E3" s="40" t="s">
-        <v>269</v>
+        <v>420</v>
       </c>
       <c r="F3" s="40" t="s">
-        <v>270</v>
+        <v>421</v>
       </c>
       <c r="G3" s="40" t="s">
-        <v>268</v>
+        <v>422</v>
       </c>
       <c r="H3" s="159" t="s">
-        <v>266</v>
+        <v>436</v>
       </c>
       <c r="I3" s="159"/>
       <c r="J3" s="159"/>
       <c r="K3" s="41" t="s">
-        <v>426</v>
+        <v>437</v>
       </c>
       <c r="L3" s="139" t="s">
-        <v>267</v>
+        <v>438</v>
       </c>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.25">
@@ -4975,7 +5046,7 @@
       </c>
       <c r="C4" s="44"/>
       <c r="D4" s="45" t="s">
-        <v>272</v>
+        <v>419</v>
       </c>
       <c r="E4" s="46"/>
       <c r="F4" s="46"/>
@@ -4994,7 +5065,7 @@
         <v>19</v>
       </c>
       <c r="D5" s="135" t="s">
-        <v>427</v>
+        <v>416</v>
       </c>
       <c r="E5" s="52" t="s">
         <v>20</v>
@@ -5003,17 +5074,17 @@
         <v>20</v>
       </c>
       <c r="G5" s="54"/>
-      <c r="H5" s="71" t="str">
+      <c r="H5" s="161" t="str">
         <f>HYPERLINK(CONCATENATE( BASE_URL, "0x04b-Mobile-App-Security-Testing.md#architectural-information"), "架构信息")</f>
         <v>架构信息</v>
       </c>
-      <c r="I5" s="71" t="str">
+      <c r="I5" s="161" t="str">
         <f>HYPERLINK(CONCATENATE( BASE_URL, "0x05h-Testing-Platform-Interaction.md#testing-for-insecure-configuration-of-instant-apps-mstg-arch-1-mstg-arch-7"), "测试即时应用程序的不安全配置 (MSTG-ARCH-1, MSTG-ARCH-7)")</f>
         <v>测试即时应用程序的不安全配置 (MSTG-ARCH-1, MSTG-ARCH-7)</v>
       </c>
-      <c r="J5" s="71"/>
-      <c r="K5" s="71"/>
-      <c r="L5" s="57"/>
+      <c r="J5" s="161"/>
+      <c r="K5" s="164"/>
+      <c r="L5" s="56"/>
     </row>
     <row r="6" spans="2:12" ht="47.25" x14ac:dyDescent="0.25">
       <c r="B6" s="49" t="s">
@@ -5023,7 +5094,7 @@
         <v>22</v>
       </c>
       <c r="D6" s="135" t="s">
-        <v>428</v>
+        <v>414</v>
       </c>
       <c r="E6" s="52" t="s">
         <v>20</v>
@@ -5032,17 +5103,17 @@
         <v>20</v>
       </c>
       <c r="G6" s="54"/>
-      <c r="H6" s="71" t="str">
+      <c r="H6" s="161" t="str">
         <f>HYPERLINK(CONCATENATE( BASE_URL, "0x04h-Testing-Code-Quality.md#injection-flaws-mstg-arch-2-and-mstg-platform-2"), "注入缺陷 (MSTG-ARCH-2 and MSTG-PLATFORM-2)")</f>
         <v>注入缺陷 (MSTG-ARCH-2 and MSTG-PLATFORM-2)</v>
       </c>
-      <c r="I6" s="71" t="str">
+      <c r="I6" s="161" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x04e-Testing-Authentication-and-Session-Management.md#verifying-that-appropriate-authentication-is-in-place-mstg-arch-2-and-mstg-auth-1"),"验证适当的身份验证是否到位 (MSTG-ARCH-2 and MSTG-AUTH-1)")</f>
         <v>验证适当的身份验证是否到位 (MSTG-ARCH-2 and MSTG-AUTH-1)</v>
       </c>
-      <c r="J6" s="71"/>
-      <c r="K6" s="71"/>
-      <c r="L6" s="57"/>
+      <c r="J6" s="161"/>
+      <c r="K6" s="164"/>
+      <c r="L6" s="56"/>
     </row>
     <row r="7" spans="2:12" ht="45" x14ac:dyDescent="0.25">
       <c r="B7" s="49" t="s">
@@ -5052,7 +5123,7 @@
         <v>24</v>
       </c>
       <c r="D7" s="135" t="s">
-        <v>429</v>
+        <v>415</v>
       </c>
       <c r="E7" s="52" t="s">
         <v>20</v>
@@ -5061,16 +5132,16 @@
         <v>20</v>
       </c>
       <c r="G7" s="54"/>
-      <c r="H7" s="71" t="str">
+      <c r="H7" s="161" t="str">
         <f>HYPERLINK(CONCATENATE( BASE_URL, "0x04b-Mobile-App-Security-Testing.md#architectural-information"), "架构信息")</f>
         <v>架构信息</v>
       </c>
-      <c r="I7" s="71"/>
-      <c r="J7" s="71"/>
-      <c r="K7" s="71"/>
-      <c r="L7" s="57"/>
-    </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="I7" s="161"/>
+      <c r="J7" s="161"/>
+      <c r="K7" s="164"/>
+      <c r="L7" s="56"/>
+    </row>
+    <row r="8" spans="2:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B8" s="49" t="s">
         <v>25</v>
       </c>
@@ -5078,7 +5149,7 @@
         <v>26</v>
       </c>
       <c r="D8" s="135" t="s">
-        <v>273</v>
+        <v>417</v>
       </c>
       <c r="E8" s="52" t="s">
         <v>20</v>
@@ -5087,16 +5158,16 @@
         <v>20</v>
       </c>
       <c r="G8" s="54"/>
-      <c r="H8" s="71" t="str">
+      <c r="H8" s="161" t="str">
         <f>HYPERLINK(CONCATENATE( BASE_URL, "0x04b-Mobile-App-Security-Testing.md#identifying-sensitive-data"), "识别敏感信息")</f>
         <v>识别敏感信息</v>
       </c>
-      <c r="I8" s="71"/>
-      <c r="J8" s="71"/>
-      <c r="K8" s="71"/>
-      <c r="L8" s="57"/>
-    </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="I8" s="161"/>
+      <c r="J8" s="161"/>
+      <c r="K8" s="164"/>
+      <c r="L8" s="56"/>
+    </row>
+    <row r="9" spans="2:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B9" s="49" t="s">
         <v>27</v>
       </c>
@@ -5104,25 +5175,25 @@
         <v>28</v>
       </c>
       <c r="D9" s="135" t="s">
-        <v>274</v>
-      </c>
-      <c r="E9" s="60"/>
+        <v>423</v>
+      </c>
+      <c r="E9" s="59"/>
       <c r="F9" s="53" t="s">
         <v>20</v>
       </c>
       <c r="G9" s="54" t="s">
         <v>29</v>
       </c>
-      <c r="H9" s="71" t="str">
+      <c r="H9" s="161" t="str">
         <f>HYPERLINK(CONCATENATE( BASE_URL, "0x04b-Mobile-App-Security-Testing.md#environmental-information"), "运行环境信息")</f>
         <v>运行环境信息</v>
       </c>
-      <c r="I9" s="71"/>
-      <c r="J9" s="71"/>
-      <c r="K9" s="71"/>
-      <c r="L9" s="57"/>
-    </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="I9" s="161"/>
+      <c r="J9" s="161"/>
+      <c r="K9" s="164"/>
+      <c r="L9" s="56"/>
+    </row>
+    <row r="10" spans="2:12" ht="45" x14ac:dyDescent="0.25">
       <c r="B10" s="49" t="s">
         <v>30</v>
       </c>
@@ -5130,23 +5201,23 @@
         <v>31</v>
       </c>
       <c r="D10" s="135" t="s">
-        <v>275</v>
-      </c>
-      <c r="E10" s="60"/>
+        <v>424</v>
+      </c>
+      <c r="E10" s="59"/>
       <c r="F10" s="53" t="s">
         <v>20</v>
       </c>
       <c r="G10" s="54" t="s">
         <v>29</v>
       </c>
-      <c r="H10" s="71" t="str">
+      <c r="H10" s="161" t="str">
         <f>HYPERLINK(CONCATENATE( BASE_URL, "0x04b-Mobile-App-Security-Testing.md#mapping-the-application"), "应用关联")</f>
         <v>应用关联</v>
       </c>
-      <c r="I10" s="71"/>
-      <c r="J10" s="71"/>
-      <c r="K10" s="71"/>
-      <c r="L10" s="57"/>
+      <c r="I10" s="161"/>
+      <c r="J10" s="161"/>
+      <c r="K10" s="164"/>
+      <c r="L10" s="56"/>
     </row>
     <row r="11" spans="2:12" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B11" s="49" t="s">
@@ -5156,31 +5227,31 @@
         <v>33</v>
       </c>
       <c r="D11" s="135" t="s">
-        <v>276</v>
-      </c>
-      <c r="E11" s="60"/>
+        <v>425</v>
+      </c>
+      <c r="E11" s="59"/>
       <c r="F11" s="53" t="s">
         <v>20</v>
       </c>
       <c r="G11" s="54" t="s">
         <v>29</v>
       </c>
-      <c r="H11" s="71" t="str">
+      <c r="H11" s="161" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05h-Testing-Platform-Interaction.md#testing-for-insecure-configuration-of-instant-apps-mstg-arch-1-mstg-arch-7"),"测试即时应用程序的不安全配置 (MSTG-ARCH-1, MSTG-ARCH-7)")</f>
         <v>测试即时应用程序的不安全配置 (MSTG-ARCH-1, MSTG-ARCH-7)</v>
       </c>
-      <c r="I11" s="71" t="str">
+      <c r="I11" s="161" t="str">
         <f>HYPERLINK(CONCATENATE( BASE_URL, "0x04b-Mobile-App-Security-Testing.md#principles-of-testing"), "测试原则")</f>
         <v>测试原则</v>
       </c>
-      <c r="J11" s="133" t="str">
+      <c r="J11" s="75" t="str">
         <f>HYPERLINK(CONCATENATE( BASE_URL, "0x04b-Mobile-App-Security-Testing.md#penetration-testing-aka-pentesting"), "渗透测试 (a.k.a. Pentesting)")</f>
         <v>渗透测试 (a.k.a. Pentesting)</v>
       </c>
-      <c r="K11" s="71"/>
-      <c r="L11" s="57"/>
-    </row>
-    <row r="12" spans="2:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="K11" s="164"/>
+      <c r="L11" s="56"/>
+    </row>
+    <row r="12" spans="2:12" ht="45" x14ac:dyDescent="0.25">
       <c r="B12" s="49" t="s">
         <v>34</v>
       </c>
@@ -5188,23 +5259,23 @@
         <v>35</v>
       </c>
       <c r="D12" s="135" t="s">
-        <v>277</v>
-      </c>
-      <c r="E12" s="60"/>
+        <v>426</v>
+      </c>
+      <c r="E12" s="59"/>
       <c r="F12" s="53" t="s">
         <v>20</v>
       </c>
       <c r="G12" s="54" t="s">
         <v>29</v>
       </c>
-      <c r="H12" s="71" t="str">
+      <c r="H12" s="161" t="str">
         <f>HYPERLINK(CONCATENATE( BASE_URL, "0x04g-Testing-Cryptography.md#cryptographic-policy"), "加密策略")</f>
         <v>加密策略</v>
       </c>
-      <c r="I12" s="71"/>
-      <c r="J12" s="71"/>
-      <c r="K12" s="71"/>
-      <c r="L12" s="57"/>
+      <c r="I12" s="161"/>
+      <c r="J12" s="161"/>
+      <c r="K12" s="164"/>
+      <c r="L12" s="56"/>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B13" s="49" t="s">
@@ -5214,25 +5285,25 @@
         <v>37</v>
       </c>
       <c r="D13" s="135" t="s">
-        <v>278</v>
-      </c>
-      <c r="E13" s="60"/>
+        <v>427</v>
+      </c>
+      <c r="E13" s="59"/>
       <c r="F13" s="53" t="s">
         <v>20</v>
       </c>
       <c r="G13" s="54" t="s">
         <v>29</v>
       </c>
-      <c r="H13" s="71" t="str">
+      <c r="H13" s="161" t="str">
         <f>HYPERLINK(CONCATENATE( BASE_URL, "0x05h-Testing-Platform-Interaction.md#testing-enforced-updating-mstg-arch-9"), "强制更新测试 (MSTG-ARCH-9)")</f>
         <v>强制更新测试 (MSTG-ARCH-9)</v>
       </c>
-      <c r="I13" s="71"/>
-      <c r="J13" s="71"/>
-      <c r="K13" s="71"/>
-      <c r="L13" s="57"/>
-    </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="I13" s="161"/>
+      <c r="J13" s="161"/>
+      <c r="K13" s="164"/>
+      <c r="L13" s="56"/>
+    </row>
+    <row r="14" spans="2:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B14" s="49" t="s">
         <v>38</v>
       </c>
@@ -5240,1547 +5311,1569 @@
         <v>39</v>
       </c>
       <c r="D14" s="135" t="s">
-        <v>279</v>
-      </c>
-      <c r="E14" s="60"/>
+        <v>428</v>
+      </c>
+      <c r="E14" s="59"/>
       <c r="F14" s="53" t="s">
         <v>20</v>
       </c>
       <c r="G14" s="54" t="s">
         <v>29</v>
       </c>
-      <c r="H14" s="71" t="str">
+      <c r="H14" s="161" t="str">
         <f>HYPERLINK(CONCATENATE( BASE_URL, "0x04b-Mobile-App-Security-Testing.md#security-testing-and-the-sdlc"), "安全测试 和 软件开发生命周期")</f>
         <v>安全测试 和 软件开发生命周期</v>
       </c>
-      <c r="I14" s="71"/>
-      <c r="J14" s="71"/>
-      <c r="K14" s="71"/>
-      <c r="L14" s="57"/>
+      <c r="I14" s="161"/>
+      <c r="J14" s="161"/>
+      <c r="K14" s="164"/>
+      <c r="L14" s="56"/>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B15" s="61" t="s">
+      <c r="B15" s="49" t="s">
+        <v>429</v>
+      </c>
+      <c r="C15" s="50" t="s">
+        <v>431</v>
+      </c>
+      <c r="D15" s="135" t="s">
+        <v>433</v>
+      </c>
+      <c r="E15" s="59"/>
+      <c r="F15" s="53" t="s">
+        <v>20</v>
+      </c>
+      <c r="G15" s="54" t="s">
+        <v>29</v>
+      </c>
+      <c r="H15" s="161"/>
+      <c r="I15" s="161"/>
+      <c r="J15" s="161"/>
+      <c r="K15" s="164"/>
+      <c r="L15" s="77"/>
+    </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B16" s="49" t="s">
+        <v>430</v>
+      </c>
+      <c r="C16" s="50" t="s">
+        <v>432</v>
+      </c>
+      <c r="D16" s="135" t="s">
+        <v>434</v>
+      </c>
+      <c r="E16" s="59"/>
+      <c r="F16" s="53" t="s">
+        <v>20</v>
+      </c>
+      <c r="G16" s="54" t="s">
+        <v>29</v>
+      </c>
+      <c r="H16" s="161"/>
+      <c r="I16" s="161"/>
+      <c r="J16" s="161"/>
+      <c r="K16" s="164" t="s">
+        <v>435</v>
+      </c>
+      <c r="L16" s="77"/>
+    </row>
+    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B17" s="60" t="s">
         <v>40</v>
       </c>
-      <c r="C15" s="62"/>
-      <c r="D15" s="63" t="s">
-        <v>280</v>
-      </c>
-      <c r="E15" s="64"/>
-      <c r="F15" s="65"/>
-      <c r="G15" s="64"/>
-      <c r="H15" s="66"/>
-      <c r="I15" s="67"/>
-      <c r="J15" s="67"/>
-      <c r="K15" s="67"/>
-      <c r="L15" s="68"/>
-    </row>
-    <row r="16" spans="2:12" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="B16" s="49" t="s">
+      <c r="C17" s="61"/>
+      <c r="D17" s="62" t="s">
+        <v>268</v>
+      </c>
+      <c r="E17" s="63"/>
+      <c r="F17" s="64"/>
+      <c r="G17" s="63"/>
+      <c r="H17" s="65"/>
+      <c r="I17" s="63"/>
+      <c r="J17" s="63"/>
+      <c r="K17" s="63"/>
+      <c r="L17" s="76"/>
+    </row>
+    <row r="18" spans="2:12" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="B18" s="49" t="s">
         <v>41</v>
       </c>
-      <c r="C16" s="50" t="s">
+      <c r="C18" s="50" t="s">
         <v>42</v>
       </c>
-      <c r="D16" s="135" t="s">
-        <v>281</v>
-      </c>
-      <c r="E16" s="52" t="s">
-        <v>20</v>
-      </c>
-      <c r="F16" s="53" t="s">
-        <v>20</v>
-      </c>
-      <c r="G16" s="54"/>
-      <c r="H16" s="71" t="str">
+      <c r="D18" s="135" t="s">
+        <v>269</v>
+      </c>
+      <c r="E18" s="52" t="s">
+        <v>20</v>
+      </c>
+      <c r="F18" s="53" t="s">
+        <v>20</v>
+      </c>
+      <c r="G18" s="54"/>
+      <c r="H18" s="161" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05d-Testing-Data-Storage.md#testing-local-storage-for-sensitive-data-mstg-storage-1-and-mstg-storage-2"),"本地存储中的敏感数据测试 (MSTG-STORAGE-1 and MSTG-STORAGE-2)")</f>
         <v>本地存储中的敏感数据测试 (MSTG-STORAGE-1 and MSTG-STORAGE-2)</v>
       </c>
-      <c r="I16" s="71" t="str">
+      <c r="I18" s="161" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05e-Testing-Cryptography.md#testing-key-management-mstg-storage-1-mstg-crypto-1-and-mstg-crypto-5"),"测试密钥管理 (MSTG-STORAGE-1, MSTG-CRYPTO-1 and MSTG-CRYPTO-5)")</f>
         <v>测试密钥管理 (MSTG-STORAGE-1, MSTG-CRYPTO-1 and MSTG-CRYPTO-5)</v>
       </c>
-      <c r="J16" s="71"/>
-      <c r="K16" s="71"/>
-      <c r="L16" s="57"/>
-    </row>
-    <row r="17" spans="2:12" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B17" s="49" t="s">
+      <c r="J18" s="161"/>
+      <c r="K18" s="164"/>
+      <c r="L18" s="56"/>
+    </row>
+    <row r="19" spans="2:12" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B19" s="49" t="s">
         <v>43</v>
       </c>
-      <c r="C17" s="50" t="s">
+      <c r="C19" s="50" t="s">
         <v>44</v>
       </c>
-      <c r="D17" s="135" t="s">
-        <v>282</v>
-      </c>
-      <c r="E17" s="52"/>
-      <c r="F17" s="53"/>
-      <c r="G17" s="54"/>
-      <c r="H17" s="71" t="str">
+      <c r="D19" s="135" t="s">
+        <v>270</v>
+      </c>
+      <c r="E19" s="52"/>
+      <c r="F19" s="53"/>
+      <c r="G19" s="54"/>
+      <c r="H19" s="161" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05d-Testing-Data-Storage.md#testing-local-storage-for-sensitive-data-mstg-storage-1-and-mstg-storage-2"),"本地存储中的敏感数据测试 (MSTG-STORAGE-1 and MSTG-STORAGE-2)")</f>
         <v>本地存储中的敏感数据测试 (MSTG-STORAGE-1 and MSTG-STORAGE-2)</v>
       </c>
-      <c r="I17" s="71"/>
-      <c r="J17" s="71"/>
-      <c r="K17" s="71"/>
-      <c r="L17" s="73"/>
-    </row>
-    <row r="18" spans="2:12" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B18" s="49" t="s">
+      <c r="I19" s="161"/>
+      <c r="J19" s="161"/>
+      <c r="K19" s="164"/>
+      <c r="L19" s="72"/>
+    </row>
+    <row r="20" spans="2:12" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B20" s="49" t="s">
         <v>45</v>
       </c>
-      <c r="C18" s="50" t="s">
+      <c r="C20" s="50" t="s">
         <v>46</v>
       </c>
-      <c r="D18" s="135" t="s">
-        <v>283</v>
-      </c>
-      <c r="E18" s="52" t="s">
-        <v>20</v>
-      </c>
-      <c r="F18" s="53" t="s">
-        <v>20</v>
-      </c>
-      <c r="G18" s="54"/>
-      <c r="H18" s="71" t="str">
+      <c r="D20" s="135" t="s">
+        <v>271</v>
+      </c>
+      <c r="E20" s="52" t="s">
+        <v>20</v>
+      </c>
+      <c r="F20" s="53" t="s">
+        <v>20</v>
+      </c>
+      <c r="G20" s="54"/>
+      <c r="H20" s="161" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05d-Testing-Data-Storage.md#testing-logs-for-sensitive-data-mstg-storage-3"),"日志中获取敏感数据测试 (MSTG-STORAGE-3)")</f>
         <v>日志中获取敏感数据测试 (MSTG-STORAGE-3)</v>
       </c>
-      <c r="I18" s="71"/>
-      <c r="J18" s="71"/>
-      <c r="K18" s="71"/>
-      <c r="L18" s="57"/>
-    </row>
-    <row r="19" spans="2:12" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B19" s="49" t="s">
+      <c r="I20" s="161"/>
+      <c r="J20" s="161"/>
+      <c r="K20" s="164"/>
+      <c r="L20" s="56"/>
+    </row>
+    <row r="21" spans="2:12" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B21" s="49" t="s">
         <v>47</v>
       </c>
-      <c r="C19" s="50" t="s">
+      <c r="C21" s="50" t="s">
         <v>48</v>
       </c>
-      <c r="D19" s="135" t="s">
-        <v>284</v>
-      </c>
-      <c r="E19" s="52" t="s">
-        <v>20</v>
-      </c>
-      <c r="F19" s="53" t="s">
-        <v>20</v>
-      </c>
-      <c r="G19" s="54"/>
-      <c r="H19" s="71" t="str">
+      <c r="D21" s="135" t="s">
+        <v>272</v>
+      </c>
+      <c r="E21" s="52" t="s">
+        <v>20</v>
+      </c>
+      <c r="F21" s="53" t="s">
+        <v>20</v>
+      </c>
+      <c r="G21" s="54"/>
+      <c r="H21" s="161" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05d-Testing-Data-Storage.md#determining-whether-sensitive-data-is-sent-to-third-parties-mstg-storage-4"),"确定是否将敏感数据发送给第三方 (MSTG-STORAGE-4)")</f>
         <v>确定是否将敏感数据发送给第三方 (MSTG-STORAGE-4)</v>
       </c>
-      <c r="I19" s="71"/>
-      <c r="J19" s="71"/>
-      <c r="K19" s="71"/>
-      <c r="L19" s="57"/>
-    </row>
-    <row r="20" spans="2:12" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B20" s="49" t="s">
+      <c r="I21" s="161"/>
+      <c r="J21" s="161"/>
+      <c r="K21" s="164"/>
+      <c r="L21" s="56"/>
+    </row>
+    <row r="22" spans="2:12" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B22" s="49" t="s">
         <v>49</v>
       </c>
-      <c r="C20" s="50" t="s">
+      <c r="C22" s="50" t="s">
         <v>50</v>
       </c>
-      <c r="D20" s="160" t="s">
-        <v>285</v>
-      </c>
-      <c r="E20" s="52" t="s">
-        <v>20</v>
-      </c>
-      <c r="F20" s="53" t="s">
-        <v>20</v>
-      </c>
-      <c r="G20" s="54"/>
-      <c r="H20" s="71" t="str">
+      <c r="D22" s="160" t="s">
+        <v>273</v>
+      </c>
+      <c r="E22" s="52" t="s">
+        <v>20</v>
+      </c>
+      <c r="F22" s="53" t="s">
+        <v>20</v>
+      </c>
+      <c r="G22" s="54"/>
+      <c r="H22" s="161" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05d-Testing-Data-Storage.md#determining-whether-the-keyboard-cache-is-disabled-for-text-input-fields-mstg-storage-5"),"确定是否为文本输入字段禁用了键盘缓存 (MSTG-STORAGE-5)")</f>
         <v>确定是否为文本输入字段禁用了键盘缓存 (MSTG-STORAGE-5)</v>
       </c>
-      <c r="I20" s="71"/>
-      <c r="J20" s="71"/>
-      <c r="K20" s="71"/>
-      <c r="L20" s="57"/>
-    </row>
-    <row r="21" spans="2:12" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B21" s="49" t="s">
+      <c r="I22" s="161"/>
+      <c r="J22" s="161"/>
+      <c r="K22" s="164"/>
+      <c r="L22" s="56"/>
+    </row>
+    <row r="23" spans="2:12" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B23" s="49" t="s">
         <v>51</v>
       </c>
-      <c r="C21" s="50" t="s">
+      <c r="C23" s="50" t="s">
         <v>52</v>
       </c>
-      <c r="D21" s="160" t="s">
-        <v>286</v>
-      </c>
-      <c r="E21" s="52" t="s">
-        <v>20</v>
-      </c>
-      <c r="F21" s="53" t="s">
-        <v>20</v>
-      </c>
-      <c r="G21" s="54"/>
-      <c r="H21" s="71" t="str">
+      <c r="D23" s="160" t="s">
+        <v>274</v>
+      </c>
+      <c r="E23" s="52" t="s">
+        <v>20</v>
+      </c>
+      <c r="F23" s="53" t="s">
+        <v>20</v>
+      </c>
+      <c r="G23" s="54"/>
+      <c r="H23" s="161" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05d-Testing-Data-Storage.md#determining-whether-sensitive-stored-data-has-been-exposed-via-ipc-mechanisms-mstg-storage-6"),"确定是否已通过IPC机制公开了敏感的存储数据 (MSTG-STORAGE-6)")</f>
         <v>确定是否已通过IPC机制公开了敏感的存储数据 (MSTG-STORAGE-6)</v>
       </c>
-      <c r="I21" s="71"/>
-      <c r="J21" s="71"/>
-      <c r="K21" s="71"/>
-      <c r="L21" s="57"/>
-    </row>
-    <row r="22" spans="2:12" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B22" s="49" t="s">
+      <c r="I23" s="161"/>
+      <c r="J23" s="161"/>
+      <c r="K23" s="164"/>
+      <c r="L23" s="56"/>
+    </row>
+    <row r="24" spans="2:12" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B24" s="49" t="s">
         <v>53</v>
       </c>
-      <c r="C22" s="50" t="s">
+      <c r="C24" s="50" t="s">
         <v>54</v>
       </c>
-      <c r="D22" s="160" t="s">
-        <v>287</v>
-      </c>
-      <c r="E22" s="52" t="s">
-        <v>20</v>
-      </c>
-      <c r="F22" s="53" t="s">
-        <v>20</v>
-      </c>
-      <c r="G22" s="54"/>
-      <c r="H22" s="71" t="str">
+      <c r="D24" s="160" t="s">
+        <v>275</v>
+      </c>
+      <c r="E24" s="52" t="s">
+        <v>20</v>
+      </c>
+      <c r="F24" s="53" t="s">
+        <v>20</v>
+      </c>
+      <c r="G24" s="54"/>
+      <c r="H24" s="161" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05d-Testing-Data-Storage.md#checking-for-sensitive-data-disclosure-through-the-user-interface-mstg-storage-7"),"通过用户界面检查敏感数据披露 (MSTG-STORAGE-7)")</f>
         <v>通过用户界面检查敏感数据披露 (MSTG-STORAGE-7)</v>
       </c>
-      <c r="I22" s="71"/>
-      <c r="J22" s="71"/>
-      <c r="K22" s="71"/>
-      <c r="L22" s="57"/>
-    </row>
-    <row r="23" spans="2:12" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B23" s="49" t="s">
+      <c r="I24" s="161"/>
+      <c r="J24" s="161"/>
+      <c r="K24" s="164"/>
+      <c r="L24" s="56"/>
+    </row>
+    <row r="25" spans="2:12" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B25" s="49" t="s">
         <v>55</v>
       </c>
-      <c r="C23" s="50" t="s">
+      <c r="C25" s="50" t="s">
         <v>56</v>
       </c>
-      <c r="D23" s="160" t="s">
-        <v>288</v>
-      </c>
-      <c r="E23" s="75"/>
-      <c r="F23" s="53" t="s">
-        <v>20</v>
-      </c>
-      <c r="G23" s="54" t="s">
+      <c r="D25" s="160" t="s">
+        <v>276</v>
+      </c>
+      <c r="E25" s="74"/>
+      <c r="F25" s="53" t="s">
+        <v>20</v>
+      </c>
+      <c r="G25" s="54" t="s">
         <v>29</v>
       </c>
-      <c r="H23" s="71" t="str">
+      <c r="H25" s="161" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05d-Testing-Data-Storage.md#testing-backups-for-sensitive-data-mstg-storage-8"),"备份中获取敏感数据测试 (MSTG-STORAGE-8)")</f>
         <v>备份中获取敏感数据测试 (MSTG-STORAGE-8)</v>
       </c>
-      <c r="I23" s="71"/>
-      <c r="J23" s="71"/>
-      <c r="K23" s="71"/>
-      <c r="L23" s="57"/>
-    </row>
-    <row r="24" spans="2:12" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B24" s="49" t="s">
+      <c r="I25" s="161"/>
+      <c r="J25" s="161"/>
+      <c r="K25" s="164"/>
+      <c r="L25" s="56"/>
+    </row>
+    <row r="26" spans="2:12" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B26" s="49" t="s">
         <v>57</v>
       </c>
-      <c r="C24" s="50" t="s">
+      <c r="C26" s="50" t="s">
         <v>58</v>
       </c>
-      <c r="D24" s="160" t="s">
-        <v>289</v>
-      </c>
-      <c r="E24" s="75"/>
-      <c r="F24" s="53" t="s">
-        <v>20</v>
-      </c>
-      <c r="G24" s="54" t="s">
+      <c r="D26" s="160" t="s">
+        <v>277</v>
+      </c>
+      <c r="E26" s="74"/>
+      <c r="F26" s="53" t="s">
+        <v>20</v>
+      </c>
+      <c r="G26" s="54" t="s">
         <v>29</v>
       </c>
-      <c r="H24" s="71" t="str">
+      <c r="H26" s="161" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05d-Testing-Data-Storage.md#finding-sensitive-information-in-auto-generated-screenshots-mstg-storage-9"),"在自动生成的屏幕截图中查找敏感信息 (MSTG-STORAGE-9)")</f>
         <v>在自动生成的屏幕截图中查找敏感信息 (MSTG-STORAGE-9)</v>
       </c>
-      <c r="I24" s="71"/>
-      <c r="J24" s="71"/>
-      <c r="K24" s="71"/>
-      <c r="L24" s="57"/>
-    </row>
-    <row r="25" spans="2:12" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B25" s="49" t="s">
+      <c r="I26" s="161"/>
+      <c r="J26" s="161"/>
+      <c r="K26" s="164"/>
+      <c r="L26" s="56"/>
+    </row>
+    <row r="27" spans="2:12" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B27" s="49" t="s">
         <v>59</v>
       </c>
-      <c r="C25" s="50" t="s">
+      <c r="C27" s="50" t="s">
         <v>60</v>
       </c>
-      <c r="D25" s="160" t="s">
-        <v>290</v>
-      </c>
-      <c r="E25" s="75"/>
-      <c r="F25" s="53" t="s">
-        <v>20</v>
-      </c>
-      <c r="G25" s="54" t="s">
+      <c r="D27" s="160" t="s">
+        <v>278</v>
+      </c>
+      <c r="E27" s="74"/>
+      <c r="F27" s="53" t="s">
+        <v>20</v>
+      </c>
+      <c r="G27" s="54" t="s">
         <v>29</v>
       </c>
-      <c r="H25" s="71" t="str">
+      <c r="H27" s="161" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05d-Testing-Data-Storage.md#checking-memory-for-sensitive-data-mstg-storage-10"),"检查内存中的敏感数据 (MSTG-STORAGE-10)")</f>
         <v>检查内存中的敏感数据 (MSTG-STORAGE-10)</v>
       </c>
-      <c r="I25" s="71"/>
-      <c r="J25" s="71"/>
-      <c r="K25" s="71"/>
-      <c r="L25" s="57"/>
-    </row>
-    <row r="26" spans="2:12" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B26" s="49" t="s">
+      <c r="I27" s="161"/>
+      <c r="J27" s="161"/>
+      <c r="K27" s="164"/>
+      <c r="L27" s="56"/>
+    </row>
+    <row r="28" spans="2:12" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B28" s="49" t="s">
         <v>61</v>
       </c>
-      <c r="C26" s="50" t="s">
+      <c r="C28" s="50" t="s">
         <v>62</v>
       </c>
-      <c r="D26" s="160" t="s">
-        <v>291</v>
-      </c>
-      <c r="E26" s="75"/>
-      <c r="F26" s="53" t="s">
-        <v>20</v>
-      </c>
-      <c r="G26" s="54" t="s">
+      <c r="D28" s="160" t="s">
+        <v>279</v>
+      </c>
+      <c r="E28" s="74"/>
+      <c r="F28" s="53" t="s">
+        <v>20</v>
+      </c>
+      <c r="G28" s="54" t="s">
         <v>29</v>
       </c>
-      <c r="H26" s="71" t="str">
+      <c r="H28" s="161" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05d-Testing-Data-Storage.md#testing-the-device-access-security-policy-mstg-storage-11"),"设备访问安全策略测试 (MSTG-STORAGE-11)")</f>
         <v>设备访问安全策略测试 (MSTG-STORAGE-11)</v>
       </c>
-      <c r="I26" s="71" t="str">
+      <c r="I28" s="161" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05f-Testing-Local-Authentication.md#testing-confirm-credentials-mstg-auth-1-and-mstg-storage-11"),"测试确认凭证 (MSTG-AUTH-1 and MSTG-STORAGE-11)")</f>
         <v>测试确认凭证 (MSTG-AUTH-1 and MSTG-STORAGE-11)</v>
       </c>
-      <c r="J26" s="71"/>
-      <c r="K26" s="71"/>
-      <c r="L26" s="57"/>
-    </row>
-    <row r="27" spans="2:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="B27" s="49" t="s">
+      <c r="J28" s="161"/>
+      <c r="K28" s="164"/>
+      <c r="L28" s="56"/>
+    </row>
+    <row r="29" spans="2:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="B29" s="49" t="s">
         <v>63</v>
       </c>
-      <c r="C27" s="50" t="s">
+      <c r="C29" s="50" t="s">
         <v>64</v>
       </c>
-      <c r="D27" s="135" t="s">
-        <v>292</v>
-      </c>
-      <c r="E27" s="75"/>
-      <c r="F27" s="53" t="s">
-        <v>20</v>
-      </c>
-      <c r="G27" s="54" t="s">
+      <c r="D29" s="135" t="s">
+        <v>280</v>
+      </c>
+      <c r="E29" s="74"/>
+      <c r="F29" s="53" t="s">
+        <v>20</v>
+      </c>
+      <c r="G29" s="54" t="s">
         <v>29</v>
       </c>
-      <c r="H27" s="71" t="str">
+      <c r="H29" s="161" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x04i-Testing-user-interaction.md#testing-user-education-mstg-storage-12"),"用户教育测试 (MSTG-STORAGE-12)")</f>
         <v>用户教育测试 (MSTG-STORAGE-12)</v>
       </c>
-      <c r="I27" s="71"/>
-      <c r="J27" s="71"/>
-      <c r="K27" s="71"/>
-      <c r="L27" s="57"/>
-    </row>
-    <row r="28" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B28" s="61" t="s">
+      <c r="I29" s="161"/>
+      <c r="J29" s="161"/>
+      <c r="K29" s="164"/>
+      <c r="L29" s="56"/>
+    </row>
+    <row r="30" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B30" s="60" t="s">
         <v>65</v>
       </c>
-      <c r="C28" s="62"/>
-      <c r="D28" s="63" t="s">
-        <v>293</v>
-      </c>
-      <c r="E28" s="64"/>
-      <c r="F28" s="65"/>
-      <c r="G28" s="64"/>
-      <c r="H28" s="66"/>
-      <c r="I28" s="67"/>
-      <c r="J28" s="67"/>
-      <c r="K28" s="67"/>
-      <c r="L28" s="76"/>
-    </row>
-    <row r="29" spans="2:12" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="B29" s="49" t="s">
+      <c r="C30" s="61"/>
+      <c r="D30" s="62" t="s">
+        <v>281</v>
+      </c>
+      <c r="E30" s="63"/>
+      <c r="F30" s="64"/>
+      <c r="G30" s="63"/>
+      <c r="H30" s="65"/>
+      <c r="I30" s="63"/>
+      <c r="J30" s="63"/>
+      <c r="K30" s="63"/>
+      <c r="L30" s="76"/>
+    </row>
+    <row r="31" spans="2:12" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="B31" s="49" t="s">
         <v>66</v>
       </c>
-      <c r="C29" s="50" t="s">
+      <c r="C31" s="50" t="s">
         <v>67</v>
       </c>
-      <c r="D29" s="160" t="s">
-        <v>294</v>
-      </c>
-      <c r="E29" s="52" t="s">
-        <v>20</v>
-      </c>
-      <c r="F29" s="53" t="s">
-        <v>20</v>
-      </c>
-      <c r="G29" s="54"/>
-      <c r="H29" s="71" t="str">
+      <c r="D31" s="160" t="s">
+        <v>282</v>
+      </c>
+      <c r="E31" s="52" t="s">
+        <v>20</v>
+      </c>
+      <c r="F31" s="53" t="s">
+        <v>20</v>
+      </c>
+      <c r="G31" s="54"/>
+      <c r="H31" s="161" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05e-Testing-Cryptography.md#testing-key-management-mstg-storage-1-mstg-crypto-1-and-mstg-crypto-5"),"测试密钥管理 (MSTG-STORAGE-1, MSTG-CRYPTO-1 and MSTG-CRYPTO-5)")</f>
         <v>测试密钥管理 (MSTG-STORAGE-1, MSTG-CRYPTO-1 and MSTG-CRYPTO-5)</v>
       </c>
-      <c r="I29" s="71" t="str">
+      <c r="I31" s="161" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x04g-Testing-Cryptography.md#common-configuration-issues-mstg-crypto-1-mstg-crypto-2-and-mstg-crypto-3"),"常见配置问题 (MSTG-CRYPTO-1, MSTG-CRYPTO-2 and MSTG-CRYPTO-3)")</f>
         <v>常见配置问题 (MSTG-CRYPTO-1, MSTG-CRYPTO-2 and MSTG-CRYPTO-3)</v>
       </c>
-      <c r="J29" s="71"/>
-      <c r="K29" s="71"/>
-      <c r="L29" s="57"/>
-    </row>
-    <row r="30" spans="2:12" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="B30" s="49" t="s">
+      <c r="J31" s="161"/>
+      <c r="K31" s="164"/>
+      <c r="L31" s="56"/>
+    </row>
+    <row r="32" spans="2:12" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="B32" s="49" t="s">
         <v>68</v>
       </c>
-      <c r="C30" s="50" t="s">
+      <c r="C32" s="50" t="s">
         <v>69</v>
       </c>
-      <c r="D30" s="160" t="s">
-        <v>295</v>
-      </c>
-      <c r="E30" s="52" t="s">
-        <v>20</v>
-      </c>
-      <c r="F30" s="53" t="s">
-        <v>20</v>
-      </c>
-      <c r="G30" s="54"/>
-      <c r="H30" s="71" t="str">
+      <c r="D32" s="160" t="s">
+        <v>283</v>
+      </c>
+      <c r="E32" s="52" t="s">
+        <v>20</v>
+      </c>
+      <c r="F32" s="53" t="s">
+        <v>20</v>
+      </c>
+      <c r="G32" s="54"/>
+      <c r="H32" s="161" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x04g-Testing-Cryptography.md#common-configuration-issues-mstg-crypto-1-mstg-crypto-2-and-mstg-crypto-3"),"常见配置问题 (MSTG-CRYPTO-1, MSTG-CRYPTO-2 and MSTG-CRYPTO-3)")</f>
         <v>常见配置问题 (MSTG-CRYPTO-1, MSTG-CRYPTO-2 and MSTG-CRYPTO-3)</v>
       </c>
-      <c r="I30" s="71" t="str">
+      <c r="I32" s="161" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05e-Testing-Cryptography.md#testing-the-configuration-of-cryptographic-standard-algorithms-mstg-crypto-2-mstg-crypto-3-and-mstg-crypto-4"),"测试密码标准算法的配置 (MSTG-CRYPTO-2, MSTG-CRYPTO-3 and MSTG-CRYPTO-4)")</f>
         <v>测试密码标准算法的配置 (MSTG-CRYPTO-2, MSTG-CRYPTO-3 and MSTG-CRYPTO-4)</v>
       </c>
-      <c r="J30" s="71"/>
-      <c r="K30" s="71"/>
-      <c r="L30" s="57"/>
-    </row>
-    <row r="31" spans="2:12" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="B31" s="49" t="s">
+      <c r="J32" s="161"/>
+      <c r="K32" s="164"/>
+      <c r="L32" s="56"/>
+    </row>
+    <row r="33" spans="2:14" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="B33" s="49" t="s">
         <v>70</v>
       </c>
-      <c r="C31" s="50" t="s">
+      <c r="C33" s="50" t="s">
         <v>71</v>
       </c>
-      <c r="D31" s="135" t="s">
-        <v>296</v>
-      </c>
-      <c r="E31" s="52" t="s">
-        <v>20</v>
-      </c>
-      <c r="F31" s="53" t="s">
-        <v>20</v>
-      </c>
-      <c r="G31" s="54"/>
-      <c r="H31" s="71" t="str">
+      <c r="D33" s="135" t="s">
+        <v>284</v>
+      </c>
+      <c r="E33" s="52" t="s">
+        <v>20</v>
+      </c>
+      <c r="F33" s="53" t="s">
+        <v>20</v>
+      </c>
+      <c r="G33" s="54"/>
+      <c r="H33" s="161" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05e-Testing-Cryptography.md#testing-the-configuration-of-cryptographic-standard-algorithms-mstg-crypto-2-mstg-crypto-3-and-mstg-crypto-4"),"测试密码标准算法的配置 (MSTG-CRYPTO-2, MSTG-CRYPTO-3 and MSTG-CRYPTO-4)")</f>
         <v>测试密码标准算法的配置 (MSTG-CRYPTO-2, MSTG-CRYPTO-3 and MSTG-CRYPTO-4)</v>
       </c>
-      <c r="I31" s="71" t="str">
+      <c r="I33" s="161" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x04g-Testing-Cryptography.md#common-configuration-issues-mstg-crypto-1-mstg-crypto-2-and-mstg-crypto-3"),"常见配置问题 (MSTG-CRYPTO-1, MSTG-CRYPTO-2 and MSTG-CRYPTO-3)")</f>
         <v>常见配置问题 (MSTG-CRYPTO-1, MSTG-CRYPTO-2 and MSTG-CRYPTO-3)</v>
       </c>
-      <c r="J31" s="71"/>
-      <c r="K31" s="71"/>
-      <c r="L31" s="57"/>
-    </row>
-    <row r="32" spans="2:12" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="B32" s="49" t="s">
+      <c r="J33" s="161"/>
+      <c r="K33" s="164"/>
+      <c r="L33" s="56"/>
+    </row>
+    <row r="34" spans="2:14" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="B34" s="49" t="s">
         <v>72</v>
       </c>
-      <c r="C32" s="50" t="s">
+      <c r="C34" s="50" t="s">
         <v>73</v>
       </c>
-      <c r="D32" s="160" t="s">
-        <v>297</v>
-      </c>
-      <c r="E32" s="52" t="s">
-        <v>20</v>
-      </c>
-      <c r="F32" s="53" t="s">
-        <v>20</v>
-      </c>
-      <c r="G32" s="54"/>
-      <c r="H32" s="71" t="str">
+      <c r="D34" s="160" t="s">
+        <v>285</v>
+      </c>
+      <c r="E34" s="52" t="s">
+        <v>20</v>
+      </c>
+      <c r="F34" s="53" t="s">
+        <v>20</v>
+      </c>
+      <c r="G34" s="54"/>
+      <c r="H34" s="161" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x04g-Testing-Cryptography.md#identifying-insecure-andor-deprecated-cryptographic-algorithms-mstg-crypto-4"),"识别不安全和/或不建议使用的加密算法 (MSTG-CRYPTO-4)")</f>
         <v>识别不安全和/或不建议使用的加密算法 (MSTG-CRYPTO-4)</v>
       </c>
-      <c r="I32" s="71" t="str">
+      <c r="I34" s="161" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05e-Testing-Cryptography.md#testing-the-configuration-of-cryptographic-standard-algorithms-mstg-crypto-2-mstg-crypto-3-and-mstg-crypto-4"),"测试密码标准算法的配置 (MSTG-CRYPTO-2, MSTG-CRYPTO-3 and MSTG-CRYPTO-4)")</f>
         <v>测试密码标准算法的配置 (MSTG-CRYPTO-2, MSTG-CRYPTO-3 and MSTG-CRYPTO-4)</v>
       </c>
-      <c r="J32" s="71"/>
-      <c r="K32" s="71"/>
-      <c r="L32" s="57"/>
-    </row>
-    <row r="33" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B33" s="49" t="s">
+      <c r="J34" s="161"/>
+      <c r="K34" s="164"/>
+      <c r="L34" s="56"/>
+    </row>
+    <row r="35" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B35" s="49" t="s">
         <v>74</v>
       </c>
-      <c r="C33" s="50" t="s">
+      <c r="C35" s="50" t="s">
         <v>75</v>
       </c>
-      <c r="D33" s="160" t="s">
-        <v>298</v>
-      </c>
-      <c r="E33" s="52" t="s">
-        <v>20</v>
-      </c>
-      <c r="F33" s="53" t="s">
-        <v>20</v>
-      </c>
-      <c r="G33" s="54"/>
-      <c r="H33" s="71" t="str">
+      <c r="D35" s="160" t="s">
+        <v>286</v>
+      </c>
+      <c r="E35" s="52" t="s">
+        <v>20</v>
+      </c>
+      <c r="F35" s="53" t="s">
+        <v>20</v>
+      </c>
+      <c r="G35" s="54"/>
+      <c r="H35" s="161" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05e-Testing-Cryptography.md#testing-key-management-mstg-storage-1-mstg-crypto-1-and-mstg-crypto-5"),"测试密钥管理 (MSTG-STORAGE-1, MSTG-CRYPTO-1 and MSTG-CRYPTO-5)")</f>
         <v>测试密钥管理 (MSTG-STORAGE-1, MSTG-CRYPTO-1 and MSTG-CRYPTO-5)</v>
       </c>
-      <c r="I33" s="71"/>
-      <c r="J33" s="71"/>
-      <c r="K33" s="71"/>
-      <c r="L33" s="57"/>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B34" s="69" t="s">
+      <c r="I35" s="161"/>
+      <c r="J35" s="161"/>
+      <c r="K35" s="164"/>
+      <c r="L35" s="56"/>
+    </row>
+    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B36" s="68" t="s">
         <v>76</v>
       </c>
-      <c r="C34" s="70" t="s">
+      <c r="C36" s="69" t="s">
         <v>77</v>
       </c>
-      <c r="D34" s="160" t="s">
-        <v>299</v>
-      </c>
-      <c r="E34" s="52" t="s">
-        <v>20</v>
-      </c>
-      <c r="F34" s="53" t="s">
-        <v>20</v>
-      </c>
-      <c r="G34" s="54"/>
-      <c r="H34" s="71" t="str">
+      <c r="D36" s="160" t="s">
+        <v>287</v>
+      </c>
+      <c r="E36" s="52" t="s">
+        <v>20</v>
+      </c>
+      <c r="F36" s="53" t="s">
+        <v>20</v>
+      </c>
+      <c r="G36" s="54"/>
+      <c r="H36" s="161" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05e-Testing-Cryptography.md#testing-random-number-generation-mstg-crypto-6"),"测试随机数生成 (MSTG-CRYPTO-6)")</f>
         <v>测试随机数生成 (MSTG-CRYPTO-6)</v>
       </c>
-      <c r="I34" s="71"/>
-      <c r="J34" s="71"/>
-      <c r="K34" s="71"/>
-      <c r="L34" s="57"/>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B35" s="61" t="s">
+      <c r="I36" s="161"/>
+      <c r="J36" s="161"/>
+      <c r="K36" s="164"/>
+      <c r="L36" s="56"/>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B37" s="60" t="s">
         <v>78</v>
       </c>
-      <c r="C35" s="62"/>
-      <c r="D35" s="63" t="s">
-        <v>300</v>
-      </c>
-      <c r="E35" s="64"/>
-      <c r="F35" s="65"/>
-      <c r="G35" s="64"/>
-      <c r="H35" s="66"/>
-      <c r="I35" s="67"/>
-      <c r="J35" s="67"/>
-      <c r="K35" s="67"/>
-      <c r="L35" s="76"/>
-    </row>
-    <row r="36" spans="2:14" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="B36" s="49" t="s">
+      <c r="C37" s="61"/>
+      <c r="D37" s="62" t="s">
+        <v>288</v>
+      </c>
+      <c r="E37" s="63"/>
+      <c r="F37" s="64"/>
+      <c r="G37" s="63"/>
+      <c r="H37" s="65"/>
+      <c r="I37" s="63"/>
+      <c r="J37" s="63"/>
+      <c r="K37" s="63"/>
+      <c r="L37" s="76"/>
+    </row>
+    <row r="38" spans="2:14" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="B38" s="49" t="s">
         <v>79</v>
       </c>
-      <c r="C36" s="50" t="s">
+      <c r="C38" s="50" t="s">
         <v>80</v>
       </c>
-      <c r="D36" s="137" t="s">
-        <v>308</v>
-      </c>
-      <c r="E36" s="52" t="s">
-        <v>20</v>
-      </c>
-      <c r="F36" s="53" t="s">
-        <v>20</v>
-      </c>
-      <c r="G36" s="54"/>
-      <c r="H36" s="71" t="str">
+      <c r="D38" s="137" t="s">
+        <v>296</v>
+      </c>
+      <c r="E38" s="52" t="s">
+        <v>20</v>
+      </c>
+      <c r="F38" s="53" t="s">
+        <v>20</v>
+      </c>
+      <c r="G38" s="54"/>
+      <c r="H38" s="161" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05f-Testing-Local-Authentication.md#testing-confirm-credentials-mstg-auth-1-and-mstg-storage-11"),"测试确认凭证 (MSTG-AUTH-1 and MSTG-STORAGE-11)")</f>
         <v>测试确认凭证 (MSTG-AUTH-1 and MSTG-STORAGE-11)</v>
       </c>
-      <c r="I36" s="71" t="str">
+      <c r="I38" s="161" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x04e-Testing-Authentication-and-Session-Management.md#verifying-that-appropriate-authentication-is-in-place-mstg-arch-2-and-mstg-auth-1"),"验证适当的身份验证是否到位 (MSTG-ARCH-2 and MSTG-AUTH-1)")</f>
         <v>验证适当的身份验证是否到位 (MSTG-ARCH-2 and MSTG-AUTH-1)</v>
       </c>
-      <c r="J36" s="133" t="str">
+      <c r="J38" s="161" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x04e-Testing-Authentication-and-Session-Management.md#testing-oauth-20-flows-mstg-auth-1-and-mstg-auth-3"),"测试OAuth 2.0流程 (MSTG-AUTH-1 and MSTG-AUTH-3)")</f>
         <v>测试OAuth 2.0流程 (MSTG-AUTH-1 and MSTG-AUTH-3)</v>
       </c>
-      <c r="K36" s="71"/>
-      <c r="L36" s="57"/>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B37" s="49" t="s">
+      <c r="K38" s="164"/>
+      <c r="L38" s="56"/>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B39" s="49" t="s">
         <v>81</v>
       </c>
-      <c r="C37" s="50" t="s">
+      <c r="C39" s="50" t="s">
         <v>82</v>
       </c>
-      <c r="D37" s="137" t="s">
-        <v>309</v>
-      </c>
-      <c r="E37" s="52" t="s">
-        <v>20</v>
-      </c>
-      <c r="F37" s="53" t="s">
-        <v>20</v>
-      </c>
-      <c r="G37" s="54"/>
-      <c r="H37" s="71" t="str">
+      <c r="D39" s="137" t="s">
+        <v>297</v>
+      </c>
+      <c r="E39" s="52" t="s">
+        <v>20</v>
+      </c>
+      <c r="F39" s="53" t="s">
+        <v>20</v>
+      </c>
+      <c r="G39" s="54"/>
+      <c r="H39" s="161" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x04e-Testing-Authentication-and-Session-Management.md#testing-stateful-session-management-mstg-auth-2"),"测试状态会话管理 (MSTG-AUTH-2)")</f>
         <v>测试状态会话管理 (MSTG-AUTH-2)</v>
       </c>
-      <c r="I37" s="71"/>
-      <c r="J37" s="71"/>
-      <c r="K37" s="71"/>
-      <c r="L37" s="57"/>
-    </row>
-    <row r="38" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B38" s="49" t="s">
+      <c r="I39" s="161"/>
+      <c r="J39" s="161"/>
+      <c r="K39" s="164"/>
+      <c r="L39" s="56"/>
+    </row>
+    <row r="40" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B40" s="49" t="s">
         <v>83</v>
       </c>
-      <c r="C38" s="50" t="s">
+      <c r="C40" s="50" t="s">
         <v>84</v>
       </c>
-      <c r="D38" s="137" t="s">
-        <v>310</v>
-      </c>
-      <c r="E38" s="52" t="s">
-        <v>20</v>
-      </c>
-      <c r="F38" s="53" t="s">
-        <v>20</v>
-      </c>
-      <c r="G38" s="54"/>
-      <c r="H38" s="71" t="str">
+      <c r="D40" s="137" t="s">
+        <v>298</v>
+      </c>
+      <c r="E40" s="52" t="s">
+        <v>20</v>
+      </c>
+      <c r="F40" s="53" t="s">
+        <v>20</v>
+      </c>
+      <c r="G40" s="54"/>
+      <c r="H40" s="161" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x04e-Testing-Authentication-and-Session-Management.md#testing-stateless-token-based-authentication-mstg-auth-3"),"测试无状态（基于令牌）身份验证 (MSTG-AUTH-3)")</f>
         <v>测试无状态（基于令牌）身份验证 (MSTG-AUTH-3)</v>
       </c>
-      <c r="I38" s="71" t="str">
+      <c r="I40" s="161" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x04e-Testing-Authentication-and-Session-Management.md#testing-oauth-20-flows-mstg-auth-1-and-mstg-auth-3"),"测试OAuth 2.0流程 (MSTG-AUTH-1 and MSTG-AUTH-3)")</f>
         <v>测试OAuth 2.0流程 (MSTG-AUTH-1 and MSTG-AUTH-3)</v>
       </c>
-      <c r="J38" s="71"/>
-      <c r="K38" s="71"/>
-      <c r="L38" s="57"/>
-      <c r="N38" s="78"/>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B39" s="49" t="s">
+      <c r="J40" s="161"/>
+      <c r="K40" s="164"/>
+      <c r="L40" s="56"/>
+      <c r="N40" s="78"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B41" s="49" t="s">
         <v>85</v>
       </c>
-      <c r="C39" s="50" t="s">
+      <c r="C41" s="50" t="s">
         <v>86</v>
       </c>
-      <c r="D39" s="137" t="s">
-        <v>311</v>
-      </c>
-      <c r="E39" s="52"/>
-      <c r="F39" s="53"/>
-      <c r="G39" s="54"/>
-      <c r="H39" s="71" t="str">
+      <c r="D41" s="137" t="s">
+        <v>299</v>
+      </c>
+      <c r="E41" s="52"/>
+      <c r="F41" s="53"/>
+      <c r="G41" s="54"/>
+      <c r="H41" s="161" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x04e-Testing-Authentication-and-Session-Management.md#testing-user-logout-mstg-auth-4"),"测试用户注销 (MSTG-AUTH-4)")</f>
         <v>测试用户注销 (MSTG-AUTH-4)</v>
       </c>
-      <c r="I39" s="71"/>
-      <c r="J39" s="71"/>
-      <c r="K39" s="71"/>
-      <c r="L39" s="57"/>
-      <c r="N39" s="78"/>
-    </row>
-    <row r="40" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B40" s="49" t="s">
+      <c r="I41" s="161"/>
+      <c r="J41" s="161"/>
+      <c r="K41" s="164"/>
+      <c r="L41" s="56"/>
+      <c r="N41" s="78"/>
+    </row>
+    <row r="42" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B42" s="49" t="s">
         <v>87</v>
       </c>
-      <c r="C40" s="50" t="s">
+      <c r="C42" s="50" t="s">
         <v>88</v>
       </c>
-      <c r="D40" s="137" t="s">
-        <v>312</v>
-      </c>
-      <c r="E40" s="52" t="s">
-        <v>20</v>
-      </c>
-      <c r="F40" s="53" t="s">
-        <v>20</v>
-      </c>
-      <c r="G40" s="54"/>
-      <c r="H40" s="71" t="str">
+      <c r="D42" s="137" t="s">
+        <v>300</v>
+      </c>
+      <c r="E42" s="52" t="s">
+        <v>20</v>
+      </c>
+      <c r="F42" s="53" t="s">
+        <v>20</v>
+      </c>
+      <c r="G42" s="54"/>
+      <c r="H42" s="161" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x04e-Testing-Authentication-and-Session-Management.md#testing-best-practices-for-passwords-mstg-auth-5-and-mstg-auth-6"),"测试密码最佳做法 (MSTG-AUTH-5 and MSTG-AUTH-6)")</f>
         <v>测试密码最佳做法 (MSTG-AUTH-5 and MSTG-AUTH-6)</v>
       </c>
-      <c r="I40" s="71"/>
-      <c r="J40" s="71"/>
-      <c r="K40" s="71"/>
-      <c r="L40" s="57"/>
-    </row>
-    <row r="41" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B41" s="49" t="s">
+      <c r="I42" s="161"/>
+      <c r="J42" s="161"/>
+      <c r="K42" s="164"/>
+      <c r="L42" s="56"/>
+    </row>
+    <row r="43" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B43" s="49" t="s">
         <v>89</v>
       </c>
-      <c r="C41" s="50" t="s">
+      <c r="C43" s="50" t="s">
         <v>90</v>
       </c>
-      <c r="D41" s="137" t="s">
-        <v>313</v>
-      </c>
-      <c r="E41" s="52" t="s">
-        <v>20</v>
-      </c>
-      <c r="F41" s="53" t="s">
-        <v>20</v>
-      </c>
-      <c r="G41" s="54"/>
-      <c r="H41" s="71" t="str">
+      <c r="D43" s="137" t="s">
+        <v>301</v>
+      </c>
+      <c r="E43" s="52" t="s">
+        <v>20</v>
+      </c>
+      <c r="F43" s="53" t="s">
+        <v>20</v>
+      </c>
+      <c r="G43" s="54"/>
+      <c r="H43" s="161" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x04e-Testing-Authentication-and-Session-Management.md#testing-best-practices-for-passwords-mstg-auth-5-and-mstg-auth-6"),"测试密码最佳做法 (MSTG-AUTH-5 and MSTG-AUTH-6)")</f>
         <v>测试密码最佳做法 (MSTG-AUTH-5 and MSTG-AUTH-6)</v>
       </c>
-      <c r="I41" s="71" t="str">
+      <c r="I43" s="161" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x04e-Testing-Authentication-and-Session-Management.md#dynamic-testing-mstg-auth-6"),"动态测试 (MSTG-AUTH-6)")</f>
         <v>动态测试 (MSTG-AUTH-6)</v>
       </c>
-      <c r="J41" s="71"/>
-      <c r="K41" s="71"/>
-      <c r="L41" s="57"/>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B42" s="49" t="s">
+      <c r="J43" s="161"/>
+      <c r="K43" s="164"/>
+      <c r="L43" s="56"/>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B44" s="49" t="s">
         <v>91</v>
       </c>
-      <c r="C42" s="50" t="s">
+      <c r="C44" s="50" t="s">
         <v>92</v>
       </c>
-      <c r="D42" s="137" t="s">
-        <v>314</v>
-      </c>
-      <c r="E42" s="52" t="s">
-        <v>20</v>
-      </c>
-      <c r="F42" s="53" t="s">
-        <v>20</v>
-      </c>
-      <c r="G42" s="54"/>
-      <c r="H42" s="71" t="str">
+      <c r="D44" s="137" t="s">
+        <v>302</v>
+      </c>
+      <c r="E44" s="52" t="s">
+        <v>20</v>
+      </c>
+      <c r="F44" s="53" t="s">
+        <v>20</v>
+      </c>
+      <c r="G44" s="54"/>
+      <c r="H44" s="161" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x04e-Testing-Authentication-and-Session-Management.md#testing-session-timeout-mstg-auth-7"),"测试会话超时 (MSTG-AUTH-7)")</f>
         <v>测试会话超时 (MSTG-AUTH-7)</v>
       </c>
-      <c r="I42" s="71"/>
-      <c r="J42" s="71"/>
-      <c r="K42" s="71"/>
-      <c r="L42" s="79"/>
-    </row>
-    <row r="43" spans="2:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="B43" s="49" t="s">
+      <c r="I44" s="161"/>
+      <c r="J44" s="161"/>
+      <c r="K44" s="164"/>
+      <c r="L44" s="79"/>
+    </row>
+    <row r="45" spans="2:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="B45" s="49" t="s">
         <v>93</v>
       </c>
-      <c r="C43" s="50" t="s">
+      <c r="C45" s="50" t="s">
         <v>94</v>
       </c>
-      <c r="D43" s="137" t="s">
-        <v>315</v>
-      </c>
-      <c r="E43" s="75"/>
-      <c r="F43" s="53" t="s">
-        <v>20</v>
-      </c>
-      <c r="G43" s="54" t="s">
+      <c r="D45" s="137" t="s">
+        <v>303</v>
+      </c>
+      <c r="E45" s="74"/>
+      <c r="F45" s="53" t="s">
+        <v>20</v>
+      </c>
+      <c r="G45" s="54" t="s">
         <v>29</v>
       </c>
-      <c r="H43" s="71" t="str">
+      <c r="H45" s="161" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05f-Testing-Local-Authentication.md#testing-biometric-authentication-mstg-auth-8"),"测试生物特征认证 (MSTG-AUTH-8)")</f>
         <v>测试生物特征认证 (MSTG-AUTH-8)</v>
       </c>
-      <c r="I43" s="71"/>
-      <c r="J43" s="71"/>
-      <c r="K43" s="71"/>
-      <c r="L43" s="57"/>
-    </row>
-    <row r="44" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B44" s="49" t="s">
+      <c r="I45" s="161"/>
+      <c r="J45" s="161"/>
+      <c r="K45" s="164"/>
+      <c r="L45" s="56"/>
+    </row>
+    <row r="46" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B46" s="49" t="s">
         <v>95</v>
       </c>
-      <c r="C44" s="50" t="s">
+      <c r="C46" s="50" t="s">
         <v>96</v>
       </c>
-      <c r="D44" s="137" t="s">
-        <v>316</v>
-      </c>
-      <c r="E44" s="75"/>
-      <c r="F44" s="53" t="s">
-        <v>20</v>
-      </c>
-      <c r="G44" s="54" t="s">
+      <c r="D46" s="137" t="s">
+        <v>304</v>
+      </c>
+      <c r="E46" s="74"/>
+      <c r="F46" s="53" t="s">
+        <v>20</v>
+      </c>
+      <c r="G46" s="54" t="s">
         <v>29</v>
       </c>
-      <c r="H44" s="71" t="str">
+      <c r="H46" s="161" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x04e-Testing-Authentication-and-Session-Management.md#testing-two-factor-authentication-and-step-up-authentication-mstg-auth-9-and-mstg-auth-10"),"测试两因素身份验证和逐步身份验证 (MSTG-AUTH-9 and MSTG-AUTH-10)")</f>
         <v>测试两因素身份验证和逐步身份验证 (MSTG-AUTH-9 and MSTG-AUTH-10)</v>
       </c>
-      <c r="I44" s="71"/>
-      <c r="J44" s="71"/>
-      <c r="K44" s="71"/>
-      <c r="L44" s="57"/>
-    </row>
-    <row r="45" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B45" s="49" t="s">
+      <c r="I46" s="161"/>
+      <c r="J46" s="161"/>
+      <c r="K46" s="164"/>
+      <c r="L46" s="56"/>
+    </row>
+    <row r="47" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B47" s="49" t="s">
         <v>97</v>
       </c>
-      <c r="C45" s="50" t="s">
+      <c r="C47" s="50" t="s">
         <v>98</v>
       </c>
-      <c r="D45" s="137" t="s">
-        <v>317</v>
-      </c>
-      <c r="E45" s="75"/>
-      <c r="F45" s="53" t="s">
-        <v>20</v>
-      </c>
-      <c r="G45" s="54" t="s">
+      <c r="D47" s="137" t="s">
+        <v>305</v>
+      </c>
+      <c r="E47" s="74"/>
+      <c r="F47" s="53" t="s">
+        <v>20</v>
+      </c>
+      <c r="G47" s="54" t="s">
         <v>29</v>
       </c>
-      <c r="H45" s="71" t="str">
+      <c r="H47" s="161" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x04e-Testing-Authentication-and-Session-Management.md#testing-two-factor-authentication-and-step-up-authentication-mstg-auth-9-and-mstg-auth-10"),"测试两因素身份验证和逐步身份验证 (MSTG-AUTH-9 and MSTG-AUTH-10)")</f>
         <v>测试两因素身份验证和逐步身份验证 (MSTG-AUTH-9 and MSTG-AUTH-10)</v>
       </c>
-      <c r="I45" s="71"/>
-      <c r="J45" s="71"/>
-      <c r="K45" s="71"/>
-      <c r="L45" s="57"/>
-    </row>
-    <row r="46" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B46" s="49" t="s">
+      <c r="I47" s="161"/>
+      <c r="J47" s="161"/>
+      <c r="K47" s="164"/>
+      <c r="L47" s="56"/>
+    </row>
+    <row r="48" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B48" s="49" t="s">
         <v>99</v>
       </c>
-      <c r="C46" s="50" t="s">
+      <c r="C48" s="50" t="s">
         <v>100</v>
       </c>
-      <c r="D46" s="137" t="s">
-        <v>318</v>
-      </c>
-      <c r="E46" s="75"/>
-      <c r="F46" s="53" t="s">
-        <v>20</v>
-      </c>
-      <c r="G46" s="54" t="s">
+      <c r="D48" s="137" t="s">
+        <v>306</v>
+      </c>
+      <c r="E48" s="74"/>
+      <c r="F48" s="53" t="s">
+        <v>20</v>
+      </c>
+      <c r="G48" s="54" t="s">
         <v>29</v>
       </c>
-      <c r="H46" s="71" t="str">
+      <c r="H48" s="161" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x04e-Testing-Authentication-and-Session-Management.md#testing-login-activity-and-device-blocking-mstg-auth-11"),"测试登录活动和设备阻止 (MSTG-AUTH-11)")</f>
         <v>测试登录活动和设备阻止 (MSTG-AUTH-11)</v>
       </c>
-      <c r="I46" s="71"/>
-      <c r="J46" s="71"/>
-      <c r="K46" s="71"/>
-      <c r="L46" s="57"/>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B47" s="61" t="s">
+      <c r="I48" s="161"/>
+      <c r="J48" s="161"/>
+      <c r="K48" s="164"/>
+      <c r="L48" s="56"/>
+    </row>
+    <row r="49" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B49" s="60" t="s">
         <v>101</v>
       </c>
-      <c r="C47" s="62"/>
-      <c r="D47" s="63" t="s">
-        <v>301</v>
-      </c>
-      <c r="E47" s="64"/>
-      <c r="F47" s="65"/>
-      <c r="G47" s="64"/>
-      <c r="H47" s="66"/>
-      <c r="I47" s="67"/>
-      <c r="J47" s="67"/>
-      <c r="K47" s="67"/>
-      <c r="L47" s="76"/>
-    </row>
-    <row r="48" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B48" s="49" t="s">
+      <c r="C49" s="61"/>
+      <c r="D49" s="62" t="s">
+        <v>289</v>
+      </c>
+      <c r="E49" s="63"/>
+      <c r="F49" s="64"/>
+      <c r="G49" s="63"/>
+      <c r="H49" s="65"/>
+      <c r="I49" s="63"/>
+      <c r="J49" s="63"/>
+      <c r="K49" s="63"/>
+      <c r="L49" s="76"/>
+    </row>
+    <row r="50" spans="2:12" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B50" s="49" t="s">
         <v>102</v>
       </c>
-      <c r="C48" s="50" t="s">
+      <c r="C50" s="50" t="s">
         <v>103</v>
       </c>
-      <c r="D48" s="160" t="s">
-        <v>319</v>
-      </c>
-      <c r="E48" s="52" t="s">
-        <v>20</v>
-      </c>
-      <c r="F48" s="53" t="s">
-        <v>20</v>
-      </c>
-      <c r="G48" s="54"/>
-      <c r="H48" s="71" t="str">
+      <c r="D50" s="160" t="s">
+        <v>307</v>
+      </c>
+      <c r="E50" s="52" t="s">
+        <v>20</v>
+      </c>
+      <c r="F50" s="53" t="s">
+        <v>20</v>
+      </c>
+      <c r="G50" s="54"/>
+      <c r="H50" s="161" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x04f-Testing-Network-Communication.md#verifying-data-encryption-on-the-network-mstg-network-1-and-mstg-network-2"),"验证网络上的数据加密 (MSTG-NETWORK-1 and MSTG-NETWORK-2)")</f>
         <v>验证网络上的数据加密 (MSTG-NETWORK-1 and MSTG-NETWORK-2)</v>
       </c>
-      <c r="I48" s="71"/>
-      <c r="J48" s="71"/>
-      <c r="K48" s="71"/>
-      <c r="L48" s="57"/>
-    </row>
-    <row r="49" spans="2:12" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B49" s="49" t="s">
+      <c r="I50" s="161"/>
+      <c r="J50" s="161"/>
+      <c r="K50" s="165"/>
+      <c r="L50" s="56"/>
+    </row>
+    <row r="51" spans="2:12" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B51" s="49" t="s">
         <v>104</v>
       </c>
-      <c r="C49" s="50" t="s">
+      <c r="C51" s="50" t="s">
         <v>105</v>
       </c>
-      <c r="D49" s="137" t="s">
-        <v>320</v>
-      </c>
-      <c r="E49" s="52" t="s">
-        <v>20</v>
-      </c>
-      <c r="F49" s="53" t="s">
-        <v>20</v>
-      </c>
-      <c r="G49" s="54"/>
-      <c r="H49" s="71" t="str">
+      <c r="D51" s="137" t="s">
+        <v>308</v>
+      </c>
+      <c r="E51" s="52" t="s">
+        <v>20</v>
+      </c>
+      <c r="F51" s="53" t="s">
+        <v>20</v>
+      </c>
+      <c r="G51" s="54"/>
+      <c r="H51" s="161" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x04f-Testing-Network-Communication.md#verifying-data-encryption-on-the-network-mstg-network-1-and-mstg-network-2"),"验证网络上的数据加密 (MSTG-NETWORK-1 and MSTG-NETWORK-2)")</f>
         <v>验证网络上的数据加密 (MSTG-NETWORK-1 and MSTG-NETWORK-2)</v>
       </c>
-      <c r="I49" s="71"/>
-      <c r="J49" s="71"/>
-      <c r="K49" s="71"/>
-      <c r="L49" s="57"/>
-    </row>
-    <row r="50" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B50" s="49" t="s">
+      <c r="I51" s="161"/>
+      <c r="J51" s="161"/>
+      <c r="K51" s="165"/>
+      <c r="L51" s="56"/>
+    </row>
+    <row r="52" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B52" s="49" t="s">
         <v>106</v>
       </c>
-      <c r="C50" s="50" t="s">
+      <c r="C52" s="50" t="s">
         <v>107</v>
       </c>
-      <c r="D50" s="137" t="s">
-        <v>321</v>
-      </c>
-      <c r="E50" s="52" t="s">
-        <v>20</v>
-      </c>
-      <c r="F50" s="53" t="s">
-        <v>20</v>
-      </c>
-      <c r="G50" s="54"/>
-      <c r="H50" s="71" t="str">
+      <c r="D52" s="137" t="s">
+        <v>309</v>
+      </c>
+      <c r="E52" s="52" t="s">
+        <v>20</v>
+      </c>
+      <c r="F52" s="53" t="s">
+        <v>20</v>
+      </c>
+      <c r="G52" s="54"/>
+      <c r="H52" s="161" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05g-Testing-Network-Communication.md#testing-endpoint-identify-verification-mstg-network-3"),"测试端点身份验证 (MSTG-NETWORK-3)")</f>
         <v>测试端点身份验证 (MSTG-NETWORK-3)</v>
       </c>
-      <c r="I50" s="71"/>
-      <c r="J50" s="71"/>
-      <c r="K50" s="71"/>
-      <c r="L50" s="81"/>
-    </row>
-    <row r="51" spans="2:12" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B51" s="49" t="s">
+      <c r="I52" s="161"/>
+      <c r="J52" s="161"/>
+      <c r="K52" s="165"/>
+      <c r="L52" s="81"/>
+    </row>
+    <row r="53" spans="2:12" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B53" s="49" t="s">
         <v>108</v>
       </c>
-      <c r="C51" s="50" t="s">
+      <c r="C53" s="50" t="s">
         <v>109</v>
       </c>
-      <c r="D51" s="137" t="s">
-        <v>322</v>
-      </c>
-      <c r="E51" s="75"/>
-      <c r="F51" s="53" t="s">
-        <v>20</v>
-      </c>
-      <c r="G51" s="54" t="s">
+      <c r="D53" s="137" t="s">
+        <v>310</v>
+      </c>
+      <c r="E53" s="74"/>
+      <c r="F53" s="53" t="s">
+        <v>20</v>
+      </c>
+      <c r="G53" s="54" t="s">
         <v>29</v>
       </c>
-      <c r="H51" s="71" t="str">
+      <c r="H53" s="161" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05g-Testing-Network-Communication.md#testing-custom-certificate-stores-and-certificate-pinning-mstg-network-4"),"测试自定义证书存储和证书固定 (MSTG-NETWORK-4)")</f>
         <v>测试自定义证书存储和证书固定 (MSTG-NETWORK-4)</v>
       </c>
-      <c r="I51" s="71" t="str">
+      <c r="I53" s="161" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05g-Testing-Network-Communication.md#testing-the-network-security-configuration-settings-mstg-network-4"),"测试网络安全配置设置 (MSTG-NETWORK-4)")</f>
         <v>测试网络安全配置设置 (MSTG-NETWORK-4)</v>
       </c>
-      <c r="J51" s="71"/>
-      <c r="K51" s="71"/>
-      <c r="L51" s="57"/>
-    </row>
-    <row r="52" spans="2:12" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B52" s="49" t="s">
+      <c r="J53" s="161"/>
+      <c r="K53" s="165"/>
+      <c r="L53" s="56"/>
+    </row>
+    <row r="54" spans="2:12" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B54" s="49" t="s">
         <v>110</v>
       </c>
-      <c r="C52" s="50" t="s">
+      <c r="C54" s="50" t="s">
         <v>111</v>
       </c>
-      <c r="D52" s="137" t="s">
-        <v>323</v>
-      </c>
-      <c r="E52" s="75"/>
-      <c r="F52" s="53" t="s">
-        <v>20</v>
-      </c>
-      <c r="G52" s="54" t="s">
+      <c r="D54" s="137" t="s">
+        <v>311</v>
+      </c>
+      <c r="E54" s="74"/>
+      <c r="F54" s="53" t="s">
+        <v>20</v>
+      </c>
+      <c r="G54" s="54" t="s">
         <v>29</v>
       </c>
-      <c r="H52" s="71" t="str">
+      <c r="H54" s="161" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x04f-Testing-Network-Communication.md#making-sure-that-critical-operations-use-secure-communication-channels-mstg-network-5"),"确保关键操作使用安全的通信通道 (MSTG-NETWORK-5)")</f>
         <v>确保关键操作使用安全的通信通道 (MSTG-NETWORK-5)</v>
       </c>
-      <c r="I52" s="71"/>
-      <c r="J52" s="71"/>
-      <c r="K52" s="71"/>
-      <c r="L52" s="57"/>
-    </row>
-    <row r="53" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B53" s="49" t="s">
+      <c r="I54" s="161"/>
+      <c r="J54" s="161"/>
+      <c r="K54" s="165"/>
+      <c r="L54" s="56"/>
+    </row>
+    <row r="55" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B55" s="49" t="s">
         <v>112</v>
       </c>
-      <c r="C53" s="50" t="s">
+      <c r="C55" s="50" t="s">
         <v>113</v>
       </c>
-      <c r="D53" s="137" t="s">
-        <v>324</v>
-      </c>
-      <c r="E53" s="75"/>
-      <c r="F53" s="53" t="s">
-        <v>20</v>
-      </c>
-      <c r="G53" s="54" t="s">
+      <c r="D55" s="137" t="s">
+        <v>312</v>
+      </c>
+      <c r="E55" s="74"/>
+      <c r="F55" s="53" t="s">
+        <v>20</v>
+      </c>
+      <c r="G55" s="54" t="s">
         <v>29</v>
       </c>
-      <c r="H53" s="71" t="str">
+      <c r="H55" s="161" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05g-Testing-Network-Communication.md#testing-the-security-provider-mstg-network-6"),"测试安全提供者 (MSTG-NETWORK-6)")</f>
         <v>测试安全提供者 (MSTG-NETWORK-6)</v>
       </c>
-      <c r="I53" s="71"/>
-      <c r="J53" s="71"/>
-      <c r="K53" s="71"/>
-      <c r="L53" s="57"/>
-    </row>
-    <row r="54" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B54" s="61" t="s">
+      <c r="I55" s="161"/>
+      <c r="J55" s="161"/>
+      <c r="K55" s="165"/>
+      <c r="L55" s="56"/>
+    </row>
+    <row r="56" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B56" s="60" t="s">
         <v>114</v>
       </c>
-      <c r="C54" s="62"/>
-      <c r="D54" s="63" t="s">
-        <v>302</v>
-      </c>
-      <c r="E54" s="64"/>
-      <c r="F54" s="65"/>
-      <c r="G54" s="64"/>
-      <c r="H54" s="66"/>
-      <c r="I54" s="67"/>
-      <c r="J54" s="67"/>
-      <c r="K54" s="67"/>
-      <c r="L54" s="76"/>
-    </row>
-    <row r="55" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B55" s="49" t="s">
+      <c r="C56" s="61"/>
+      <c r="D56" s="62" t="s">
+        <v>290</v>
+      </c>
+      <c r="E56" s="63"/>
+      <c r="F56" s="64"/>
+      <c r="G56" s="63"/>
+      <c r="H56" s="65"/>
+      <c r="I56" s="63"/>
+      <c r="J56" s="63"/>
+      <c r="K56" s="63"/>
+      <c r="L56" s="76"/>
+    </row>
+    <row r="57" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B57" s="49" t="s">
         <v>115</v>
       </c>
-      <c r="C55" s="50" t="s">
+      <c r="C57" s="50" t="s">
         <v>116</v>
       </c>
-      <c r="D55" s="160" t="s">
-        <v>328</v>
-      </c>
-      <c r="E55" s="52" t="s">
-        <v>20</v>
-      </c>
-      <c r="F55" s="53" t="s">
-        <v>20</v>
-      </c>
-      <c r="G55" s="54"/>
-      <c r="H55" s="71" t="str">
+      <c r="D57" s="160" t="s">
+        <v>316</v>
+      </c>
+      <c r="E57" s="52" t="s">
+        <v>20</v>
+      </c>
+      <c r="F57" s="53" t="s">
+        <v>20</v>
+      </c>
+      <c r="G57" s="54"/>
+      <c r="H57" s="161" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05h-Testing-Platform-Interaction.md#testing-app-permissions-mstg-platform-1"),"测试应用权限 (MSTG-PLATFORM-1)")</f>
         <v>测试应用权限 (MSTG-PLATFORM-1)</v>
       </c>
-      <c r="I55" s="71"/>
-      <c r="J55" s="71"/>
-      <c r="K55" s="59"/>
-      <c r="L55" s="57"/>
-    </row>
-    <row r="56" spans="2:12" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B56" s="49" t="s">
+      <c r="I57" s="161"/>
+      <c r="J57" s="161"/>
+      <c r="K57" s="59"/>
+      <c r="L57" s="162"/>
+    </row>
+    <row r="58" spans="2:12" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B58" s="49" t="s">
         <v>117</v>
       </c>
-      <c r="C56" s="50" t="s">
+      <c r="C58" s="50" t="s">
         <v>118</v>
       </c>
-      <c r="D56" s="137" t="s">
-        <v>329</v>
-      </c>
-      <c r="E56" s="52" t="s">
-        <v>20</v>
-      </c>
-      <c r="F56" s="53" t="s">
-        <v>20</v>
-      </c>
-      <c r="G56" s="54"/>
-      <c r="H56" s="71" t="str">
+      <c r="D58" s="137" t="s">
+        <v>317</v>
+      </c>
+      <c r="E58" s="52" t="s">
+        <v>20</v>
+      </c>
+      <c r="F58" s="53" t="s">
+        <v>20</v>
+      </c>
+      <c r="G58" s="54"/>
+      <c r="H58" s="161" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x04h-Testing-Code-Quality.md#testing-for-injection-flaws-mstg-platform-2"),"测试注入缺陷 (MSTG-PLATFORM-2)")</f>
         <v>测试注入缺陷 (MSTG-PLATFORM-2)</v>
       </c>
-      <c r="I56" s="71" t="str">
+      <c r="I58" s="161" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x04h-Testing-Code-Quality.md#testing-for-fragment-injection-mstg-platform-2"),"测试片段注入 (MSTG-PLATFORM-2)")</f>
         <v>测试片段注入 (MSTG-PLATFORM-2)</v>
       </c>
-      <c r="J56" s="71"/>
-      <c r="K56" s="56"/>
-      <c r="L56" s="57"/>
-    </row>
-    <row r="57" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B57" s="49" t="s">
+      <c r="J58" s="161"/>
+      <c r="K58" s="163"/>
+      <c r="L58" s="162"/>
+    </row>
+    <row r="59" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B59" s="49" t="s">
         <v>119</v>
       </c>
-      <c r="C57" s="50" t="s">
+      <c r="C59" s="50" t="s">
         <v>120</v>
       </c>
-      <c r="D57" s="160" t="s">
-        <v>330</v>
-      </c>
-      <c r="E57" s="52" t="s">
-        <v>20</v>
-      </c>
-      <c r="F57" s="53" t="s">
-        <v>20</v>
-      </c>
-      <c r="G57" s="54"/>
-      <c r="H57" s="71" t="str">
+      <c r="D59" s="160" t="s">
+        <v>318</v>
+      </c>
+      <c r="E59" s="52" t="s">
+        <v>20</v>
+      </c>
+      <c r="F59" s="53" t="s">
+        <v>20</v>
+      </c>
+      <c r="G59" s="54"/>
+      <c r="H59" s="161" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05h-Testing-Platform-Interaction.md#testing-custom-url-schemes-mstg-platform-3"),"测试自定义连接 (MSTG-PLATFORM-3)")</f>
         <v>测试自定义连接 (MSTG-PLATFORM-3)</v>
       </c>
-      <c r="I57" s="71"/>
-      <c r="J57" s="71"/>
-      <c r="K57" s="59"/>
-      <c r="L57" s="57"/>
-    </row>
-    <row r="58" spans="2:12" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B58" s="49" t="s">
+      <c r="I59" s="161"/>
+      <c r="J59" s="161"/>
+      <c r="K59" s="59"/>
+      <c r="L59" s="162"/>
+    </row>
+    <row r="60" spans="2:12" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B60" s="49" t="s">
         <v>121</v>
       </c>
-      <c r="C58" s="50" t="s">
+      <c r="C60" s="50" t="s">
         <v>122</v>
       </c>
-      <c r="D58" s="160" t="s">
-        <v>331</v>
-      </c>
-      <c r="E58" s="52" t="s">
-        <v>20</v>
-      </c>
-      <c r="F58" s="53" t="s">
-        <v>20</v>
-      </c>
-      <c r="G58" s="54"/>
-      <c r="H58" s="71" t="str">
+      <c r="D60" s="160" t="s">
+        <v>319</v>
+      </c>
+      <c r="E60" s="52" t="s">
+        <v>20</v>
+      </c>
+      <c r="F60" s="53" t="s">
+        <v>20</v>
+      </c>
+      <c r="G60" s="54"/>
+      <c r="H60" s="161" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05h-Testing-Platform-Interaction.md#testing-for-sensitive-functionality-exposure-through-ipc-mstg-platform-4"),"测试铭感功能通过IPC 暴露 (MSTG-PLATFORM-4)")</f>
         <v>测试铭感功能通过IPC 暴露 (MSTG-PLATFORM-4)</v>
       </c>
-      <c r="I58" s="71"/>
-      <c r="J58" s="71"/>
-      <c r="K58" s="59"/>
-      <c r="L58" s="57"/>
-    </row>
-    <row r="59" spans="2:12" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B59" s="49" t="s">
+      <c r="I60" s="161"/>
+      <c r="J60" s="161"/>
+      <c r="K60" s="59"/>
+      <c r="L60" s="162"/>
+    </row>
+    <row r="61" spans="2:12" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B61" s="49" t="s">
         <v>123</v>
       </c>
-      <c r="C59" s="50" t="s">
+      <c r="C61" s="50" t="s">
         <v>124</v>
       </c>
-      <c r="D59" s="160" t="s">
-        <v>332</v>
-      </c>
-      <c r="E59" s="52" t="s">
-        <v>20</v>
-      </c>
-      <c r="F59" s="53" t="s">
-        <v>20</v>
-      </c>
-      <c r="G59" s="54"/>
-      <c r="H59" s="71" t="str">
+      <c r="D61" s="160" t="s">
+        <v>320</v>
+      </c>
+      <c r="E61" s="52" t="s">
+        <v>20</v>
+      </c>
+      <c r="F61" s="53" t="s">
+        <v>20</v>
+      </c>
+      <c r="G61" s="54"/>
+      <c r="H61" s="161" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05h-Testing-Platform-Interaction.md#testing-javascript-execution-in-webviews-mstg-platform-5"),"测试在网页浏览模式中的JAVASCRIPT (MSTG-PLATFORM-5)")</f>
         <v>测试在网页浏览模式中的JAVASCRIPT (MSTG-PLATFORM-5)</v>
       </c>
-      <c r="I59" s="71"/>
-      <c r="J59" s="71"/>
-      <c r="K59" s="59"/>
-      <c r="L59" s="57"/>
-    </row>
-    <row r="60" spans="2:12" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B60" s="49" t="s">
+      <c r="I61" s="161"/>
+      <c r="J61" s="161"/>
+      <c r="K61" s="59"/>
+      <c r="L61" s="162"/>
+    </row>
+    <row r="62" spans="2:12" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B62" s="49" t="s">
         <v>125</v>
       </c>
-      <c r="C60" s="50" t="s">
+      <c r="C62" s="50" t="s">
         <v>126</v>
       </c>
-      <c r="D60" s="137" t="s">
-        <v>333</v>
-      </c>
-      <c r="E60" s="52" t="s">
-        <v>20</v>
-      </c>
-      <c r="F60" s="53" t="s">
-        <v>20</v>
-      </c>
-      <c r="G60" s="54"/>
-      <c r="H60" s="71" t="str">
+      <c r="D62" s="137" t="s">
+        <v>321</v>
+      </c>
+      <c r="E62" s="52" t="s">
+        <v>20</v>
+      </c>
+      <c r="F62" s="53" t="s">
+        <v>20</v>
+      </c>
+      <c r="G62" s="54"/>
+      <c r="H62" s="161" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05h-Testing-Platform-Interaction.md#testing-webview-protocol-handlers-mstg-platform-6"),"测试网页模式中的协议处理 (MSTG-PLATFORM-6)")</f>
         <v>测试网页模式中的协议处理 (MSTG-PLATFORM-6)</v>
       </c>
-      <c r="I60" s="71"/>
-      <c r="J60" s="71"/>
-      <c r="K60" s="59"/>
-      <c r="L60" s="57"/>
-    </row>
-    <row r="61" spans="2:12" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="B61" s="49" t="s">
+      <c r="I62" s="161"/>
+      <c r="J62" s="161"/>
+      <c r="K62" s="59"/>
+      <c r="L62" s="162"/>
+    </row>
+    <row r="63" spans="2:12" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="B63" s="49" t="s">
         <v>127</v>
       </c>
-      <c r="C61" s="50" t="s">
+      <c r="C63" s="50" t="s">
         <v>128</v>
       </c>
-      <c r="D61" s="137" t="s">
-        <v>334</v>
-      </c>
-      <c r="E61" s="52" t="s">
-        <v>20</v>
-      </c>
-      <c r="F61" s="53" t="s">
-        <v>20</v>
-      </c>
-      <c r="G61" s="54"/>
-      <c r="H61" s="71" t="str">
+      <c r="D63" s="137" t="s">
+        <v>322</v>
+      </c>
+      <c r="E63" s="52" t="s">
+        <v>20</v>
+      </c>
+      <c r="F63" s="53" t="s">
+        <v>20</v>
+      </c>
+      <c r="G63" s="54"/>
+      <c r="H63" s="161" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05h-Testing-Platform-Interaction.md#determining-whether-java-objects-are-exposed-through-webviews-mstg-platform-7"),"确定Java 对象是否通过网页浏览模式暴露 (MSTG-PLATFORM-7)")</f>
         <v>确定Java 对象是否通过网页浏览模式暴露 (MSTG-PLATFORM-7)</v>
       </c>
-      <c r="I61" s="71"/>
-      <c r="J61" s="71"/>
-      <c r="K61" s="59"/>
-      <c r="L61" s="57"/>
-    </row>
-    <row r="62" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B62" s="49" t="s">
+      <c r="I63" s="161"/>
+      <c r="J63" s="161"/>
+      <c r="K63" s="59"/>
+      <c r="L63" s="162"/>
+    </row>
+    <row r="64" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B64" s="49" t="s">
         <v>129</v>
       </c>
-      <c r="C62" s="50" t="s">
+      <c r="C64" s="50" t="s">
         <v>130</v>
       </c>
-      <c r="D62" s="160" t="s">
-        <v>335</v>
-      </c>
-      <c r="E62" s="52" t="s">
-        <v>20</v>
-      </c>
-      <c r="F62" s="53" t="s">
-        <v>20</v>
-      </c>
-      <c r="G62" s="54"/>
-      <c r="H62" s="71" t="str">
+      <c r="D64" s="160" t="s">
+        <v>323</v>
+      </c>
+      <c r="E64" s="52" t="s">
+        <v>20</v>
+      </c>
+      <c r="F64" s="53" t="s">
+        <v>20</v>
+      </c>
+      <c r="G64" s="54"/>
+      <c r="H64" s="161" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05h-Testing-Platform-Interaction.md#testing-object-persistence-mstg-platform-8"),"测试对象持久性(MSTG-PLATFORM-8)")</f>
         <v>测试对象持久性(MSTG-PLATFORM-8)</v>
       </c>
-      <c r="I62" s="71"/>
-      <c r="J62" s="71"/>
-      <c r="K62" s="59"/>
-      <c r="L62" s="57"/>
-    </row>
-    <row r="63" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B63" s="61" t="s">
+      <c r="I64" s="161"/>
+      <c r="J64" s="161"/>
+      <c r="K64" s="59"/>
+      <c r="L64" s="162"/>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B65" s="60" t="s">
         <v>131</v>
       </c>
-      <c r="C63" s="62"/>
-      <c r="D63" s="63" t="s">
-        <v>303</v>
-      </c>
-      <c r="E63" s="64"/>
-      <c r="F63" s="65"/>
-      <c r="G63" s="64"/>
-      <c r="H63" s="66"/>
-      <c r="I63" s="67"/>
-      <c r="J63" s="67"/>
-      <c r="K63" s="67"/>
-      <c r="L63" s="76"/>
-    </row>
-    <row r="64" spans="2:12" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B64" s="49" t="s">
+      <c r="C65" s="61"/>
+      <c r="D65" s="62" t="s">
+        <v>291</v>
+      </c>
+      <c r="E65" s="63"/>
+      <c r="F65" s="64"/>
+      <c r="G65" s="63"/>
+      <c r="H65" s="65"/>
+      <c r="I65" s="63"/>
+      <c r="J65" s="63"/>
+      <c r="K65" s="63"/>
+      <c r="L65" s="76"/>
+    </row>
+    <row r="66" spans="2:13" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B66" s="49" t="s">
         <v>132</v>
       </c>
-      <c r="C64" s="50" t="s">
+      <c r="C66" s="50" t="s">
         <v>133</v>
       </c>
-      <c r="D64" s="160" t="s">
-        <v>336</v>
-      </c>
-      <c r="E64" s="52" t="s">
-        <v>20</v>
-      </c>
-      <c r="F64" s="53" t="s">
-        <v>20</v>
-      </c>
-      <c r="G64" s="54"/>
-      <c r="H64" s="71" t="str">
+      <c r="D66" s="160" t="s">
+        <v>324</v>
+      </c>
+      <c r="E66" s="52" t="s">
+        <v>20</v>
+      </c>
+      <c r="F66" s="53" t="s">
+        <v>20</v>
+      </c>
+      <c r="G66" s="54"/>
+      <c r="H66" s="161" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05i-Testing-Code-Quality-and-Build-Settings.md#making-sure-that-the-app-is-properly-signed-mstg-code-1"),"确保应用程序已正确签名 (MSTG-CODE-1)")</f>
         <v>确保应用程序已正确签名 (MSTG-CODE-1)</v>
       </c>
-      <c r="I64" s="71"/>
-      <c r="J64" s="71"/>
-      <c r="K64" s="71"/>
-      <c r="L64" s="57"/>
-    </row>
-    <row r="65" spans="2:13" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B65" s="49" t="s">
+      <c r="I66" s="161"/>
+      <c r="J66" s="161"/>
+      <c r="K66" s="165"/>
+      <c r="L66" s="56"/>
+    </row>
+    <row r="67" spans="2:13" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B67" s="49" t="s">
         <v>134</v>
       </c>
-      <c r="C65" s="50" t="s">
+      <c r="C67" s="50" t="s">
         <v>135</v>
       </c>
-      <c r="D65" s="160" t="s">
-        <v>337</v>
-      </c>
-      <c r="E65" s="52" t="s">
-        <v>20</v>
-      </c>
-      <c r="F65" s="53" t="s">
-        <v>20</v>
-      </c>
-      <c r="G65" s="54"/>
-      <c r="H65" s="71" t="str">
+      <c r="D67" s="160" t="s">
+        <v>325</v>
+      </c>
+      <c r="E67" s="52" t="s">
+        <v>20</v>
+      </c>
+      <c r="F67" s="53" t="s">
+        <v>20</v>
+      </c>
+      <c r="G67" s="54"/>
+      <c r="H67" s="161" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05i-Testing-Code-Quality-and-Build-Settings.md#testing-whether-the-app-is-debuggable-mstg-code-2"),"测试应用程序是否可调试 (MSTG-CODE-2)")</f>
         <v>测试应用程序是否可调试 (MSTG-CODE-2)</v>
       </c>
-      <c r="I65" s="71"/>
-      <c r="J65" s="71"/>
-      <c r="K65" s="71"/>
-      <c r="L65" s="57"/>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B66" s="49" t="s">
+      <c r="I67" s="161"/>
+      <c r="J67" s="161"/>
+      <c r="K67" s="165"/>
+      <c r="L67" s="56"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B68" s="49" t="s">
         <v>136</v>
       </c>
-      <c r="C66" s="50" t="s">
+      <c r="C68" s="50" t="s">
         <v>137</v>
       </c>
-      <c r="D66" s="160" t="s">
-        <v>338</v>
-      </c>
-      <c r="E66" s="52" t="s">
-        <v>20</v>
-      </c>
-      <c r="F66" s="53" t="s">
-        <v>20</v>
-      </c>
-      <c r="G66" s="54"/>
-      <c r="H66" s="71" t="str">
+      <c r="D68" s="160" t="s">
+        <v>326</v>
+      </c>
+      <c r="E68" s="52" t="s">
+        <v>20</v>
+      </c>
+      <c r="F68" s="53" t="s">
+        <v>20</v>
+      </c>
+      <c r="G68" s="54"/>
+      <c r="H68" s="161" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05i-Testing-Code-Quality-and-Build-Settings.md#testing-for-debugging-symbols-mstg-code-3"),"测试调试符号 (MSTG-CODE-3)")</f>
         <v>测试调试符号 (MSTG-CODE-3)</v>
       </c>
-      <c r="I66" s="71"/>
-      <c r="J66" s="71"/>
-      <c r="K66" s="71"/>
-      <c r="L66" s="57"/>
-    </row>
-    <row r="67" spans="2:13" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B67" s="49" t="s">
+      <c r="I68" s="161"/>
+      <c r="J68" s="161"/>
+      <c r="K68" s="165"/>
+      <c r="L68" s="56"/>
+    </row>
+    <row r="69" spans="2:13" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B69" s="49" t="s">
         <v>138</v>
       </c>
-      <c r="C67" s="50" t="s">
+      <c r="C69" s="50" t="s">
         <v>139</v>
       </c>
-      <c r="D67" s="160" t="s">
-        <v>339</v>
-      </c>
-      <c r="E67" s="52" t="s">
-        <v>20</v>
-      </c>
-      <c r="F67" s="53" t="s">
-        <v>20</v>
-      </c>
-      <c r="G67" s="54"/>
-      <c r="H67" s="71" t="str">
+      <c r="D69" s="160" t="s">
+        <v>327</v>
+      </c>
+      <c r="E69" s="52" t="s">
+        <v>20</v>
+      </c>
+      <c r="F69" s="53" t="s">
+        <v>20</v>
+      </c>
+      <c r="G69" s="54"/>
+      <c r="H69" s="161" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05i-Testing-Code-Quality-and-Build-Settings.md#testing-for-debugging-code-and-verbose-error-logging-mstg-code-4"),"调试代码和详细错误日志的测试 (MSTG-CODE-4)")</f>
         <v>调试代码和详细错误日志的测试 (MSTG-CODE-4)</v>
       </c>
-      <c r="I67" s="71"/>
-      <c r="J67" s="71"/>
-      <c r="K67" s="71"/>
-      <c r="L67" s="57"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B68" s="49" t="s">
+      <c r="I69" s="161"/>
+      <c r="J69" s="161"/>
+      <c r="K69" s="165"/>
+      <c r="L69" s="56"/>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B70" s="49" t="s">
         <v>140</v>
       </c>
-      <c r="C68" s="50" t="s">
+      <c r="C70" s="50" t="s">
         <v>141</v>
       </c>
-      <c r="D68" s="135" t="s">
-        <v>340</v>
-      </c>
-      <c r="E68" s="52" t="s">
-        <v>20</v>
-      </c>
-      <c r="F68" s="53" t="s">
-        <v>20</v>
-      </c>
-      <c r="G68" s="54"/>
-      <c r="H68" s="71" t="str">
+      <c r="D70" s="135" t="s">
+        <v>328</v>
+      </c>
+      <c r="E70" s="52" t="s">
+        <v>20</v>
+      </c>
+      <c r="F70" s="53" t="s">
+        <v>20</v>
+      </c>
+      <c r="G70" s="54"/>
+      <c r="H70" s="161" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05i-Testing-Code-Quality-and-Build-Settings.md#checking-for-weaknesses-in-third-party-libraries-mstg-code-5"),"检查第三方库中的弱点 (MSTG-CODE-5)")</f>
         <v>检查第三方库中的弱点 (MSTG-CODE-5)</v>
       </c>
-      <c r="I68" s="71"/>
-      <c r="J68" s="71"/>
-      <c r="K68" s="71"/>
-      <c r="L68" s="57"/>
-    </row>
-    <row r="69" spans="2:13" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B69" s="49" t="s">
+      <c r="I70" s="161"/>
+      <c r="J70" s="161"/>
+      <c r="K70" s="165"/>
+      <c r="L70" s="56"/>
+    </row>
+    <row r="71" spans="2:13" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B71" s="49" t="s">
         <v>142</v>
       </c>
-      <c r="C69" s="50" t="s">
+      <c r="C71" s="50" t="s">
         <v>143</v>
       </c>
-      <c r="D69" s="160" t="s">
-        <v>341</v>
-      </c>
-      <c r="E69" s="52" t="s">
-        <v>20</v>
-      </c>
-      <c r="F69" s="53" t="s">
-        <v>20</v>
-      </c>
-      <c r="G69" s="54"/>
-      <c r="H69" s="71" t="str">
+      <c r="D71" s="160" t="s">
+        <v>329</v>
+      </c>
+      <c r="E71" s="52" t="s">
+        <v>20</v>
+      </c>
+      <c r="F71" s="53" t="s">
+        <v>20</v>
+      </c>
+      <c r="G71" s="54"/>
+      <c r="H71" s="161" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05i-Testing-Code-Quality-and-Build-Settings.md#testing-exception-handling-mstg-code-6-and-mstg-code-7"),"测试异常处理 (MSTG-CODE-6 and MSTG-CODE-7)")</f>
         <v>测试异常处理 (MSTG-CODE-6 and MSTG-CODE-7)</v>
       </c>
-      <c r="I69" s="71"/>
-      <c r="J69" s="71"/>
-      <c r="K69" s="71"/>
-      <c r="L69" s="57"/>
-    </row>
-    <row r="70" spans="2:13" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B70" s="49" t="s">
+      <c r="I71" s="161"/>
+      <c r="J71" s="161"/>
+      <c r="K71" s="165"/>
+      <c r="L71" s="56"/>
+    </row>
+    <row r="72" spans="2:13" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B72" s="49" t="s">
         <v>144</v>
       </c>
-      <c r="C70" s="50" t="s">
+      <c r="C72" s="50" t="s">
         <v>145</v>
       </c>
-      <c r="D70" s="160" t="s">
-        <v>342</v>
-      </c>
-      <c r="E70" s="52" t="s">
-        <v>20</v>
-      </c>
-      <c r="F70" s="53" t="s">
-        <v>20</v>
-      </c>
-      <c r="G70" s="54"/>
-      <c r="H70" s="71" t="str">
+      <c r="D72" s="160" t="s">
+        <v>330</v>
+      </c>
+      <c r="E72" s="52" t="s">
+        <v>20</v>
+      </c>
+      <c r="F72" s="53" t="s">
+        <v>20</v>
+      </c>
+      <c r="G72" s="54"/>
+      <c r="H72" s="161" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05i-Testing-Code-Quality-and-Build-Settings.md#testing-exception-handling-mstg-code-6-and-mstg-code-7"),"测试异常处理 (MSTG-CODE-6 and MSTG-CODE-7)")</f>
         <v>测试异常处理 (MSTG-CODE-6 and MSTG-CODE-7)</v>
       </c>
-      <c r="I70" s="71"/>
-      <c r="J70" s="71"/>
-      <c r="K70" s="71"/>
-      <c r="L70" s="57"/>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B71" s="49" t="s">
+      <c r="I72" s="161"/>
+      <c r="J72" s="161"/>
+      <c r="K72" s="165"/>
+      <c r="L72" s="56"/>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B73" s="49" t="s">
         <v>146</v>
       </c>
-      <c r="C71" s="50" t="s">
+      <c r="C73" s="50" t="s">
         <v>147</v>
       </c>
-      <c r="D71" s="160" t="s">
-        <v>343</v>
-      </c>
-      <c r="E71" s="52" t="s">
-        <v>20</v>
-      </c>
-      <c r="F71" s="53" t="s">
-        <v>20</v>
-      </c>
-      <c r="G71" s="54"/>
-      <c r="H71" s="71" t="str">
+      <c r="D73" s="160" t="s">
+        <v>331</v>
+      </c>
+      <c r="E73" s="52" t="s">
+        <v>20</v>
+      </c>
+      <c r="F73" s="53" t="s">
+        <v>20</v>
+      </c>
+      <c r="G73" s="54"/>
+      <c r="H73" s="161" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x04h-Testing-Code-Quality.md#memory-corruption-bugs-mstg-code-8"),"内存泄露错误 (MSTG-CODE-8)")</f>
         <v>内存泄露错误 (MSTG-CODE-8)</v>
       </c>
-      <c r="I71" s="71"/>
-      <c r="J71" s="71"/>
-      <c r="K71" s="71"/>
-      <c r="L71" s="82"/>
-      <c r="M71" s="83"/>
-    </row>
-    <row r="72" spans="2:13" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B72" s="49" t="s">
+      <c r="I73" s="161"/>
+      <c r="J73" s="161"/>
+      <c r="K73" s="165"/>
+      <c r="L73" s="82"/>
+      <c r="M73" s="83"/>
+    </row>
+    <row r="74" spans="2:13" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B74" s="49" t="s">
         <v>148</v>
       </c>
-      <c r="C72" s="50" t="s">
+      <c r="C74" s="50" t="s">
         <v>149</v>
       </c>
-      <c r="D72" s="135" t="s">
-        <v>344</v>
-      </c>
-      <c r="E72" s="52" t="s">
-        <v>20</v>
-      </c>
-      <c r="F72" s="53" t="s">
-        <v>20</v>
-      </c>
-      <c r="G72" s="54"/>
-      <c r="H72" s="71" t="str">
+      <c r="D74" s="135" t="s">
+        <v>332</v>
+      </c>
+      <c r="E74" s="52" t="s">
+        <v>20</v>
+      </c>
+      <c r="F74" s="53" t="s">
+        <v>20</v>
+      </c>
+      <c r="G74" s="54"/>
+      <c r="H74" s="161" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05i-Testing-Code-Quality-and-Build-Settings.md#make-sure-that-free-security-features-are-activated-mstg-code-9"),"确保激活了免费的安全功能 (MSTG-CODE-9)")</f>
         <v>确保激活了免费的安全功能 (MSTG-CODE-9)</v>
       </c>
-      <c r="I72" s="71"/>
-      <c r="J72" s="71"/>
-      <c r="K72" s="71"/>
-      <c r="L72" s="57"/>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B73" s="84"/>
-      <c r="C73" s="85"/>
-      <c r="D73" s="86"/>
-      <c r="E73" s="87"/>
-      <c r="F73" s="87"/>
-      <c r="G73" s="87"/>
-      <c r="H73" s="87"/>
-      <c r="I73" s="88"/>
-      <c r="J73" s="88"/>
-      <c r="K73" s="88"/>
-      <c r="L73" s="89"/>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B74" s="90"/>
-      <c r="C74" s="90"/>
-      <c r="D74" s="91"/>
-      <c r="E74" s="92"/>
-      <c r="F74" s="92"/>
-      <c r="G74" s="92"/>
-      <c r="H74" s="93"/>
-      <c r="I74" s="93"/>
-      <c r="J74" s="93"/>
-      <c r="K74" s="93"/>
-      <c r="L74" s="91"/>
+      <c r="I74" s="161"/>
+      <c r="J74" s="161"/>
+      <c r="K74" s="165"/>
+      <c r="L74" s="56"/>
     </row>
     <row r="75" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B75" s="90"/>
-      <c r="C75" s="90"/>
-      <c r="D75" s="77"/>
-      <c r="E75" s="92"/>
-      <c r="F75" s="92"/>
-      <c r="G75" s="92"/>
-      <c r="H75" s="93"/>
-      <c r="I75" s="93"/>
-      <c r="J75" s="93"/>
-      <c r="K75" s="93"/>
-      <c r="L75" s="91"/>
+      <c r="B75" s="84"/>
+      <c r="C75" s="85"/>
+      <c r="D75" s="86"/>
+      <c r="E75" s="87"/>
+      <c r="F75" s="87"/>
+      <c r="G75" s="87"/>
+      <c r="H75" s="87"/>
+      <c r="I75" s="88"/>
+      <c r="J75" s="88"/>
+      <c r="K75" s="88"/>
+      <c r="L75" s="89"/>
     </row>
     <row r="76" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B76" s="90"/>
@@ -6796,11 +6889,9 @@
       <c r="L76" s="91"/>
     </row>
     <row r="77" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B77" s="94" t="s">
-        <v>150</v>
-      </c>
-      <c r="C77" s="94"/>
-      <c r="D77" s="91"/>
+      <c r="B77" s="90"/>
+      <c r="C77" s="90"/>
+      <c r="D77" s="77"/>
       <c r="E77" s="92"/>
       <c r="F77" s="92"/>
       <c r="G77" s="92"/>
@@ -6811,13 +6902,9 @@
       <c r="L77" s="91"/>
     </row>
     <row r="78" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B78" s="95" t="s">
-        <v>304</v>
-      </c>
-      <c r="C78" s="95"/>
-      <c r="D78" s="96" t="s">
-        <v>307</v>
-      </c>
+      <c r="B78" s="90"/>
+      <c r="C78" s="90"/>
+      <c r="D78" s="91"/>
       <c r="E78" s="92"/>
       <c r="F78" s="92"/>
       <c r="G78" s="92"/>
@@ -6828,13 +6915,11 @@
       <c r="L78" s="91"/>
     </row>
     <row r="79" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B79" s="97" t="s">
-        <v>305</v>
-      </c>
-      <c r="C79" s="97"/>
-      <c r="D79" s="98" t="s">
-        <v>325</v>
-      </c>
+      <c r="B79" s="94" t="s">
+        <v>150</v>
+      </c>
+      <c r="C79" s="94"/>
+      <c r="D79" s="91"/>
       <c r="E79" s="92"/>
       <c r="F79" s="92"/>
       <c r="G79" s="92"/>
@@ -6845,12 +6930,12 @@
       <c r="L79" s="91"/>
     </row>
     <row r="80" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B80" s="97" t="s">
-        <v>306</v>
-      </c>
-      <c r="C80" s="97"/>
-      <c r="D80" s="98" t="s">
-        <v>326</v>
+      <c r="B80" s="95" t="s">
+        <v>292</v>
+      </c>
+      <c r="C80" s="95"/>
+      <c r="D80" s="96" t="s">
+        <v>295</v>
       </c>
       <c r="E80" s="92"/>
       <c r="F80" s="92"/>
@@ -6863,11 +6948,11 @@
     </row>
     <row r="81" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B81" s="97" t="s">
-        <v>29</v>
+        <v>293</v>
       </c>
       <c r="C81" s="97"/>
       <c r="D81" s="98" t="s">
-        <v>327</v>
+        <v>313</v>
       </c>
       <c r="E81" s="92"/>
       <c r="F81" s="92"/>
@@ -6879,9 +6964,13 @@
       <c r="L81" s="91"/>
     </row>
     <row r="82" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B82" s="90"/>
-      <c r="C82" s="90"/>
-      <c r="D82" s="91"/>
+      <c r="B82" s="97" t="s">
+        <v>294</v>
+      </c>
+      <c r="C82" s="97"/>
+      <c r="D82" s="98" t="s">
+        <v>314</v>
+      </c>
       <c r="E82" s="92"/>
       <c r="F82" s="92"/>
       <c r="G82" s="92"/>
@@ -6892,9 +6981,13 @@
       <c r="L82" s="91"/>
     </row>
     <row r="83" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B83" s="90"/>
-      <c r="C83" s="90"/>
-      <c r="D83" s="91"/>
+      <c r="B83" s="97" t="s">
+        <v>29</v>
+      </c>
+      <c r="C83" s="97"/>
+      <c r="D83" s="98" t="s">
+        <v>315</v>
+      </c>
       <c r="E83" s="92"/>
       <c r="F83" s="92"/>
       <c r="G83" s="92"/>
@@ -6930,17 +7023,43 @@
       <c r="K85" s="93"/>
       <c r="L85" s="91"/>
     </row>
+    <row r="86" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B86" s="90"/>
+      <c r="C86" s="90"/>
+      <c r="D86" s="91"/>
+      <c r="E86" s="92"/>
+      <c r="F86" s="92"/>
+      <c r="G86" s="92"/>
+      <c r="H86" s="93"/>
+      <c r="I86" s="93"/>
+      <c r="J86" s="93"/>
+      <c r="K86" s="93"/>
+      <c r="L86" s="91"/>
+    </row>
+    <row r="87" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B87" s="90"/>
+      <c r="C87" s="90"/>
+      <c r="D87" s="91"/>
+      <c r="E87" s="92"/>
+      <c r="F87" s="92"/>
+      <c r="G87" s="92"/>
+      <c r="H87" s="93"/>
+      <c r="I87" s="93"/>
+      <c r="J87" s="93"/>
+      <c r="K87" s="93"/>
+      <c r="L87" s="91"/>
+    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="B1:L1"/>
     <mergeCell ref="H3:J3"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G74:G1081 I74:L1081" xr:uid="{00000000-0002-0000-0200-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G76:G1083 I76:L1083" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>"Yes,No,N/A"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G5:G14 G16:G27 G29:G34 G36:G46 G48:G53 G55:G62 G64:G72" xr:uid="{00000000-0002-0000-0200-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G18:G29 G31:G36 G38:G48 G50:G55 G57:G64 G66:G74 G5:G16" xr:uid="{00000000-0002-0000-0200-000001000000}">
       <formula1>"Pass,Fail,N/A"</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -6999,31 +7118,31 @@
         <v>11</v>
       </c>
       <c r="D3" s="39" t="s">
-        <v>345</v>
+        <v>333</v>
       </c>
       <c r="E3" s="40" t="s">
         <v>153</v>
       </c>
       <c r="F3" s="40" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="G3" s="100" t="s">
-        <v>346</v>
+        <v>334</v>
       </c>
       <c r="H3" s="42" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B4" s="61"/>
-      <c r="C4" s="62"/>
-      <c r="D4" s="63" t="s">
-        <v>347</v>
-      </c>
-      <c r="E4" s="64"/>
-      <c r="F4" s="64"/>
+      <c r="B4" s="60"/>
+      <c r="C4" s="61"/>
+      <c r="D4" s="62" t="s">
+        <v>335</v>
+      </c>
+      <c r="E4" s="63"/>
+      <c r="F4" s="63"/>
       <c r="G4" s="101"/>
-      <c r="H4" s="68"/>
+      <c r="H4" s="67"/>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B5" s="49" t="s">
@@ -7033,7 +7152,7 @@
         <v>155</v>
       </c>
       <c r="D5" s="77" t="s">
-        <v>348</v>
+        <v>336</v>
       </c>
       <c r="E5" s="102" t="s">
         <v>20</v>
@@ -7055,7 +7174,7 @@
         <v>157</v>
       </c>
       <c r="D6" s="77" t="s">
-        <v>349</v>
+        <v>337</v>
       </c>
       <c r="E6" s="102" t="s">
         <v>20</v>
@@ -7076,8 +7195,8 @@
       <c r="C7" s="50" t="s">
         <v>159</v>
       </c>
-      <c r="D7" s="74" t="s">
-        <v>350</v>
+      <c r="D7" s="73" t="s">
+        <v>338</v>
       </c>
       <c r="E7" s="102" t="s">
         <v>20</v>
@@ -7098,8 +7217,8 @@
       <c r="C8" s="50" t="s">
         <v>161</v>
       </c>
-      <c r="D8" s="74" t="s">
-        <v>351</v>
+      <c r="D8" s="73" t="s">
+        <v>339</v>
       </c>
       <c r="E8" s="102" t="s">
         <v>20</v>
@@ -7120,8 +7239,8 @@
       <c r="C9" s="50" t="s">
         <v>163</v>
       </c>
-      <c r="D9" s="74" t="s">
-        <v>352</v>
+      <c r="D9" s="73" t="s">
+        <v>340</v>
       </c>
       <c r="E9" s="102" t="s">
         <v>20</v>
@@ -7142,8 +7261,8 @@
       <c r="C10" s="50" t="s">
         <v>165</v>
       </c>
-      <c r="D10" s="74" t="s">
-        <v>353</v>
+      <c r="D10" s="73" t="s">
+        <v>341</v>
       </c>
       <c r="E10" s="102" t="s">
         <v>20</v>
@@ -7165,7 +7284,7 @@
         <v>167</v>
       </c>
       <c r="D11" s="77" t="s">
-        <v>354</v>
+        <v>342</v>
       </c>
       <c r="E11" s="102" t="s">
         <v>20</v>
@@ -7185,8 +7304,8 @@
       <c r="C12" s="50" t="s">
         <v>170</v>
       </c>
-      <c r="D12" s="74" t="s">
-        <v>355</v>
+      <c r="D12" s="73" t="s">
+        <v>343</v>
       </c>
       <c r="E12" s="102" t="s">
         <v>20</v>
@@ -7206,8 +7325,8 @@
       <c r="C13" s="50" t="s">
         <v>173</v>
       </c>
-      <c r="D13" s="74" t="s">
-        <v>356</v>
+      <c r="D13" s="73" t="s">
+        <v>344</v>
       </c>
       <c r="E13" s="102" t="s">
         <v>20</v>
@@ -7222,15 +7341,15 @@
       <c r="H13" s="103"/>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B14" s="61"/>
-      <c r="C14" s="62"/>
-      <c r="D14" s="63" t="s">
-        <v>357</v>
-      </c>
-      <c r="E14" s="64"/>
-      <c r="F14" s="64"/>
+      <c r="B14" s="60"/>
+      <c r="C14" s="61"/>
+      <c r="D14" s="62" t="s">
+        <v>345</v>
+      </c>
+      <c r="E14" s="63"/>
+      <c r="F14" s="63"/>
       <c r="G14" s="101"/>
-      <c r="H14" s="68"/>
+      <c r="H14" s="67"/>
     </row>
     <row r="15" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B15" s="49" t="s">
@@ -7240,7 +7359,7 @@
         <v>175</v>
       </c>
       <c r="D15" s="77" t="s">
-        <v>358</v>
+        <v>346</v>
       </c>
       <c r="E15" s="102" t="s">
         <v>20</v>
@@ -7255,15 +7374,15 @@
       <c r="H15" s="103"/>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B16" s="61"/>
-      <c r="C16" s="62"/>
-      <c r="D16" s="63" t="s">
-        <v>359</v>
-      </c>
-      <c r="E16" s="64"/>
-      <c r="F16" s="64"/>
+      <c r="B16" s="60"/>
+      <c r="C16" s="61"/>
+      <c r="D16" s="62" t="s">
+        <v>347</v>
+      </c>
+      <c r="E16" s="63"/>
+      <c r="F16" s="63"/>
       <c r="G16" s="101"/>
-      <c r="H16" s="68"/>
+      <c r="H16" s="67"/>
     </row>
     <row r="17" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B17" s="49" t="s">
@@ -7273,7 +7392,7 @@
         <v>177</v>
       </c>
       <c r="D17" s="77" t="s">
-        <v>360</v>
+        <v>348</v>
       </c>
       <c r="E17" s="102" t="s">
         <v>20</v>
@@ -7295,7 +7414,7 @@
         <v>179</v>
       </c>
       <c r="D18" s="77" t="s">
-        <v>361</v>
+        <v>349</v>
       </c>
       <c r="E18" s="102" t="s">
         <v>20</v>
@@ -7348,11 +7467,11 @@
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B23" s="95" t="s">
-        <v>304</v>
+        <v>292</v>
       </c>
       <c r="C23" s="95"/>
       <c r="D23" s="96" t="s">
-        <v>307</v>
+        <v>295</v>
       </c>
       <c r="E23" s="92"/>
       <c r="F23" s="92"/>
@@ -7365,7 +7484,7 @@
       </c>
       <c r="C24" s="97"/>
       <c r="D24" s="98" t="s">
-        <v>362</v>
+        <v>350</v>
       </c>
       <c r="E24" s="92"/>
       <c r="F24" s="92"/>
@@ -7378,7 +7497,7 @@
       </c>
       <c r="C25" s="97"/>
       <c r="D25" s="98" t="s">
-        <v>363</v>
+        <v>351</v>
       </c>
       <c r="E25" s="92"/>
       <c r="F25" s="92"/>
@@ -7391,7 +7510,7 @@
       </c>
       <c r="C26" s="97"/>
       <c r="D26" s="98" t="s">
-        <v>364</v>
+        <v>352</v>
       </c>
       <c r="E26" s="92"/>
       <c r="F26" s="92"/>
@@ -7463,7 +7582,7 @@
   <sheetData>
     <row r="1" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B1" s="108" t="s">
-        <v>414</v>
+        <v>402</v>
       </c>
       <c r="C1" s="108"/>
       <c r="D1" s="109"/>
@@ -7495,7 +7614,7 @@
         <v>11</v>
       </c>
       <c r="D3" s="39" t="s">
-        <v>365</v>
+        <v>353</v>
       </c>
       <c r="E3" s="40" t="s">
         <v>12</v>
@@ -7504,10 +7623,10 @@
         <v>13</v>
       </c>
       <c r="G3" s="40" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H3" s="156" t="s">
-        <v>346</v>
+        <v>334</v>
       </c>
       <c r="I3" s="156"/>
       <c r="J3" s="156"/>
@@ -7521,7 +7640,7 @@
       </c>
       <c r="C4" s="44"/>
       <c r="D4" s="45" t="s">
-        <v>366</v>
+        <v>354</v>
       </c>
       <c r="E4" s="46"/>
       <c r="F4" s="46"/>
@@ -7539,7 +7658,7 @@
         <v>19</v>
       </c>
       <c r="D5" s="51" t="s">
-        <v>370</v>
+        <v>358</v>
       </c>
       <c r="E5" s="52" t="s">
         <v>20</v>
@@ -7552,9 +7671,9 @@
         <f>HYPERLINK(CONCATENATE( BASE_URL, "0x04b-Mobile-App-Security-Testing.md#architectural-information"), "架构信息")</f>
         <v>架构信息</v>
       </c>
-      <c r="I5" s="59"/>
-      <c r="J5" s="59"/>
-      <c r="K5" s="57"/>
+      <c r="I5" s="58"/>
+      <c r="J5" s="58"/>
+      <c r="K5" s="56"/>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B6" s="49" t="s">
@@ -7564,7 +7683,7 @@
         <v>22</v>
       </c>
       <c r="D6" s="51" t="s">
-        <v>371</v>
+        <v>359</v>
       </c>
       <c r="E6" s="52" t="s">
         <v>20</v>
@@ -7577,12 +7696,12 @@
         <f>HYPERLINK(CONCATENATE( BASE_URL, "0x04h-Testing-Code-Quality.md#injection-flaws-mstg-arch-2-and-mstg-platform-2"), "Injection Flaws (MSTG-ARCH-2 and MSTG-PLATFORM-2)")</f>
         <v>Injection Flaws (MSTG-ARCH-2 and MSTG-PLATFORM-2)</v>
       </c>
-      <c r="I6" s="72" t="str">
+      <c r="I6" s="71" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x04e-Testing-Authentication-and-Session-Management.md#verifying-that-appropriate-authentication-is-in-place-mstg-arch-2-and-mstg-auth-1"),"Verifying that Appropriate Authentication is in Place (MSTG-ARCH-2 and MSTG-AUTH-1)")</f>
         <v>Verifying that Appropriate Authentication is in Place (MSTG-ARCH-2 and MSTG-AUTH-1)</v>
       </c>
       <c r="J6" s="111"/>
-      <c r="K6" s="57"/>
+      <c r="K6" s="56"/>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B7" s="49" t="s">
@@ -7592,7 +7711,7 @@
         <v>24</v>
       </c>
       <c r="D7" s="51" t="s">
-        <v>372</v>
+        <v>360</v>
       </c>
       <c r="E7" s="52" t="s">
         <v>20</v>
@@ -7605,9 +7724,9 @@
         <f>HYPERLINK(CONCATENATE( BASE_URL, "0x04b-Mobile-App-Security-Testing.md#architectural-information"), "Architectural Information")</f>
         <v>Architectural Information</v>
       </c>
-      <c r="I7" s="59"/>
-      <c r="J7" s="59"/>
-      <c r="K7" s="57"/>
+      <c r="I7" s="58"/>
+      <c r="J7" s="58"/>
+      <c r="K7" s="56"/>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B8" s="49" t="s">
@@ -7617,7 +7736,7 @@
         <v>26</v>
       </c>
       <c r="D8" s="51" t="s">
-        <v>373</v>
+        <v>361</v>
       </c>
       <c r="E8" s="52" t="s">
         <v>20</v>
@@ -7630,9 +7749,9 @@
         <f>HYPERLINK(CONCATENATE( BASE_URL, "0x04b-Mobile-App-Security-Testing.md#identifying-sensitive-data"), "Identifying Sensitive Data")</f>
         <v>Identifying Sensitive Data</v>
       </c>
-      <c r="I8" s="59"/>
-      <c r="J8" s="59"/>
-      <c r="K8" s="57"/>
+      <c r="I8" s="58"/>
+      <c r="J8" s="58"/>
+      <c r="K8" s="56"/>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B9" s="49" t="s">
@@ -7642,9 +7761,9 @@
         <v>28</v>
       </c>
       <c r="D9" s="51" t="s">
-        <v>374</v>
-      </c>
-      <c r="E9" s="60"/>
+        <v>362</v>
+      </c>
+      <c r="E9" s="59"/>
       <c r="F9" s="53" t="s">
         <v>20</v>
       </c>
@@ -7655,9 +7774,9 @@
         <f>HYPERLINK(CONCATENATE( BASE_URL, "0x04b-Mobile-App-Security-Testing.md#environmental-information"), "Environmental Information")</f>
         <v>Environmental Information</v>
       </c>
-      <c r="I9" s="59"/>
-      <c r="J9" s="59"/>
-      <c r="K9" s="57"/>
+      <c r="I9" s="58"/>
+      <c r="J9" s="58"/>
+      <c r="K9" s="56"/>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B10" s="49" t="s">
@@ -7667,9 +7786,9 @@
         <v>31</v>
       </c>
       <c r="D10" s="51" t="s">
-        <v>375</v>
-      </c>
-      <c r="E10" s="60"/>
+        <v>363</v>
+      </c>
+      <c r="E10" s="59"/>
       <c r="F10" s="53" t="s">
         <v>20</v>
       </c>
@@ -7680,9 +7799,9 @@
         <f>HYPERLINK(CONCATENATE( BASE_URL, "0x04b-Mobile-App-Security-Testing.md#mapping-the-application"), "Mapping the Application")</f>
         <v>Mapping the Application</v>
       </c>
-      <c r="I10" s="59"/>
-      <c r="J10" s="59"/>
-      <c r="K10" s="57"/>
+      <c r="I10" s="58"/>
+      <c r="J10" s="58"/>
+      <c r="K10" s="56"/>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B11" s="49" t="s">
@@ -7692,9 +7811,9 @@
         <v>33</v>
       </c>
       <c r="D11" s="51" t="s">
-        <v>376</v>
-      </c>
-      <c r="E11" s="60"/>
+        <v>364</v>
+      </c>
+      <c r="E11" s="59"/>
       <c r="F11" s="53" t="s">
         <v>20</v>
       </c>
@@ -7705,12 +7824,12 @@
         <f>HYPERLINK(CONCATENATE( BASE_URL, "0x04b-Mobile-App-Security-Testing.md#principles-of-testing"), "Principles of Testing")</f>
         <v>Principles of Testing</v>
       </c>
-      <c r="I11" s="58" t="str">
+      <c r="I11" s="57" t="str">
         <f>HYPERLINK(CONCATENATE( BASE_URL, "0x04b-Mobile-App-Security-Testing.md#penetration-testing-aka-pentesting"), "Penetration Testing (a.k.a. Pentesting)")</f>
         <v>Penetration Testing (a.k.a. Pentesting)</v>
       </c>
-      <c r="J11" s="58"/>
-      <c r="K11" s="57"/>
+      <c r="J11" s="57"/>
+      <c r="K11" s="56"/>
     </row>
     <row r="12" spans="2:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B12" s="49" t="s">
@@ -7720,9 +7839,9 @@
         <v>35</v>
       </c>
       <c r="D12" s="51" t="s">
-        <v>377</v>
-      </c>
-      <c r="E12" s="60"/>
+        <v>365</v>
+      </c>
+      <c r="E12" s="59"/>
       <c r="F12" s="53" t="s">
         <v>20</v>
       </c>
@@ -7733,9 +7852,9 @@
         <f>HYPERLINK(CONCATENATE( BASE_URL, "0x04g-Testing-Cryptography.md#cryptographic-policy"), "Cryptographic policy")</f>
         <v>Cryptographic policy</v>
       </c>
-      <c r="I12" s="59"/>
-      <c r="J12" s="59"/>
-      <c r="K12" s="57"/>
+      <c r="I12" s="58"/>
+      <c r="J12" s="58"/>
+      <c r="K12" s="56"/>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B13" s="49" t="s">
@@ -7745,9 +7864,9 @@
         <v>37</v>
       </c>
       <c r="D13" s="51" t="s">
-        <v>378</v>
-      </c>
-      <c r="E13" s="60"/>
+        <v>366</v>
+      </c>
+      <c r="E13" s="59"/>
       <c r="F13" s="53" t="s">
         <v>20</v>
       </c>
@@ -7758,9 +7877,9 @@
         <f>HYPERLINK(CONCATENATE( BASE_URL, "0x06h-Testing-Platform-Interaction.md#testing-enforced-updating-mstg-arch-9"), "Testing enforced updating (MSTG-ARCH-9)")</f>
         <v>Testing enforced updating (MSTG-ARCH-9)</v>
       </c>
-      <c r="I13" s="59"/>
-      <c r="J13" s="59"/>
-      <c r="K13" s="57"/>
+      <c r="I13" s="58"/>
+      <c r="J13" s="58"/>
+      <c r="K13" s="56"/>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B14" s="49" t="s">
@@ -7770,9 +7889,9 @@
         <v>39</v>
       </c>
       <c r="D14" s="51" t="s">
-        <v>379</v>
-      </c>
-      <c r="E14" s="60"/>
+        <v>367</v>
+      </c>
+      <c r="E14" s="59"/>
       <c r="F14" s="53" t="s">
         <v>20</v>
       </c>
@@ -7783,35 +7902,35 @@
         <f>HYPERLINK(CONCATENATE( BASE_URL, "0x04b-Mobile-App-Security-Testing.md#security-testing-and-the-sdlc"), "Security Testing and the SDLC")</f>
         <v>Security Testing and the SDLC</v>
       </c>
-      <c r="I14" s="59"/>
-      <c r="J14" s="59"/>
-      <c r="K14" s="57"/>
+      <c r="I14" s="58"/>
+      <c r="J14" s="58"/>
+      <c r="K14" s="56"/>
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B15" s="61" t="s">
+      <c r="B15" s="60" t="s">
         <v>40</v>
       </c>
-      <c r="C15" s="62"/>
-      <c r="D15" s="63" t="s">
-        <v>367</v>
-      </c>
-      <c r="E15" s="64"/>
-      <c r="F15" s="65"/>
-      <c r="G15" s="64"/>
-      <c r="H15" s="66"/>
-      <c r="I15" s="67"/>
-      <c r="J15" s="67"/>
+      <c r="C15" s="61"/>
+      <c r="D15" s="62" t="s">
+        <v>355</v>
+      </c>
+      <c r="E15" s="63"/>
+      <c r="F15" s="64"/>
+      <c r="G15" s="63"/>
+      <c r="H15" s="65"/>
+      <c r="I15" s="66"/>
+      <c r="J15" s="66"/>
       <c r="K15" s="76"/>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B16" s="69" t="s">
+      <c r="B16" s="68" t="s">
         <v>41</v>
       </c>
-      <c r="C16" s="70" t="s">
+      <c r="C16" s="69" t="s">
         <v>42</v>
       </c>
       <c r="D16" s="51" t="s">
-        <v>380</v>
+        <v>368</v>
       </c>
       <c r="E16" s="52" t="s">
         <v>20</v>
@@ -7820,44 +7939,44 @@
         <v>20</v>
       </c>
       <c r="G16" s="54"/>
-      <c r="H16" s="72" t="str">
+      <c r="H16" s="71" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x06d-Testing-Data-Storage.md#testing-local-data-storage-mstg-storage-1-and-mstg-storage-2"),"Testing Local Data Storage (MSTG-STORAGE-1 and MSTG-STORAGE-2)")</f>
         <v>Testing Local Data Storage (MSTG-STORAGE-1 and MSTG-STORAGE-2)</v>
       </c>
-      <c r="I16" s="59"/>
-      <c r="J16" s="59"/>
-      <c r="K16" s="57"/>
+      <c r="I16" s="58"/>
+      <c r="J16" s="58"/>
+      <c r="K16" s="56"/>
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B17" s="69" t="s">
+      <c r="B17" s="68" t="s">
         <v>43</v>
       </c>
-      <c r="C17" s="70" t="s">
+      <c r="C17" s="69" t="s">
         <v>44</v>
       </c>
       <c r="D17" s="51" t="s">
-        <v>381</v>
+        <v>369</v>
       </c>
       <c r="E17" s="52"/>
       <c r="F17" s="53"/>
       <c r="G17" s="54"/>
-      <c r="H17" s="72" t="str">
+      <c r="H17" s="71" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x06d-Testing-Data-Storage.md#testing-local-data-storage-mstg-storage-1-and-mstg-storage-2"),"Testing Local Data Storage (MSTG-STORAGE-1 and MSTG-STORAGE-2)")</f>
         <v>Testing Local Data Storage (MSTG-STORAGE-1 and MSTG-STORAGE-2)</v>
       </c>
-      <c r="I17" s="59"/>
-      <c r="J17" s="59"/>
-      <c r="K17" s="57"/>
+      <c r="I17" s="58"/>
+      <c r="J17" s="58"/>
+      <c r="K17" s="56"/>
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B18" s="69" t="s">
+      <c r="B18" s="68" t="s">
         <v>45</v>
       </c>
-      <c r="C18" s="70" t="s">
+      <c r="C18" s="69" t="s">
         <v>46</v>
       </c>
       <c r="D18" s="51" t="s">
-        <v>382</v>
+        <v>370</v>
       </c>
       <c r="E18" s="52" t="s">
         <v>20</v>
@@ -7866,23 +7985,23 @@
         <v>20</v>
       </c>
       <c r="G18" s="54"/>
-      <c r="H18" s="72" t="str">
+      <c r="H18" s="71" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x06d-Testing-Data-Storage.md#checking-logs-for-sensitive-data-mstg-storage-3"),"Checking Logs for Sensitive Data (MSTG-STORAGE-3)")</f>
         <v>Checking Logs for Sensitive Data (MSTG-STORAGE-3)</v>
       </c>
-      <c r="I18" s="59"/>
-      <c r="J18" s="59"/>
-      <c r="K18" s="57"/>
+      <c r="I18" s="58"/>
+      <c r="J18" s="58"/>
+      <c r="K18" s="56"/>
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B19" s="69" t="s">
+      <c r="B19" s="68" t="s">
         <v>47</v>
       </c>
-      <c r="C19" s="70" t="s">
+      <c r="C19" s="69" t="s">
         <v>48</v>
       </c>
       <c r="D19" s="51" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="E19" s="52" t="s">
         <v>20</v>
@@ -7891,23 +8010,23 @@
         <v>20</v>
       </c>
       <c r="G19" s="54"/>
-      <c r="H19" s="72" t="str">
+      <c r="H19" s="71" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x06d-Testing-Data-Storage.md#determining-whether-sensitive-data-is-sent-to-third-parties-mstg-storage-4"),"Determining Whether Sensitive Data Is Sent to Third Parties (MSTG-STORAGE-4)")</f>
         <v>Determining Whether Sensitive Data Is Sent to Third Parties (MSTG-STORAGE-4)</v>
       </c>
-      <c r="I19" s="59"/>
-      <c r="J19" s="59"/>
-      <c r="K19" s="57"/>
+      <c r="I19" s="58"/>
+      <c r="J19" s="58"/>
+      <c r="K19" s="56"/>
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B20" s="69" t="s">
+      <c r="B20" s="68" t="s">
         <v>49</v>
       </c>
-      <c r="C20" s="70" t="s">
+      <c r="C20" s="69" t="s">
         <v>50</v>
       </c>
-      <c r="D20" s="74" t="s">
-        <v>384</v>
+      <c r="D20" s="73" t="s">
+        <v>372</v>
       </c>
       <c r="E20" s="52" t="s">
         <v>20</v>
@@ -7916,23 +8035,23 @@
         <v>20</v>
       </c>
       <c r="G20" s="54"/>
-      <c r="H20" s="72" t="str">
+      <c r="H20" s="71" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x06d-Testing-Data-Storage.md#finding-sensitive-data-in-the-keyboard-cache-mstg-storage-5"),"Finding Sensitive Data in the Keyboard Cache (MSTG-STORAGE-5)")</f>
         <v>Finding Sensitive Data in the Keyboard Cache (MSTG-STORAGE-5)</v>
       </c>
-      <c r="I20" s="59"/>
-      <c r="J20" s="59"/>
-      <c r="K20" s="57"/>
+      <c r="I20" s="58"/>
+      <c r="J20" s="58"/>
+      <c r="K20" s="56"/>
     </row>
     <row r="21" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B21" s="69" t="s">
+      <c r="B21" s="68" t="s">
         <v>51</v>
       </c>
-      <c r="C21" s="70" t="s">
+      <c r="C21" s="69" t="s">
         <v>52</v>
       </c>
-      <c r="D21" s="74" t="s">
-        <v>385</v>
+      <c r="D21" s="73" t="s">
+        <v>373</v>
       </c>
       <c r="E21" s="52" t="s">
         <v>20</v>
@@ -7941,23 +8060,23 @@
         <v>20</v>
       </c>
       <c r="G21" s="54"/>
-      <c r="H21" s="71" t="str">
+      <c r="H21" s="70" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x06d-Testing-Data-Storage.md#determining-whether-sensitive-data-is-exposed-via-ipc-mechanisms-mstg-storage-6"),"Determining Whether Sensitive Data Is Exposed via IPC Mechanisms (MSTG-STORAGE-6)")</f>
         <v>Determining Whether Sensitive Data Is Exposed via IPC Mechanisms (MSTG-STORAGE-6)</v>
       </c>
-      <c r="I21" s="59"/>
-      <c r="J21" s="59"/>
-      <c r="K21" s="57"/>
+      <c r="I21" s="58"/>
+      <c r="J21" s="58"/>
+      <c r="K21" s="56"/>
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B22" s="69" t="s">
+      <c r="B22" s="68" t="s">
         <v>53</v>
       </c>
-      <c r="C22" s="70" t="s">
+      <c r="C22" s="69" t="s">
         <v>54</v>
       </c>
-      <c r="D22" s="74" t="s">
-        <v>386</v>
+      <c r="D22" s="73" t="s">
+        <v>374</v>
       </c>
       <c r="E22" s="52" t="s">
         <v>20</v>
@@ -7966,126 +8085,126 @@
         <v>20</v>
       </c>
       <c r="G22" s="54"/>
-      <c r="H22" s="72" t="str">
+      <c r="H22" s="71" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x06d-Testing-Data-Storage.md#checking-for-sensitive-data-disclosed-through-the-user-interface-mstg-storage-7"),"Checking for Sensitive Data Disclosed Through the User Interface (MSTG-STORAGE-7)")</f>
         <v>Checking for Sensitive Data Disclosed Through the User Interface (MSTG-STORAGE-7)</v>
       </c>
-      <c r="I22" s="59"/>
-      <c r="J22" s="59"/>
-      <c r="K22" s="57"/>
+      <c r="I22" s="58"/>
+      <c r="J22" s="58"/>
+      <c r="K22" s="56"/>
     </row>
     <row r="23" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B23" s="69" t="s">
+      <c r="B23" s="68" t="s">
         <v>55</v>
       </c>
-      <c r="C23" s="70" t="s">
+      <c r="C23" s="69" t="s">
         <v>56</v>
       </c>
-      <c r="D23" s="74" t="s">
-        <v>288</v>
-      </c>
-      <c r="E23" s="75"/>
+      <c r="D23" s="73" t="s">
+        <v>276</v>
+      </c>
+      <c r="E23" s="74"/>
       <c r="F23" s="53" t="s">
         <v>20</v>
       </c>
       <c r="G23" s="54" t="s">
         <v>29</v>
       </c>
-      <c r="H23" s="72" t="str">
+      <c r="H23" s="71" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x06d-Testing-Data-Storage.md#testing-backups-for-sensitive-data-mstg-storage-8"),"Testing Backups for Sensitive Data (MSTG-STORAGE-8)")</f>
         <v>Testing Backups for Sensitive Data (MSTG-STORAGE-8)</v>
       </c>
-      <c r="I23" s="59"/>
-      <c r="J23" s="59"/>
-      <c r="K23" s="57"/>
+      <c r="I23" s="58"/>
+      <c r="J23" s="58"/>
+      <c r="K23" s="56"/>
     </row>
     <row r="24" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B24" s="69" t="s">
+      <c r="B24" s="68" t="s">
         <v>57</v>
       </c>
-      <c r="C24" s="70" t="s">
+      <c r="C24" s="69" t="s">
         <v>58</v>
       </c>
-      <c r="D24" s="74" t="s">
-        <v>387</v>
-      </c>
-      <c r="E24" s="75"/>
+      <c r="D24" s="73" t="s">
+        <v>375</v>
+      </c>
+      <c r="E24" s="74"/>
       <c r="F24" s="53" t="s">
         <v>20</v>
       </c>
       <c r="G24" s="54" t="s">
         <v>29</v>
       </c>
-      <c r="H24" s="72" t="str">
+      <c r="H24" s="71" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x06d-Testing-Data-Storage.md#testing-auto-generated-screenshots-for-sensitive-information-mstg-storage-9"),"Testing Auto-Generated Screenshots for Sensitive Information (MSTG-STORAGE-9)")</f>
         <v>Testing Auto-Generated Screenshots for Sensitive Information (MSTG-STORAGE-9)</v>
       </c>
-      <c r="I24" s="59"/>
-      <c r="J24" s="59"/>
-      <c r="K24" s="57"/>
+      <c r="I24" s="58"/>
+      <c r="J24" s="58"/>
+      <c r="K24" s="56"/>
     </row>
     <row r="25" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B25" s="69" t="s">
+      <c r="B25" s="68" t="s">
         <v>59</v>
       </c>
-      <c r="C25" s="70" t="s">
+      <c r="C25" s="69" t="s">
         <v>60</v>
       </c>
-      <c r="D25" s="74" t="s">
-        <v>388</v>
-      </c>
-      <c r="E25" s="75"/>
+      <c r="D25" s="73" t="s">
+        <v>376</v>
+      </c>
+      <c r="E25" s="74"/>
       <c r="F25" s="53" t="s">
         <v>20</v>
       </c>
       <c r="G25" s="54" t="s">
         <v>29</v>
       </c>
-      <c r="H25" s="72" t="str">
+      <c r="H25" s="71" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x06d-Testing-Data-Storage.md#testing-memory-for-sensitive-data-mstg-storage-10"),"Testing Memory for Sensitive Data (MSTG-STORAGE-10)")</f>
         <v>Testing Memory for Sensitive Data (MSTG-STORAGE-10)</v>
       </c>
-      <c r="I25" s="59"/>
-      <c r="J25" s="59"/>
-      <c r="K25" s="57"/>
+      <c r="I25" s="58"/>
+      <c r="J25" s="58"/>
+      <c r="K25" s="56"/>
     </row>
     <row r="26" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B26" s="69" t="s">
+      <c r="B26" s="68" t="s">
         <v>61</v>
       </c>
-      <c r="C26" s="70" t="s">
+      <c r="C26" s="69" t="s">
         <v>62</v>
       </c>
-      <c r="D26" s="74" t="s">
-        <v>389</v>
-      </c>
-      <c r="E26" s="75"/>
+      <c r="D26" s="73" t="s">
+        <v>377</v>
+      </c>
+      <c r="E26" s="74"/>
       <c r="F26" s="53" t="s">
         <v>20</v>
       </c>
       <c r="G26" s="54" t="s">
         <v>29</v>
       </c>
-      <c r="H26" s="72" t="str">
+      <c r="H26" s="71" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x06f-Testing-Local-Authentication.md#testing-local-authentication-mstg-auth-8-and-mstg-storage-11"),"Testing Local Authentication (MSTG-AUTH-8 and MSTG-STORAGE-11)")</f>
         <v>Testing Local Authentication (MSTG-AUTH-8 and MSTG-STORAGE-11)</v>
       </c>
-      <c r="I26" s="59"/>
-      <c r="J26" s="59"/>
-      <c r="K26" s="57"/>
+      <c r="I26" s="58"/>
+      <c r="J26" s="58"/>
+      <c r="K26" s="56"/>
       <c r="L26" s="112"/>
     </row>
     <row r="27" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B27" s="69" t="s">
+      <c r="B27" s="68" t="s">
         <v>63</v>
       </c>
-      <c r="C27" s="70" t="s">
+      <c r="C27" s="69" t="s">
         <v>64</v>
       </c>
       <c r="D27" s="51" t="s">
-        <v>390</v>
-      </c>
-      <c r="E27" s="75"/>
+        <v>378</v>
+      </c>
+      <c r="E27" s="74"/>
       <c r="F27" s="53" t="s">
         <v>20</v>
       </c>
@@ -8096,36 +8215,36 @@
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x04i-Testing-user-interaction.md#testing-user-education-mstg-storage-12"),"Testing User Education (MSTG-STORAGE-12)")</f>
         <v>Testing User Education (MSTG-STORAGE-12)</v>
       </c>
-      <c r="I27" s="59"/>
-      <c r="J27" s="59"/>
-      <c r="K27" s="57"/>
+      <c r="I27" s="58"/>
+      <c r="J27" s="58"/>
+      <c r="K27" s="56"/>
       <c r="L27" s="30"/>
     </row>
     <row r="28" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B28" s="61" t="s">
+      <c r="B28" s="60" t="s">
         <v>65</v>
       </c>
-      <c r="C28" s="62"/>
-      <c r="D28" s="63" t="s">
-        <v>293</v>
-      </c>
-      <c r="E28" s="64"/>
-      <c r="F28" s="65"/>
-      <c r="G28" s="64"/>
-      <c r="H28" s="66"/>
-      <c r="I28" s="67"/>
-      <c r="J28" s="67"/>
+      <c r="C28" s="61"/>
+      <c r="D28" s="62" t="s">
+        <v>281</v>
+      </c>
+      <c r="E28" s="63"/>
+      <c r="F28" s="64"/>
+      <c r="G28" s="63"/>
+      <c r="H28" s="65"/>
+      <c r="I28" s="66"/>
+      <c r="J28" s="66"/>
       <c r="K28" s="76"/>
     </row>
     <row r="29" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B29" s="69" t="s">
+      <c r="B29" s="68" t="s">
         <v>66</v>
       </c>
-      <c r="C29" s="70" t="s">
+      <c r="C29" s="69" t="s">
         <v>67</v>
       </c>
-      <c r="D29" s="74" t="s">
-        <v>294</v>
+      <c r="D29" s="73" t="s">
+        <v>282</v>
       </c>
       <c r="E29" s="52" t="s">
         <v>20</v>
@@ -8134,23 +8253,23 @@
         <v>20</v>
       </c>
       <c r="G29" s="54"/>
-      <c r="H29" s="72" t="str">
+      <c r="H29" s="71" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x06e-Testing-Cryptography.md#testing-key-management-mstg-crypto-1-and-mstg-crypto-5"),"Testing Key Management (MSTG-CRYPTO-1 and MSTG-CRYPTO-5)")</f>
         <v>Testing Key Management (MSTG-CRYPTO-1 and MSTG-CRYPTO-5)</v>
       </c>
-      <c r="I29" s="59"/>
-      <c r="J29" s="59"/>
-      <c r="K29" s="57"/>
+      <c r="I29" s="58"/>
+      <c r="J29" s="58"/>
+      <c r="K29" s="56"/>
     </row>
     <row r="30" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B30" s="69" t="s">
+      <c r="B30" s="68" t="s">
         <v>68</v>
       </c>
-      <c r="C30" s="70" t="s">
+      <c r="C30" s="69" t="s">
         <v>69</v>
       </c>
-      <c r="D30" s="74" t="s">
-        <v>391</v>
+      <c r="D30" s="73" t="s">
+        <v>379</v>
       </c>
       <c r="E30" s="52" t="s">
         <v>20</v>
@@ -8159,23 +8278,23 @@
         <v>20</v>
       </c>
       <c r="G30" s="54"/>
-      <c r="H30" s="71" t="str">
+      <c r="H30" s="70" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x06e-Testing-Cryptography.md#verifying-the-configuration-of-cryptographic-standard-algorithms-mstg-crypto-2-and-mstg-crypto-3"),"Verifying the Configuration of Cryptographic Standard Algorithms (MSTG-CRYPTO-2 and MSTG-CRYPTO-3)")</f>
         <v>Verifying the Configuration of Cryptographic Standard Algorithms (MSTG-CRYPTO-2 and MSTG-CRYPTO-3)</v>
       </c>
-      <c r="I30" s="59"/>
-      <c r="J30" s="59"/>
-      <c r="K30" s="57"/>
+      <c r="I30" s="58"/>
+      <c r="J30" s="58"/>
+      <c r="K30" s="56"/>
     </row>
     <row r="31" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B31" s="69" t="s">
+      <c r="B31" s="68" t="s">
         <v>70</v>
       </c>
-      <c r="C31" s="70" t="s">
+      <c r="C31" s="69" t="s">
         <v>71</v>
       </c>
       <c r="D31" s="51" t="s">
-        <v>392</v>
+        <v>380</v>
       </c>
       <c r="E31" s="52" t="s">
         <v>20</v>
@@ -8184,23 +8303,23 @@
         <v>20</v>
       </c>
       <c r="G31" s="54"/>
-      <c r="H31" s="71" t="str">
+      <c r="H31" s="70" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x06e-Testing-Cryptography.md#verifying-the-configuration-of-cryptographic-standard-algorithms-mstg-crypto-2-and-mstg-crypto-3"),"Verifying the Configuration of Cryptographic Standard Algorithms (MSTG-CRYPTO-2 and MSTG-CRYPTO-3)")</f>
         <v>Verifying the Configuration of Cryptographic Standard Algorithms (MSTG-CRYPTO-2 and MSTG-CRYPTO-3)</v>
       </c>
-      <c r="I31" s="59"/>
-      <c r="J31" s="59"/>
-      <c r="K31" s="57"/>
+      <c r="I31" s="58"/>
+      <c r="J31" s="58"/>
+      <c r="K31" s="56"/>
     </row>
     <row r="32" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B32" s="69" t="s">
+      <c r="B32" s="68" t="s">
         <v>72</v>
       </c>
-      <c r="C32" s="70" t="s">
+      <c r="C32" s="69" t="s">
         <v>73</v>
       </c>
-      <c r="D32" s="74" t="s">
-        <v>393</v>
+      <c r="D32" s="73" t="s">
+        <v>381</v>
       </c>
       <c r="E32" s="52" t="s">
         <v>20</v>
@@ -8209,23 +8328,23 @@
         <v>20</v>
       </c>
       <c r="G32" s="54"/>
-      <c r="H32" s="72" t="str">
+      <c r="H32" s="71" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x04g-Testing-Cryptography.md#identifying-insecure-andor-deprecated-cryptographic-algorithms-mstg-crypto-4"),"Identifying Insecure and/or Deprecated Cryptographic Algorithms (MSTG-CRYPTO-4)")</f>
         <v>Identifying Insecure and/or Deprecated Cryptographic Algorithms (MSTG-CRYPTO-4)</v>
       </c>
-      <c r="I32" s="59"/>
-      <c r="J32" s="59"/>
-      <c r="K32" s="57"/>
+      <c r="I32" s="58"/>
+      <c r="J32" s="58"/>
+      <c r="K32" s="56"/>
     </row>
     <row r="33" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B33" s="69" t="s">
+      <c r="B33" s="68" t="s">
         <v>74</v>
       </c>
-      <c r="C33" s="70" t="s">
+      <c r="C33" s="69" t="s">
         <v>75</v>
       </c>
-      <c r="D33" s="74" t="s">
-        <v>394</v>
+      <c r="D33" s="73" t="s">
+        <v>382</v>
       </c>
       <c r="E33" s="52" t="s">
         <v>20</v>
@@ -8234,23 +8353,23 @@
         <v>20</v>
       </c>
       <c r="G33" s="54"/>
-      <c r="H33" s="72" t="str">
+      <c r="H33" s="71" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x06e-Testing-Cryptography.md#testing-key-management-mstg-crypto-1-and-mstg-crypto-5"),"Testing Key Management (MSTG-CRYPTO-1 and MSTG-CRYPTO-5)")</f>
         <v>Testing Key Management (MSTG-CRYPTO-1 and MSTG-CRYPTO-5)</v>
       </c>
-      <c r="I33" s="59"/>
-      <c r="J33" s="59"/>
-      <c r="K33" s="57"/>
+      <c r="I33" s="58"/>
+      <c r="J33" s="58"/>
+      <c r="K33" s="56"/>
     </row>
     <row r="34" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B34" s="69" t="s">
+      <c r="B34" s="68" t="s">
         <v>76</v>
       </c>
-      <c r="C34" s="70" t="s">
+      <c r="C34" s="69" t="s">
         <v>77</v>
       </c>
-      <c r="D34" s="74" t="s">
-        <v>395</v>
+      <c r="D34" s="73" t="s">
+        <v>383</v>
       </c>
       <c r="E34" s="52" t="s">
         <v>20</v>
@@ -8259,39 +8378,39 @@
         <v>20</v>
       </c>
       <c r="G34" s="54"/>
-      <c r="H34" s="72" t="str">
+      <c r="H34" s="71" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x06e-Testing-Cryptography.md#testing-random-number-generation-mstg-crypto-6")," Testing Random Number Generation (MSTG-CRYPTO-6)")</f>
         <v xml:space="preserve"> Testing Random Number Generation (MSTG-CRYPTO-6)</v>
       </c>
-      <c r="I34" s="59"/>
-      <c r="J34" s="59"/>
-      <c r="K34" s="57"/>
+      <c r="I34" s="58"/>
+      <c r="J34" s="58"/>
+      <c r="K34" s="56"/>
     </row>
     <row r="35" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B35" s="61" t="s">
+      <c r="B35" s="60" t="s">
         <v>78</v>
       </c>
-      <c r="C35" s="62"/>
-      <c r="D35" s="63" t="s">
-        <v>300</v>
-      </c>
-      <c r="E35" s="64"/>
-      <c r="F35" s="65"/>
-      <c r="G35" s="64"/>
-      <c r="H35" s="66"/>
-      <c r="I35" s="67"/>
-      <c r="J35" s="67"/>
+      <c r="C35" s="61"/>
+      <c r="D35" s="62" t="s">
+        <v>288</v>
+      </c>
+      <c r="E35" s="63"/>
+      <c r="F35" s="64"/>
+      <c r="G35" s="63"/>
+      <c r="H35" s="65"/>
+      <c r="I35" s="66"/>
+      <c r="J35" s="66"/>
       <c r="K35" s="76"/>
     </row>
     <row r="36" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B36" s="69" t="s">
+      <c r="B36" s="68" t="s">
         <v>79</v>
       </c>
-      <c r="C36" s="70" t="s">
+      <c r="C36" s="69" t="s">
         <v>80</v>
       </c>
       <c r="D36" s="77" t="s">
-        <v>396</v>
+        <v>384</v>
       </c>
       <c r="E36" s="52" t="s">
         <v>20</v>
@@ -8300,11 +8419,11 @@
         <v>20</v>
       </c>
       <c r="G36" s="54"/>
-      <c r="H36" s="72" t="str">
+      <c r="H36" s="71" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x04e-Testing-Authentication-and-Session-Management.md#verifying-that-appropriate-authentication-is-in-place-mstg-arch-2-and-mstg-auth-1"),"Verifying that Appropriate Authentication is in Place (MSTG-ARCH-2 and MSTG-AUTH-1)")</f>
         <v>Verifying that Appropriate Authentication is in Place (MSTG-ARCH-2 and MSTG-AUTH-1)</v>
       </c>
-      <c r="I36" s="72" t="str">
+      <c r="I36" s="71" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x04e-Testing-Authentication-and-Session-Management.md#testing-oauth-20-flows-mstg-auth-1-and-mstg-auth-3"),"Testing OAuth 2.0 Flows (MSTG-AUTH-1 and MSTG-AUTH-3)")</f>
         <v>Testing OAuth 2.0 Flows (MSTG-AUTH-1 and MSTG-AUTH-3)</v>
       </c>
@@ -8312,14 +8431,14 @@
       <c r="K36" s="103"/>
     </row>
     <row r="37" spans="2:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="B37" s="69" t="s">
+      <c r="B37" s="68" t="s">
         <v>81</v>
       </c>
-      <c r="C37" s="70" t="s">
+      <c r="C37" s="69" t="s">
         <v>82</v>
       </c>
       <c r="D37" s="77" t="s">
-        <v>397</v>
+        <v>385</v>
       </c>
       <c r="E37" s="52" t="s">
         <v>20</v>
@@ -8328,23 +8447,23 @@
         <v>20</v>
       </c>
       <c r="G37" s="54"/>
-      <c r="H37" s="72" t="str">
+      <c r="H37" s="71" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x04e-Testing-Authentication-and-Session-Management.md#testing-stateful-session-management-mstg-auth-2"),"Testing Stateful Session Management (MSTG-AUTH-2)")</f>
         <v>Testing Stateful Session Management (MSTG-AUTH-2)</v>
       </c>
-      <c r="I37" s="59"/>
-      <c r="J37" s="59"/>
-      <c r="K37" s="57"/>
+      <c r="I37" s="58"/>
+      <c r="J37" s="58"/>
+      <c r="K37" s="56"/>
     </row>
     <row r="38" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B38" s="69" t="s">
+      <c r="B38" s="68" t="s">
         <v>83</v>
       </c>
-      <c r="C38" s="70" t="s">
+      <c r="C38" s="69" t="s">
         <v>84</v>
       </c>
       <c r="D38" s="77" t="s">
-        <v>398</v>
+        <v>386</v>
       </c>
       <c r="E38" s="52" t="s">
         <v>20</v>
@@ -8353,11 +8472,11 @@
         <v>20</v>
       </c>
       <c r="G38" s="54"/>
-      <c r="H38" s="72" t="str">
+      <c r="H38" s="71" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x04e-Testing-Authentication-and-Session-Management.md#testing-stateless-token-based-authentication-mstg-auth-3"),"Testing Stateless (Token-Based) Authentication (MSTG-AUTH-3)")</f>
         <v>Testing Stateless (Token-Based) Authentication (MSTG-AUTH-3)</v>
       </c>
-      <c r="I38" s="72" t="str">
+      <c r="I38" s="71" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x04e-Testing-Authentication-and-Session-Management.md#testing-oauth-20-flows-mstg-auth-1-and-mstg-auth-3"),"Testing OAuth 2.0 Flows (MSTG-AUTH-1 and MSTG-AUTH-3)")</f>
         <v>Testing OAuth 2.0 Flows (MSTG-AUTH-1 and MSTG-AUTH-3)</v>
       </c>
@@ -8365,36 +8484,36 @@
       <c r="K38" s="103"/>
     </row>
     <row r="39" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B39" s="69" t="s">
+      <c r="B39" s="68" t="s">
         <v>85</v>
       </c>
-      <c r="C39" s="70" t="s">
+      <c r="C39" s="69" t="s">
         <v>86</v>
       </c>
       <c r="D39" s="77" t="s">
-        <v>399</v>
+        <v>387</v>
       </c>
       <c r="E39" s="52"/>
       <c r="F39" s="53"/>
       <c r="G39" s="54"/>
-      <c r="H39" s="72" t="str">
+      <c r="H39" s="71" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x04e-Testing-Authentication-and-Session-Management.md#testing-user-logout-mstg-auth-4"),"Testing User Logout (MSTG-AUTH-4)")</f>
         <v>Testing User Logout (MSTG-AUTH-4)</v>
       </c>
-      <c r="I39" s="59"/>
-      <c r="J39" s="59"/>
-      <c r="K39" s="57"/>
+      <c r="I39" s="58"/>
+      <c r="J39" s="58"/>
+      <c r="K39" s="56"/>
       <c r="M39" s="78"/>
     </row>
     <row r="40" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B40" s="69" t="s">
+      <c r="B40" s="68" t="s">
         <v>87</v>
       </c>
-      <c r="C40" s="70" t="s">
+      <c r="C40" s="69" t="s">
         <v>88</v>
       </c>
       <c r="D40" s="77" t="s">
-        <v>400</v>
+        <v>388</v>
       </c>
       <c r="E40" s="52" t="s">
         <v>20</v>
@@ -8403,24 +8522,24 @@
         <v>20</v>
       </c>
       <c r="G40" s="54"/>
-      <c r="H40" s="72" t="str">
+      <c r="H40" s="71" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x04e-Testing-Authentication-and-Session-Management.md#testing-best-practices-for-passwords-mstg-auth-5-and-mstg-auth-6"),"Testing Best Practices for Passwords (MSTG-AUTH-5 and MSTG-AUTH-6)")</f>
         <v>Testing Best Practices for Passwords (MSTG-AUTH-5 and MSTG-AUTH-6)</v>
       </c>
-      <c r="I40" s="59"/>
-      <c r="J40" s="59"/>
+      <c r="I40" s="58"/>
+      <c r="J40" s="58"/>
       <c r="K40" s="103"/>
       <c r="M40" s="78"/>
     </row>
     <row r="41" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B41" s="69" t="s">
+      <c r="B41" s="68" t="s">
         <v>89</v>
       </c>
-      <c r="C41" s="70" t="s">
+      <c r="C41" s="69" t="s">
         <v>90</v>
       </c>
       <c r="D41" s="77" t="s">
-        <v>401</v>
+        <v>389</v>
       </c>
       <c r="E41" s="52" t="s">
         <v>20</v>
@@ -8429,11 +8548,11 @@
         <v>20</v>
       </c>
       <c r="G41" s="54"/>
-      <c r="H41" s="72" t="str">
+      <c r="H41" s="71" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x04e-Testing-Authentication-and-Session-Management.md#testing-best-practices-for-passwords-mstg-auth-5-and-mstg-auth-6"),"Testing Best Practices for Passwords (MSTG-AUTH-5 and MSTG-AUTH-6)")</f>
         <v>Testing Best Practices for Passwords (MSTG-AUTH-5 and MSTG-AUTH-6)</v>
       </c>
-      <c r="I41" s="72" t="str">
+      <c r="I41" s="71" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x04e-Testing-Authentication-and-Session-Management.md#dynamic-testing-mstg-auth-6"),"Dynamic Testing (MSTG-AUTH-6)")</f>
         <v>Dynamic Testing (MSTG-AUTH-6)</v>
       </c>
@@ -8441,14 +8560,14 @@
       <c r="K41" s="103"/>
     </row>
     <row r="42" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B42" s="69" t="s">
+      <c r="B42" s="68" t="s">
         <v>91</v>
       </c>
-      <c r="C42" s="70" t="s">
+      <c r="C42" s="69" t="s">
         <v>92</v>
       </c>
       <c r="D42" s="77" t="s">
-        <v>402</v>
+        <v>390</v>
       </c>
       <c r="E42" s="52" t="s">
         <v>20</v>
@@ -8457,7 +8576,7 @@
         <v>20</v>
       </c>
       <c r="G42" s="54"/>
-      <c r="H42" s="72" t="str">
+      <c r="H42" s="71" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x04e-Testing-Authentication-and-Session-Management.md#testing-session-timeout-mstg-auth-7"),"Testing Session Timeout (MSTG-AUTH-7)")</f>
         <v>Testing Session Timeout (MSTG-AUTH-7)</v>
       </c>
@@ -8466,91 +8585,91 @@
       <c r="K42" s="79"/>
     </row>
     <row r="43" spans="2:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="B43" s="69" t="s">
+      <c r="B43" s="68" t="s">
         <v>93</v>
       </c>
-      <c r="C43" s="70" t="s">
+      <c r="C43" s="69" t="s">
         <v>94</v>
       </c>
       <c r="D43" s="77" t="s">
-        <v>403</v>
-      </c>
-      <c r="E43" s="75"/>
+        <v>391</v>
+      </c>
+      <c r="E43" s="74"/>
       <c r="F43" s="53" t="s">
         <v>20</v>
       </c>
       <c r="G43" s="54" t="s">
         <v>29</v>
       </c>
-      <c r="H43" s="72" t="str">
+      <c r="H43" s="71" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x06f-Testing-Local-Authentication.md#testing-local-authentication-mstg-auth-8-and-mstg-storage-11"),"Testing Local Authentication (MSTG-AUTH-8 and MSTG-STORAGE-11)")</f>
         <v>Testing Local Authentication (MSTG-AUTH-8 and MSTG-STORAGE-11)</v>
       </c>
-      <c r="I43" s="72"/>
+      <c r="I43" s="71"/>
       <c r="J43" s="113"/>
       <c r="K43" s="103"/>
     </row>
     <row r="44" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B44" s="69" t="s">
+      <c r="B44" s="68" t="s">
         <v>95</v>
       </c>
-      <c r="C44" s="70" t="s">
+      <c r="C44" s="69" t="s">
         <v>96</v>
       </c>
       <c r="D44" s="77" t="s">
-        <v>404</v>
-      </c>
-      <c r="E44" s="75"/>
+        <v>392</v>
+      </c>
+      <c r="E44" s="74"/>
       <c r="F44" s="53" t="s">
         <v>20</v>
       </c>
       <c r="G44" s="54" t="s">
         <v>29</v>
       </c>
-      <c r="H44" s="71" t="str">
+      <c r="H44" s="70" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x04e-Testing-Authentication-and-Session-Management.md#testing-two-factor-authentication-and-step-up-authentication-mstg-auth-9-and-mstg-auth-10"),"Testing Two-Factor Authentication and Step-up Authentication (MSTG-AUTH-9 and MSTG-AUTH-10)")</f>
         <v>Testing Two-Factor Authentication and Step-up Authentication (MSTG-AUTH-9 and MSTG-AUTH-10)</v>
       </c>
-      <c r="I44" s="59"/>
-      <c r="J44" s="59"/>
-      <c r="K44" s="57"/>
+      <c r="I44" s="58"/>
+      <c r="J44" s="58"/>
+      <c r="K44" s="56"/>
     </row>
     <row r="45" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B45" s="69" t="s">
+      <c r="B45" s="68" t="s">
         <v>97</v>
       </c>
-      <c r="C45" s="70" t="s">
+      <c r="C45" s="69" t="s">
         <v>98</v>
       </c>
       <c r="D45" s="77" t="s">
-        <v>405</v>
-      </c>
-      <c r="E45" s="75"/>
+        <v>393</v>
+      </c>
+      <c r="E45" s="74"/>
       <c r="F45" s="53" t="s">
         <v>20</v>
       </c>
       <c r="G45" s="54" t="s">
         <v>29</v>
       </c>
-      <c r="H45" s="71" t="str">
+      <c r="H45" s="70" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x04e-Testing-Authentication-and-Session-Management.md#testing-two-factor-authentication-and-step-up-authentication-mstg-auth-9-and-mstg-auth-10"),"Testing Two-Factor Authentication and Step-up Authentication (MSTG-AUTH-9 and MSTG-AUTH-10)")</f>
         <v>Testing Two-Factor Authentication and Step-up Authentication (MSTG-AUTH-9 and MSTG-AUTH-10)</v>
       </c>
-      <c r="I45" s="59"/>
-      <c r="J45" s="59"/>
-      <c r="K45" s="57"/>
+      <c r="I45" s="58"/>
+      <c r="J45" s="58"/>
+      <c r="K45" s="56"/>
     </row>
     <row r="46" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B46" s="69" t="s">
+      <c r="B46" s="68" t="s">
         <v>99</v>
       </c>
-      <c r="C46" s="70" t="s">
+      <c r="C46" s="69" t="s">
         <v>100</v>
       </c>
       <c r="D46" s="77" t="s">
-        <v>406</v>
-      </c>
-      <c r="E46" s="75"/>
+        <v>394</v>
+      </c>
+      <c r="E46" s="74"/>
       <c r="F46" s="53" t="s">
         <v>20</v>
       </c>
@@ -8561,35 +8680,35 @@
         <f>HYPERLINK(CONCATENATE( BASE_URL, "0x04e-Testing-Authentication-and-Session-Management.md#testing-login-activity-and-device-blocking-mstg-auth-11"), "Testing Login Activity and Device Blocking (MSTG-AUTH-11)")</f>
         <v>Testing Login Activity and Device Blocking (MSTG-AUTH-11)</v>
       </c>
-      <c r="I46" s="59"/>
-      <c r="J46" s="59"/>
-      <c r="K46" s="57"/>
+      <c r="I46" s="58"/>
+      <c r="J46" s="58"/>
+      <c r="K46" s="56"/>
     </row>
     <row r="47" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B47" s="61" t="s">
+      <c r="B47" s="60" t="s">
         <v>101</v>
       </c>
-      <c r="C47" s="62"/>
-      <c r="D47" s="63" t="s">
-        <v>368</v>
-      </c>
-      <c r="E47" s="64"/>
-      <c r="F47" s="65"/>
-      <c r="G47" s="64"/>
-      <c r="H47" s="66"/>
-      <c r="I47" s="67"/>
-      <c r="J47" s="67"/>
+      <c r="C47" s="61"/>
+      <c r="D47" s="62" t="s">
+        <v>356</v>
+      </c>
+      <c r="E47" s="63"/>
+      <c r="F47" s="64"/>
+      <c r="G47" s="63"/>
+      <c r="H47" s="65"/>
+      <c r="I47" s="66"/>
+      <c r="J47" s="66"/>
       <c r="K47" s="76"/>
     </row>
     <row r="48" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B48" s="69" t="s">
+      <c r="B48" s="68" t="s">
         <v>102</v>
       </c>
-      <c r="C48" s="70" t="s">
+      <c r="C48" s="69" t="s">
         <v>103</v>
       </c>
-      <c r="D48" s="74" t="s">
-        <v>407</v>
+      <c r="D48" s="73" t="s">
+        <v>395</v>
       </c>
       <c r="E48" s="52" t="s">
         <v>20</v>
@@ -8598,23 +8717,23 @@
         <v>20</v>
       </c>
       <c r="G48" s="54"/>
-      <c r="H48" s="71" t="str">
+      <c r="H48" s="70" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x04f-Testing-Network-Communication.md#verifying-data-encryption-on-the-network-mstg-network-1-and-mstg-network-2"),"Verifying Data Encryption on the Network (MSTG-NETWORK-1 and MSTG-NETWORK-2)")</f>
         <v>Verifying Data Encryption on the Network (MSTG-NETWORK-1 and MSTG-NETWORK-2)</v>
       </c>
-      <c r="I48" s="58"/>
-      <c r="J48" s="58"/>
+      <c r="I48" s="57"/>
+      <c r="J48" s="57"/>
       <c r="K48" s="81"/>
     </row>
     <row r="49" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B49" s="69" t="s">
+      <c r="B49" s="68" t="s">
         <v>104</v>
       </c>
-      <c r="C49" s="70" t="s">
+      <c r="C49" s="69" t="s">
         <v>105</v>
       </c>
       <c r="D49" s="77" t="s">
-        <v>408</v>
+        <v>396</v>
       </c>
       <c r="E49" s="52" t="s">
         <v>20</v>
@@ -8623,26 +8742,26 @@
         <v>20</v>
       </c>
       <c r="G49" s="54"/>
-      <c r="H49" s="71" t="str">
+      <c r="H49" s="70" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x04f-Testing-Network-Communication.md#verifying-data-encryption-on-the-network-mstg-network-1-and-mstg-network-2"),"Verifying Data Encryption on the Network (MSTG-NETWORK-1 and MSTG-NETWORK-2)")</f>
         <v>Verifying Data Encryption on the Network (MSTG-NETWORK-1 and MSTG-NETWORK-2)</v>
       </c>
-      <c r="I49" s="58" t="str">
+      <c r="I49" s="57" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x06g-Testing-Network-Communication.md#app-transport-security-mstg-network-2"),"App Transport Security (MSTG-NETWORK-2)")</f>
         <v>App Transport Security (MSTG-NETWORK-2)</v>
       </c>
-      <c r="J49" s="58"/>
+      <c r="J49" s="57"/>
       <c r="K49" s="81"/>
     </row>
     <row r="50" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B50" s="69" t="s">
+      <c r="B50" s="68" t="s">
         <v>106</v>
       </c>
-      <c r="C50" s="70" t="s">
+      <c r="C50" s="69" t="s">
         <v>107</v>
       </c>
       <c r="D50" s="77" t="s">
-        <v>409</v>
+        <v>397</v>
       </c>
       <c r="E50" s="52" t="s">
         <v>20</v>
@@ -8651,114 +8770,114 @@
         <v>20</v>
       </c>
       <c r="G50" s="54"/>
-      <c r="H50" s="72" t="str">
+      <c r="H50" s="71" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x06g-Testing-Network-Communication.md#testing-custom-certificate-stores-and-certificate-pinning-mstg-network-3-and-mstg-network-4"),"Testing Custom Certificate Stores and Certificate Pinning (MSTG-NETWORK-3 and MSTG-NETWORK-4)")</f>
         <v>Testing Custom Certificate Stores and Certificate Pinning (MSTG-NETWORK-3 and MSTG-NETWORK-4)</v>
       </c>
-      <c r="I50" s="59"/>
-      <c r="J50" s="59"/>
+      <c r="I50" s="58"/>
+      <c r="J50" s="58"/>
       <c r="K50" s="81"/>
     </row>
     <row r="51" spans="2:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="B51" s="69" t="s">
+      <c r="B51" s="68" t="s">
         <v>108</v>
       </c>
-      <c r="C51" s="70" t="s">
+      <c r="C51" s="69" t="s">
         <v>109</v>
       </c>
       <c r="D51" s="77" t="s">
-        <v>410</v>
-      </c>
-      <c r="E51" s="75"/>
+        <v>398</v>
+      </c>
+      <c r="E51" s="74"/>
       <c r="F51" s="53" t="s">
         <v>20</v>
       </c>
       <c r="G51" s="54" t="s">
         <v>29</v>
       </c>
-      <c r="H51" s="72" t="str">
+      <c r="H51" s="71" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x06g-Testing-Network-Communication.md#testing-custom-certificate-stores-and-certificate-pinning-mstg-network-3-and-mstg-network-4"),"Testing Custom Certificate Stores and Certificate Pinning (MSTG-NETWORK-3 and MSTG-NETWORK-4)")</f>
         <v>Testing Custom Certificate Stores and Certificate Pinning (MSTG-NETWORK-3 and MSTG-NETWORK-4)</v>
       </c>
-      <c r="I51" s="59"/>
-      <c r="J51" s="59"/>
-      <c r="K51" s="57"/>
+      <c r="I51" s="58"/>
+      <c r="J51" s="58"/>
+      <c r="K51" s="56"/>
     </row>
     <row r="52" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B52" s="69" t="s">
+      <c r="B52" s="68" t="s">
         <v>110</v>
       </c>
-      <c r="C52" s="70" t="s">
+      <c r="C52" s="69" t="s">
         <v>111</v>
       </c>
       <c r="D52" s="77" t="s">
-        <v>411</v>
-      </c>
-      <c r="E52" s="75"/>
+        <v>399</v>
+      </c>
+      <c r="E52" s="74"/>
       <c r="F52" s="53" t="s">
         <v>20</v>
       </c>
       <c r="G52" s="54" t="s">
         <v>29</v>
       </c>
-      <c r="H52" s="71" t="str">
+      <c r="H52" s="70" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x04f-Testing-Network-Communication.md#making-sure-that-critical-operations-use-secure-communication-channels-mstg-network-5"),"Making Sure that Critical Operations Use Secure Communication Channels (MSTG-NETWORK-5)")</f>
         <v>Making Sure that Critical Operations Use Secure Communication Channels (MSTG-NETWORK-5)</v>
       </c>
-      <c r="I52" s="59"/>
-      <c r="J52" s="59"/>
-      <c r="K52" s="57"/>
+      <c r="I52" s="58"/>
+      <c r="J52" s="58"/>
+      <c r="K52" s="56"/>
     </row>
     <row r="53" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B53" s="69" t="s">
+      <c r="B53" s="68" t="s">
         <v>112</v>
       </c>
-      <c r="C53" s="70" t="s">
+      <c r="C53" s="69" t="s">
         <v>113</v>
       </c>
       <c r="D53" s="77" t="s">
-        <v>412</v>
-      </c>
-      <c r="E53" s="75"/>
+        <v>400</v>
+      </c>
+      <c r="E53" s="74"/>
       <c r="F53" s="53" t="s">
         <v>20</v>
       </c>
       <c r="G53" s="54" t="s">
         <v>29</v>
       </c>
-      <c r="H53" s="72" t="str">
+      <c r="H53" s="71" t="str">
         <f>HYPERLINK(CONCATENATE( BASE_URL, "0x06i-Testing-Code-Quality-and-Build-Settings.md#checking-for-weaknesses-in-third-party-libraries-mstg-code-5"), "Checking for Weaknesses in Third Party Libraries (MSTG-CODE-5)")</f>
         <v>Checking for Weaknesses in Third Party Libraries (MSTG-CODE-5)</v>
       </c>
-      <c r="I53" s="59"/>
-      <c r="J53" s="59"/>
-      <c r="K53" s="57"/>
+      <c r="I53" s="58"/>
+      <c r="J53" s="58"/>
+      <c r="K53" s="56"/>
     </row>
     <row r="54" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B54" s="61" t="s">
+      <c r="B54" s="60" t="s">
         <v>114</v>
       </c>
-      <c r="C54" s="62"/>
-      <c r="D54" s="63" t="s">
-        <v>369</v>
-      </c>
-      <c r="E54" s="64"/>
-      <c r="F54" s="65"/>
-      <c r="G54" s="64"/>
-      <c r="H54" s="66"/>
-      <c r="I54" s="67"/>
-      <c r="J54" s="67"/>
+      <c r="C54" s="61"/>
+      <c r="D54" s="62" t="s">
+        <v>357</v>
+      </c>
+      <c r="E54" s="63"/>
+      <c r="F54" s="64"/>
+      <c r="G54" s="63"/>
+      <c r="H54" s="65"/>
+      <c r="I54" s="66"/>
+      <c r="J54" s="66"/>
       <c r="K54" s="76"/>
     </row>
     <row r="55" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B55" s="69" t="s">
+      <c r="B55" s="68" t="s">
         <v>115</v>
       </c>
-      <c r="C55" s="70" t="s">
+      <c r="C55" s="69" t="s">
         <v>116</v>
       </c>
-      <c r="D55" s="74" t="s">
-        <v>328</v>
+      <c r="D55" s="73" t="s">
+        <v>316</v>
       </c>
       <c r="E55" s="52" t="s">
         <v>20</v>
@@ -8767,23 +8886,23 @@
         <v>20</v>
       </c>
       <c r="G55" s="54"/>
-      <c r="H55" s="72" t="str">
+      <c r="H55" s="71" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x06h-Testing-Platform-Interaction.md#testing-app-permissions-mstg-platform-1"),"Testing App Permissions (MSTG-PLATFORM-1)")</f>
         <v>Testing App Permissions (MSTG-PLATFORM-1)</v>
       </c>
-      <c r="I55" s="59"/>
-      <c r="J55" s="59"/>
-      <c r="K55" s="57"/>
+      <c r="I55" s="58"/>
+      <c r="J55" s="58"/>
+      <c r="K55" s="56"/>
     </row>
     <row r="56" spans="2:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="B56" s="69" t="s">
+      <c r="B56" s="68" t="s">
         <v>117</v>
       </c>
-      <c r="C56" s="70" t="s">
+      <c r="C56" s="69" t="s">
         <v>118</v>
       </c>
       <c r="D56" s="77" t="s">
-        <v>329</v>
+        <v>317</v>
       </c>
       <c r="E56" s="52" t="s">
         <v>20</v>
@@ -8792,23 +8911,23 @@
         <v>20</v>
       </c>
       <c r="G56" s="54"/>
-      <c r="H56" s="72" t="str">
+      <c r="H56" s="71" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x04h-Testing-Code-Quality.md#injection-flaws-mstg-arch-2-and-mstg-platform-2"),"Injection Flaws (MSTG-ARCH-2 and MSTG-PLATFORM-2)")</f>
         <v>Injection Flaws (MSTG-ARCH-2 and MSTG-PLATFORM-2)</v>
       </c>
-      <c r="I56" s="59"/>
-      <c r="J56" s="59"/>
-      <c r="K56" s="57"/>
+      <c r="I56" s="58"/>
+      <c r="J56" s="58"/>
+      <c r="K56" s="56"/>
     </row>
     <row r="57" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B57" s="69" t="s">
+      <c r="B57" s="68" t="s">
         <v>119</v>
       </c>
-      <c r="C57" s="70" t="s">
+      <c r="C57" s="69" t="s">
         <v>120</v>
       </c>
-      <c r="D57" s="74" t="s">
-        <v>330</v>
+      <c r="D57" s="73" t="s">
+        <v>318</v>
       </c>
       <c r="E57" s="52" t="s">
         <v>20</v>
@@ -8817,23 +8936,23 @@
         <v>20</v>
       </c>
       <c r="G57" s="54"/>
-      <c r="H57" s="72" t="str">
+      <c r="H57" s="71" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x06h-Testing-Platform-Interaction.md#testing-custom-url-schemes-mstg-platform-3"),"Testing Custom URL Schemes (MSTG-PLATFORM-3)")</f>
         <v>Testing Custom URL Schemes (MSTG-PLATFORM-3)</v>
       </c>
-      <c r="I57" s="59"/>
-      <c r="J57" s="59"/>
-      <c r="K57" s="57"/>
+      <c r="I57" s="58"/>
+      <c r="J57" s="58"/>
+      <c r="K57" s="56"/>
     </row>
     <row r="58" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B58" s="69" t="s">
+      <c r="B58" s="68" t="s">
         <v>121</v>
       </c>
-      <c r="C58" s="70" t="s">
+      <c r="C58" s="69" t="s">
         <v>122</v>
       </c>
-      <c r="D58" s="74" t="s">
-        <v>331</v>
+      <c r="D58" s="73" t="s">
+        <v>319</v>
       </c>
       <c r="E58" s="52" t="s">
         <v>20</v>
@@ -8846,19 +8965,19 @@
         <f>HYPERLINK(CONCATENATE( BASE_URL, "0x06h-Testing-Platform-Interaction.md#testing-for-sensitive-functionality-exposure-through-ipc-mstg-platform-4"), "Testing for Sensitive Functionality Exposure Through IPC (MSTG-PLATFORM-4)")</f>
         <v>Testing for Sensitive Functionality Exposure Through IPC (MSTG-PLATFORM-4)</v>
       </c>
-      <c r="I58" s="59"/>
-      <c r="J58" s="59"/>
-      <c r="K58" s="57"/>
+      <c r="I58" s="58"/>
+      <c r="J58" s="58"/>
+      <c r="K58" s="56"/>
     </row>
     <row r="59" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B59" s="69" t="s">
+      <c r="B59" s="68" t="s">
         <v>123</v>
       </c>
-      <c r="C59" s="70" t="s">
+      <c r="C59" s="69" t="s">
         <v>124</v>
       </c>
-      <c r="D59" s="74" t="s">
-        <v>332</v>
+      <c r="D59" s="73" t="s">
+        <v>320</v>
       </c>
       <c r="E59" s="52" t="s">
         <v>20</v>
@@ -8867,23 +8986,23 @@
         <v>20</v>
       </c>
       <c r="G59" s="54"/>
-      <c r="H59" s="72" t="str">
+      <c r="H59" s="71" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x06h-Testing-Platform-Interaction.md#testing-ios-webviews-mstg-platform-5"),"Testing iOS WebViews (MSTG-PLATFORM-5)")</f>
         <v>Testing iOS WebViews (MSTG-PLATFORM-5)</v>
       </c>
-      <c r="I59" s="59"/>
-      <c r="J59" s="59"/>
-      <c r="K59" s="57"/>
+      <c r="I59" s="58"/>
+      <c r="J59" s="58"/>
+      <c r="K59" s="56"/>
     </row>
     <row r="60" spans="2:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="B60" s="69" t="s">
+      <c r="B60" s="68" t="s">
         <v>125</v>
       </c>
-      <c r="C60" s="70" t="s">
+      <c r="C60" s="69" t="s">
         <v>126</v>
       </c>
       <c r="D60" s="77" t="s">
-        <v>333</v>
+        <v>321</v>
       </c>
       <c r="E60" s="52" t="s">
         <v>20</v>
@@ -8892,23 +9011,23 @@
         <v>20</v>
       </c>
       <c r="G60" s="54"/>
-      <c r="H60" s="72" t="str">
+      <c r="H60" s="71" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x06h-Testing-Platform-Interaction.md#testing-webview-protocol-handlers-mstg-platform-6"),"Testing WebView Protocol Handlers (MSTG-PLATFORM-6)")</f>
         <v>Testing WebView Protocol Handlers (MSTG-PLATFORM-6)</v>
       </c>
-      <c r="I60" s="59"/>
-      <c r="J60" s="59"/>
-      <c r="K60" s="57"/>
+      <c r="I60" s="58"/>
+      <c r="J60" s="58"/>
+      <c r="K60" s="56"/>
     </row>
     <row r="61" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B61" s="69" t="s">
+      <c r="B61" s="68" t="s">
         <v>127</v>
       </c>
-      <c r="C61" s="70" t="s">
+      <c r="C61" s="69" t="s">
         <v>128</v>
       </c>
       <c r="D61" s="77" t="s">
-        <v>334</v>
+        <v>322</v>
       </c>
       <c r="E61" s="52" t="s">
         <v>20</v>
@@ -8917,23 +9036,23 @@
         <v>20</v>
       </c>
       <c r="G61" s="54"/>
-      <c r="H61" s="72" t="str">
+      <c r="H61" s="71" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x06h-Testing-Platform-Interaction.md#determining-whether-native-methods-are-exposed-through-webviews-mstg-platform-7"),"Determining Whether Native Methods Are Exposed Through WebViews (MSTG-PLATFORM-7)")</f>
         <v>Determining Whether Native Methods Are Exposed Through WebViews (MSTG-PLATFORM-7)</v>
       </c>
-      <c r="I61" s="59"/>
-      <c r="J61" s="59"/>
-      <c r="K61" s="57"/>
+      <c r="I61" s="58"/>
+      <c r="J61" s="58"/>
+      <c r="K61" s="56"/>
     </row>
     <row r="62" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B62" s="69" t="s">
+      <c r="B62" s="68" t="s">
         <v>129</v>
       </c>
-      <c r="C62" s="70" t="s">
+      <c r="C62" s="69" t="s">
         <v>130</v>
       </c>
-      <c r="D62" s="74" t="s">
-        <v>335</v>
+      <c r="D62" s="73" t="s">
+        <v>323</v>
       </c>
       <c r="E62" s="52" t="s">
         <v>20</v>
@@ -8942,39 +9061,39 @@
         <v>20</v>
       </c>
       <c r="G62" s="54"/>
-      <c r="H62" s="72" t="str">
+      <c r="H62" s="71" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x06h-Testing-Platform-Interaction.md#testing-object-persistence-mstg-platform-8"),"Testing Object Persistence (MSTG-PLATFORM-8)")</f>
         <v>Testing Object Persistence (MSTG-PLATFORM-8)</v>
       </c>
-      <c r="I62" s="59"/>
-      <c r="J62" s="59"/>
-      <c r="K62" s="57"/>
+      <c r="I62" s="58"/>
+      <c r="J62" s="58"/>
+      <c r="K62" s="56"/>
     </row>
     <row r="63" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B63" s="61" t="s">
+      <c r="B63" s="60" t="s">
         <v>131</v>
       </c>
-      <c r="C63" s="62"/>
-      <c r="D63" s="63" t="s">
-        <v>303</v>
-      </c>
-      <c r="E63" s="64"/>
-      <c r="F63" s="65"/>
-      <c r="G63" s="64"/>
-      <c r="H63" s="66"/>
-      <c r="I63" s="67"/>
-      <c r="J63" s="67"/>
+      <c r="C63" s="61"/>
+      <c r="D63" s="62" t="s">
+        <v>291</v>
+      </c>
+      <c r="E63" s="63"/>
+      <c r="F63" s="64"/>
+      <c r="G63" s="63"/>
+      <c r="H63" s="65"/>
+      <c r="I63" s="66"/>
+      <c r="J63" s="66"/>
       <c r="K63" s="76"/>
     </row>
     <row r="64" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B64" s="69" t="s">
+      <c r="B64" s="68" t="s">
         <v>132</v>
       </c>
-      <c r="C64" s="70" t="s">
+      <c r="C64" s="69" t="s">
         <v>133</v>
       </c>
-      <c r="D64" s="74" t="s">
-        <v>336</v>
+      <c r="D64" s="73" t="s">
+        <v>324</v>
       </c>
       <c r="E64" s="52" t="s">
         <v>20</v>
@@ -8983,23 +9102,23 @@
         <v>20</v>
       </c>
       <c r="G64" s="54"/>
-      <c r="H64" s="72" t="str">
+      <c r="H64" s="71" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x06i-Testing-Code-Quality-and-Build-Settings.md#making-sure-that-the-app-is-properly-signed-mstg-code-1"),"Making Sure that the App Is Properly Signed (MSTG-CODE-1)")</f>
         <v>Making Sure that the App Is Properly Signed (MSTG-CODE-1)</v>
       </c>
-      <c r="I64" s="59"/>
-      <c r="J64" s="59"/>
-      <c r="K64" s="57"/>
+      <c r="I64" s="58"/>
+      <c r="J64" s="58"/>
+      <c r="K64" s="56"/>
     </row>
     <row r="65" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B65" s="69" t="s">
+      <c r="B65" s="68" t="s">
         <v>134</v>
       </c>
-      <c r="C65" s="70" t="s">
+      <c r="C65" s="69" t="s">
         <v>135</v>
       </c>
-      <c r="D65" s="74" t="s">
-        <v>337</v>
+      <c r="D65" s="73" t="s">
+        <v>325</v>
       </c>
       <c r="E65" s="52" t="s">
         <v>20</v>
@@ -9008,23 +9127,23 @@
         <v>20</v>
       </c>
       <c r="G65" s="54"/>
-      <c r="H65" s="72" t="str">
+      <c r="H65" s="71" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x06i-Testing-Code-Quality-and-Build-Settings.md#determining-whether-the-app-is-debuggable-mstg-code-2"),"Determining Whether the App is Debuggable (MSTG-CODE-2)")</f>
         <v>Determining Whether the App is Debuggable (MSTG-CODE-2)</v>
       </c>
-      <c r="I65" s="59"/>
-      <c r="J65" s="59"/>
-      <c r="K65" s="57"/>
+      <c r="I65" s="58"/>
+      <c r="J65" s="58"/>
+      <c r="K65" s="56"/>
     </row>
     <row r="66" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B66" s="69" t="s">
+      <c r="B66" s="68" t="s">
         <v>136</v>
       </c>
-      <c r="C66" s="70" t="s">
+      <c r="C66" s="69" t="s">
         <v>137</v>
       </c>
-      <c r="D66" s="74" t="s">
-        <v>338</v>
+      <c r="D66" s="73" t="s">
+        <v>326</v>
       </c>
       <c r="E66" s="52" t="s">
         <v>20</v>
@@ -9033,23 +9152,23 @@
         <v>20</v>
       </c>
       <c r="G66" s="54"/>
-      <c r="H66" s="72" t="str">
+      <c r="H66" s="71" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x06i-Testing-Code-Quality-and-Build-Settings.md#finding-debugging-symbols-mstg-code-3"),"Finding Debugging Symbols (MSTG-CODE-3)")</f>
         <v>Finding Debugging Symbols (MSTG-CODE-3)</v>
       </c>
-      <c r="I66" s="59"/>
-      <c r="J66" s="59"/>
-      <c r="K66" s="57"/>
+      <c r="I66" s="58"/>
+      <c r="J66" s="58"/>
+      <c r="K66" s="56"/>
     </row>
     <row r="67" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B67" s="69" t="s">
+      <c r="B67" s="68" t="s">
         <v>138</v>
       </c>
-      <c r="C67" s="70" t="s">
+      <c r="C67" s="69" t="s">
         <v>139</v>
       </c>
-      <c r="D67" s="74" t="s">
-        <v>339</v>
+      <c r="D67" s="73" t="s">
+        <v>327</v>
       </c>
       <c r="E67" s="52" t="s">
         <v>20</v>
@@ -9058,23 +9177,23 @@
         <v>20</v>
       </c>
       <c r="G67" s="54"/>
-      <c r="H67" s="72" t="str">
+      <c r="H67" s="71" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x06i-Testing-Code-Quality-and-Build-Settings.md#finding-debugging-code-and-verbose-error-logging-mstg-code-4"),"Finding Debugging Code and Verbose Error Logging (MSTG-CODE-4)")</f>
         <v>Finding Debugging Code and Verbose Error Logging (MSTG-CODE-4)</v>
       </c>
-      <c r="I67" s="59"/>
-      <c r="J67" s="59"/>
-      <c r="K67" s="57"/>
+      <c r="I67" s="58"/>
+      <c r="J67" s="58"/>
+      <c r="K67" s="56"/>
     </row>
     <row r="68" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B68" s="69" t="s">
+      <c r="B68" s="68" t="s">
         <v>140</v>
       </c>
-      <c r="C68" s="70" t="s">
+      <c r="C68" s="69" t="s">
         <v>141</v>
       </c>
       <c r="D68" s="51" t="s">
-        <v>340</v>
+        <v>328</v>
       </c>
       <c r="E68" s="52" t="s">
         <v>20</v>
@@ -9087,19 +9206,19 @@
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x06i-Testing-Code-Quality-and-Build-Settings.md#checking-for-weaknesses-in-third-party-libraries-mstg-code-5"),"Checking for Weaknesses in Third Party Libraries (MSTG-CODE-5)")</f>
         <v>Checking for Weaknesses in Third Party Libraries (MSTG-CODE-5)</v>
       </c>
-      <c r="I68" s="59"/>
-      <c r="J68" s="59"/>
-      <c r="K68" s="57"/>
+      <c r="I68" s="58"/>
+      <c r="J68" s="58"/>
+      <c r="K68" s="56"/>
     </row>
     <row r="69" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B69" s="69" t="s">
+      <c r="B69" s="68" t="s">
         <v>142</v>
       </c>
-      <c r="C69" s="70" t="s">
+      <c r="C69" s="69" t="s">
         <v>143</v>
       </c>
-      <c r="D69" s="74" t="s">
-        <v>341</v>
+      <c r="D69" s="73" t="s">
+        <v>329</v>
       </c>
       <c r="E69" s="52" t="s">
         <v>20</v>
@@ -9108,23 +9227,23 @@
         <v>20</v>
       </c>
       <c r="G69" s="54"/>
-      <c r="H69" s="72" t="str">
+      <c r="H69" s="71" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x06i-Testing-Code-Quality-and-Build-Settings.md#testing-exception-handling-mstg-code-6"),"Testing Exception Handling (MSTG-CODE-6)")</f>
         <v>Testing Exception Handling (MSTG-CODE-6)</v>
       </c>
-      <c r="I69" s="59"/>
-      <c r="J69" s="59"/>
-      <c r="K69" s="57"/>
+      <c r="I69" s="58"/>
+      <c r="J69" s="58"/>
+      <c r="K69" s="56"/>
     </row>
     <row r="70" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B70" s="69" t="s">
+      <c r="B70" s="68" t="s">
         <v>144</v>
       </c>
-      <c r="C70" s="70" t="s">
+      <c r="C70" s="69" t="s">
         <v>145</v>
       </c>
-      <c r="D70" s="74" t="s">
-        <v>342</v>
+      <c r="D70" s="73" t="s">
+        <v>330</v>
       </c>
       <c r="E70" s="52" t="s">
         <v>20</v>
@@ -9133,23 +9252,23 @@
         <v>20</v>
       </c>
       <c r="G70" s="54"/>
-      <c r="H70" s="72" t="str">
+      <c r="H70" s="71" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x06i-Testing-Code-Quality-and-Build-Settings.md#testing-exception-handling-mstg-code-6"),"Testing Exception Handling (MSTG-CODE-6)")</f>
         <v>Testing Exception Handling (MSTG-CODE-6)</v>
       </c>
-      <c r="I70" s="59"/>
-      <c r="J70" s="59"/>
-      <c r="K70" s="57"/>
+      <c r="I70" s="58"/>
+      <c r="J70" s="58"/>
+      <c r="K70" s="56"/>
     </row>
     <row r="71" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B71" s="69" t="s">
+      <c r="B71" s="68" t="s">
         <v>146</v>
       </c>
-      <c r="C71" s="70" t="s">
+      <c r="C71" s="69" t="s">
         <v>147</v>
       </c>
-      <c r="D71" s="74" t="s">
-        <v>343</v>
+      <c r="D71" s="73" t="s">
+        <v>331</v>
       </c>
       <c r="E71" s="52" t="s">
         <v>20</v>
@@ -9158,23 +9277,23 @@
         <v>20</v>
       </c>
       <c r="G71" s="54"/>
-      <c r="H71" s="72" t="str">
+      <c r="H71" s="71" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x06i-Testing-Code-Quality-and-Build-Settings.md#memory-corruption-bugs-mstg-code-8"),"Memory Corruption Bugs (MSTG-CODE-8)")</f>
         <v>Memory Corruption Bugs (MSTG-CODE-8)</v>
       </c>
-      <c r="I71" s="59"/>
-      <c r="J71" s="59"/>
-      <c r="K71" s="57"/>
+      <c r="I71" s="58"/>
+      <c r="J71" s="58"/>
+      <c r="K71" s="56"/>
     </row>
     <row r="72" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B72" s="69" t="s">
+      <c r="B72" s="68" t="s">
         <v>148</v>
       </c>
-      <c r="C72" s="70" t="s">
+      <c r="C72" s="69" t="s">
         <v>149</v>
       </c>
       <c r="D72" s="51" t="s">
-        <v>344</v>
+        <v>332</v>
       </c>
       <c r="E72" s="52" t="s">
         <v>20</v>
@@ -9183,13 +9302,13 @@
         <v>20</v>
       </c>
       <c r="G72" s="54"/>
-      <c r="H72" s="72" t="str">
+      <c r="H72" s="71" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x06i-Testing-Code-Quality-and-Build-Settings.md#make-sure-that-free-security-features-are-activated-mstg-code-9"),"Make Sure That Free Security Features Are Activated (MSTG-CODE-9)")</f>
         <v>Make Sure That Free Security Features Are Activated (MSTG-CODE-9)</v>
       </c>
-      <c r="I72" s="59"/>
-      <c r="J72" s="59"/>
-      <c r="K72" s="57"/>
+      <c r="I72" s="58"/>
+      <c r="J72" s="58"/>
+      <c r="K72" s="56"/>
     </row>
     <row r="73" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B73" s="84"/>
@@ -9206,60 +9325,60 @@
     <row r="74" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B74" s="117"/>
       <c r="C74" s="117"/>
-      <c r="D74" s="74"/>
+      <c r="D74" s="73"/>
       <c r="E74" s="93"/>
       <c r="F74" s="93"/>
       <c r="G74" s="93"/>
       <c r="H74" s="93"/>
       <c r="I74" s="93"/>
       <c r="J74" s="93"/>
-      <c r="K74" s="74"/>
+      <c r="K74" s="73"/>
     </row>
     <row r="75" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B75" s="117"/>
       <c r="C75" s="117"/>
-      <c r="D75" s="74"/>
+      <c r="D75" s="73"/>
       <c r="E75" s="93"/>
       <c r="F75" s="93"/>
       <c r="G75" s="93"/>
       <c r="H75" s="93"/>
       <c r="I75" s="93"/>
       <c r="J75" s="93"/>
-      <c r="K75" s="74"/>
+      <c r="K75" s="73"/>
     </row>
     <row r="76" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B76" s="117"/>
       <c r="C76" s="117"/>
-      <c r="D76" s="74"/>
+      <c r="D76" s="73"/>
       <c r="E76" s="93"/>
       <c r="F76" s="93"/>
       <c r="G76" s="93"/>
       <c r="H76" s="93"/>
       <c r="I76" s="93"/>
       <c r="J76" s="93"/>
-      <c r="K76" s="74"/>
+      <c r="K76" s="73"/>
     </row>
     <row r="77" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B77" s="118" t="s">
         <v>150</v>
       </c>
       <c r="C77" s="118"/>
-      <c r="D77" s="74"/>
+      <c r="D77" s="73"/>
       <c r="E77" s="93"/>
       <c r="F77" s="93"/>
       <c r="G77" s="93"/>
       <c r="H77" s="93"/>
       <c r="I77" s="93"/>
       <c r="J77" s="93"/>
-      <c r="K77" s="74"/>
+      <c r="K77" s="73"/>
     </row>
     <row r="78" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B78" s="95" t="s">
-        <v>304</v>
+        <v>292</v>
       </c>
       <c r="C78" s="95"/>
       <c r="D78" s="96" t="s">
-        <v>307</v>
+        <v>295</v>
       </c>
       <c r="E78" s="93"/>
       <c r="F78" s="93"/>
@@ -9267,7 +9386,7 @@
       <c r="H78" s="93"/>
       <c r="I78" s="93"/>
       <c r="J78" s="93"/>
-      <c r="K78" s="74"/>
+      <c r="K78" s="73"/>
     </row>
     <row r="79" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B79" s="97" t="s">
@@ -9275,7 +9394,7 @@
       </c>
       <c r="C79" s="97"/>
       <c r="D79" s="98" t="s">
-        <v>362</v>
+        <v>350</v>
       </c>
       <c r="E79" s="93"/>
       <c r="F79" s="93"/>
@@ -9283,7 +9402,7 @@
       <c r="H79" s="93"/>
       <c r="I79" s="93"/>
       <c r="J79" s="93"/>
-      <c r="K79" s="74"/>
+      <c r="K79" s="73"/>
     </row>
     <row r="80" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B80" s="97" t="s">
@@ -9291,7 +9410,7 @@
       </c>
       <c r="C80" s="97"/>
       <c r="D80" s="98" t="s">
-        <v>363</v>
+        <v>351</v>
       </c>
       <c r="E80" s="93"/>
       <c r="F80" s="93"/>
@@ -9299,7 +9418,7 @@
       <c r="H80" s="93"/>
       <c r="I80" s="93"/>
       <c r="J80" s="93"/>
-      <c r="K80" s="74"/>
+      <c r="K80" s="73"/>
     </row>
     <row r="81" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B81" s="97" t="s">
@@ -9307,7 +9426,7 @@
       </c>
       <c r="C81" s="97"/>
       <c r="D81" s="98" t="s">
-        <v>364</v>
+        <v>352</v>
       </c>
       <c r="E81" s="93"/>
       <c r="F81" s="93"/>
@@ -9315,55 +9434,55 @@
       <c r="H81" s="93"/>
       <c r="I81" s="93"/>
       <c r="J81" s="93"/>
-      <c r="K81" s="74"/>
+      <c r="K81" s="73"/>
     </row>
     <row r="82" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B82" s="117"/>
       <c r="C82" s="117"/>
-      <c r="D82" s="74"/>
+      <c r="D82" s="73"/>
       <c r="E82" s="93"/>
       <c r="F82" s="93"/>
       <c r="G82" s="93"/>
       <c r="H82" s="93"/>
       <c r="I82" s="93"/>
       <c r="J82" s="93"/>
-      <c r="K82" s="74"/>
+      <c r="K82" s="73"/>
     </row>
     <row r="83" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B83" s="117"/>
       <c r="C83" s="117"/>
-      <c r="D83" s="74"/>
+      <c r="D83" s="73"/>
       <c r="E83" s="93"/>
       <c r="F83" s="93"/>
       <c r="G83" s="93"/>
       <c r="H83" s="93"/>
       <c r="I83" s="93"/>
       <c r="J83" s="93"/>
-      <c r="K83" s="74"/>
+      <c r="K83" s="73"/>
     </row>
     <row r="84" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B84" s="117"/>
       <c r="C84" s="117"/>
-      <c r="D84" s="74"/>
+      <c r="D84" s="73"/>
       <c r="E84" s="93"/>
       <c r="F84" s="93"/>
       <c r="G84" s="93"/>
       <c r="H84" s="93"/>
       <c r="I84" s="93"/>
       <c r="J84" s="93"/>
-      <c r="K84" s="74"/>
+      <c r="K84" s="73"/>
     </row>
     <row r="85" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B85" s="117"/>
       <c r="C85" s="117"/>
-      <c r="D85" s="74"/>
+      <c r="D85" s="73"/>
       <c r="E85" s="93"/>
       <c r="F85" s="93"/>
       <c r="G85" s="93"/>
       <c r="H85" s="93"/>
       <c r="I85" s="93"/>
       <c r="J85" s="93"/>
-      <c r="K85" s="74"/>
+      <c r="K85" s="73"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -9427,15 +9546,15 @@
   <sheetData>
     <row r="1" spans="2:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B1" s="108" t="s">
-        <v>413</v>
+        <v>401</v>
       </c>
       <c r="C1" s="108"/>
       <c r="G1" s="93"/>
-      <c r="H1" s="74"/>
+      <c r="H1" s="73"/>
     </row>
     <row r="2" spans="2:8" x14ac:dyDescent="0.25">
       <c r="G2" s="93"/>
-      <c r="H2" s="74"/>
+      <c r="H2" s="73"/>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B3" s="37" t="s">
@@ -9445,7 +9564,7 @@
         <v>11</v>
       </c>
       <c r="D3" s="39" t="s">
-        <v>345</v>
+        <v>333</v>
       </c>
       <c r="E3" s="40" t="s">
         <v>153</v>
@@ -9461,15 +9580,15 @@
       </c>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B4" s="61"/>
-      <c r="C4" s="62"/>
-      <c r="D4" s="63" t="s">
-        <v>347</v>
-      </c>
-      <c r="E4" s="64"/>
-      <c r="F4" s="64"/>
+      <c r="B4" s="60"/>
+      <c r="C4" s="61"/>
+      <c r="D4" s="62" t="s">
+        <v>335</v>
+      </c>
+      <c r="E4" s="63"/>
+      <c r="F4" s="63"/>
       <c r="G4" s="101"/>
-      <c r="H4" s="68"/>
+      <c r="H4" s="67"/>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B5" s="49" t="s">
@@ -9479,7 +9598,7 @@
         <v>155</v>
       </c>
       <c r="D5" s="77" t="s">
-        <v>348</v>
+        <v>336</v>
       </c>
       <c r="E5" s="102" t="s">
         <v>20</v>
@@ -9501,7 +9620,7 @@
         <v>157</v>
       </c>
       <c r="D6" s="77" t="s">
-        <v>349</v>
+        <v>337</v>
       </c>
       <c r="E6" s="102" t="s">
         <v>20</v>
@@ -9522,8 +9641,8 @@
       <c r="C7" s="50" t="s">
         <v>159</v>
       </c>
-      <c r="D7" s="74" t="s">
-        <v>350</v>
+      <c r="D7" s="73" t="s">
+        <v>338</v>
       </c>
       <c r="E7" s="102" t="s">
         <v>20</v>
@@ -9544,8 +9663,8 @@
       <c r="C8" s="50" t="s">
         <v>161</v>
       </c>
-      <c r="D8" s="74" t="s">
-        <v>351</v>
+      <c r="D8" s="73" t="s">
+        <v>339</v>
       </c>
       <c r="E8" s="102" t="s">
         <v>20</v>
@@ -9565,8 +9684,8 @@
       <c r="C9" s="50" t="s">
         <v>163</v>
       </c>
-      <c r="D9" s="74" t="s">
-        <v>352</v>
+      <c r="D9" s="73" t="s">
+        <v>340</v>
       </c>
       <c r="E9" s="102" t="s">
         <v>20</v>
@@ -9586,8 +9705,8 @@
       <c r="C10" s="50" t="s">
         <v>165</v>
       </c>
-      <c r="D10" s="74" t="s">
-        <v>353</v>
+      <c r="D10" s="73" t="s">
+        <v>341</v>
       </c>
       <c r="E10" s="102" t="s">
         <v>20</v>
@@ -9608,7 +9727,7 @@
         <v>167</v>
       </c>
       <c r="D11" s="77" t="s">
-        <v>354</v>
+        <v>342</v>
       </c>
       <c r="E11" s="102" t="s">
         <v>20</v>
@@ -9628,8 +9747,8 @@
       <c r="C12" s="50" t="s">
         <v>170</v>
       </c>
-      <c r="D12" s="74" t="s">
-        <v>355</v>
+      <c r="D12" s="73" t="s">
+        <v>343</v>
       </c>
       <c r="E12" s="102" t="s">
         <v>20</v>
@@ -9649,8 +9768,8 @@
       <c r="C13" s="50" t="s">
         <v>173</v>
       </c>
-      <c r="D13" s="74" t="s">
-        <v>356</v>
+      <c r="D13" s="73" t="s">
+        <v>344</v>
       </c>
       <c r="E13" s="102" t="s">
         <v>20</v>
@@ -9664,15 +9783,15 @@
       <c r="H13" s="103"/>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B14" s="61"/>
-      <c r="C14" s="62"/>
-      <c r="D14" s="63" t="s">
-        <v>357</v>
-      </c>
-      <c r="E14" s="64"/>
-      <c r="F14" s="64"/>
+      <c r="B14" s="60"/>
+      <c r="C14" s="61"/>
+      <c r="D14" s="62" t="s">
+        <v>345</v>
+      </c>
+      <c r="E14" s="63"/>
+      <c r="F14" s="63"/>
       <c r="G14" s="101"/>
-      <c r="H14" s="68"/>
+      <c r="H14" s="67"/>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B15" s="49" t="s">
@@ -9682,7 +9801,7 @@
         <v>175</v>
       </c>
       <c r="D15" s="77" t="s">
-        <v>358</v>
+        <v>346</v>
       </c>
       <c r="E15" s="102" t="s">
         <v>20</v>
@@ -9697,15 +9816,15 @@
       <c r="H15" s="103"/>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B16" s="61"/>
-      <c r="C16" s="62"/>
-      <c r="D16" s="63" t="s">
-        <v>359</v>
-      </c>
-      <c r="E16" s="64"/>
-      <c r="F16" s="64"/>
+      <c r="B16" s="60"/>
+      <c r="C16" s="61"/>
+      <c r="D16" s="62" t="s">
+        <v>347</v>
+      </c>
+      <c r="E16" s="63"/>
+      <c r="F16" s="63"/>
       <c r="G16" s="101"/>
-      <c r="H16" s="68"/>
+      <c r="H16" s="67"/>
     </row>
     <row r="17" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="136"/>
@@ -9716,7 +9835,7 @@
         <v>177</v>
       </c>
       <c r="D17" s="137" t="s">
-        <v>360</v>
+        <v>348</v>
       </c>
       <c r="E17" s="102" t="s">
         <v>20</v>
@@ -9738,7 +9857,7 @@
         <v>179</v>
       </c>
       <c r="D18" s="77" t="s">
-        <v>361</v>
+        <v>349</v>
       </c>
       <c r="E18" s="102" t="s">
         <v>20</v>
@@ -9763,44 +9882,44 @@
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B20" s="117"/>
       <c r="C20" s="117"/>
-      <c r="D20" s="74"/>
+      <c r="D20" s="73"/>
       <c r="E20" s="93"/>
       <c r="F20" s="93"/>
       <c r="G20" s="93"/>
-      <c r="H20" s="74"/>
+      <c r="H20" s="73"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B21" s="117"/>
       <c r="C21" s="117"/>
-      <c r="D21" s="74"/>
+      <c r="D21" s="73"/>
       <c r="E21" s="93"/>
       <c r="F21" s="93"/>
       <c r="G21" s="93"/>
-      <c r="H21" s="74"/>
+      <c r="H21" s="73"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B22" s="118" t="s">
         <v>150</v>
       </c>
       <c r="C22" s="118"/>
-      <c r="D22" s="74"/>
+      <c r="D22" s="73"/>
       <c r="E22" s="93"/>
       <c r="F22" s="93"/>
       <c r="G22" s="93"/>
-      <c r="H22" s="74"/>
+      <c r="H22" s="73"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B23" s="95" t="s">
-        <v>304</v>
+        <v>292</v>
       </c>
       <c r="C23" s="95"/>
       <c r="D23" s="96" t="s">
-        <v>307</v>
+        <v>295</v>
       </c>
       <c r="E23" s="93"/>
       <c r="F23" s="93"/>
       <c r="G23" s="93"/>
-      <c r="H23" s="74"/>
+      <c r="H23" s="73"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B24" s="97" t="s">
@@ -9808,12 +9927,12 @@
       </c>
       <c r="C24" s="97"/>
       <c r="D24" s="98" t="s">
-        <v>362</v>
+        <v>350</v>
       </c>
       <c r="E24" s="93"/>
       <c r="F24" s="93"/>
       <c r="G24" s="93"/>
-      <c r="H24" s="74"/>
+      <c r="H24" s="73"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B25" s="97" t="s">
@@ -9821,12 +9940,12 @@
       </c>
       <c r="C25" s="97"/>
       <c r="D25" s="98" t="s">
-        <v>363</v>
+        <v>351</v>
       </c>
       <c r="E25" s="93"/>
       <c r="F25" s="93"/>
       <c r="G25" s="93"/>
-      <c r="H25" s="74"/>
+      <c r="H25" s="73"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B26" s="97" t="s">
@@ -9834,58 +9953,58 @@
       </c>
       <c r="C26" s="97"/>
       <c r="D26" s="98" t="s">
-        <v>364</v>
+        <v>352</v>
       </c>
       <c r="E26" s="93"/>
       <c r="F26" s="93"/>
       <c r="G26" s="93"/>
-      <c r="H26" s="74"/>
+      <c r="H26" s="73"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B27" s="117"/>
       <c r="C27" s="117"/>
-      <c r="D27" s="74"/>
+      <c r="D27" s="73"/>
       <c r="E27" s="93"/>
       <c r="F27" s="93"/>
       <c r="G27" s="93"/>
-      <c r="H27" s="74"/>
+      <c r="H27" s="73"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B28" s="117"/>
       <c r="C28" s="117"/>
-      <c r="D28" s="74"/>
+      <c r="D28" s="73"/>
       <c r="E28" s="93"/>
       <c r="F28" s="93"/>
       <c r="G28" s="93"/>
-      <c r="H28" s="74"/>
+      <c r="H28" s="73"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B29" s="117"/>
       <c r="C29" s="117"/>
-      <c r="D29" s="74"/>
+      <c r="D29" s="73"/>
       <c r="E29" s="93"/>
       <c r="F29" s="93"/>
       <c r="G29" s="93"/>
-      <c r="H29" s="74"/>
+      <c r="H29" s="73"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B30" s="117"/>
       <c r="C30" s="117"/>
-      <c r="D30" s="74"/>
+      <c r="D30" s="73"/>
       <c r="E30" s="93"/>
       <c r="F30" s="93"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B31" s="117"/>
       <c r="C31" s="117"/>
-      <c r="D31" s="74"/>
+      <c r="D31" s="73"/>
       <c r="E31" s="93"/>
       <c r="F31" s="93"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B32" s="117"/>
       <c r="C32" s="117"/>
-      <c r="D32" s="74"/>
+      <c r="D32" s="73"/>
       <c r="E32" s="93"/>
       <c r="F32" s="93"/>
     </row>

--- a/Checklists/Mobile_App_Security_Checklist-Chinese_1.1.2.xlsx
+++ b/Checklists/Mobile_App_Security_Checklist-Chinese_1.1.2.xlsx
@@ -8,24 +8,24 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Bob\Documents\GitHub\owasp-mstg\Checklists\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61EB4EC2-6C23-4CF6-A0EC-9D68A19AA436}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84489D08-FB0F-4577-8E64-8758A3681E3B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1395" yWindow="1230" windowWidth="24315" windowHeight="19455" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="仪表板" sheetId="1" r:id="rId1"/>
-    <sheet name="管理概述" sheetId="2" r:id="rId2"/>
-    <sheet name="安全要求 - Android" sheetId="3" r:id="rId3"/>
-    <sheet name="反逆向 - Android" sheetId="4" r:id="rId4"/>
-    <sheet name="安全要求 - iOS" sheetId="5" r:id="rId5"/>
-    <sheet name="反逆向 - iOS" sheetId="6" r:id="rId6"/>
-    <sheet name="版本历史" sheetId="7" r:id="rId7"/>
+    <sheet name="Dashboard" sheetId="1" r:id="rId1"/>
+    <sheet name="Management Summary" sheetId="2" r:id="rId2"/>
+    <sheet name="SR - Android" sheetId="3" r:id="rId3"/>
+    <sheet name="RE - Android" sheetId="4" r:id="rId4"/>
+    <sheet name="SR - iOS" sheetId="5" r:id="rId5"/>
+    <sheet name="RE - iOS" sheetId="6" r:id="rId6"/>
+    <sheet name="Version History" sheetId="7" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2">'安全要求 - Android'!$B$3:$L$74</definedName>
-    <definedName name="BASE_URL">仪表板!$D$14</definedName>
-    <definedName name="MASVS_VERSION">仪表板!$D$11</definedName>
-    <definedName name="MSTG_VERSION">仪表板!$D$13</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2">'SR - Android'!$B$3:$L$74</definedName>
+    <definedName name="BASE_URL">Dashboard!$D$14</definedName>
+    <definedName name="MASVS_VERSION">Dashboard!$D$11</definedName>
+    <definedName name="MSTG_VERSION">Dashboard!$D$13</definedName>
   </definedNames>
   <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1007" uniqueCount="439">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1023" uniqueCount="427">
   <si>
     <t>1.1.4</t>
   </si>
@@ -60,12 +60,6 @@
   </si>
   <si>
     <t>iOS</t>
-  </si>
-  <si>
-    <t>P</t>
-  </si>
-  <si>
-    <t>F</t>
   </si>
   <si>
     <t>NA</t>
@@ -998,18 +992,6 @@
     <t>状态</t>
   </si>
   <si>
-    <t>数据存储和隐私</t>
-  </si>
-  <si>
-    <t>系统凭据存储工具可用于存储敏感数据，例如PII，用户凭据或加密密钥。</t>
-  </si>
-  <si>
-    <t>请勿将敏感数据存储在应用程序容器或系统凭据存储设施之外。</t>
-  </si>
-  <si>
-    <t>没有敏感数据写入应用程序日志。</t>
-  </si>
-  <si>
     <t>除非敏感数据是架构的必要部分，否则不会与第三方共享。</t>
   </si>
   <si>
@@ -1073,12 +1055,6 @@
     <t>符号</t>
   </si>
   <si>
-    <t>通过</t>
-  </si>
-  <si>
-    <t>失败</t>
-  </si>
-  <si>
     <t>定义</t>
   </si>
   <si>
@@ -1266,36 +1242,6 @@
   </si>
   <si>
     <t>平台交互</t>
-  </si>
-  <si>
-    <t>所有的应用程序组件都被标识出来，并被认为是需要的。</t>
-  </si>
-  <si>
-    <t>安全控制从未仅在客户端强制执行，而是在各个远程端点强制执行。</t>
-  </si>
-  <si>
-    <t>已经为移动应用程序和所有连接的远程服务定义了一个高级架构，并在该架构中解决了安全性问题。</t>
-  </si>
-  <si>
-    <t>在移动应用程序上下文中被认为是敏感的数据被清楚地标识出来。</t>
-  </si>
-  <si>
-    <t>所有应用程序组件都是根据它们提供的业务功能和/或安全功能来定义的。</t>
-  </si>
-  <si>
-    <t>已经为移动应用程序和相关的远程服务生成了一个威胁模型，用于识别潜在的威胁和应对措施。</t>
-  </si>
-  <si>
-    <t>所有的安全控制都有一个集中的实现。</t>
-  </si>
-  <si>
-    <t>对于如何管理加密密钥(如果有的话)有一个明确的策略，并且强制执行加密密钥的生命周期。理想情况下，应遵循NIST SP 800-57等密钥管理标准。</t>
-  </si>
-  <si>
-    <t>存在强制更新移动应用程序的机制。</t>
-  </si>
-  <si>
-    <t>安全性在软件开发生命周期的所有部分中都得到了解决。</t>
   </si>
   <si>
     <t>系统凭据存储设施可适当地用于存储敏感数据，如PII、用户凭据或加密密钥。</t>
@@ -1523,6 +1469,24 @@
   <si>
     <t>评论 (Comments)</t>
   </si>
+  <si>
+    <t>PASS</t>
+  </si>
+  <si>
+    <t>FAIL</t>
+  </si>
+  <si>
+    <t>数据存储和隐私 (Data Storage and Privacy)</t>
+  </si>
+  <si>
+    <t>系统凭据存储设施正确的保存敏感信息. 比如, PII, 用户凭证或者加密秘钥. (System credential storage facilities are used appropriately to store sensitive data, such as PII, user credentials or cryptographic keys.)</t>
+  </si>
+  <si>
+    <t>敏感数据不应该在容器应用或者系统凭据存储设备之外被保存.  (No sensitive data should be stored outside of the app container or system credential storage facilities.)</t>
+  </si>
+  <si>
+    <t>没有敏感数据写入应用程序日志。(No sensitive data is written to application logs.)</t>
+  </si>
 </sst>
 </file>
 
@@ -1534,7 +1498,7 @@
     <numFmt numFmtId="166" formatCode="0.00\ %"/>
     <numFmt numFmtId="167" formatCode="[$-407]dd/mm/yyyy"/>
   </numFmts>
-  <fonts count="29" x14ac:knownFonts="1">
+  <fonts count="30" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -1740,6 +1704,13 @@
     </font>
     <font>
       <sz val="12"/>
+      <color rgb="FF5F5F5F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF5F5F5F"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -2149,7 +2120,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="166">
+  <cellXfs count="168">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
@@ -2578,6 +2549,12 @@
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2913,7 +2890,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>管理概述!$C$43:$C$50</c:f>
+              <c:f>'Management Summary'!$C$43:$C$50</c:f>
               <c:strCache>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
@@ -2945,12 +2922,12 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>管理概述!$G$43:$G$50</c:f>
+              <c:f>'Management Summary'!$G$43:$G$50</c:f>
               <c:numCache>
                 <c:formatCode>0.00\ %</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -3299,7 +3276,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>管理概述!$C$43:$C$50</c:f>
+              <c:f>'Management Summary'!$C$43:$C$50</c:f>
               <c:strCache>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
@@ -3331,12 +3308,12 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>管理概述!$K$43:$K$50</c:f>
+              <c:f>'Management Summary'!$K$43:$K$50</c:f>
               <c:numCache>
                 <c:formatCode>0.00\ %</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -3599,7 +3576,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>448539</xdr:colOff>
+      <xdr:colOff>22954</xdr:colOff>
       <xdr:row>38</xdr:row>
       <xdr:rowOff>66960</xdr:rowOff>
     </xdr:to>
@@ -3965,7 +3942,7 @@
   <dimension ref="B1:D50"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A46" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12:C12"/>
+      <selection activeCell="C72" sqref="C72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3980,7 +3957,7 @@
     <row r="1" spans="2:4" ht="8.1" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="147" t="s">
-        <v>404</v>
+        <v>386</v>
       </c>
       <c r="C2" s="147"/>
       <c r="D2" s="147"/>
@@ -4022,14 +3999,14 @@
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="3"/>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B11" s="148" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C11" s="148"/>
       <c r="D11" s="4" t="s">
@@ -4038,7 +4015,7 @@
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B12" s="145" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C12" s="145"/>
       <c r="D12" s="5" t="str">
@@ -4048,7 +4025,7 @@
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B13" s="149" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C13" s="149"/>
       <c r="D13" s="6" t="s">
@@ -4057,7 +4034,7 @@
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B14" s="145" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C14" s="145"/>
       <c r="D14" s="7" t="str">
@@ -4067,62 +4044,62 @@
     </row>
     <row r="15" spans="2:4" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="146" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C15" s="146"/>
       <c r="D15" s="146"/>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B16" s="142" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C16" s="142"/>
       <c r="D16" s="6"/>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B17" s="145" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C17" s="145"/>
       <c r="D17" s="6"/>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B18" s="142" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C18" s="142"/>
       <c r="D18" s="6"/>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B19" s="142" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C19" s="142"/>
       <c r="D19" s="6"/>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B20" s="142" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C20" s="142"/>
       <c r="D20" s="6"/>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B21" s="142" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C21" s="142"/>
       <c r="D21" s="6" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="22" spans="2:4" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="142" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C22" s="142"/>
       <c r="D22" s="6" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="23" spans="2:4" ht="18" x14ac:dyDescent="0.35">
@@ -4132,42 +4109,42 @@
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B24" s="8" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C24" s="9"/>
       <c r="D24" s="10"/>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B25" s="11" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C25" s="12"/>
       <c r="D25" s="6"/>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B26" s="142" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C26" s="142"/>
       <c r="D26" s="6"/>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B27" s="142" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C27" s="142"/>
       <c r="D27" s="6"/>
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B28" s="142" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C28" s="142"/>
       <c r="D28" s="6"/>
     </row>
     <row r="29" spans="2:4" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="143" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C29" s="143"/>
       <c r="D29" s="6"/>
@@ -4179,42 +4156,42 @@
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B31" s="8" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C31" s="9"/>
       <c r="D31" s="10"/>
     </row>
     <row r="32" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B32" s="11" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C32" s="12"/>
       <c r="D32" s="6"/>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B33" s="142" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C33" s="142"/>
       <c r="D33" s="6"/>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B34" s="142" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C34" s="142"/>
       <c r="D34" s="6"/>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B35" s="142" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C35" s="142"/>
       <c r="D35" s="6"/>
     </row>
     <row r="36" spans="2:4" ht="63" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="143" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C36" s="143"/>
       <c r="D36" s="6"/>
@@ -4226,7 +4203,7 @@
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B38" s="8" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C38" s="9"/>
       <c r="D38" s="10"/>
@@ -4238,35 +4215,35 @@
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B40" s="140" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C40" s="140"/>
       <c r="D40" s="13"/>
     </row>
     <row r="41" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B41" s="140" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C41" s="140"/>
       <c r="D41" s="13"/>
     </row>
     <row r="42" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B42" s="140" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C42" s="140"/>
       <c r="D42" s="13"/>
     </row>
     <row r="43" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B43" s="140" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C43" s="140"/>
       <c r="D43" s="14"/>
     </row>
     <row r="44" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B44" s="140" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C44" s="140"/>
       <c r="D44" s="13"/>
@@ -4278,35 +4255,35 @@
     </row>
     <row r="46" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B46" s="140" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C46" s="140"/>
       <c r="D46" s="13"/>
     </row>
     <row r="47" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B47" s="140" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C47" s="140"/>
       <c r="D47" s="13"/>
     </row>
     <row r="48" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B48" s="140" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C48" s="140"/>
       <c r="D48" s="13"/>
     </row>
     <row r="49" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B49" s="140" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C49" s="140"/>
       <c r="D49" s="14"/>
     </row>
     <row r="50" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B50" s="140" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C50" s="140"/>
       <c r="D50" s="13"/>
@@ -4361,8 +4338,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:AMK50"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="B13" zoomScale="94" zoomScaleNormal="94" workbookViewId="0">
-      <selection activeCell="C58" sqref="C58"/>
+    <sheetView showGridLines="0" topLeftCell="B28" zoomScale="94" zoomScaleNormal="94" workbookViewId="0">
+      <selection activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4370,17 +4347,16 @@
     <col min="1" max="1" width="1.875" style="15" customWidth="1"/>
     <col min="2" max="2" width="9.5" style="15" customWidth="1"/>
     <col min="3" max="3" width="61.125" style="15" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6" style="15" customWidth="1"/>
-    <col min="5" max="5" width="4.625" style="15" customWidth="1"/>
-    <col min="6" max="6" width="5.875" style="15" customWidth="1"/>
-    <col min="7" max="7" width="10.125" style="15" customWidth="1"/>
+    <col min="4" max="4" width="8.625" style="15" customWidth="1"/>
+    <col min="5" max="5" width="6.25" style="15" customWidth="1"/>
+    <col min="6" max="7" width="8.625" style="15" customWidth="1"/>
     <col min="8" max="1025" width="8.875" style="15" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B2" s="16"/>
       <c r="C2" s="17" t="s">
-        <v>405</v>
+        <v>387</v>
       </c>
       <c r="D2" s="18"/>
       <c r="E2" s="18"/>
@@ -4414,12 +4390,12 @@
       <c r="E6" s="20"/>
       <c r="F6" s="20"/>
       <c r="G6" s="152" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="H6" s="152"/>
       <c r="I6" s="152"/>
       <c r="V6" s="152" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="W6" s="152"/>
       <c r="X6" s="152"/>
@@ -4439,13 +4415,13 @@
       <c r="F8" s="19"/>
       <c r="G8" s="153">
         <f>AVERAGE(G43:G50)*5</f>
-        <v>0</v>
+        <v>0.625</v>
       </c>
       <c r="H8" s="153"/>
       <c r="I8" s="153"/>
       <c r="V8" s="153">
         <f>AVERAGE(K43:K50)*5</f>
-        <v>0</v>
+        <v>0.625</v>
       </c>
       <c r="W8" s="153"/>
       <c r="X8" s="153"/>
@@ -4590,81 +4566,81 @@
     </row>
     <row r="42" spans="3:11" x14ac:dyDescent="0.25">
       <c r="D42" s="26" t="s">
+        <v>421</v>
+      </c>
+      <c r="E42" s="26" t="s">
+        <v>422</v>
+      </c>
+      <c r="F42" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="E42" s="26" t="s">
+      <c r="G42" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="F42" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="G42" s="26" t="s">
-        <v>9</v>
-      </c>
       <c r="H42" s="26" t="s">
+        <v>421</v>
+      </c>
+      <c r="I42" s="26" t="s">
+        <v>422</v>
+      </c>
+      <c r="J42" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="I42" s="26" t="s">
+      <c r="K42" s="26" t="s">
         <v>7</v>
-      </c>
-      <c r="J42" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="K42" s="26" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="43" spans="3:11" ht="16.5" x14ac:dyDescent="0.25">
       <c r="C43" s="158" t="s">
-        <v>406</v>
+        <v>388</v>
       </c>
       <c r="D43" s="27">
-        <f>COUNTIFS('安全要求 - Android'!G5:G14,'安全要求 - Android'!B81)</f>
+        <f>COUNTIFS('SR - Android'!G5:G16,'SR - Android'!B81)</f>
+        <v>1</v>
+      </c>
+      <c r="E43" s="27">
+        <f>COUNTIFS('SR - Android'!G5:G16,'SR - Android'!B82)</f>
         <v>0</v>
       </c>
-      <c r="E43" s="27">
-        <f>COUNTIFS('安全要求 - Android'!G5:G14,'安全要求 - Android'!B82)</f>
-        <v>0</v>
-      </c>
       <c r="F43" s="28">
-        <f>COUNTIFS('安全要求 - Android'!G5:G14,'安全要求 - Android'!B83)</f>
-        <v>6</v>
+        <f>COUNTIFS('SR - Android'!G5:G16,'SR - Android'!B83)</f>
+        <v>11</v>
       </c>
       <c r="G43" s="29">
         <f t="shared" ref="G43:G50" si="0">IF(D43+E43=0, 0, D43/(E43+D43))</f>
+        <v>1</v>
+      </c>
+      <c r="H43" s="27">
+        <f>COUNTIFS('SR - iOS'!G5:G16,'SR - Android'!B81)</f>
+        <v>1</v>
+      </c>
+      <c r="I43" s="27">
+        <f>COUNTIFS('SR - iOS'!G5:G16,'SR - Android'!B82)</f>
         <v>0</v>
       </c>
-      <c r="H43" s="27">
-        <f>COUNTIFS('安全要求 - iOS'!G5:G14,'安全要求 - Android'!B81)</f>
-        <v>0</v>
-      </c>
-      <c r="I43" s="27">
-        <f>COUNTIFS('安全要求 - iOS'!G5:G14,'安全要求 - Android'!B82)</f>
-        <v>0</v>
-      </c>
       <c r="J43" s="28">
-        <f>COUNTIFS('安全要求 - iOS'!G5:G14,'安全要求 - Android'!B83)</f>
-        <v>6</v>
+        <f>COUNTIFS('SR - iOS'!G5:G16,'SR - Android'!B83)</f>
+        <v>8</v>
       </c>
       <c r="K43" s="29">
         <f t="shared" ref="K43:K50" si="1">IF(H43+I43=0, 0, H43/(H43+I43))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="3:11" ht="16.5" x14ac:dyDescent="0.25">
       <c r="C44" s="158" t="s">
-        <v>407</v>
+        <v>389</v>
       </c>
       <c r="D44" s="27">
-        <f>COUNTIFS('安全要求 - Android'!G18:G29,'安全要求 - Android'!B81)</f>
+        <f>COUNTIFS('SR - Android'!G18:G29,'SR - Android'!B81)</f>
         <v>0</v>
       </c>
       <c r="E44" s="27">
-        <f>COUNTIFS('安全要求 - Android'!G18:G29,'安全要求 - Android'!B82)</f>
+        <f>COUNTIFS('SR - Android'!G18:G29,'SR - Android'!B82)</f>
         <v>0</v>
       </c>
       <c r="F44" s="27">
-        <f>COUNTIFS('安全要求 - Android'!G18:G29,'安全要求 - Android'!B83)</f>
+        <f>COUNTIFS('SR - Android'!G18:G29,'SR - Android'!B83)</f>
         <v>5</v>
       </c>
       <c r="G44" s="29">
@@ -4672,15 +4648,15 @@
         <v>0</v>
       </c>
       <c r="H44" s="27">
-        <f>COUNTIFS('安全要求 - iOS'!G16:G27,'安全要求 - Android'!B81)</f>
+        <f>COUNTIFS('SR - iOS'!G18:G29,'SR - Android'!B81)</f>
         <v>0</v>
       </c>
       <c r="I44" s="27">
-        <f>COUNTIFS('安全要求 - iOS'!G16:G27,'安全要求 - Android'!B82)</f>
+        <f>COUNTIFS('SR - iOS'!G18:G29,'SR - Android'!B82)</f>
         <v>0</v>
       </c>
       <c r="J44" s="27">
-        <f>COUNTIFS('安全要求 - iOS'!G16:G27,'安全要求 - Android'!B83)</f>
+        <f>COUNTIFS('SR - iOS'!G18:G29,'SR - Android'!B83)</f>
         <v>5</v>
       </c>
       <c r="K44" s="29">
@@ -4690,18 +4666,18 @@
     </row>
     <row r="45" spans="3:11" ht="16.5" x14ac:dyDescent="0.25">
       <c r="C45" s="158" t="s">
-        <v>408</v>
+        <v>390</v>
       </c>
       <c r="D45" s="27">
-        <f>COUNTIFS('安全要求 - Android'!G31:G36,'安全要求 - Android'!B81)</f>
+        <f>COUNTIFS('SR - Android'!G31:G36,'SR - Android'!B81)</f>
         <v>0</v>
       </c>
       <c r="E45" s="27">
-        <f>COUNTIFS('安全要求 - Android'!G31:G36,'安全要求 - Android'!B82)</f>
+        <f>COUNTIFS('SR - Android'!G31:G36,'SR - Android'!B82)</f>
         <v>0</v>
       </c>
       <c r="F45" s="27">
-        <f>COUNTIFS('安全要求 - Android'!G31:G36,'安全要求 - Android'!B83)</f>
+        <f>COUNTIFS('SR - Android'!G31:G36,'SR - Android'!B83)</f>
         <v>0</v>
       </c>
       <c r="G45" s="29">
@@ -4709,15 +4685,15 @@
         <v>0</v>
       </c>
       <c r="H45" s="27">
-        <f>COUNTIFS('安全要求 - iOS'!G29:G34,'安全要求 - Android'!B81)</f>
+        <f>COUNTIFS('SR - iOS'!G31:G36,'SR - Android'!B81)</f>
         <v>0</v>
       </c>
       <c r="I45" s="27">
-        <f>COUNTIFS('安全要求 - iOS'!G29:G34,'安全要求 - Android'!B82)</f>
+        <f>COUNTIFS('SR - iOS'!G31:G36,'SR - Android'!B82)</f>
         <v>0</v>
       </c>
       <c r="J45" s="27">
-        <f>COUNTIFS('安全要求 - iOS'!G29:G34,'安全要求 - Android'!B83)</f>
+        <f>COUNTIFS('SR - iOS'!G31:G36,'SR - Android'!B83)</f>
         <v>0</v>
       </c>
       <c r="K45" s="29">
@@ -4727,18 +4703,18 @@
     </row>
     <row r="46" spans="3:11" ht="16.5" x14ac:dyDescent="0.25">
       <c r="C46" s="158" t="s">
-        <v>409</v>
+        <v>391</v>
       </c>
       <c r="D46" s="27">
-        <f>COUNTIFS('安全要求 - Android'!G38:G48,'安全要求 - Android'!B81)</f>
+        <f>COUNTIFS('SR - Android'!G38:G48,'SR - Android'!B81)</f>
         <v>0</v>
       </c>
       <c r="E46" s="27">
-        <f>COUNTIFS('安全要求 - Android'!G38:G48,'安全要求 - Android'!B82)</f>
+        <f>COUNTIFS('SR - Android'!G38:G48,'SR - Android'!B82)</f>
         <v>0</v>
       </c>
       <c r="F46" s="27">
-        <f>COUNTIFS('安全要求 - Android'!G38:G48,'安全要求 - Android'!B83)</f>
+        <f>COUNTIFS('SR - Android'!G38:G48,'SR - Android'!B83)</f>
         <v>4</v>
       </c>
       <c r="G46" s="29">
@@ -4746,15 +4722,15 @@
         <v>0</v>
       </c>
       <c r="H46" s="27">
-        <f>COUNTIFS('安全要求 - iOS'!G36:G46,'安全要求 - Android'!B81)</f>
+        <f>COUNTIFS('SR - iOS'!G38:G48,'SR - Android'!B81)</f>
         <v>0</v>
       </c>
       <c r="I46" s="27">
-        <f>COUNTIFS('安全要求 - iOS'!G36:G46,'安全要求 - Android'!B82)</f>
+        <f>COUNTIFS('SR - iOS'!G38:G48,'SR - Android'!B82)</f>
         <v>0</v>
       </c>
       <c r="J46" s="27">
-        <f>COUNTIFS('安全要求 - iOS'!G36:G46,'安全要求 - Android'!B83)</f>
+        <f>COUNTIFS('SR - iOS'!G38:G48,'SR - Android'!B83)</f>
         <v>4</v>
       </c>
       <c r="K46" s="29">
@@ -4764,18 +4740,18 @@
     </row>
     <row r="47" spans="3:11" ht="16.5" x14ac:dyDescent="0.25">
       <c r="C47" s="158" t="s">
-        <v>410</v>
+        <v>392</v>
       </c>
       <c r="D47" s="27">
-        <f>COUNTIFS('安全要求 - Android'!G50:G55,'安全要求 - Android'!B81)</f>
+        <f>COUNTIFS('SR - Android'!G50:G55,'SR - Android'!B81)</f>
         <v>0</v>
       </c>
       <c r="E47" s="27">
-        <f>COUNTIFS('安全要求 - Android'!G50:G55,'安全要求 - Android'!B82)</f>
+        <f>COUNTIFS('SR - Android'!G50:G55,'SR - Android'!B82)</f>
         <v>0</v>
       </c>
       <c r="F47" s="27">
-        <f>COUNTIFS('安全要求 - Android'!G50:G55,'安全要求 - Android'!B83)</f>
+        <f>COUNTIFS('SR - Android'!G50:G55,'SR - Android'!B83)</f>
         <v>3</v>
       </c>
       <c r="G47" s="29">
@@ -4783,15 +4759,15 @@
         <v>0</v>
       </c>
       <c r="H47" s="27">
-        <f>COUNTIFS('安全要求 - iOS'!G48:G53,'安全要求 - Android'!B81)</f>
+        <f>COUNTIFS('SR - iOS'!G50:G55,'SR - Android'!B81)</f>
         <v>0</v>
       </c>
       <c r="I47" s="27">
-        <f>COUNTIFS('安全要求 - iOS'!G48:G53,'安全要求 - Android'!B82)</f>
+        <f>COUNTIFS('SR - iOS'!G50:G55,'SR - Android'!B82)</f>
         <v>0</v>
       </c>
       <c r="J47" s="27">
-        <f>COUNTIFS('安全要求 - iOS'!G48:G53,'安全要求 - Android'!B83)</f>
+        <f>COUNTIFS('SR - iOS'!G50:G55,'SR - Android'!B83)</f>
         <v>3</v>
       </c>
       <c r="K47" s="29">
@@ -4801,18 +4777,18 @@
     </row>
     <row r="48" spans="3:11" ht="16.5" x14ac:dyDescent="0.25">
       <c r="C48" s="158" t="s">
-        <v>411</v>
+        <v>393</v>
       </c>
       <c r="D48" s="27">
-        <f>COUNTIFS('安全要求 - Android'!G57:G64,'安全要求 - Android'!B81)</f>
+        <f>COUNTIFS('SR - Android'!G57:G64,'SR - Android'!B81)</f>
         <v>0</v>
       </c>
       <c r="E48" s="27">
-        <f>COUNTIFS('安全要求 - Android'!G57:G64,'安全要求 - Android'!B82)</f>
+        <f>COUNTIFS('SR - Android'!G57:G64,'SR - Android'!B82)</f>
         <v>0</v>
       </c>
       <c r="F48" s="27">
-        <f>COUNTIFS('安全要求 - Android'!G57:G64,'安全要求 - Android'!B83)</f>
+        <f>COUNTIFS('SR - Android'!G57:G64,'SR - Android'!B83)</f>
         <v>0</v>
       </c>
       <c r="G48" s="29">
@@ -4820,15 +4796,15 @@
         <v>0</v>
       </c>
       <c r="H48" s="27">
-        <f>COUNTIFS('安全要求 - iOS'!G55:G62,'安全要求 - Android'!B81)</f>
+        <f>COUNTIFS('SR - iOS'!G57:G64,'SR - Android'!B81)</f>
         <v>0</v>
       </c>
       <c r="I48" s="27">
-        <f>COUNTIFS('安全要求 - iOS'!G55:G62,'安全要求 - Android'!B82)</f>
+        <f>COUNTIFS('SR - iOS'!G57:G64,'SR - Android'!B82)</f>
         <v>0</v>
       </c>
       <c r="J48" s="27">
-        <f>COUNTIFS('安全要求 - iOS'!G55:G62,'安全要求 - Android'!B83)</f>
+        <f>COUNTIFS('SR - iOS'!G57:G64,'SR - Android'!B83)</f>
         <v>0</v>
       </c>
       <c r="K48" s="29">
@@ -4838,18 +4814,18 @@
     </row>
     <row r="49" spans="3:11" ht="16.5" x14ac:dyDescent="0.25">
       <c r="C49" s="158" t="s">
-        <v>412</v>
+        <v>394</v>
       </c>
       <c r="D49" s="27">
-        <f>COUNTIFS('安全要求 - Android'!G66:G74,'安全要求 - Android'!B81)</f>
+        <f>COUNTIFS('SR - Android'!G66:G74,'SR - Android'!B81)</f>
         <v>0</v>
       </c>
       <c r="E49" s="27">
-        <f>COUNTIFS('安全要求 - Android'!G66:G74,'安全要求 - Android'!B82)</f>
+        <f>COUNTIFS('SR - Android'!G66:G74,'SR - Android'!B82)</f>
         <v>0</v>
       </c>
       <c r="F49" s="27">
-        <f>COUNTIFS('安全要求 - Android'!G66:G74,'安全要求 - Android'!B83)</f>
+        <f>COUNTIFS('SR - Android'!G66:G74,'SR - Android'!B83)</f>
         <v>0</v>
       </c>
       <c r="G49" s="29">
@@ -4857,15 +4833,15 @@
         <v>0</v>
       </c>
       <c r="H49" s="27">
-        <f>COUNTIFS('安全要求 - iOS'!G64:G72,'安全要求 - Android'!B81)</f>
+        <f>COUNTIFS('SR - iOS'!G66:G74,'SR - Android'!B81)</f>
         <v>0</v>
       </c>
       <c r="I49" s="27">
-        <f>COUNTIFS('安全要求 - iOS'!G64:G72,'安全要求 - Android'!B82)</f>
+        <f>COUNTIFS('SR - iOS'!G66:G74,'SR - Android'!B82)</f>
         <v>0</v>
       </c>
       <c r="J49" s="27">
-        <f>COUNTIFS('安全要求 - iOS'!G64:G72,'安全要求 - Android'!B83)</f>
+        <f>COUNTIFS('SR - iOS'!G66:G74,'SR - Android'!B83)</f>
         <v>0</v>
       </c>
       <c r="K49" s="29">
@@ -4875,18 +4851,18 @@
     </row>
     <row r="50" spans="3:11" ht="16.5" x14ac:dyDescent="0.25">
       <c r="C50" s="158" t="s">
-        <v>413</v>
+        <v>395</v>
       </c>
       <c r="D50" s="27">
-        <f>COUNTIFS('反逆向 - Android'!F4:F18,'安全要求 - Android'!B81)</f>
+        <f>COUNTIFS('RE - Android'!F4:F18,'SR - Android'!B81)</f>
         <v>0</v>
       </c>
       <c r="E50" s="27">
-        <f>COUNTIFS('反逆向 - Android'!F4:F18,'安全要求 - Android'!B82)</f>
+        <f>COUNTIFS('RE - Android'!F4:F18,'SR - Android'!B82)</f>
         <v>0</v>
       </c>
       <c r="F50" s="27">
-        <f>COUNTIFS('反逆向 - Android'!F4:F18,'安全要求 - Android'!B83)</f>
+        <f>COUNTIFS('RE - Android'!F4:F18,'SR - Android'!B83)</f>
         <v>12</v>
       </c>
       <c r="G50" s="29">
@@ -4894,15 +4870,15 @@
         <v>0</v>
       </c>
       <c r="H50" s="27">
-        <f>COUNTIFS('反逆向 - iOS'!F4:F18,'安全要求 - Android'!B81)</f>
+        <f>COUNTIFS('RE - iOS'!F4:F18,'SR - Android'!B81)</f>
         <v>0</v>
       </c>
       <c r="I50" s="27">
-        <f>COUNTIFS('反逆向 - iOS'!F4:F18,'安全要求 - Android'!B82)</f>
+        <f>COUNTIFS('RE - iOS'!F4:F18,'SR - Android'!B82)</f>
         <v>0</v>
       </c>
       <c r="J50" s="27">
-        <f>COUNTIFS('反逆向 - iOS'!F4:F18,'安全要求 - Android'!B83)</f>
+        <f>COUNTIFS('RE - iOS'!F4:F18,'SR - Android'!B83)</f>
         <v>12</v>
       </c>
       <c r="K50" s="29">
@@ -4960,8 +4936,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AML87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4983,7 +4959,7 @@
   <sheetData>
     <row r="1" spans="2:12" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B1" s="155" t="s">
-        <v>403</v>
+        <v>385</v>
       </c>
       <c r="C1" s="155"/>
       <c r="D1" s="155"/>
@@ -5011,42 +4987,42 @@
     </row>
     <row r="3" spans="2:12" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="37" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C3" s="38" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D3" s="39" t="s">
+        <v>400</v>
+      </c>
+      <c r="E3" s="40" t="s">
+        <v>402</v>
+      </c>
+      <c r="F3" s="40" t="s">
+        <v>403</v>
+      </c>
+      <c r="G3" s="40" t="s">
+        <v>404</v>
+      </c>
+      <c r="H3" s="159" t="s">
         <v>418</v>
-      </c>
-      <c r="E3" s="40" t="s">
-        <v>420</v>
-      </c>
-      <c r="F3" s="40" t="s">
-        <v>421</v>
-      </c>
-      <c r="G3" s="40" t="s">
-        <v>422</v>
-      </c>
-      <c r="H3" s="159" t="s">
-        <v>436</v>
       </c>
       <c r="I3" s="159"/>
       <c r="J3" s="159"/>
       <c r="K3" s="41" t="s">
-        <v>437</v>
+        <v>419</v>
       </c>
       <c r="L3" s="139" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B4" s="43" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C4" s="44"/>
       <c r="D4" s="45" t="s">
-        <v>419</v>
+        <v>401</v>
       </c>
       <c r="E4" s="46"/>
       <c r="F4" s="46"/>
@@ -5059,21 +5035,23 @@
     </row>
     <row r="5" spans="2:12" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B5" s="49" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C5" s="50" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D5" s="135" t="s">
-        <v>416</v>
+        <v>398</v>
       </c>
       <c r="E5" s="52" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F5" s="53" t="s">
-        <v>20</v>
-      </c>
-      <c r="G5" s="54"/>
+        <v>18</v>
+      </c>
+      <c r="G5" s="54" t="s">
+        <v>149</v>
+      </c>
       <c r="H5" s="161" t="str">
         <f>HYPERLINK(CONCATENATE( BASE_URL, "0x04b-Mobile-App-Security-Testing.md#architectural-information"), "架构信息")</f>
         <v>架构信息</v>
@@ -5088,21 +5066,23 @@
     </row>
     <row r="6" spans="2:12" ht="47.25" x14ac:dyDescent="0.25">
       <c r="B6" s="49" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C6" s="50" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D6" s="135" t="s">
-        <v>414</v>
+        <v>396</v>
       </c>
       <c r="E6" s="52" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F6" s="53" t="s">
-        <v>20</v>
-      </c>
-      <c r="G6" s="54"/>
+        <v>18</v>
+      </c>
+      <c r="G6" s="54" t="s">
+        <v>27</v>
+      </c>
       <c r="H6" s="161" t="str">
         <f>HYPERLINK(CONCATENATE( BASE_URL, "0x04h-Testing-Code-Quality.md#injection-flaws-mstg-arch-2-and-mstg-platform-2"), "注入缺陷 (MSTG-ARCH-2 and MSTG-PLATFORM-2)")</f>
         <v>注入缺陷 (MSTG-ARCH-2 and MSTG-PLATFORM-2)</v>
@@ -5117,21 +5097,23 @@
     </row>
     <row r="7" spans="2:12" ht="45" x14ac:dyDescent="0.25">
       <c r="B7" s="49" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C7" s="50" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D7" s="135" t="s">
-        <v>415</v>
+        <v>397</v>
       </c>
       <c r="E7" s="52" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F7" s="53" t="s">
-        <v>20</v>
-      </c>
-      <c r="G7" s="54"/>
+        <v>18</v>
+      </c>
+      <c r="G7" s="54" t="s">
+        <v>27</v>
+      </c>
       <c r="H7" s="161" t="str">
         <f>HYPERLINK(CONCATENATE( BASE_URL, "0x04b-Mobile-App-Security-Testing.md#architectural-information"), "架构信息")</f>
         <v>架构信息</v>
@@ -5143,21 +5125,23 @@
     </row>
     <row r="8" spans="2:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B8" s="49" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C8" s="50" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D8" s="135" t="s">
-        <v>417</v>
+        <v>399</v>
       </c>
       <c r="E8" s="52" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F8" s="53" t="s">
-        <v>20</v>
-      </c>
-      <c r="G8" s="54"/>
+        <v>18</v>
+      </c>
+      <c r="G8" s="54" t="s">
+        <v>27</v>
+      </c>
       <c r="H8" s="161" t="str">
         <f>HYPERLINK(CONCATENATE( BASE_URL, "0x04b-Mobile-App-Security-Testing.md#identifying-sensitive-data"), "识别敏感信息")</f>
         <v>识别敏感信息</v>
@@ -5169,20 +5153,20 @@
     </row>
     <row r="9" spans="2:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B9" s="49" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C9" s="50" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D9" s="135" t="s">
-        <v>423</v>
+        <v>405</v>
       </c>
       <c r="E9" s="59"/>
       <c r="F9" s="53" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G9" s="54" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H9" s="161" t="str">
         <f>HYPERLINK(CONCATENATE( BASE_URL, "0x04b-Mobile-App-Security-Testing.md#environmental-information"), "运行环境信息")</f>
@@ -5195,20 +5179,20 @@
     </row>
     <row r="10" spans="2:12" ht="45" x14ac:dyDescent="0.25">
       <c r="B10" s="49" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C10" s="50" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D10" s="135" t="s">
-        <v>424</v>
+        <v>406</v>
       </c>
       <c r="E10" s="59"/>
       <c r="F10" s="53" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G10" s="54" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H10" s="161" t="str">
         <f>HYPERLINK(CONCATENATE( BASE_URL, "0x04b-Mobile-App-Security-Testing.md#mapping-the-application"), "应用关联")</f>
@@ -5221,20 +5205,20 @@
     </row>
     <row r="11" spans="2:12" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B11" s="49" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C11" s="50" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D11" s="135" t="s">
-        <v>425</v>
+        <v>407</v>
       </c>
       <c r="E11" s="59"/>
       <c r="F11" s="53" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G11" s="54" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H11" s="161" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05h-Testing-Platform-Interaction.md#testing-for-insecure-configuration-of-instant-apps-mstg-arch-1-mstg-arch-7"),"测试即时应用程序的不安全配置 (MSTG-ARCH-1, MSTG-ARCH-7)")</f>
@@ -5253,20 +5237,20 @@
     </row>
     <row r="12" spans="2:12" ht="45" x14ac:dyDescent="0.25">
       <c r="B12" s="49" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C12" s="50" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D12" s="135" t="s">
-        <v>426</v>
+        <v>408</v>
       </c>
       <c r="E12" s="59"/>
       <c r="F12" s="53" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G12" s="54" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H12" s="161" t="str">
         <f>HYPERLINK(CONCATENATE( BASE_URL, "0x04g-Testing-Cryptography.md#cryptographic-policy"), "加密策略")</f>
@@ -5279,20 +5263,20 @@
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B13" s="49" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C13" s="50" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D13" s="135" t="s">
-        <v>427</v>
+        <v>409</v>
       </c>
       <c r="E13" s="59"/>
       <c r="F13" s="53" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G13" s="54" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H13" s="161" t="str">
         <f>HYPERLINK(CONCATENATE( BASE_URL, "0x05h-Testing-Platform-Interaction.md#testing-enforced-updating-mstg-arch-9"), "强制更新测试 (MSTG-ARCH-9)")</f>
@@ -5305,20 +5289,20 @@
     </row>
     <row r="14" spans="2:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B14" s="49" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C14" s="50" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D14" s="135" t="s">
-        <v>428</v>
+        <v>410</v>
       </c>
       <c r="E14" s="59"/>
       <c r="F14" s="53" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G14" s="54" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H14" s="161" t="str">
         <f>HYPERLINK(CONCATENATE( BASE_URL, "0x04b-Mobile-App-Security-Testing.md#security-testing-and-the-sdlc"), "安全测试 和 软件开发生命周期")</f>
@@ -5331,20 +5315,20 @@
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B15" s="49" t="s">
-        <v>429</v>
+        <v>411</v>
       </c>
       <c r="C15" s="50" t="s">
-        <v>431</v>
+        <v>413</v>
       </c>
       <c r="D15" s="135" t="s">
-        <v>433</v>
+        <v>415</v>
       </c>
       <c r="E15" s="59"/>
       <c r="F15" s="53" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G15" s="54" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H15" s="161"/>
       <c r="I15" s="161"/>
@@ -5354,36 +5338,36 @@
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B16" s="49" t="s">
-        <v>430</v>
+        <v>412</v>
       </c>
       <c r="C16" s="50" t="s">
-        <v>432</v>
+        <v>414</v>
       </c>
       <c r="D16" s="135" t="s">
-        <v>434</v>
+        <v>416</v>
       </c>
       <c r="E16" s="59"/>
       <c r="F16" s="53" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G16" s="54" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H16" s="161"/>
       <c r="I16" s="161"/>
       <c r="J16" s="161"/>
       <c r="K16" s="164" t="s">
-        <v>435</v>
+        <v>417</v>
       </c>
       <c r="L16" s="77"/>
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B17" s="60" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C17" s="61"/>
       <c r="D17" s="62" t="s">
-        <v>268</v>
+        <v>423</v>
       </c>
       <c r="E17" s="63"/>
       <c r="F17" s="64"/>
@@ -5396,19 +5380,19 @@
     </row>
     <row r="18" spans="2:12" ht="47.25" x14ac:dyDescent="0.25">
       <c r="B18" s="49" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C18" s="50" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D18" s="135" t="s">
-        <v>269</v>
+        <v>424</v>
       </c>
       <c r="E18" s="52" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F18" s="53" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G18" s="54"/>
       <c r="H18" s="161" t="str">
@@ -5425,13 +5409,13 @@
     </row>
     <row r="19" spans="2:12" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B19" s="49" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C19" s="50" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D19" s="135" t="s">
-        <v>270</v>
+        <v>425</v>
       </c>
       <c r="E19" s="52"/>
       <c r="F19" s="53"/>
@@ -5447,19 +5431,19 @@
     </row>
     <row r="20" spans="2:12" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B20" s="49" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C20" s="50" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D20" s="135" t="s">
-        <v>271</v>
+        <v>426</v>
       </c>
       <c r="E20" s="52" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F20" s="53" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G20" s="54"/>
       <c r="H20" s="161" t="str">
@@ -5473,19 +5457,19 @@
     </row>
     <row r="21" spans="2:12" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B21" s="49" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C21" s="50" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D21" s="135" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="E21" s="52" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F21" s="53" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G21" s="54"/>
       <c r="H21" s="161" t="str">
@@ -5499,19 +5483,19 @@
     </row>
     <row r="22" spans="2:12" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B22" s="49" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C22" s="50" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D22" s="160" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="E22" s="52" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F22" s="53" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G22" s="54"/>
       <c r="H22" s="161" t="str">
@@ -5525,19 +5509,19 @@
     </row>
     <row r="23" spans="2:12" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B23" s="49" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C23" s="50" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D23" s="160" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="E23" s="52" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F23" s="53" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G23" s="54"/>
       <c r="H23" s="161" t="str">
@@ -5551,19 +5535,19 @@
     </row>
     <row r="24" spans="2:12" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B24" s="49" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C24" s="50" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D24" s="160" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="E24" s="52" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F24" s="53" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G24" s="54"/>
       <c r="H24" s="161" t="str">
@@ -5577,20 +5561,20 @@
     </row>
     <row r="25" spans="2:12" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B25" s="49" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C25" s="50" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D25" s="160" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="E25" s="74"/>
       <c r="F25" s="53" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G25" s="54" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H25" s="161" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05d-Testing-Data-Storage.md#testing-backups-for-sensitive-data-mstg-storage-8"),"备份中获取敏感数据测试 (MSTG-STORAGE-8)")</f>
@@ -5603,20 +5587,20 @@
     </row>
     <row r="26" spans="2:12" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B26" s="49" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C26" s="50" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D26" s="160" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="E26" s="74"/>
       <c r="F26" s="53" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G26" s="54" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H26" s="161" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05d-Testing-Data-Storage.md#finding-sensitive-information-in-auto-generated-screenshots-mstg-storage-9"),"在自动生成的屏幕截图中查找敏感信息 (MSTG-STORAGE-9)")</f>
@@ -5629,20 +5613,20 @@
     </row>
     <row r="27" spans="2:12" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B27" s="49" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C27" s="50" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D27" s="160" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="E27" s="74"/>
       <c r="F27" s="53" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G27" s="54" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H27" s="161" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05d-Testing-Data-Storage.md#checking-memory-for-sensitive-data-mstg-storage-10"),"检查内存中的敏感数据 (MSTG-STORAGE-10)")</f>
@@ -5655,20 +5639,20 @@
     </row>
     <row r="28" spans="2:12" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B28" s="49" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C28" s="50" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D28" s="160" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="E28" s="74"/>
       <c r="F28" s="53" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G28" s="54" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H28" s="161" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05d-Testing-Data-Storage.md#testing-the-device-access-security-policy-mstg-storage-11"),"设备访问安全策略测试 (MSTG-STORAGE-11)")</f>
@@ -5684,20 +5668,20 @@
     </row>
     <row r="29" spans="2:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B29" s="49" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C29" s="50" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D29" s="135" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="E29" s="74"/>
       <c r="F29" s="53" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G29" s="54" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H29" s="161" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x04i-Testing-user-interaction.md#testing-user-education-mstg-storage-12"),"用户教育测试 (MSTG-STORAGE-12)")</f>
@@ -5710,11 +5694,11 @@
     </row>
     <row r="30" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B30" s="60" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C30" s="61"/>
       <c r="D30" s="62" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="E30" s="63"/>
       <c r="F30" s="64"/>
@@ -5727,19 +5711,19 @@
     </row>
     <row r="31" spans="2:12" ht="47.25" x14ac:dyDescent="0.25">
       <c r="B31" s="49" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C31" s="50" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D31" s="160" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="E31" s="52" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F31" s="53" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G31" s="54"/>
       <c r="H31" s="161" t="str">
@@ -5756,19 +5740,19 @@
     </row>
     <row r="32" spans="2:12" ht="47.25" x14ac:dyDescent="0.25">
       <c r="B32" s="49" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C32" s="50" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D32" s="160" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="E32" s="52" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F32" s="53" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G32" s="54"/>
       <c r="H32" s="161" t="str">
@@ -5785,19 +5769,19 @@
     </row>
     <row r="33" spans="2:14" ht="47.25" x14ac:dyDescent="0.25">
       <c r="B33" s="49" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C33" s="50" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D33" s="135" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="E33" s="52" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F33" s="53" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G33" s="54"/>
       <c r="H33" s="161" t="str">
@@ -5814,19 +5798,19 @@
     </row>
     <row r="34" spans="2:14" ht="47.25" x14ac:dyDescent="0.25">
       <c r="B34" s="49" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C34" s="50" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D34" s="160" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="E34" s="52" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F34" s="53" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G34" s="54"/>
       <c r="H34" s="161" t="str">
@@ -5843,19 +5827,19 @@
     </row>
     <row r="35" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B35" s="49" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C35" s="50" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D35" s="160" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="E35" s="52" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F35" s="53" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G35" s="54"/>
       <c r="H35" s="161" t="str">
@@ -5869,19 +5853,19 @@
     </row>
     <row r="36" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B36" s="68" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C36" s="69" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D36" s="160" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="E36" s="52" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F36" s="53" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G36" s="54"/>
       <c r="H36" s="161" t="str">
@@ -5895,11 +5879,11 @@
     </row>
     <row r="37" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B37" s="60" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C37" s="61"/>
       <c r="D37" s="62" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="E37" s="63"/>
       <c r="F37" s="64"/>
@@ -5912,19 +5896,19 @@
     </row>
     <row r="38" spans="2:14" ht="47.25" x14ac:dyDescent="0.25">
       <c r="B38" s="49" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C38" s="50" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D38" s="137" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="E38" s="52" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F38" s="53" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G38" s="54"/>
       <c r="H38" s="161" t="str">
@@ -5944,19 +5928,19 @@
     </row>
     <row r="39" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B39" s="49" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C39" s="50" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D39" s="137" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="E39" s="52" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F39" s="53" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G39" s="54"/>
       <c r="H39" s="161" t="str">
@@ -5970,19 +5954,19 @@
     </row>
     <row r="40" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B40" s="49" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C40" s="50" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D40" s="137" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="E40" s="52" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F40" s="53" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G40" s="54"/>
       <c r="H40" s="161" t="str">
@@ -6000,13 +5984,13 @@
     </row>
     <row r="41" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B41" s="49" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C41" s="50" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D41" s="137" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="E41" s="52"/>
       <c r="F41" s="53"/>
@@ -6023,19 +6007,19 @@
     </row>
     <row r="42" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B42" s="49" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C42" s="50" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D42" s="137" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="E42" s="52" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F42" s="53" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G42" s="54"/>
       <c r="H42" s="161" t="str">
@@ -6049,19 +6033,19 @@
     </row>
     <row r="43" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B43" s="49" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C43" s="50" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D43" s="137" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="E43" s="52" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F43" s="53" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G43" s="54"/>
       <c r="H43" s="161" t="str">
@@ -6078,19 +6062,19 @@
     </row>
     <row r="44" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B44" s="49" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C44" s="50" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D44" s="137" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="E44" s="52" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F44" s="53" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G44" s="54"/>
       <c r="H44" s="161" t="str">
@@ -6104,20 +6088,20 @@
     </row>
     <row r="45" spans="2:14" ht="30" x14ac:dyDescent="0.25">
       <c r="B45" s="49" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C45" s="50" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D45" s="137" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="E45" s="74"/>
       <c r="F45" s="53" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G45" s="54" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H45" s="161" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05f-Testing-Local-Authentication.md#testing-biometric-authentication-mstg-auth-8"),"测试生物特征认证 (MSTG-AUTH-8)")</f>
@@ -6130,20 +6114,20 @@
     </row>
     <row r="46" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B46" s="49" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C46" s="50" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D46" s="137" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="E46" s="74"/>
       <c r="F46" s="53" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G46" s="54" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H46" s="161" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x04e-Testing-Authentication-and-Session-Management.md#testing-two-factor-authentication-and-step-up-authentication-mstg-auth-9-and-mstg-auth-10"),"测试两因素身份验证和逐步身份验证 (MSTG-AUTH-9 and MSTG-AUTH-10)")</f>
@@ -6156,20 +6140,20 @@
     </row>
     <row r="47" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B47" s="49" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C47" s="50" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D47" s="137" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="E47" s="74"/>
       <c r="F47" s="53" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G47" s="54" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H47" s="161" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x04e-Testing-Authentication-and-Session-Management.md#testing-two-factor-authentication-and-step-up-authentication-mstg-auth-9-and-mstg-auth-10"),"测试两因素身份验证和逐步身份验证 (MSTG-AUTH-9 and MSTG-AUTH-10)")</f>
@@ -6182,20 +6166,20 @@
     </row>
     <row r="48" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B48" s="49" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C48" s="50" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D48" s="137" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="E48" s="74"/>
       <c r="F48" s="53" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G48" s="54" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H48" s="161" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x04e-Testing-Authentication-and-Session-Management.md#testing-login-activity-and-device-blocking-mstg-auth-11"),"测试登录活动和设备阻止 (MSTG-AUTH-11)")</f>
@@ -6208,11 +6192,11 @@
     </row>
     <row r="49" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B49" s="60" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C49" s="61"/>
       <c r="D49" s="62" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="E49" s="63"/>
       <c r="F49" s="64"/>
@@ -6225,19 +6209,19 @@
     </row>
     <row r="50" spans="2:12" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B50" s="49" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C50" s="50" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D50" s="160" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="E50" s="52" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F50" s="53" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G50" s="54"/>
       <c r="H50" s="161" t="str">
@@ -6251,19 +6235,19 @@
     </row>
     <row r="51" spans="2:12" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B51" s="49" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C51" s="50" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D51" s="137" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="E51" s="52" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F51" s="53" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G51" s="54"/>
       <c r="H51" s="161" t="str">
@@ -6277,19 +6261,19 @@
     </row>
     <row r="52" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B52" s="49" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C52" s="50" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D52" s="137" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="E52" s="52" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F52" s="53" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G52" s="54"/>
       <c r="H52" s="161" t="str">
@@ -6303,20 +6287,20 @@
     </row>
     <row r="53" spans="2:12" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B53" s="49" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C53" s="50" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D53" s="137" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="E53" s="74"/>
       <c r="F53" s="53" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G53" s="54" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H53" s="161" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05g-Testing-Network-Communication.md#testing-custom-certificate-stores-and-certificate-pinning-mstg-network-4"),"测试自定义证书存储和证书固定 (MSTG-NETWORK-4)")</f>
@@ -6332,20 +6316,20 @@
     </row>
     <row r="54" spans="2:12" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B54" s="49" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C54" s="50" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D54" s="137" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="E54" s="74"/>
       <c r="F54" s="53" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G54" s="54" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H54" s="161" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x04f-Testing-Network-Communication.md#making-sure-that-critical-operations-use-secure-communication-channels-mstg-network-5"),"确保关键操作使用安全的通信通道 (MSTG-NETWORK-5)")</f>
@@ -6358,20 +6342,20 @@
     </row>
     <row r="55" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B55" s="49" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C55" s="50" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D55" s="137" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="E55" s="74"/>
       <c r="F55" s="53" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G55" s="54" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H55" s="161" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05g-Testing-Network-Communication.md#testing-the-security-provider-mstg-network-6"),"测试安全提供者 (MSTG-NETWORK-6)")</f>
@@ -6384,11 +6368,11 @@
     </row>
     <row r="56" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B56" s="60" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C56" s="61"/>
       <c r="D56" s="62" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="E56" s="63"/>
       <c r="F56" s="64"/>
@@ -6401,19 +6385,19 @@
     </row>
     <row r="57" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B57" s="49" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C57" s="50" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D57" s="160" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="E57" s="52" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F57" s="53" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G57" s="54"/>
       <c r="H57" s="161" t="str">
@@ -6427,19 +6411,19 @@
     </row>
     <row r="58" spans="2:12" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B58" s="49" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C58" s="50" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D58" s="137" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="E58" s="52" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F58" s="53" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G58" s="54"/>
       <c r="H58" s="161" t="str">
@@ -6456,19 +6440,19 @@
     </row>
     <row r="59" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B59" s="49" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C59" s="50" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D59" s="160" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="E59" s="52" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F59" s="53" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G59" s="54"/>
       <c r="H59" s="161" t="str">
@@ -6482,19 +6466,19 @@
     </row>
     <row r="60" spans="2:12" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B60" s="49" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C60" s="50" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D60" s="160" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="E60" s="52" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F60" s="53" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G60" s="54"/>
       <c r="H60" s="161" t="str">
@@ -6508,19 +6492,19 @@
     </row>
     <row r="61" spans="2:12" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B61" s="49" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C61" s="50" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D61" s="160" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="E61" s="52" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F61" s="53" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G61" s="54"/>
       <c r="H61" s="161" t="str">
@@ -6534,19 +6518,19 @@
     </row>
     <row r="62" spans="2:12" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B62" s="49" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C62" s="50" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D62" s="137" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="E62" s="52" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F62" s="53" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G62" s="54"/>
       <c r="H62" s="161" t="str">
@@ -6560,19 +6544,19 @@
     </row>
     <row r="63" spans="2:12" ht="47.25" x14ac:dyDescent="0.25">
       <c r="B63" s="49" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C63" s="50" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D63" s="137" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="E63" s="52" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F63" s="53" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G63" s="54"/>
       <c r="H63" s="161" t="str">
@@ -6586,19 +6570,19 @@
     </row>
     <row r="64" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B64" s="49" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C64" s="50" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D64" s="160" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="E64" s="52" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F64" s="53" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G64" s="54"/>
       <c r="H64" s="161" t="str">
@@ -6612,11 +6596,11 @@
     </row>
     <row r="65" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B65" s="60" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C65" s="61"/>
       <c r="D65" s="62" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="E65" s="63"/>
       <c r="F65" s="64"/>
@@ -6629,19 +6613,19 @@
     </row>
     <row r="66" spans="2:13" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B66" s="49" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C66" s="50" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D66" s="160" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="E66" s="52" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F66" s="53" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G66" s="54"/>
       <c r="H66" s="161" t="str">
@@ -6655,19 +6639,19 @@
     </row>
     <row r="67" spans="2:13" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B67" s="49" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C67" s="50" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D67" s="160" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="E67" s="52" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F67" s="53" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G67" s="54"/>
       <c r="H67" s="161" t="str">
@@ -6681,19 +6665,19 @@
     </row>
     <row r="68" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B68" s="49" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C68" s="50" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D68" s="160" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="E68" s="52" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F68" s="53" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G68" s="54"/>
       <c r="H68" s="161" t="str">
@@ -6707,19 +6691,19 @@
     </row>
     <row r="69" spans="2:13" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B69" s="49" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C69" s="50" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D69" s="160" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="E69" s="52" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F69" s="53" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G69" s="54"/>
       <c r="H69" s="161" t="str">
@@ -6733,19 +6717,19 @@
     </row>
     <row r="70" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B70" s="49" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C70" s="50" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D70" s="135" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="E70" s="52" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F70" s="53" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G70" s="54"/>
       <c r="H70" s="161" t="str">
@@ -6759,19 +6743,19 @@
     </row>
     <row r="71" spans="2:13" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B71" s="49" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C71" s="50" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D71" s="160" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
       <c r="E71" s="52" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F71" s="53" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G71" s="54"/>
       <c r="H71" s="161" t="str">
@@ -6785,19 +6769,19 @@
     </row>
     <row r="72" spans="2:13" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B72" s="49" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C72" s="50" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D72" s="160" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="E72" s="52" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F72" s="53" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G72" s="54"/>
       <c r="H72" s="161" t="str">
@@ -6811,19 +6795,19 @@
     </row>
     <row r="73" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B73" s="49" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C73" s="50" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D73" s="160" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="E73" s="52" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F73" s="53" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G73" s="54"/>
       <c r="H73" s="161" t="str">
@@ -6838,19 +6822,19 @@
     </row>
     <row r="74" spans="2:13" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B74" s="49" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C74" s="50" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D74" s="135" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="E74" s="52" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F74" s="53" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G74" s="54"/>
       <c r="H74" s="161" t="str">
@@ -6916,7 +6900,7 @@
     </row>
     <row r="79" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B79" s="94" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C79" s="94"/>
       <c r="D79" s="91"/>
@@ -6931,11 +6915,11 @@
     </row>
     <row r="80" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B80" s="95" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="C80" s="95"/>
       <c r="D80" s="96" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="E80" s="92"/>
       <c r="F80" s="92"/>
@@ -6948,11 +6932,11 @@
     </row>
     <row r="81" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B81" s="97" t="s">
-        <v>293</v>
+        <v>149</v>
       </c>
       <c r="C81" s="97"/>
       <c r="D81" s="98" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="E81" s="92"/>
       <c r="F81" s="92"/>
@@ -6965,11 +6949,11 @@
     </row>
     <row r="82" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B82" s="97" t="s">
-        <v>294</v>
+        <v>150</v>
       </c>
       <c r="C82" s="97"/>
       <c r="D82" s="98" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="E82" s="92"/>
       <c r="F82" s="92"/>
@@ -6982,11 +6966,11 @@
     </row>
     <row r="83" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B83" s="97" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C83" s="97"/>
       <c r="D83" s="98" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="E83" s="92"/>
       <c r="F83" s="92"/>
@@ -7074,7 +7058,7 @@
   <dimension ref="A1:AMK29"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -7092,7 +7076,7 @@
   <sheetData>
     <row r="1" spans="2:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B1" s="99" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C1" s="99"/>
       <c r="D1" s="91"/>
@@ -7112,32 +7096,32 @@
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B3" s="37" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C3" s="38" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D3" s="39" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="E3" s="40" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F3" s="40" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="G3" s="100" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="H3" s="42" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B4" s="60"/>
       <c r="C4" s="61"/>
       <c r="D4" s="62" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="E4" s="63"/>
       <c r="F4" s="63"/>
@@ -7146,19 +7130,19 @@
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B5" s="49" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C5" s="50" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D5" s="77" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="E5" s="102" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F5" s="54" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G5" s="134" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05j-Testing-Resiliency-Against-Reverse-Engineering.md#testing-root-detection-mstg-resilience-1"),"越狱察觉测试 (MSTG-RESILIENCE-1)")</f>
@@ -7168,19 +7152,19 @@
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B6" s="49" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C6" s="50" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D6" s="77" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="E6" s="102" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F6" s="54" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G6" s="134" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05j-Testing-Resiliency-Against-Reverse-Engineering.md#testing-anti-debugging-detection-mstg-resilience-2"),"反调试察觉测试 (MSTG-RESILIENCE-2)")</f>
@@ -7190,19 +7174,19 @@
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B7" s="49" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C7" s="50" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D7" s="73" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="E7" s="102" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F7" s="54" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G7" s="134" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05j-Testing-Resiliency-Against-Reverse-Engineering.md#testing-file-integrity-checks-mstg-resilience-3"),"文件完整性检查测试 (MSTG-RESILIENCE-3)")</f>
@@ -7212,19 +7196,19 @@
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B8" s="49" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C8" s="50" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D8" s="73" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
       <c r="E8" s="102" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F8" s="54" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G8" s="134" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05j-Testing-Resiliency-Against-Reverse-Engineering.md#testing-reverse-engineering-tools-detection-mstg-resilience-4"),"逆向工程工具察觉测试 (MSTG-RESILIENCE-4)")</f>
@@ -7234,19 +7218,19 @@
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B9" s="49" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C9" s="50" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D9" s="73" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="E9" s="102" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F9" s="54" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G9" s="134" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05j-Testing-Resiliency-Against-Reverse-Engineering.md#testing-emulator-detection-mstg-resilience-5"),"模拟器察觉测试 (MSTG-RESILIENCE-5)")</f>
@@ -7256,19 +7240,19 @@
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B10" s="49" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C10" s="50" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D10" s="73" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="E10" s="102" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F10" s="54" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G10" s="134" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05j-Testing-Resiliency-Against-Reverse-Engineering.md#testing-run-time-integrity-checks-mstg-resilience-6"),"运行时完整性检测测试 (MSTG-RESILIENCE-6)")</f>
@@ -7278,61 +7262,61 @@
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B11" s="49" t="s">
+        <v>164</v>
+      </c>
+      <c r="C11" s="50" t="s">
+        <v>165</v>
+      </c>
+      <c r="D11" s="77" t="s">
+        <v>334</v>
+      </c>
+      <c r="E11" s="102" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11" s="54" t="s">
+        <v>27</v>
+      </c>
+      <c r="G11" s="104" t="s">
         <v>166</v>
-      </c>
-      <c r="C11" s="50" t="s">
-        <v>167</v>
-      </c>
-      <c r="D11" s="77" t="s">
-        <v>342</v>
-      </c>
-      <c r="E11" s="102" t="s">
-        <v>20</v>
-      </c>
-      <c r="F11" s="54" t="s">
-        <v>29</v>
-      </c>
-      <c r="G11" s="104" t="s">
-        <v>168</v>
       </c>
       <c r="H11" s="103"/>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B12" s="49" t="s">
+        <v>167</v>
+      </c>
+      <c r="C12" s="50" t="s">
+        <v>168</v>
+      </c>
+      <c r="D12" s="73" t="s">
+        <v>335</v>
+      </c>
+      <c r="E12" s="102" t="s">
+        <v>18</v>
+      </c>
+      <c r="F12" s="54" t="s">
+        <v>27</v>
+      </c>
+      <c r="G12" s="105" t="s">
         <v>169</v>
-      </c>
-      <c r="C12" s="50" t="s">
-        <v>170</v>
-      </c>
-      <c r="D12" s="73" t="s">
-        <v>343</v>
-      </c>
-      <c r="E12" s="102" t="s">
-        <v>20</v>
-      </c>
-      <c r="F12" s="54" t="s">
-        <v>29</v>
-      </c>
-      <c r="G12" s="105" t="s">
-        <v>171</v>
       </c>
       <c r="H12" s="103"/>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B13" s="49" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C13" s="50" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D13" s="73" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="E13" s="102" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F13" s="54" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G13" s="134" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05j-Testing-Resiliency-Against-Reverse-Engineering.md#testing-obfuscation-mstg-resilience-9"),"混淆测试 (MSTG-RESILIENCE-9)")</f>
@@ -7344,7 +7328,7 @@
       <c r="B14" s="60"/>
       <c r="C14" s="61"/>
       <c r="D14" s="62" t="s">
-        <v>345</v>
+        <v>337</v>
       </c>
       <c r="E14" s="63"/>
       <c r="F14" s="63"/>
@@ -7353,19 +7337,19 @@
     </row>
     <row r="15" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B15" s="49" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C15" s="50" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D15" s="77" t="s">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="E15" s="102" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F15" s="54" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G15" s="134" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05j-Testing-Resiliency-Against-Reverse-Engineering.md#testing-device-binding-mstg-resilience-10"),"设备绑定测试 (MSTG-RESILIENCE-10)")</f>
@@ -7377,7 +7361,7 @@
       <c r="B16" s="60"/>
       <c r="C16" s="61"/>
       <c r="D16" s="62" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="E16" s="63"/>
       <c r="F16" s="63"/>
@@ -7386,19 +7370,19 @@
     </row>
     <row r="17" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B17" s="49" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C17" s="50" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D17" s="77" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="E17" s="102" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F17" s="54" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G17" s="134" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05j-Testing-Resiliency-Against-Reverse-Engineering.md#testing-obfuscation-mstg-resilience-9"),"混淆测试 (MSTG-RESILIENCE-9)")</f>
@@ -7408,22 +7392,22 @@
     </row>
     <row r="18" spans="2:8" ht="45" x14ac:dyDescent="0.25">
       <c r="B18" s="49" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C18" s="50" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D18" s="77" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="E18" s="102" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F18" s="54" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G18" s="105" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="H18" s="103"/>
     </row>
@@ -7456,7 +7440,7 @@
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B22" s="94" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C22" s="94"/>
       <c r="D22" s="91"/>
@@ -7467,11 +7451,11 @@
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B23" s="95" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="C23" s="95"/>
       <c r="D23" s="96" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="E23" s="92"/>
       <c r="F23" s="92"/>
@@ -7480,11 +7464,11 @@
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B24" s="97" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C24" s="97"/>
       <c r="D24" s="98" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="E24" s="92"/>
       <c r="F24" s="92"/>
@@ -7493,11 +7477,11 @@
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B25" s="97" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C25" s="97"/>
       <c r="D25" s="98" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="E25" s="92"/>
       <c r="F25" s="92"/>
@@ -7506,11 +7490,11 @@
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B26" s="97" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C26" s="97"/>
       <c r="D26" s="98" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
       <c r="E26" s="92"/>
       <c r="F26" s="92"/>
@@ -7558,10 +7542,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="B1:M85"/>
+  <dimension ref="A1:AML87"/>
   <sheetViews>
     <sheetView zoomScale="107" zoomScaleNormal="107" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -7580,9 +7564,9 @@
     <col min="15" max="1025" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1026" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B1" s="108" t="s">
-        <v>402</v>
+        <v>384</v>
       </c>
       <c r="C1" s="108"/>
       <c r="D1" s="109"/>
@@ -7594,7 +7578,7 @@
       <c r="J1" s="34"/>
       <c r="K1" s="109"/>
     </row>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="B2" s="110"/>
       <c r="C2" s="110"/>
       <c r="D2" s="109"/>
@@ -7606,41 +7590,41 @@
       <c r="J2" s="36"/>
       <c r="K2" s="109"/>
     </row>
-    <row r="3" spans="2:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1026" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="39" t="s">
+        <v>345</v>
+      </c>
+      <c r="E3" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="38" t="s">
+      <c r="F3" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="39" t="s">
-        <v>353</v>
-      </c>
-      <c r="E3" s="40" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="40" t="s">
-        <v>13</v>
-      </c>
       <c r="G3" s="40" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="H3" s="156" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="I3" s="156"/>
       <c r="J3" s="156"/>
       <c r="K3" s="42" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="B4" s="43" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C4" s="44"/>
       <c r="D4" s="45" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
       <c r="E4" s="46"/>
       <c r="F4" s="46"/>
@@ -7650,23 +7634,25 @@
       <c r="J4" s="47"/>
       <c r="K4" s="48"/>
     </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="B5" s="49" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C5" s="50" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" s="51" t="s">
-        <v>358</v>
+        <v>17</v>
+      </c>
+      <c r="D5" s="135" t="s">
+        <v>398</v>
       </c>
       <c r="E5" s="52" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F5" s="53" t="s">
-        <v>20</v>
-      </c>
-      <c r="G5" s="54"/>
+        <v>18</v>
+      </c>
+      <c r="G5" s="54" t="s">
+        <v>149</v>
+      </c>
       <c r="H5" s="133" t="str">
         <f>HYPERLINK(CONCATENATE( BASE_URL, "0x04b-Mobile-App-Security-Testing.md#architectural-information"), "架构信息")</f>
         <v>架构信息</v>
@@ -7675,21 +7661,21 @@
       <c r="J5" s="58"/>
       <c r="K5" s="56"/>
     </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1026" ht="30" x14ac:dyDescent="0.25">
       <c r="B6" s="49" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C6" s="50" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" s="51" t="s">
-        <v>359</v>
+        <v>20</v>
+      </c>
+      <c r="D6" s="135" t="s">
+        <v>396</v>
       </c>
       <c r="E6" s="52" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F6" s="53" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G6" s="54"/>
       <c r="H6" s="55" t="str">
@@ -7703,21 +7689,21 @@
       <c r="J6" s="111"/>
       <c r="K6" s="56"/>
     </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1026" ht="30" x14ac:dyDescent="0.25">
       <c r="B7" s="49" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C7" s="50" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" s="51" t="s">
-        <v>360</v>
+        <v>22</v>
+      </c>
+      <c r="D7" s="135" t="s">
+        <v>397</v>
       </c>
       <c r="E7" s="52" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F7" s="53" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G7" s="54"/>
       <c r="H7" s="55" t="str">
@@ -7728,21 +7714,21 @@
       <c r="J7" s="58"/>
       <c r="K7" s="56"/>
     </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1026" ht="30" x14ac:dyDescent="0.25">
       <c r="B8" s="49" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C8" s="50" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" s="51" t="s">
-        <v>361</v>
+        <v>24</v>
+      </c>
+      <c r="D8" s="135" t="s">
+        <v>399</v>
       </c>
       <c r="E8" s="52" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F8" s="53" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G8" s="54"/>
       <c r="H8" s="55" t="str">
@@ -7753,22 +7739,22 @@
       <c r="J8" s="58"/>
       <c r="K8" s="56"/>
     </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1026" ht="30" x14ac:dyDescent="0.25">
       <c r="B9" s="49" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C9" s="50" t="s">
-        <v>28</v>
-      </c>
-      <c r="D9" s="51" t="s">
-        <v>362</v>
+        <v>26</v>
+      </c>
+      <c r="D9" s="135" t="s">
+        <v>405</v>
       </c>
       <c r="E9" s="59"/>
       <c r="F9" s="53" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G9" s="54" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H9" s="55" t="str">
         <f>HYPERLINK(CONCATENATE( BASE_URL, "0x04b-Mobile-App-Security-Testing.md#environmental-information"), "Environmental Information")</f>
@@ -7778,22 +7764,22 @@
       <c r="J9" s="58"/>
       <c r="K9" s="56"/>
     </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1026" ht="45" x14ac:dyDescent="0.25">
       <c r="B10" s="49" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C10" s="50" t="s">
-        <v>31</v>
-      </c>
-      <c r="D10" s="51" t="s">
-        <v>363</v>
+        <v>29</v>
+      </c>
+      <c r="D10" s="135" t="s">
+        <v>406</v>
       </c>
       <c r="E10" s="59"/>
       <c r="F10" s="53" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G10" s="54" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H10" s="55" t="str">
         <f>HYPERLINK(CONCATENATE( BASE_URL, "0x04b-Mobile-App-Security-Testing.md#mapping-the-application"), "Mapping the Application")</f>
@@ -7803,22 +7789,22 @@
       <c r="J10" s="58"/>
       <c r="K10" s="56"/>
     </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="B11" s="49" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C11" s="50" t="s">
-        <v>33</v>
-      </c>
-      <c r="D11" s="51" t="s">
-        <v>364</v>
+        <v>31</v>
+      </c>
+      <c r="D11" s="135" t="s">
+        <v>407</v>
       </c>
       <c r="E11" s="59"/>
       <c r="F11" s="53" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G11" s="54" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H11" s="55" t="str">
         <f>HYPERLINK(CONCATENATE( BASE_URL, "0x04b-Mobile-App-Security-Testing.md#principles-of-testing"), "Principles of Testing")</f>
@@ -7831,22 +7817,22 @@
       <c r="J11" s="57"/>
       <c r="K11" s="56"/>
     </row>
-    <row r="12" spans="2:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1026" ht="45" x14ac:dyDescent="0.25">
       <c r="B12" s="49" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C12" s="50" t="s">
-        <v>35</v>
-      </c>
-      <c r="D12" s="51" t="s">
-        <v>365</v>
+        <v>33</v>
+      </c>
+      <c r="D12" s="135" t="s">
+        <v>408</v>
       </c>
       <c r="E12" s="59"/>
       <c r="F12" s="53" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G12" s="54" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H12" s="55" t="str">
         <f>HYPERLINK(CONCATENATE( BASE_URL, "0x04g-Testing-Cryptography.md#cryptographic-policy"), "Cryptographic policy")</f>
@@ -7856,22 +7842,22 @@
       <c r="J12" s="58"/>
       <c r="K12" s="56"/>
     </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="B13" s="49" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C13" s="50" t="s">
-        <v>37</v>
-      </c>
-      <c r="D13" s="51" t="s">
-        <v>366</v>
+        <v>35</v>
+      </c>
+      <c r="D13" s="135" t="s">
+        <v>409</v>
       </c>
       <c r="E13" s="59"/>
       <c r="F13" s="53" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G13" s="54" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H13" s="55" t="str">
         <f>HYPERLINK(CONCATENATE( BASE_URL, "0x06h-Testing-Platform-Interaction.md#testing-enforced-updating-mstg-arch-9"), "Testing enforced updating (MSTG-ARCH-9)")</f>
@@ -7881,22 +7867,22 @@
       <c r="J13" s="58"/>
       <c r="K13" s="56"/>
     </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1026" ht="30" x14ac:dyDescent="0.25">
       <c r="B14" s="49" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C14" s="50" t="s">
-        <v>39</v>
-      </c>
-      <c r="D14" s="51" t="s">
-        <v>367</v>
+        <v>37</v>
+      </c>
+      <c r="D14" s="135" t="s">
+        <v>410</v>
       </c>
       <c r="E14" s="59"/>
       <c r="F14" s="53" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G14" s="54" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H14" s="55" t="str">
         <f>HYPERLINK(CONCATENATE( BASE_URL, "0x04b-Mobile-App-Security-Testing.md#security-testing-and-the-sdlc"), "Security Testing and the SDLC")</f>
@@ -7906,88 +7892,2120 @@
       <c r="J14" s="58"/>
       <c r="K14" s="56"/>
     </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B15" s="60" t="s">
+    <row r="15" spans="1:1026" s="93" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A15" s="92"/>
+      <c r="B15" s="49" t="s">
+        <v>411</v>
+      </c>
+      <c r="C15" s="50" t="s">
+        <v>413</v>
+      </c>
+      <c r="D15" s="135" t="s">
+        <v>415</v>
+      </c>
+      <c r="E15" s="59"/>
+      <c r="F15" s="53" t="s">
+        <v>18</v>
+      </c>
+      <c r="G15" s="54" t="s">
+        <v>27</v>
+      </c>
+      <c r="H15" s="166"/>
+      <c r="I15" s="166"/>
+      <c r="J15" s="166"/>
+      <c r="K15" s="167"/>
+      <c r="L15" s="77"/>
+      <c r="M15" s="92"/>
+      <c r="N15" s="92"/>
+      <c r="O15" s="92"/>
+      <c r="P15" s="92"/>
+      <c r="Q15" s="92"/>
+      <c r="R15" s="92"/>
+      <c r="S15" s="92"/>
+      <c r="T15" s="92"/>
+      <c r="U15" s="92"/>
+      <c r="V15" s="92"/>
+      <c r="W15" s="92"/>
+      <c r="X15" s="92"/>
+      <c r="Y15" s="92"/>
+      <c r="Z15" s="92"/>
+      <c r="AA15" s="92"/>
+      <c r="AB15" s="92"/>
+      <c r="AC15" s="92"/>
+      <c r="AD15" s="92"/>
+      <c r="AE15" s="92"/>
+      <c r="AF15" s="92"/>
+      <c r="AG15" s="92"/>
+      <c r="AH15" s="92"/>
+      <c r="AI15" s="92"/>
+      <c r="AJ15" s="92"/>
+      <c r="AK15" s="92"/>
+      <c r="AL15" s="92"/>
+      <c r="AM15" s="92"/>
+      <c r="AN15" s="92"/>
+      <c r="AO15" s="92"/>
+      <c r="AP15" s="92"/>
+      <c r="AQ15" s="92"/>
+      <c r="AR15" s="92"/>
+      <c r="AS15" s="92"/>
+      <c r="AT15" s="92"/>
+      <c r="AU15" s="92"/>
+      <c r="AV15" s="92"/>
+      <c r="AW15" s="92"/>
+      <c r="AX15" s="92"/>
+      <c r="AY15" s="92"/>
+      <c r="AZ15" s="92"/>
+      <c r="BA15" s="92"/>
+      <c r="BB15" s="92"/>
+      <c r="BC15" s="92"/>
+      <c r="BD15" s="92"/>
+      <c r="BE15" s="92"/>
+      <c r="BF15" s="92"/>
+      <c r="BG15" s="92"/>
+      <c r="BH15" s="92"/>
+      <c r="BI15" s="92"/>
+      <c r="BJ15" s="92"/>
+      <c r="BK15" s="92"/>
+      <c r="BL15" s="92"/>
+      <c r="BM15" s="92"/>
+      <c r="BN15" s="92"/>
+      <c r="BO15" s="92"/>
+      <c r="BP15" s="92"/>
+      <c r="BQ15" s="92"/>
+      <c r="BR15" s="92"/>
+      <c r="BS15" s="92"/>
+      <c r="BT15" s="92"/>
+      <c r="BU15" s="92"/>
+      <c r="BV15" s="92"/>
+      <c r="BW15" s="92"/>
+      <c r="BX15" s="92"/>
+      <c r="BY15" s="92"/>
+      <c r="BZ15" s="92"/>
+      <c r="CA15" s="92"/>
+      <c r="CB15" s="92"/>
+      <c r="CC15" s="92"/>
+      <c r="CD15" s="92"/>
+      <c r="CE15" s="92"/>
+      <c r="CF15" s="92"/>
+      <c r="CG15" s="92"/>
+      <c r="CH15" s="92"/>
+      <c r="CI15" s="92"/>
+      <c r="CJ15" s="92"/>
+      <c r="CK15" s="92"/>
+      <c r="CL15" s="92"/>
+      <c r="CM15" s="92"/>
+      <c r="CN15" s="92"/>
+      <c r="CO15" s="92"/>
+      <c r="CP15" s="92"/>
+      <c r="CQ15" s="92"/>
+      <c r="CR15" s="92"/>
+      <c r="CS15" s="92"/>
+      <c r="CT15" s="92"/>
+      <c r="CU15" s="92"/>
+      <c r="CV15" s="92"/>
+      <c r="CW15" s="92"/>
+      <c r="CX15" s="92"/>
+      <c r="CY15" s="92"/>
+      <c r="CZ15" s="92"/>
+      <c r="DA15" s="92"/>
+      <c r="DB15" s="92"/>
+      <c r="DC15" s="92"/>
+      <c r="DD15" s="92"/>
+      <c r="DE15" s="92"/>
+      <c r="DF15" s="92"/>
+      <c r="DG15" s="92"/>
+      <c r="DH15" s="92"/>
+      <c r="DI15" s="92"/>
+      <c r="DJ15" s="92"/>
+      <c r="DK15" s="92"/>
+      <c r="DL15" s="92"/>
+      <c r="DM15" s="92"/>
+      <c r="DN15" s="92"/>
+      <c r="DO15" s="92"/>
+      <c r="DP15" s="92"/>
+      <c r="DQ15" s="92"/>
+      <c r="DR15" s="92"/>
+      <c r="DS15" s="92"/>
+      <c r="DT15" s="92"/>
+      <c r="DU15" s="92"/>
+      <c r="DV15" s="92"/>
+      <c r="DW15" s="92"/>
+      <c r="DX15" s="92"/>
+      <c r="DY15" s="92"/>
+      <c r="DZ15" s="92"/>
+      <c r="EA15" s="92"/>
+      <c r="EB15" s="92"/>
+      <c r="EC15" s="92"/>
+      <c r="ED15" s="92"/>
+      <c r="EE15" s="92"/>
+      <c r="EF15" s="92"/>
+      <c r="EG15" s="92"/>
+      <c r="EH15" s="92"/>
+      <c r="EI15" s="92"/>
+      <c r="EJ15" s="92"/>
+      <c r="EK15" s="92"/>
+      <c r="EL15" s="92"/>
+      <c r="EM15" s="92"/>
+      <c r="EN15" s="92"/>
+      <c r="EO15" s="92"/>
+      <c r="EP15" s="92"/>
+      <c r="EQ15" s="92"/>
+      <c r="ER15" s="92"/>
+      <c r="ES15" s="92"/>
+      <c r="ET15" s="92"/>
+      <c r="EU15" s="92"/>
+      <c r="EV15" s="92"/>
+      <c r="EW15" s="92"/>
+      <c r="EX15" s="92"/>
+      <c r="EY15" s="92"/>
+      <c r="EZ15" s="92"/>
+      <c r="FA15" s="92"/>
+      <c r="FB15" s="92"/>
+      <c r="FC15" s="92"/>
+      <c r="FD15" s="92"/>
+      <c r="FE15" s="92"/>
+      <c r="FF15" s="92"/>
+      <c r="FG15" s="92"/>
+      <c r="FH15" s="92"/>
+      <c r="FI15" s="92"/>
+      <c r="FJ15" s="92"/>
+      <c r="FK15" s="92"/>
+      <c r="FL15" s="92"/>
+      <c r="FM15" s="92"/>
+      <c r="FN15" s="92"/>
+      <c r="FO15" s="92"/>
+      <c r="FP15" s="92"/>
+      <c r="FQ15" s="92"/>
+      <c r="FR15" s="92"/>
+      <c r="FS15" s="92"/>
+      <c r="FT15" s="92"/>
+      <c r="FU15" s="92"/>
+      <c r="FV15" s="92"/>
+      <c r="FW15" s="92"/>
+      <c r="FX15" s="92"/>
+      <c r="FY15" s="92"/>
+      <c r="FZ15" s="92"/>
+      <c r="GA15" s="92"/>
+      <c r="GB15" s="92"/>
+      <c r="GC15" s="92"/>
+      <c r="GD15" s="92"/>
+      <c r="GE15" s="92"/>
+      <c r="GF15" s="92"/>
+      <c r="GG15" s="92"/>
+      <c r="GH15" s="92"/>
+      <c r="GI15" s="92"/>
+      <c r="GJ15" s="92"/>
+      <c r="GK15" s="92"/>
+      <c r="GL15" s="92"/>
+      <c r="GM15" s="92"/>
+      <c r="GN15" s="92"/>
+      <c r="GO15" s="92"/>
+      <c r="GP15" s="92"/>
+      <c r="GQ15" s="92"/>
+      <c r="GR15" s="92"/>
+      <c r="GS15" s="92"/>
+      <c r="GT15" s="92"/>
+      <c r="GU15" s="92"/>
+      <c r="GV15" s="92"/>
+      <c r="GW15" s="92"/>
+      <c r="GX15" s="92"/>
+      <c r="GY15" s="92"/>
+      <c r="GZ15" s="92"/>
+      <c r="HA15" s="92"/>
+      <c r="HB15" s="92"/>
+      <c r="HC15" s="92"/>
+      <c r="HD15" s="92"/>
+      <c r="HE15" s="92"/>
+      <c r="HF15" s="92"/>
+      <c r="HG15" s="92"/>
+      <c r="HH15" s="92"/>
+      <c r="HI15" s="92"/>
+      <c r="HJ15" s="92"/>
+      <c r="HK15" s="92"/>
+      <c r="HL15" s="92"/>
+      <c r="HM15" s="92"/>
+      <c r="HN15" s="92"/>
+      <c r="HO15" s="92"/>
+      <c r="HP15" s="92"/>
+      <c r="HQ15" s="92"/>
+      <c r="HR15" s="92"/>
+      <c r="HS15" s="92"/>
+      <c r="HT15" s="92"/>
+      <c r="HU15" s="92"/>
+      <c r="HV15" s="92"/>
+      <c r="HW15" s="92"/>
+      <c r="HX15" s="92"/>
+      <c r="HY15" s="92"/>
+      <c r="HZ15" s="92"/>
+      <c r="IA15" s="92"/>
+      <c r="IB15" s="92"/>
+      <c r="IC15" s="92"/>
+      <c r="ID15" s="92"/>
+      <c r="IE15" s="92"/>
+      <c r="IF15" s="92"/>
+      <c r="IG15" s="92"/>
+      <c r="IH15" s="92"/>
+      <c r="II15" s="92"/>
+      <c r="IJ15" s="92"/>
+      <c r="IK15" s="92"/>
+      <c r="IL15" s="92"/>
+      <c r="IM15" s="92"/>
+      <c r="IN15" s="92"/>
+      <c r="IO15" s="92"/>
+      <c r="IP15" s="92"/>
+      <c r="IQ15" s="92"/>
+      <c r="IR15" s="92"/>
+      <c r="IS15" s="92"/>
+      <c r="IT15" s="92"/>
+      <c r="IU15" s="92"/>
+      <c r="IV15" s="92"/>
+      <c r="IW15" s="92"/>
+      <c r="IX15" s="92"/>
+      <c r="IY15" s="92"/>
+      <c r="IZ15" s="92"/>
+      <c r="JA15" s="92"/>
+      <c r="JB15" s="92"/>
+      <c r="JC15" s="92"/>
+      <c r="JD15" s="92"/>
+      <c r="JE15" s="92"/>
+      <c r="JF15" s="92"/>
+      <c r="JG15" s="92"/>
+      <c r="JH15" s="92"/>
+      <c r="JI15" s="92"/>
+      <c r="JJ15" s="92"/>
+      <c r="JK15" s="92"/>
+      <c r="JL15" s="92"/>
+      <c r="JM15" s="92"/>
+      <c r="JN15" s="92"/>
+      <c r="JO15" s="92"/>
+      <c r="JP15" s="92"/>
+      <c r="JQ15" s="92"/>
+      <c r="JR15" s="92"/>
+      <c r="JS15" s="92"/>
+      <c r="JT15" s="92"/>
+      <c r="JU15" s="92"/>
+      <c r="JV15" s="92"/>
+      <c r="JW15" s="92"/>
+      <c r="JX15" s="92"/>
+      <c r="JY15" s="92"/>
+      <c r="JZ15" s="92"/>
+      <c r="KA15" s="92"/>
+      <c r="KB15" s="92"/>
+      <c r="KC15" s="92"/>
+      <c r="KD15" s="92"/>
+      <c r="KE15" s="92"/>
+      <c r="KF15" s="92"/>
+      <c r="KG15" s="92"/>
+      <c r="KH15" s="92"/>
+      <c r="KI15" s="92"/>
+      <c r="KJ15" s="92"/>
+      <c r="KK15" s="92"/>
+      <c r="KL15" s="92"/>
+      <c r="KM15" s="92"/>
+      <c r="KN15" s="92"/>
+      <c r="KO15" s="92"/>
+      <c r="KP15" s="92"/>
+      <c r="KQ15" s="92"/>
+      <c r="KR15" s="92"/>
+      <c r="KS15" s="92"/>
+      <c r="KT15" s="92"/>
+      <c r="KU15" s="92"/>
+      <c r="KV15" s="92"/>
+      <c r="KW15" s="92"/>
+      <c r="KX15" s="92"/>
+      <c r="KY15" s="92"/>
+      <c r="KZ15" s="92"/>
+      <c r="LA15" s="92"/>
+      <c r="LB15" s="92"/>
+      <c r="LC15" s="92"/>
+      <c r="LD15" s="92"/>
+      <c r="LE15" s="92"/>
+      <c r="LF15" s="92"/>
+      <c r="LG15" s="92"/>
+      <c r="LH15" s="92"/>
+      <c r="LI15" s="92"/>
+      <c r="LJ15" s="92"/>
+      <c r="LK15" s="92"/>
+      <c r="LL15" s="92"/>
+      <c r="LM15" s="92"/>
+      <c r="LN15" s="92"/>
+      <c r="LO15" s="92"/>
+      <c r="LP15" s="92"/>
+      <c r="LQ15" s="92"/>
+      <c r="LR15" s="92"/>
+      <c r="LS15" s="92"/>
+      <c r="LT15" s="92"/>
+      <c r="LU15" s="92"/>
+      <c r="LV15" s="92"/>
+      <c r="LW15" s="92"/>
+      <c r="LX15" s="92"/>
+      <c r="LY15" s="92"/>
+      <c r="LZ15" s="92"/>
+      <c r="MA15" s="92"/>
+      <c r="MB15" s="92"/>
+      <c r="MC15" s="92"/>
+      <c r="MD15" s="92"/>
+      <c r="ME15" s="92"/>
+      <c r="MF15" s="92"/>
+      <c r="MG15" s="92"/>
+      <c r="MH15" s="92"/>
+      <c r="MI15" s="92"/>
+      <c r="MJ15" s="92"/>
+      <c r="MK15" s="92"/>
+      <c r="ML15" s="92"/>
+      <c r="MM15" s="92"/>
+      <c r="MN15" s="92"/>
+      <c r="MO15" s="92"/>
+      <c r="MP15" s="92"/>
+      <c r="MQ15" s="92"/>
+      <c r="MR15" s="92"/>
+      <c r="MS15" s="92"/>
+      <c r="MT15" s="92"/>
+      <c r="MU15" s="92"/>
+      <c r="MV15" s="92"/>
+      <c r="MW15" s="92"/>
+      <c r="MX15" s="92"/>
+      <c r="MY15" s="92"/>
+      <c r="MZ15" s="92"/>
+      <c r="NA15" s="92"/>
+      <c r="NB15" s="92"/>
+      <c r="NC15" s="92"/>
+      <c r="ND15" s="92"/>
+      <c r="NE15" s="92"/>
+      <c r="NF15" s="92"/>
+      <c r="NG15" s="92"/>
+      <c r="NH15" s="92"/>
+      <c r="NI15" s="92"/>
+      <c r="NJ15" s="92"/>
+      <c r="NK15" s="92"/>
+      <c r="NL15" s="92"/>
+      <c r="NM15" s="92"/>
+      <c r="NN15" s="92"/>
+      <c r="NO15" s="92"/>
+      <c r="NP15" s="92"/>
+      <c r="NQ15" s="92"/>
+      <c r="NR15" s="92"/>
+      <c r="NS15" s="92"/>
+      <c r="NT15" s="92"/>
+      <c r="NU15" s="92"/>
+      <c r="NV15" s="92"/>
+      <c r="NW15" s="92"/>
+      <c r="NX15" s="92"/>
+      <c r="NY15" s="92"/>
+      <c r="NZ15" s="92"/>
+      <c r="OA15" s="92"/>
+      <c r="OB15" s="92"/>
+      <c r="OC15" s="92"/>
+      <c r="OD15" s="92"/>
+      <c r="OE15" s="92"/>
+      <c r="OF15" s="92"/>
+      <c r="OG15" s="92"/>
+      <c r="OH15" s="92"/>
+      <c r="OI15" s="92"/>
+      <c r="OJ15" s="92"/>
+      <c r="OK15" s="92"/>
+      <c r="OL15" s="92"/>
+      <c r="OM15" s="92"/>
+      <c r="ON15" s="92"/>
+      <c r="OO15" s="92"/>
+      <c r="OP15" s="92"/>
+      <c r="OQ15" s="92"/>
+      <c r="OR15" s="92"/>
+      <c r="OS15" s="92"/>
+      <c r="OT15" s="92"/>
+      <c r="OU15" s="92"/>
+      <c r="OV15" s="92"/>
+      <c r="OW15" s="92"/>
+      <c r="OX15" s="92"/>
+      <c r="OY15" s="92"/>
+      <c r="OZ15" s="92"/>
+      <c r="PA15" s="92"/>
+      <c r="PB15" s="92"/>
+      <c r="PC15" s="92"/>
+      <c r="PD15" s="92"/>
+      <c r="PE15" s="92"/>
+      <c r="PF15" s="92"/>
+      <c r="PG15" s="92"/>
+      <c r="PH15" s="92"/>
+      <c r="PI15" s="92"/>
+      <c r="PJ15" s="92"/>
+      <c r="PK15" s="92"/>
+      <c r="PL15" s="92"/>
+      <c r="PM15" s="92"/>
+      <c r="PN15" s="92"/>
+      <c r="PO15" s="92"/>
+      <c r="PP15" s="92"/>
+      <c r="PQ15" s="92"/>
+      <c r="PR15" s="92"/>
+      <c r="PS15" s="92"/>
+      <c r="PT15" s="92"/>
+      <c r="PU15" s="92"/>
+      <c r="PV15" s="92"/>
+      <c r="PW15" s="92"/>
+      <c r="PX15" s="92"/>
+      <c r="PY15" s="92"/>
+      <c r="PZ15" s="92"/>
+      <c r="QA15" s="92"/>
+      <c r="QB15" s="92"/>
+      <c r="QC15" s="92"/>
+      <c r="QD15" s="92"/>
+      <c r="QE15" s="92"/>
+      <c r="QF15" s="92"/>
+      <c r="QG15" s="92"/>
+      <c r="QH15" s="92"/>
+      <c r="QI15" s="92"/>
+      <c r="QJ15" s="92"/>
+      <c r="QK15" s="92"/>
+      <c r="QL15" s="92"/>
+      <c r="QM15" s="92"/>
+      <c r="QN15" s="92"/>
+      <c r="QO15" s="92"/>
+      <c r="QP15" s="92"/>
+      <c r="QQ15" s="92"/>
+      <c r="QR15" s="92"/>
+      <c r="QS15" s="92"/>
+      <c r="QT15" s="92"/>
+      <c r="QU15" s="92"/>
+      <c r="QV15" s="92"/>
+      <c r="QW15" s="92"/>
+      <c r="QX15" s="92"/>
+      <c r="QY15" s="92"/>
+      <c r="QZ15" s="92"/>
+      <c r="RA15" s="92"/>
+      <c r="RB15" s="92"/>
+      <c r="RC15" s="92"/>
+      <c r="RD15" s="92"/>
+      <c r="RE15" s="92"/>
+      <c r="RF15" s="92"/>
+      <c r="RG15" s="92"/>
+      <c r="RH15" s="92"/>
+      <c r="RI15" s="92"/>
+      <c r="RJ15" s="92"/>
+      <c r="RK15" s="92"/>
+      <c r="RL15" s="92"/>
+      <c r="RM15" s="92"/>
+      <c r="RN15" s="92"/>
+      <c r="RO15" s="92"/>
+      <c r="RP15" s="92"/>
+      <c r="RQ15" s="92"/>
+      <c r="RR15" s="92"/>
+      <c r="RS15" s="92"/>
+      <c r="RT15" s="92"/>
+      <c r="RU15" s="92"/>
+      <c r="RV15" s="92"/>
+      <c r="RW15" s="92"/>
+      <c r="RX15" s="92"/>
+      <c r="RY15" s="92"/>
+      <c r="RZ15" s="92"/>
+      <c r="SA15" s="92"/>
+      <c r="SB15" s="92"/>
+      <c r="SC15" s="92"/>
+      <c r="SD15" s="92"/>
+      <c r="SE15" s="92"/>
+      <c r="SF15" s="92"/>
+      <c r="SG15" s="92"/>
+      <c r="SH15" s="92"/>
+      <c r="SI15" s="92"/>
+      <c r="SJ15" s="92"/>
+      <c r="SK15" s="92"/>
+      <c r="SL15" s="92"/>
+      <c r="SM15" s="92"/>
+      <c r="SN15" s="92"/>
+      <c r="SO15" s="92"/>
+      <c r="SP15" s="92"/>
+      <c r="SQ15" s="92"/>
+      <c r="SR15" s="92"/>
+      <c r="SS15" s="92"/>
+      <c r="ST15" s="92"/>
+      <c r="SU15" s="92"/>
+      <c r="SV15" s="92"/>
+      <c r="SW15" s="92"/>
+      <c r="SX15" s="92"/>
+      <c r="SY15" s="92"/>
+      <c r="SZ15" s="92"/>
+      <c r="TA15" s="92"/>
+      <c r="TB15" s="92"/>
+      <c r="TC15" s="92"/>
+      <c r="TD15" s="92"/>
+      <c r="TE15" s="92"/>
+      <c r="TF15" s="92"/>
+      <c r="TG15" s="92"/>
+      <c r="TH15" s="92"/>
+      <c r="TI15" s="92"/>
+      <c r="TJ15" s="92"/>
+      <c r="TK15" s="92"/>
+      <c r="TL15" s="92"/>
+      <c r="TM15" s="92"/>
+      <c r="TN15" s="92"/>
+      <c r="TO15" s="92"/>
+      <c r="TP15" s="92"/>
+      <c r="TQ15" s="92"/>
+      <c r="TR15" s="92"/>
+      <c r="TS15" s="92"/>
+      <c r="TT15" s="92"/>
+      <c r="TU15" s="92"/>
+      <c r="TV15" s="92"/>
+      <c r="TW15" s="92"/>
+      <c r="TX15" s="92"/>
+      <c r="TY15" s="92"/>
+      <c r="TZ15" s="92"/>
+      <c r="UA15" s="92"/>
+      <c r="UB15" s="92"/>
+      <c r="UC15" s="92"/>
+      <c r="UD15" s="92"/>
+      <c r="UE15" s="92"/>
+      <c r="UF15" s="92"/>
+      <c r="UG15" s="92"/>
+      <c r="UH15" s="92"/>
+      <c r="UI15" s="92"/>
+      <c r="UJ15" s="92"/>
+      <c r="UK15" s="92"/>
+      <c r="UL15" s="92"/>
+      <c r="UM15" s="92"/>
+      <c r="UN15" s="92"/>
+      <c r="UO15" s="92"/>
+      <c r="UP15" s="92"/>
+      <c r="UQ15" s="92"/>
+      <c r="UR15" s="92"/>
+      <c r="US15" s="92"/>
+      <c r="UT15" s="92"/>
+      <c r="UU15" s="92"/>
+      <c r="UV15" s="92"/>
+      <c r="UW15" s="92"/>
+      <c r="UX15" s="92"/>
+      <c r="UY15" s="92"/>
+      <c r="UZ15" s="92"/>
+      <c r="VA15" s="92"/>
+      <c r="VB15" s="92"/>
+      <c r="VC15" s="92"/>
+      <c r="VD15" s="92"/>
+      <c r="VE15" s="92"/>
+      <c r="VF15" s="92"/>
+      <c r="VG15" s="92"/>
+      <c r="VH15" s="92"/>
+      <c r="VI15" s="92"/>
+      <c r="VJ15" s="92"/>
+      <c r="VK15" s="92"/>
+      <c r="VL15" s="92"/>
+      <c r="VM15" s="92"/>
+      <c r="VN15" s="92"/>
+      <c r="VO15" s="92"/>
+      <c r="VP15" s="92"/>
+      <c r="VQ15" s="92"/>
+      <c r="VR15" s="92"/>
+      <c r="VS15" s="92"/>
+      <c r="VT15" s="92"/>
+      <c r="VU15" s="92"/>
+      <c r="VV15" s="92"/>
+      <c r="VW15" s="92"/>
+      <c r="VX15" s="92"/>
+      <c r="VY15" s="92"/>
+      <c r="VZ15" s="92"/>
+      <c r="WA15" s="92"/>
+      <c r="WB15" s="92"/>
+      <c r="WC15" s="92"/>
+      <c r="WD15" s="92"/>
+      <c r="WE15" s="92"/>
+      <c r="WF15" s="92"/>
+      <c r="WG15" s="92"/>
+      <c r="WH15" s="92"/>
+      <c r="WI15" s="92"/>
+      <c r="WJ15" s="92"/>
+      <c r="WK15" s="92"/>
+      <c r="WL15" s="92"/>
+      <c r="WM15" s="92"/>
+      <c r="WN15" s="92"/>
+      <c r="WO15" s="92"/>
+      <c r="WP15" s="92"/>
+      <c r="WQ15" s="92"/>
+      <c r="WR15" s="92"/>
+      <c r="WS15" s="92"/>
+      <c r="WT15" s="92"/>
+      <c r="WU15" s="92"/>
+      <c r="WV15" s="92"/>
+      <c r="WW15" s="92"/>
+      <c r="WX15" s="92"/>
+      <c r="WY15" s="92"/>
+      <c r="WZ15" s="92"/>
+      <c r="XA15" s="92"/>
+      <c r="XB15" s="92"/>
+      <c r="XC15" s="92"/>
+      <c r="XD15" s="92"/>
+      <c r="XE15" s="92"/>
+      <c r="XF15" s="92"/>
+      <c r="XG15" s="92"/>
+      <c r="XH15" s="92"/>
+      <c r="XI15" s="92"/>
+      <c r="XJ15" s="92"/>
+      <c r="XK15" s="92"/>
+      <c r="XL15" s="92"/>
+      <c r="XM15" s="92"/>
+      <c r="XN15" s="92"/>
+      <c r="XO15" s="92"/>
+      <c r="XP15" s="92"/>
+      <c r="XQ15" s="92"/>
+      <c r="XR15" s="92"/>
+      <c r="XS15" s="92"/>
+      <c r="XT15" s="92"/>
+      <c r="XU15" s="92"/>
+      <c r="XV15" s="92"/>
+      <c r="XW15" s="92"/>
+      <c r="XX15" s="92"/>
+      <c r="XY15" s="92"/>
+      <c r="XZ15" s="92"/>
+      <c r="YA15" s="92"/>
+      <c r="YB15" s="92"/>
+      <c r="YC15" s="92"/>
+      <c r="YD15" s="92"/>
+      <c r="YE15" s="92"/>
+      <c r="YF15" s="92"/>
+      <c r="YG15" s="92"/>
+      <c r="YH15" s="92"/>
+      <c r="YI15" s="92"/>
+      <c r="YJ15" s="92"/>
+      <c r="YK15" s="92"/>
+      <c r="YL15" s="92"/>
+      <c r="YM15" s="92"/>
+      <c r="YN15" s="92"/>
+      <c r="YO15" s="92"/>
+      <c r="YP15" s="92"/>
+      <c r="YQ15" s="92"/>
+      <c r="YR15" s="92"/>
+      <c r="YS15" s="92"/>
+      <c r="YT15" s="92"/>
+      <c r="YU15" s="92"/>
+      <c r="YV15" s="92"/>
+      <c r="YW15" s="92"/>
+      <c r="YX15" s="92"/>
+      <c r="YY15" s="92"/>
+      <c r="YZ15" s="92"/>
+      <c r="ZA15" s="92"/>
+      <c r="ZB15" s="92"/>
+      <c r="ZC15" s="92"/>
+      <c r="ZD15" s="92"/>
+      <c r="ZE15" s="92"/>
+      <c r="ZF15" s="92"/>
+      <c r="ZG15" s="92"/>
+      <c r="ZH15" s="92"/>
+      <c r="ZI15" s="92"/>
+      <c r="ZJ15" s="92"/>
+      <c r="ZK15" s="92"/>
+      <c r="ZL15" s="92"/>
+      <c r="ZM15" s="92"/>
+      <c r="ZN15" s="92"/>
+      <c r="ZO15" s="92"/>
+      <c r="ZP15" s="92"/>
+      <c r="ZQ15" s="92"/>
+      <c r="ZR15" s="92"/>
+      <c r="ZS15" s="92"/>
+      <c r="ZT15" s="92"/>
+      <c r="ZU15" s="92"/>
+      <c r="ZV15" s="92"/>
+      <c r="ZW15" s="92"/>
+      <c r="ZX15" s="92"/>
+      <c r="ZY15" s="92"/>
+      <c r="ZZ15" s="92"/>
+      <c r="AAA15" s="92"/>
+      <c r="AAB15" s="92"/>
+      <c r="AAC15" s="92"/>
+      <c r="AAD15" s="92"/>
+      <c r="AAE15" s="92"/>
+      <c r="AAF15" s="92"/>
+      <c r="AAG15" s="92"/>
+      <c r="AAH15" s="92"/>
+      <c r="AAI15" s="92"/>
+      <c r="AAJ15" s="92"/>
+      <c r="AAK15" s="92"/>
+      <c r="AAL15" s="92"/>
+      <c r="AAM15" s="92"/>
+      <c r="AAN15" s="92"/>
+      <c r="AAO15" s="92"/>
+      <c r="AAP15" s="92"/>
+      <c r="AAQ15" s="92"/>
+      <c r="AAR15" s="92"/>
+      <c r="AAS15" s="92"/>
+      <c r="AAT15" s="92"/>
+      <c r="AAU15" s="92"/>
+      <c r="AAV15" s="92"/>
+      <c r="AAW15" s="92"/>
+      <c r="AAX15" s="92"/>
+      <c r="AAY15" s="92"/>
+      <c r="AAZ15" s="92"/>
+      <c r="ABA15" s="92"/>
+      <c r="ABB15" s="92"/>
+      <c r="ABC15" s="92"/>
+      <c r="ABD15" s="92"/>
+      <c r="ABE15" s="92"/>
+      <c r="ABF15" s="92"/>
+      <c r="ABG15" s="92"/>
+      <c r="ABH15" s="92"/>
+      <c r="ABI15" s="92"/>
+      <c r="ABJ15" s="92"/>
+      <c r="ABK15" s="92"/>
+      <c r="ABL15" s="92"/>
+      <c r="ABM15" s="92"/>
+      <c r="ABN15" s="92"/>
+      <c r="ABO15" s="92"/>
+      <c r="ABP15" s="92"/>
+      <c r="ABQ15" s="92"/>
+      <c r="ABR15" s="92"/>
+      <c r="ABS15" s="92"/>
+      <c r="ABT15" s="92"/>
+      <c r="ABU15" s="92"/>
+      <c r="ABV15" s="92"/>
+      <c r="ABW15" s="92"/>
+      <c r="ABX15" s="92"/>
+      <c r="ABY15" s="92"/>
+      <c r="ABZ15" s="92"/>
+      <c r="ACA15" s="92"/>
+      <c r="ACB15" s="92"/>
+      <c r="ACC15" s="92"/>
+      <c r="ACD15" s="92"/>
+      <c r="ACE15" s="92"/>
+      <c r="ACF15" s="92"/>
+      <c r="ACG15" s="92"/>
+      <c r="ACH15" s="92"/>
+      <c r="ACI15" s="92"/>
+      <c r="ACJ15" s="92"/>
+      <c r="ACK15" s="92"/>
+      <c r="ACL15" s="92"/>
+      <c r="ACM15" s="92"/>
+      <c r="ACN15" s="92"/>
+      <c r="ACO15" s="92"/>
+      <c r="ACP15" s="92"/>
+      <c r="ACQ15" s="92"/>
+      <c r="ACR15" s="92"/>
+      <c r="ACS15" s="92"/>
+      <c r="ACT15" s="92"/>
+      <c r="ACU15" s="92"/>
+      <c r="ACV15" s="92"/>
+      <c r="ACW15" s="92"/>
+      <c r="ACX15" s="92"/>
+      <c r="ACY15" s="92"/>
+      <c r="ACZ15" s="92"/>
+      <c r="ADA15" s="92"/>
+      <c r="ADB15" s="92"/>
+      <c r="ADC15" s="92"/>
+      <c r="ADD15" s="92"/>
+      <c r="ADE15" s="92"/>
+      <c r="ADF15" s="92"/>
+      <c r="ADG15" s="92"/>
+      <c r="ADH15" s="92"/>
+      <c r="ADI15" s="92"/>
+      <c r="ADJ15" s="92"/>
+      <c r="ADK15" s="92"/>
+      <c r="ADL15" s="92"/>
+      <c r="ADM15" s="92"/>
+      <c r="ADN15" s="92"/>
+      <c r="ADO15" s="92"/>
+      <c r="ADP15" s="92"/>
+      <c r="ADQ15" s="92"/>
+      <c r="ADR15" s="92"/>
+      <c r="ADS15" s="92"/>
+      <c r="ADT15" s="92"/>
+      <c r="ADU15" s="92"/>
+      <c r="ADV15" s="92"/>
+      <c r="ADW15" s="92"/>
+      <c r="ADX15" s="92"/>
+      <c r="ADY15" s="92"/>
+      <c r="ADZ15" s="92"/>
+      <c r="AEA15" s="92"/>
+      <c r="AEB15" s="92"/>
+      <c r="AEC15" s="92"/>
+      <c r="AED15" s="92"/>
+      <c r="AEE15" s="92"/>
+      <c r="AEF15" s="92"/>
+      <c r="AEG15" s="92"/>
+      <c r="AEH15" s="92"/>
+      <c r="AEI15" s="92"/>
+      <c r="AEJ15" s="92"/>
+      <c r="AEK15" s="92"/>
+      <c r="AEL15" s="92"/>
+      <c r="AEM15" s="92"/>
+      <c r="AEN15" s="92"/>
+      <c r="AEO15" s="92"/>
+      <c r="AEP15" s="92"/>
+      <c r="AEQ15" s="92"/>
+      <c r="AER15" s="92"/>
+      <c r="AES15" s="92"/>
+      <c r="AET15" s="92"/>
+      <c r="AEU15" s="92"/>
+      <c r="AEV15" s="92"/>
+      <c r="AEW15" s="92"/>
+      <c r="AEX15" s="92"/>
+      <c r="AEY15" s="92"/>
+      <c r="AEZ15" s="92"/>
+      <c r="AFA15" s="92"/>
+      <c r="AFB15" s="92"/>
+      <c r="AFC15" s="92"/>
+      <c r="AFD15" s="92"/>
+      <c r="AFE15" s="92"/>
+      <c r="AFF15" s="92"/>
+      <c r="AFG15" s="92"/>
+      <c r="AFH15" s="92"/>
+      <c r="AFI15" s="92"/>
+      <c r="AFJ15" s="92"/>
+      <c r="AFK15" s="92"/>
+      <c r="AFL15" s="92"/>
+      <c r="AFM15" s="92"/>
+      <c r="AFN15" s="92"/>
+      <c r="AFO15" s="92"/>
+      <c r="AFP15" s="92"/>
+      <c r="AFQ15" s="92"/>
+      <c r="AFR15" s="92"/>
+      <c r="AFS15" s="92"/>
+      <c r="AFT15" s="92"/>
+      <c r="AFU15" s="92"/>
+      <c r="AFV15" s="92"/>
+      <c r="AFW15" s="92"/>
+      <c r="AFX15" s="92"/>
+      <c r="AFY15" s="92"/>
+      <c r="AFZ15" s="92"/>
+      <c r="AGA15" s="92"/>
+      <c r="AGB15" s="92"/>
+      <c r="AGC15" s="92"/>
+      <c r="AGD15" s="92"/>
+      <c r="AGE15" s="92"/>
+      <c r="AGF15" s="92"/>
+      <c r="AGG15" s="92"/>
+      <c r="AGH15" s="92"/>
+      <c r="AGI15" s="92"/>
+      <c r="AGJ15" s="92"/>
+      <c r="AGK15" s="92"/>
+      <c r="AGL15" s="92"/>
+      <c r="AGM15" s="92"/>
+      <c r="AGN15" s="92"/>
+      <c r="AGO15" s="92"/>
+      <c r="AGP15" s="92"/>
+      <c r="AGQ15" s="92"/>
+      <c r="AGR15" s="92"/>
+      <c r="AGS15" s="92"/>
+      <c r="AGT15" s="92"/>
+      <c r="AGU15" s="92"/>
+      <c r="AGV15" s="92"/>
+      <c r="AGW15" s="92"/>
+      <c r="AGX15" s="92"/>
+      <c r="AGY15" s="92"/>
+      <c r="AGZ15" s="92"/>
+      <c r="AHA15" s="92"/>
+      <c r="AHB15" s="92"/>
+      <c r="AHC15" s="92"/>
+      <c r="AHD15" s="92"/>
+      <c r="AHE15" s="92"/>
+      <c r="AHF15" s="92"/>
+      <c r="AHG15" s="92"/>
+      <c r="AHH15" s="92"/>
+      <c r="AHI15" s="92"/>
+      <c r="AHJ15" s="92"/>
+      <c r="AHK15" s="92"/>
+      <c r="AHL15" s="92"/>
+      <c r="AHM15" s="92"/>
+      <c r="AHN15" s="92"/>
+      <c r="AHO15" s="92"/>
+      <c r="AHP15" s="92"/>
+      <c r="AHQ15" s="92"/>
+      <c r="AHR15" s="92"/>
+      <c r="AHS15" s="92"/>
+      <c r="AHT15" s="92"/>
+      <c r="AHU15" s="92"/>
+      <c r="AHV15" s="92"/>
+      <c r="AHW15" s="92"/>
+      <c r="AHX15" s="92"/>
+      <c r="AHY15" s="92"/>
+      <c r="AHZ15" s="92"/>
+      <c r="AIA15" s="92"/>
+      <c r="AIB15" s="92"/>
+      <c r="AIC15" s="92"/>
+      <c r="AID15" s="92"/>
+      <c r="AIE15" s="92"/>
+      <c r="AIF15" s="92"/>
+      <c r="AIG15" s="92"/>
+      <c r="AIH15" s="92"/>
+      <c r="AII15" s="92"/>
+      <c r="AIJ15" s="92"/>
+      <c r="AIK15" s="92"/>
+      <c r="AIL15" s="92"/>
+      <c r="AIM15" s="92"/>
+      <c r="AIN15" s="92"/>
+      <c r="AIO15" s="92"/>
+      <c r="AIP15" s="92"/>
+      <c r="AIQ15" s="92"/>
+      <c r="AIR15" s="92"/>
+      <c r="AIS15" s="92"/>
+      <c r="AIT15" s="92"/>
+      <c r="AIU15" s="92"/>
+      <c r="AIV15" s="92"/>
+      <c r="AIW15" s="92"/>
+      <c r="AIX15" s="92"/>
+      <c r="AIY15" s="92"/>
+      <c r="AIZ15" s="92"/>
+      <c r="AJA15" s="92"/>
+      <c r="AJB15" s="92"/>
+      <c r="AJC15" s="92"/>
+      <c r="AJD15" s="92"/>
+      <c r="AJE15" s="92"/>
+      <c r="AJF15" s="92"/>
+      <c r="AJG15" s="92"/>
+      <c r="AJH15" s="92"/>
+      <c r="AJI15" s="92"/>
+      <c r="AJJ15" s="92"/>
+      <c r="AJK15" s="92"/>
+      <c r="AJL15" s="92"/>
+      <c r="AJM15" s="92"/>
+      <c r="AJN15" s="92"/>
+      <c r="AJO15" s="92"/>
+      <c r="AJP15" s="92"/>
+      <c r="AJQ15" s="92"/>
+      <c r="AJR15" s="92"/>
+      <c r="AJS15" s="92"/>
+      <c r="AJT15" s="92"/>
+      <c r="AJU15" s="92"/>
+      <c r="AJV15" s="92"/>
+      <c r="AJW15" s="92"/>
+      <c r="AJX15" s="92"/>
+      <c r="AJY15" s="92"/>
+      <c r="AJZ15" s="92"/>
+      <c r="AKA15" s="92"/>
+      <c r="AKB15" s="92"/>
+      <c r="AKC15" s="92"/>
+      <c r="AKD15" s="92"/>
+      <c r="AKE15" s="92"/>
+      <c r="AKF15" s="92"/>
+      <c r="AKG15" s="92"/>
+      <c r="AKH15" s="92"/>
+      <c r="AKI15" s="92"/>
+      <c r="AKJ15" s="92"/>
+      <c r="AKK15" s="92"/>
+      <c r="AKL15" s="92"/>
+      <c r="AKM15" s="92"/>
+      <c r="AKN15" s="92"/>
+      <c r="AKO15" s="92"/>
+      <c r="AKP15" s="92"/>
+      <c r="AKQ15" s="92"/>
+      <c r="AKR15" s="92"/>
+      <c r="AKS15" s="92"/>
+      <c r="AKT15" s="92"/>
+      <c r="AKU15" s="92"/>
+      <c r="AKV15" s="92"/>
+      <c r="AKW15" s="92"/>
+      <c r="AKX15" s="92"/>
+      <c r="AKY15" s="92"/>
+      <c r="AKZ15" s="92"/>
+      <c r="ALA15" s="92"/>
+      <c r="ALB15" s="92"/>
+      <c r="ALC15" s="92"/>
+      <c r="ALD15" s="92"/>
+      <c r="ALE15" s="92"/>
+      <c r="ALF15" s="92"/>
+      <c r="ALG15" s="92"/>
+      <c r="ALH15" s="92"/>
+      <c r="ALI15" s="92"/>
+      <c r="ALJ15" s="92"/>
+      <c r="ALK15" s="92"/>
+      <c r="ALL15" s="92"/>
+      <c r="ALM15" s="92"/>
+      <c r="ALN15" s="92"/>
+      <c r="ALO15" s="92"/>
+      <c r="ALP15" s="92"/>
+      <c r="ALQ15" s="92"/>
+      <c r="ALR15" s="92"/>
+      <c r="ALS15" s="92"/>
+      <c r="ALT15" s="92"/>
+      <c r="ALU15" s="92"/>
+      <c r="ALV15" s="92"/>
+      <c r="ALW15" s="92"/>
+      <c r="ALX15" s="92"/>
+      <c r="ALY15" s="92"/>
+      <c r="ALZ15" s="92"/>
+      <c r="AMA15" s="92"/>
+      <c r="AMB15" s="92"/>
+      <c r="AMC15" s="92"/>
+      <c r="AMD15" s="92"/>
+      <c r="AME15" s="92"/>
+      <c r="AMF15" s="92"/>
+      <c r="AMG15" s="92"/>
+      <c r="AMH15" s="92"/>
+      <c r="AMI15" s="92"/>
+      <c r="AMJ15" s="92"/>
+      <c r="AMK15" s="92"/>
+      <c r="AML15" s="92"/>
+    </row>
+    <row r="16" spans="1:1026" s="93" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A16" s="92"/>
+      <c r="B16" s="49" t="s">
+        <v>412</v>
+      </c>
+      <c r="C16" s="50" t="s">
+        <v>414</v>
+      </c>
+      <c r="D16" s="135" t="s">
+        <v>416</v>
+      </c>
+      <c r="E16" s="59"/>
+      <c r="F16" s="53" t="s">
+        <v>18</v>
+      </c>
+      <c r="G16" s="54" t="s">
+        <v>27</v>
+      </c>
+      <c r="H16" s="166"/>
+      <c r="I16" s="166"/>
+      <c r="J16" s="166"/>
+      <c r="K16" s="167" t="s">
+        <v>417</v>
+      </c>
+      <c r="L16" s="77"/>
+      <c r="M16" s="92"/>
+      <c r="N16" s="92"/>
+      <c r="O16" s="92"/>
+      <c r="P16" s="92"/>
+      <c r="Q16" s="92"/>
+      <c r="R16" s="92"/>
+      <c r="S16" s="92"/>
+      <c r="T16" s="92"/>
+      <c r="U16" s="92"/>
+      <c r="V16" s="92"/>
+      <c r="W16" s="92"/>
+      <c r="X16" s="92"/>
+      <c r="Y16" s="92"/>
+      <c r="Z16" s="92"/>
+      <c r="AA16" s="92"/>
+      <c r="AB16" s="92"/>
+      <c r="AC16" s="92"/>
+      <c r="AD16" s="92"/>
+      <c r="AE16" s="92"/>
+      <c r="AF16" s="92"/>
+      <c r="AG16" s="92"/>
+      <c r="AH16" s="92"/>
+      <c r="AI16" s="92"/>
+      <c r="AJ16" s="92"/>
+      <c r="AK16" s="92"/>
+      <c r="AL16" s="92"/>
+      <c r="AM16" s="92"/>
+      <c r="AN16" s="92"/>
+      <c r="AO16" s="92"/>
+      <c r="AP16" s="92"/>
+      <c r="AQ16" s="92"/>
+      <c r="AR16" s="92"/>
+      <c r="AS16" s="92"/>
+      <c r="AT16" s="92"/>
+      <c r="AU16" s="92"/>
+      <c r="AV16" s="92"/>
+      <c r="AW16" s="92"/>
+      <c r="AX16" s="92"/>
+      <c r="AY16" s="92"/>
+      <c r="AZ16" s="92"/>
+      <c r="BA16" s="92"/>
+      <c r="BB16" s="92"/>
+      <c r="BC16" s="92"/>
+      <c r="BD16" s="92"/>
+      <c r="BE16" s="92"/>
+      <c r="BF16" s="92"/>
+      <c r="BG16" s="92"/>
+      <c r="BH16" s="92"/>
+      <c r="BI16" s="92"/>
+      <c r="BJ16" s="92"/>
+      <c r="BK16" s="92"/>
+      <c r="BL16" s="92"/>
+      <c r="BM16" s="92"/>
+      <c r="BN16" s="92"/>
+      <c r="BO16" s="92"/>
+      <c r="BP16" s="92"/>
+      <c r="BQ16" s="92"/>
+      <c r="BR16" s="92"/>
+      <c r="BS16" s="92"/>
+      <c r="BT16" s="92"/>
+      <c r="BU16" s="92"/>
+      <c r="BV16" s="92"/>
+      <c r="BW16" s="92"/>
+      <c r="BX16" s="92"/>
+      <c r="BY16" s="92"/>
+      <c r="BZ16" s="92"/>
+      <c r="CA16" s="92"/>
+      <c r="CB16" s="92"/>
+      <c r="CC16" s="92"/>
+      <c r="CD16" s="92"/>
+      <c r="CE16" s="92"/>
+      <c r="CF16" s="92"/>
+      <c r="CG16" s="92"/>
+      <c r="CH16" s="92"/>
+      <c r="CI16" s="92"/>
+      <c r="CJ16" s="92"/>
+      <c r="CK16" s="92"/>
+      <c r="CL16" s="92"/>
+      <c r="CM16" s="92"/>
+      <c r="CN16" s="92"/>
+      <c r="CO16" s="92"/>
+      <c r="CP16" s="92"/>
+      <c r="CQ16" s="92"/>
+      <c r="CR16" s="92"/>
+      <c r="CS16" s="92"/>
+      <c r="CT16" s="92"/>
+      <c r="CU16" s="92"/>
+      <c r="CV16" s="92"/>
+      <c r="CW16" s="92"/>
+      <c r="CX16" s="92"/>
+      <c r="CY16" s="92"/>
+      <c r="CZ16" s="92"/>
+      <c r="DA16" s="92"/>
+      <c r="DB16" s="92"/>
+      <c r="DC16" s="92"/>
+      <c r="DD16" s="92"/>
+      <c r="DE16" s="92"/>
+      <c r="DF16" s="92"/>
+      <c r="DG16" s="92"/>
+      <c r="DH16" s="92"/>
+      <c r="DI16" s="92"/>
+      <c r="DJ16" s="92"/>
+      <c r="DK16" s="92"/>
+      <c r="DL16" s="92"/>
+      <c r="DM16" s="92"/>
+      <c r="DN16" s="92"/>
+      <c r="DO16" s="92"/>
+      <c r="DP16" s="92"/>
+      <c r="DQ16" s="92"/>
+      <c r="DR16" s="92"/>
+      <c r="DS16" s="92"/>
+      <c r="DT16" s="92"/>
+      <c r="DU16" s="92"/>
+      <c r="DV16" s="92"/>
+      <c r="DW16" s="92"/>
+      <c r="DX16" s="92"/>
+      <c r="DY16" s="92"/>
+      <c r="DZ16" s="92"/>
+      <c r="EA16" s="92"/>
+      <c r="EB16" s="92"/>
+      <c r="EC16" s="92"/>
+      <c r="ED16" s="92"/>
+      <c r="EE16" s="92"/>
+      <c r="EF16" s="92"/>
+      <c r="EG16" s="92"/>
+      <c r="EH16" s="92"/>
+      <c r="EI16" s="92"/>
+      <c r="EJ16" s="92"/>
+      <c r="EK16" s="92"/>
+      <c r="EL16" s="92"/>
+      <c r="EM16" s="92"/>
+      <c r="EN16" s="92"/>
+      <c r="EO16" s="92"/>
+      <c r="EP16" s="92"/>
+      <c r="EQ16" s="92"/>
+      <c r="ER16" s="92"/>
+      <c r="ES16" s="92"/>
+      <c r="ET16" s="92"/>
+      <c r="EU16" s="92"/>
+      <c r="EV16" s="92"/>
+      <c r="EW16" s="92"/>
+      <c r="EX16" s="92"/>
+      <c r="EY16" s="92"/>
+      <c r="EZ16" s="92"/>
+      <c r="FA16" s="92"/>
+      <c r="FB16" s="92"/>
+      <c r="FC16" s="92"/>
+      <c r="FD16" s="92"/>
+      <c r="FE16" s="92"/>
+      <c r="FF16" s="92"/>
+      <c r="FG16" s="92"/>
+      <c r="FH16" s="92"/>
+      <c r="FI16" s="92"/>
+      <c r="FJ16" s="92"/>
+      <c r="FK16" s="92"/>
+      <c r="FL16" s="92"/>
+      <c r="FM16" s="92"/>
+      <c r="FN16" s="92"/>
+      <c r="FO16" s="92"/>
+      <c r="FP16" s="92"/>
+      <c r="FQ16" s="92"/>
+      <c r="FR16" s="92"/>
+      <c r="FS16" s="92"/>
+      <c r="FT16" s="92"/>
+      <c r="FU16" s="92"/>
+      <c r="FV16" s="92"/>
+      <c r="FW16" s="92"/>
+      <c r="FX16" s="92"/>
+      <c r="FY16" s="92"/>
+      <c r="FZ16" s="92"/>
+      <c r="GA16" s="92"/>
+      <c r="GB16" s="92"/>
+      <c r="GC16" s="92"/>
+      <c r="GD16" s="92"/>
+      <c r="GE16" s="92"/>
+      <c r="GF16" s="92"/>
+      <c r="GG16" s="92"/>
+      <c r="GH16" s="92"/>
+      <c r="GI16" s="92"/>
+      <c r="GJ16" s="92"/>
+      <c r="GK16" s="92"/>
+      <c r="GL16" s="92"/>
+      <c r="GM16" s="92"/>
+      <c r="GN16" s="92"/>
+      <c r="GO16" s="92"/>
+      <c r="GP16" s="92"/>
+      <c r="GQ16" s="92"/>
+      <c r="GR16" s="92"/>
+      <c r="GS16" s="92"/>
+      <c r="GT16" s="92"/>
+      <c r="GU16" s="92"/>
+      <c r="GV16" s="92"/>
+      <c r="GW16" s="92"/>
+      <c r="GX16" s="92"/>
+      <c r="GY16" s="92"/>
+      <c r="GZ16" s="92"/>
+      <c r="HA16" s="92"/>
+      <c r="HB16" s="92"/>
+      <c r="HC16" s="92"/>
+      <c r="HD16" s="92"/>
+      <c r="HE16" s="92"/>
+      <c r="HF16" s="92"/>
+      <c r="HG16" s="92"/>
+      <c r="HH16" s="92"/>
+      <c r="HI16" s="92"/>
+      <c r="HJ16" s="92"/>
+      <c r="HK16" s="92"/>
+      <c r="HL16" s="92"/>
+      <c r="HM16" s="92"/>
+      <c r="HN16" s="92"/>
+      <c r="HO16" s="92"/>
+      <c r="HP16" s="92"/>
+      <c r="HQ16" s="92"/>
+      <c r="HR16" s="92"/>
+      <c r="HS16" s="92"/>
+      <c r="HT16" s="92"/>
+      <c r="HU16" s="92"/>
+      <c r="HV16" s="92"/>
+      <c r="HW16" s="92"/>
+      <c r="HX16" s="92"/>
+      <c r="HY16" s="92"/>
+      <c r="HZ16" s="92"/>
+      <c r="IA16" s="92"/>
+      <c r="IB16" s="92"/>
+      <c r="IC16" s="92"/>
+      <c r="ID16" s="92"/>
+      <c r="IE16" s="92"/>
+      <c r="IF16" s="92"/>
+      <c r="IG16" s="92"/>
+      <c r="IH16" s="92"/>
+      <c r="II16" s="92"/>
+      <c r="IJ16" s="92"/>
+      <c r="IK16" s="92"/>
+      <c r="IL16" s="92"/>
+      <c r="IM16" s="92"/>
+      <c r="IN16" s="92"/>
+      <c r="IO16" s="92"/>
+      <c r="IP16" s="92"/>
+      <c r="IQ16" s="92"/>
+      <c r="IR16" s="92"/>
+      <c r="IS16" s="92"/>
+      <c r="IT16" s="92"/>
+      <c r="IU16" s="92"/>
+      <c r="IV16" s="92"/>
+      <c r="IW16" s="92"/>
+      <c r="IX16" s="92"/>
+      <c r="IY16" s="92"/>
+      <c r="IZ16" s="92"/>
+      <c r="JA16" s="92"/>
+      <c r="JB16" s="92"/>
+      <c r="JC16" s="92"/>
+      <c r="JD16" s="92"/>
+      <c r="JE16" s="92"/>
+      <c r="JF16" s="92"/>
+      <c r="JG16" s="92"/>
+      <c r="JH16" s="92"/>
+      <c r="JI16" s="92"/>
+      <c r="JJ16" s="92"/>
+      <c r="JK16" s="92"/>
+      <c r="JL16" s="92"/>
+      <c r="JM16" s="92"/>
+      <c r="JN16" s="92"/>
+      <c r="JO16" s="92"/>
+      <c r="JP16" s="92"/>
+      <c r="JQ16" s="92"/>
+      <c r="JR16" s="92"/>
+      <c r="JS16" s="92"/>
+      <c r="JT16" s="92"/>
+      <c r="JU16" s="92"/>
+      <c r="JV16" s="92"/>
+      <c r="JW16" s="92"/>
+      <c r="JX16" s="92"/>
+      <c r="JY16" s="92"/>
+      <c r="JZ16" s="92"/>
+      <c r="KA16" s="92"/>
+      <c r="KB16" s="92"/>
+      <c r="KC16" s="92"/>
+      <c r="KD16" s="92"/>
+      <c r="KE16" s="92"/>
+      <c r="KF16" s="92"/>
+      <c r="KG16" s="92"/>
+      <c r="KH16" s="92"/>
+      <c r="KI16" s="92"/>
+      <c r="KJ16" s="92"/>
+      <c r="KK16" s="92"/>
+      <c r="KL16" s="92"/>
+      <c r="KM16" s="92"/>
+      <c r="KN16" s="92"/>
+      <c r="KO16" s="92"/>
+      <c r="KP16" s="92"/>
+      <c r="KQ16" s="92"/>
+      <c r="KR16" s="92"/>
+      <c r="KS16" s="92"/>
+      <c r="KT16" s="92"/>
+      <c r="KU16" s="92"/>
+      <c r="KV16" s="92"/>
+      <c r="KW16" s="92"/>
+      <c r="KX16" s="92"/>
+      <c r="KY16" s="92"/>
+      <c r="KZ16" s="92"/>
+      <c r="LA16" s="92"/>
+      <c r="LB16" s="92"/>
+      <c r="LC16" s="92"/>
+      <c r="LD16" s="92"/>
+      <c r="LE16" s="92"/>
+      <c r="LF16" s="92"/>
+      <c r="LG16" s="92"/>
+      <c r="LH16" s="92"/>
+      <c r="LI16" s="92"/>
+      <c r="LJ16" s="92"/>
+      <c r="LK16" s="92"/>
+      <c r="LL16" s="92"/>
+      <c r="LM16" s="92"/>
+      <c r="LN16" s="92"/>
+      <c r="LO16" s="92"/>
+      <c r="LP16" s="92"/>
+      <c r="LQ16" s="92"/>
+      <c r="LR16" s="92"/>
+      <c r="LS16" s="92"/>
+      <c r="LT16" s="92"/>
+      <c r="LU16" s="92"/>
+      <c r="LV16" s="92"/>
+      <c r="LW16" s="92"/>
+      <c r="LX16" s="92"/>
+      <c r="LY16" s="92"/>
+      <c r="LZ16" s="92"/>
+      <c r="MA16" s="92"/>
+      <c r="MB16" s="92"/>
+      <c r="MC16" s="92"/>
+      <c r="MD16" s="92"/>
+      <c r="ME16" s="92"/>
+      <c r="MF16" s="92"/>
+      <c r="MG16" s="92"/>
+      <c r="MH16" s="92"/>
+      <c r="MI16" s="92"/>
+      <c r="MJ16" s="92"/>
+      <c r="MK16" s="92"/>
+      <c r="ML16" s="92"/>
+      <c r="MM16" s="92"/>
+      <c r="MN16" s="92"/>
+      <c r="MO16" s="92"/>
+      <c r="MP16" s="92"/>
+      <c r="MQ16" s="92"/>
+      <c r="MR16" s="92"/>
+      <c r="MS16" s="92"/>
+      <c r="MT16" s="92"/>
+      <c r="MU16" s="92"/>
+      <c r="MV16" s="92"/>
+      <c r="MW16" s="92"/>
+      <c r="MX16" s="92"/>
+      <c r="MY16" s="92"/>
+      <c r="MZ16" s="92"/>
+      <c r="NA16" s="92"/>
+      <c r="NB16" s="92"/>
+      <c r="NC16" s="92"/>
+      <c r="ND16" s="92"/>
+      <c r="NE16" s="92"/>
+      <c r="NF16" s="92"/>
+      <c r="NG16" s="92"/>
+      <c r="NH16" s="92"/>
+      <c r="NI16" s="92"/>
+      <c r="NJ16" s="92"/>
+      <c r="NK16" s="92"/>
+      <c r="NL16" s="92"/>
+      <c r="NM16" s="92"/>
+      <c r="NN16" s="92"/>
+      <c r="NO16" s="92"/>
+      <c r="NP16" s="92"/>
+      <c r="NQ16" s="92"/>
+      <c r="NR16" s="92"/>
+      <c r="NS16" s="92"/>
+      <c r="NT16" s="92"/>
+      <c r="NU16" s="92"/>
+      <c r="NV16" s="92"/>
+      <c r="NW16" s="92"/>
+      <c r="NX16" s="92"/>
+      <c r="NY16" s="92"/>
+      <c r="NZ16" s="92"/>
+      <c r="OA16" s="92"/>
+      <c r="OB16" s="92"/>
+      <c r="OC16" s="92"/>
+      <c r="OD16" s="92"/>
+      <c r="OE16" s="92"/>
+      <c r="OF16" s="92"/>
+      <c r="OG16" s="92"/>
+      <c r="OH16" s="92"/>
+      <c r="OI16" s="92"/>
+      <c r="OJ16" s="92"/>
+      <c r="OK16" s="92"/>
+      <c r="OL16" s="92"/>
+      <c r="OM16" s="92"/>
+      <c r="ON16" s="92"/>
+      <c r="OO16" s="92"/>
+      <c r="OP16" s="92"/>
+      <c r="OQ16" s="92"/>
+      <c r="OR16" s="92"/>
+      <c r="OS16" s="92"/>
+      <c r="OT16" s="92"/>
+      <c r="OU16" s="92"/>
+      <c r="OV16" s="92"/>
+      <c r="OW16" s="92"/>
+      <c r="OX16" s="92"/>
+      <c r="OY16" s="92"/>
+      <c r="OZ16" s="92"/>
+      <c r="PA16" s="92"/>
+      <c r="PB16" s="92"/>
+      <c r="PC16" s="92"/>
+      <c r="PD16" s="92"/>
+      <c r="PE16" s="92"/>
+      <c r="PF16" s="92"/>
+      <c r="PG16" s="92"/>
+      <c r="PH16" s="92"/>
+      <c r="PI16" s="92"/>
+      <c r="PJ16" s="92"/>
+      <c r="PK16" s="92"/>
+      <c r="PL16" s="92"/>
+      <c r="PM16" s="92"/>
+      <c r="PN16" s="92"/>
+      <c r="PO16" s="92"/>
+      <c r="PP16" s="92"/>
+      <c r="PQ16" s="92"/>
+      <c r="PR16" s="92"/>
+      <c r="PS16" s="92"/>
+      <c r="PT16" s="92"/>
+      <c r="PU16" s="92"/>
+      <c r="PV16" s="92"/>
+      <c r="PW16" s="92"/>
+      <c r="PX16" s="92"/>
+      <c r="PY16" s="92"/>
+      <c r="PZ16" s="92"/>
+      <c r="QA16" s="92"/>
+      <c r="QB16" s="92"/>
+      <c r="QC16" s="92"/>
+      <c r="QD16" s="92"/>
+      <c r="QE16" s="92"/>
+      <c r="QF16" s="92"/>
+      <c r="QG16" s="92"/>
+      <c r="QH16" s="92"/>
+      <c r="QI16" s="92"/>
+      <c r="QJ16" s="92"/>
+      <c r="QK16" s="92"/>
+      <c r="QL16" s="92"/>
+      <c r="QM16" s="92"/>
+      <c r="QN16" s="92"/>
+      <c r="QO16" s="92"/>
+      <c r="QP16" s="92"/>
+      <c r="QQ16" s="92"/>
+      <c r="QR16" s="92"/>
+      <c r="QS16" s="92"/>
+      <c r="QT16" s="92"/>
+      <c r="QU16" s="92"/>
+      <c r="QV16" s="92"/>
+      <c r="QW16" s="92"/>
+      <c r="QX16" s="92"/>
+      <c r="QY16" s="92"/>
+      <c r="QZ16" s="92"/>
+      <c r="RA16" s="92"/>
+      <c r="RB16" s="92"/>
+      <c r="RC16" s="92"/>
+      <c r="RD16" s="92"/>
+      <c r="RE16" s="92"/>
+      <c r="RF16" s="92"/>
+      <c r="RG16" s="92"/>
+      <c r="RH16" s="92"/>
+      <c r="RI16" s="92"/>
+      <c r="RJ16" s="92"/>
+      <c r="RK16" s="92"/>
+      <c r="RL16" s="92"/>
+      <c r="RM16" s="92"/>
+      <c r="RN16" s="92"/>
+      <c r="RO16" s="92"/>
+      <c r="RP16" s="92"/>
+      <c r="RQ16" s="92"/>
+      <c r="RR16" s="92"/>
+      <c r="RS16" s="92"/>
+      <c r="RT16" s="92"/>
+      <c r="RU16" s="92"/>
+      <c r="RV16" s="92"/>
+      <c r="RW16" s="92"/>
+      <c r="RX16" s="92"/>
+      <c r="RY16" s="92"/>
+      <c r="RZ16" s="92"/>
+      <c r="SA16" s="92"/>
+      <c r="SB16" s="92"/>
+      <c r="SC16" s="92"/>
+      <c r="SD16" s="92"/>
+      <c r="SE16" s="92"/>
+      <c r="SF16" s="92"/>
+      <c r="SG16" s="92"/>
+      <c r="SH16" s="92"/>
+      <c r="SI16" s="92"/>
+      <c r="SJ16" s="92"/>
+      <c r="SK16" s="92"/>
+      <c r="SL16" s="92"/>
+      <c r="SM16" s="92"/>
+      <c r="SN16" s="92"/>
+      <c r="SO16" s="92"/>
+      <c r="SP16" s="92"/>
+      <c r="SQ16" s="92"/>
+      <c r="SR16" s="92"/>
+      <c r="SS16" s="92"/>
+      <c r="ST16" s="92"/>
+      <c r="SU16" s="92"/>
+      <c r="SV16" s="92"/>
+      <c r="SW16" s="92"/>
+      <c r="SX16" s="92"/>
+      <c r="SY16" s="92"/>
+      <c r="SZ16" s="92"/>
+      <c r="TA16" s="92"/>
+      <c r="TB16" s="92"/>
+      <c r="TC16" s="92"/>
+      <c r="TD16" s="92"/>
+      <c r="TE16" s="92"/>
+      <c r="TF16" s="92"/>
+      <c r="TG16" s="92"/>
+      <c r="TH16" s="92"/>
+      <c r="TI16" s="92"/>
+      <c r="TJ16" s="92"/>
+      <c r="TK16" s="92"/>
+      <c r="TL16" s="92"/>
+      <c r="TM16" s="92"/>
+      <c r="TN16" s="92"/>
+      <c r="TO16" s="92"/>
+      <c r="TP16" s="92"/>
+      <c r="TQ16" s="92"/>
+      <c r="TR16" s="92"/>
+      <c r="TS16" s="92"/>
+      <c r="TT16" s="92"/>
+      <c r="TU16" s="92"/>
+      <c r="TV16" s="92"/>
+      <c r="TW16" s="92"/>
+      <c r="TX16" s="92"/>
+      <c r="TY16" s="92"/>
+      <c r="TZ16" s="92"/>
+      <c r="UA16" s="92"/>
+      <c r="UB16" s="92"/>
+      <c r="UC16" s="92"/>
+      <c r="UD16" s="92"/>
+      <c r="UE16" s="92"/>
+      <c r="UF16" s="92"/>
+      <c r="UG16" s="92"/>
+      <c r="UH16" s="92"/>
+      <c r="UI16" s="92"/>
+      <c r="UJ16" s="92"/>
+      <c r="UK16" s="92"/>
+      <c r="UL16" s="92"/>
+      <c r="UM16" s="92"/>
+      <c r="UN16" s="92"/>
+      <c r="UO16" s="92"/>
+      <c r="UP16" s="92"/>
+      <c r="UQ16" s="92"/>
+      <c r="UR16" s="92"/>
+      <c r="US16" s="92"/>
+      <c r="UT16" s="92"/>
+      <c r="UU16" s="92"/>
+      <c r="UV16" s="92"/>
+      <c r="UW16" s="92"/>
+      <c r="UX16" s="92"/>
+      <c r="UY16" s="92"/>
+      <c r="UZ16" s="92"/>
+      <c r="VA16" s="92"/>
+      <c r="VB16" s="92"/>
+      <c r="VC16" s="92"/>
+      <c r="VD16" s="92"/>
+      <c r="VE16" s="92"/>
+      <c r="VF16" s="92"/>
+      <c r="VG16" s="92"/>
+      <c r="VH16" s="92"/>
+      <c r="VI16" s="92"/>
+      <c r="VJ16" s="92"/>
+      <c r="VK16" s="92"/>
+      <c r="VL16" s="92"/>
+      <c r="VM16" s="92"/>
+      <c r="VN16" s="92"/>
+      <c r="VO16" s="92"/>
+      <c r="VP16" s="92"/>
+      <c r="VQ16" s="92"/>
+      <c r="VR16" s="92"/>
+      <c r="VS16" s="92"/>
+      <c r="VT16" s="92"/>
+      <c r="VU16" s="92"/>
+      <c r="VV16" s="92"/>
+      <c r="VW16" s="92"/>
+      <c r="VX16" s="92"/>
+      <c r="VY16" s="92"/>
+      <c r="VZ16" s="92"/>
+      <c r="WA16" s="92"/>
+      <c r="WB16" s="92"/>
+      <c r="WC16" s="92"/>
+      <c r="WD16" s="92"/>
+      <c r="WE16" s="92"/>
+      <c r="WF16" s="92"/>
+      <c r="WG16" s="92"/>
+      <c r="WH16" s="92"/>
+      <c r="WI16" s="92"/>
+      <c r="WJ16" s="92"/>
+      <c r="WK16" s="92"/>
+      <c r="WL16" s="92"/>
+      <c r="WM16" s="92"/>
+      <c r="WN16" s="92"/>
+      <c r="WO16" s="92"/>
+      <c r="WP16" s="92"/>
+      <c r="WQ16" s="92"/>
+      <c r="WR16" s="92"/>
+      <c r="WS16" s="92"/>
+      <c r="WT16" s="92"/>
+      <c r="WU16" s="92"/>
+      <c r="WV16" s="92"/>
+      <c r="WW16" s="92"/>
+      <c r="WX16" s="92"/>
+      <c r="WY16" s="92"/>
+      <c r="WZ16" s="92"/>
+      <c r="XA16" s="92"/>
+      <c r="XB16" s="92"/>
+      <c r="XC16" s="92"/>
+      <c r="XD16" s="92"/>
+      <c r="XE16" s="92"/>
+      <c r="XF16" s="92"/>
+      <c r="XG16" s="92"/>
+      <c r="XH16" s="92"/>
+      <c r="XI16" s="92"/>
+      <c r="XJ16" s="92"/>
+      <c r="XK16" s="92"/>
+      <c r="XL16" s="92"/>
+      <c r="XM16" s="92"/>
+      <c r="XN16" s="92"/>
+      <c r="XO16" s="92"/>
+      <c r="XP16" s="92"/>
+      <c r="XQ16" s="92"/>
+      <c r="XR16" s="92"/>
+      <c r="XS16" s="92"/>
+      <c r="XT16" s="92"/>
+      <c r="XU16" s="92"/>
+      <c r="XV16" s="92"/>
+      <c r="XW16" s="92"/>
+      <c r="XX16" s="92"/>
+      <c r="XY16" s="92"/>
+      <c r="XZ16" s="92"/>
+      <c r="YA16" s="92"/>
+      <c r="YB16" s="92"/>
+      <c r="YC16" s="92"/>
+      <c r="YD16" s="92"/>
+      <c r="YE16" s="92"/>
+      <c r="YF16" s="92"/>
+      <c r="YG16" s="92"/>
+      <c r="YH16" s="92"/>
+      <c r="YI16" s="92"/>
+      <c r="YJ16" s="92"/>
+      <c r="YK16" s="92"/>
+      <c r="YL16" s="92"/>
+      <c r="YM16" s="92"/>
+      <c r="YN16" s="92"/>
+      <c r="YO16" s="92"/>
+      <c r="YP16" s="92"/>
+      <c r="YQ16" s="92"/>
+      <c r="YR16" s="92"/>
+      <c r="YS16" s="92"/>
+      <c r="YT16" s="92"/>
+      <c r="YU16" s="92"/>
+      <c r="YV16" s="92"/>
+      <c r="YW16" s="92"/>
+      <c r="YX16" s="92"/>
+      <c r="YY16" s="92"/>
+      <c r="YZ16" s="92"/>
+      <c r="ZA16" s="92"/>
+      <c r="ZB16" s="92"/>
+      <c r="ZC16" s="92"/>
+      <c r="ZD16" s="92"/>
+      <c r="ZE16" s="92"/>
+      <c r="ZF16" s="92"/>
+      <c r="ZG16" s="92"/>
+      <c r="ZH16" s="92"/>
+      <c r="ZI16" s="92"/>
+      <c r="ZJ16" s="92"/>
+      <c r="ZK16" s="92"/>
+      <c r="ZL16" s="92"/>
+      <c r="ZM16" s="92"/>
+      <c r="ZN16" s="92"/>
+      <c r="ZO16" s="92"/>
+      <c r="ZP16" s="92"/>
+      <c r="ZQ16" s="92"/>
+      <c r="ZR16" s="92"/>
+      <c r="ZS16" s="92"/>
+      <c r="ZT16" s="92"/>
+      <c r="ZU16" s="92"/>
+      <c r="ZV16" s="92"/>
+      <c r="ZW16" s="92"/>
+      <c r="ZX16" s="92"/>
+      <c r="ZY16" s="92"/>
+      <c r="ZZ16" s="92"/>
+      <c r="AAA16" s="92"/>
+      <c r="AAB16" s="92"/>
+      <c r="AAC16" s="92"/>
+      <c r="AAD16" s="92"/>
+      <c r="AAE16" s="92"/>
+      <c r="AAF16" s="92"/>
+      <c r="AAG16" s="92"/>
+      <c r="AAH16" s="92"/>
+      <c r="AAI16" s="92"/>
+      <c r="AAJ16" s="92"/>
+      <c r="AAK16" s="92"/>
+      <c r="AAL16" s="92"/>
+      <c r="AAM16" s="92"/>
+      <c r="AAN16" s="92"/>
+      <c r="AAO16" s="92"/>
+      <c r="AAP16" s="92"/>
+      <c r="AAQ16" s="92"/>
+      <c r="AAR16" s="92"/>
+      <c r="AAS16" s="92"/>
+      <c r="AAT16" s="92"/>
+      <c r="AAU16" s="92"/>
+      <c r="AAV16" s="92"/>
+      <c r="AAW16" s="92"/>
+      <c r="AAX16" s="92"/>
+      <c r="AAY16" s="92"/>
+      <c r="AAZ16" s="92"/>
+      <c r="ABA16" s="92"/>
+      <c r="ABB16" s="92"/>
+      <c r="ABC16" s="92"/>
+      <c r="ABD16" s="92"/>
+      <c r="ABE16" s="92"/>
+      <c r="ABF16" s="92"/>
+      <c r="ABG16" s="92"/>
+      <c r="ABH16" s="92"/>
+      <c r="ABI16" s="92"/>
+      <c r="ABJ16" s="92"/>
+      <c r="ABK16" s="92"/>
+      <c r="ABL16" s="92"/>
+      <c r="ABM16" s="92"/>
+      <c r="ABN16" s="92"/>
+      <c r="ABO16" s="92"/>
+      <c r="ABP16" s="92"/>
+      <c r="ABQ16" s="92"/>
+      <c r="ABR16" s="92"/>
+      <c r="ABS16" s="92"/>
+      <c r="ABT16" s="92"/>
+      <c r="ABU16" s="92"/>
+      <c r="ABV16" s="92"/>
+      <c r="ABW16" s="92"/>
+      <c r="ABX16" s="92"/>
+      <c r="ABY16" s="92"/>
+      <c r="ABZ16" s="92"/>
+      <c r="ACA16" s="92"/>
+      <c r="ACB16" s="92"/>
+      <c r="ACC16" s="92"/>
+      <c r="ACD16" s="92"/>
+      <c r="ACE16" s="92"/>
+      <c r="ACF16" s="92"/>
+      <c r="ACG16" s="92"/>
+      <c r="ACH16" s="92"/>
+      <c r="ACI16" s="92"/>
+      <c r="ACJ16" s="92"/>
+      <c r="ACK16" s="92"/>
+      <c r="ACL16" s="92"/>
+      <c r="ACM16" s="92"/>
+      <c r="ACN16" s="92"/>
+      <c r="ACO16" s="92"/>
+      <c r="ACP16" s="92"/>
+      <c r="ACQ16" s="92"/>
+      <c r="ACR16" s="92"/>
+      <c r="ACS16" s="92"/>
+      <c r="ACT16" s="92"/>
+      <c r="ACU16" s="92"/>
+      <c r="ACV16" s="92"/>
+      <c r="ACW16" s="92"/>
+      <c r="ACX16" s="92"/>
+      <c r="ACY16" s="92"/>
+      <c r="ACZ16" s="92"/>
+      <c r="ADA16" s="92"/>
+      <c r="ADB16" s="92"/>
+      <c r="ADC16" s="92"/>
+      <c r="ADD16" s="92"/>
+      <c r="ADE16" s="92"/>
+      <c r="ADF16" s="92"/>
+      <c r="ADG16" s="92"/>
+      <c r="ADH16" s="92"/>
+      <c r="ADI16" s="92"/>
+      <c r="ADJ16" s="92"/>
+      <c r="ADK16" s="92"/>
+      <c r="ADL16" s="92"/>
+      <c r="ADM16" s="92"/>
+      <c r="ADN16" s="92"/>
+      <c r="ADO16" s="92"/>
+      <c r="ADP16" s="92"/>
+      <c r="ADQ16" s="92"/>
+      <c r="ADR16" s="92"/>
+      <c r="ADS16" s="92"/>
+      <c r="ADT16" s="92"/>
+      <c r="ADU16" s="92"/>
+      <c r="ADV16" s="92"/>
+      <c r="ADW16" s="92"/>
+      <c r="ADX16" s="92"/>
+      <c r="ADY16" s="92"/>
+      <c r="ADZ16" s="92"/>
+      <c r="AEA16" s="92"/>
+      <c r="AEB16" s="92"/>
+      <c r="AEC16" s="92"/>
+      <c r="AED16" s="92"/>
+      <c r="AEE16" s="92"/>
+      <c r="AEF16" s="92"/>
+      <c r="AEG16" s="92"/>
+      <c r="AEH16" s="92"/>
+      <c r="AEI16" s="92"/>
+      <c r="AEJ16" s="92"/>
+      <c r="AEK16" s="92"/>
+      <c r="AEL16" s="92"/>
+      <c r="AEM16" s="92"/>
+      <c r="AEN16" s="92"/>
+      <c r="AEO16" s="92"/>
+      <c r="AEP16" s="92"/>
+      <c r="AEQ16" s="92"/>
+      <c r="AER16" s="92"/>
+      <c r="AES16" s="92"/>
+      <c r="AET16" s="92"/>
+      <c r="AEU16" s="92"/>
+      <c r="AEV16" s="92"/>
+      <c r="AEW16" s="92"/>
+      <c r="AEX16" s="92"/>
+      <c r="AEY16" s="92"/>
+      <c r="AEZ16" s="92"/>
+      <c r="AFA16" s="92"/>
+      <c r="AFB16" s="92"/>
+      <c r="AFC16" s="92"/>
+      <c r="AFD16" s="92"/>
+      <c r="AFE16" s="92"/>
+      <c r="AFF16" s="92"/>
+      <c r="AFG16" s="92"/>
+      <c r="AFH16" s="92"/>
+      <c r="AFI16" s="92"/>
+      <c r="AFJ16" s="92"/>
+      <c r="AFK16" s="92"/>
+      <c r="AFL16" s="92"/>
+      <c r="AFM16" s="92"/>
+      <c r="AFN16" s="92"/>
+      <c r="AFO16" s="92"/>
+      <c r="AFP16" s="92"/>
+      <c r="AFQ16" s="92"/>
+      <c r="AFR16" s="92"/>
+      <c r="AFS16" s="92"/>
+      <c r="AFT16" s="92"/>
+      <c r="AFU16" s="92"/>
+      <c r="AFV16" s="92"/>
+      <c r="AFW16" s="92"/>
+      <c r="AFX16" s="92"/>
+      <c r="AFY16" s="92"/>
+      <c r="AFZ16" s="92"/>
+      <c r="AGA16" s="92"/>
+      <c r="AGB16" s="92"/>
+      <c r="AGC16" s="92"/>
+      <c r="AGD16" s="92"/>
+      <c r="AGE16" s="92"/>
+      <c r="AGF16" s="92"/>
+      <c r="AGG16" s="92"/>
+      <c r="AGH16" s="92"/>
+      <c r="AGI16" s="92"/>
+      <c r="AGJ16" s="92"/>
+      <c r="AGK16" s="92"/>
+      <c r="AGL16" s="92"/>
+      <c r="AGM16" s="92"/>
+      <c r="AGN16" s="92"/>
+      <c r="AGO16" s="92"/>
+      <c r="AGP16" s="92"/>
+      <c r="AGQ16" s="92"/>
+      <c r="AGR16" s="92"/>
+      <c r="AGS16" s="92"/>
+      <c r="AGT16" s="92"/>
+      <c r="AGU16" s="92"/>
+      <c r="AGV16" s="92"/>
+      <c r="AGW16" s="92"/>
+      <c r="AGX16" s="92"/>
+      <c r="AGY16" s="92"/>
+      <c r="AGZ16" s="92"/>
+      <c r="AHA16" s="92"/>
+      <c r="AHB16" s="92"/>
+      <c r="AHC16" s="92"/>
+      <c r="AHD16" s="92"/>
+      <c r="AHE16" s="92"/>
+      <c r="AHF16" s="92"/>
+      <c r="AHG16" s="92"/>
+      <c r="AHH16" s="92"/>
+      <c r="AHI16" s="92"/>
+      <c r="AHJ16" s="92"/>
+      <c r="AHK16" s="92"/>
+      <c r="AHL16" s="92"/>
+      <c r="AHM16" s="92"/>
+      <c r="AHN16" s="92"/>
+      <c r="AHO16" s="92"/>
+      <c r="AHP16" s="92"/>
+      <c r="AHQ16" s="92"/>
+      <c r="AHR16" s="92"/>
+      <c r="AHS16" s="92"/>
+      <c r="AHT16" s="92"/>
+      <c r="AHU16" s="92"/>
+      <c r="AHV16" s="92"/>
+      <c r="AHW16" s="92"/>
+      <c r="AHX16" s="92"/>
+      <c r="AHY16" s="92"/>
+      <c r="AHZ16" s="92"/>
+      <c r="AIA16" s="92"/>
+      <c r="AIB16" s="92"/>
+      <c r="AIC16" s="92"/>
+      <c r="AID16" s="92"/>
+      <c r="AIE16" s="92"/>
+      <c r="AIF16" s="92"/>
+      <c r="AIG16" s="92"/>
+      <c r="AIH16" s="92"/>
+      <c r="AII16" s="92"/>
+      <c r="AIJ16" s="92"/>
+      <c r="AIK16" s="92"/>
+      <c r="AIL16" s="92"/>
+      <c r="AIM16" s="92"/>
+      <c r="AIN16" s="92"/>
+      <c r="AIO16" s="92"/>
+      <c r="AIP16" s="92"/>
+      <c r="AIQ16" s="92"/>
+      <c r="AIR16" s="92"/>
+      <c r="AIS16" s="92"/>
+      <c r="AIT16" s="92"/>
+      <c r="AIU16" s="92"/>
+      <c r="AIV16" s="92"/>
+      <c r="AIW16" s="92"/>
+      <c r="AIX16" s="92"/>
+      <c r="AIY16" s="92"/>
+      <c r="AIZ16" s="92"/>
+      <c r="AJA16" s="92"/>
+      <c r="AJB16" s="92"/>
+      <c r="AJC16" s="92"/>
+      <c r="AJD16" s="92"/>
+      <c r="AJE16" s="92"/>
+      <c r="AJF16" s="92"/>
+      <c r="AJG16" s="92"/>
+      <c r="AJH16" s="92"/>
+      <c r="AJI16" s="92"/>
+      <c r="AJJ16" s="92"/>
+      <c r="AJK16" s="92"/>
+      <c r="AJL16" s="92"/>
+      <c r="AJM16" s="92"/>
+      <c r="AJN16" s="92"/>
+      <c r="AJO16" s="92"/>
+      <c r="AJP16" s="92"/>
+      <c r="AJQ16" s="92"/>
+      <c r="AJR16" s="92"/>
+      <c r="AJS16" s="92"/>
+      <c r="AJT16" s="92"/>
+      <c r="AJU16" s="92"/>
+      <c r="AJV16" s="92"/>
+      <c r="AJW16" s="92"/>
+      <c r="AJX16" s="92"/>
+      <c r="AJY16" s="92"/>
+      <c r="AJZ16" s="92"/>
+      <c r="AKA16" s="92"/>
+      <c r="AKB16" s="92"/>
+      <c r="AKC16" s="92"/>
+      <c r="AKD16" s="92"/>
+      <c r="AKE16" s="92"/>
+      <c r="AKF16" s="92"/>
+      <c r="AKG16" s="92"/>
+      <c r="AKH16" s="92"/>
+      <c r="AKI16" s="92"/>
+      <c r="AKJ16" s="92"/>
+      <c r="AKK16" s="92"/>
+      <c r="AKL16" s="92"/>
+      <c r="AKM16" s="92"/>
+      <c r="AKN16" s="92"/>
+      <c r="AKO16" s="92"/>
+      <c r="AKP16" s="92"/>
+      <c r="AKQ16" s="92"/>
+      <c r="AKR16" s="92"/>
+      <c r="AKS16" s="92"/>
+      <c r="AKT16" s="92"/>
+      <c r="AKU16" s="92"/>
+      <c r="AKV16" s="92"/>
+      <c r="AKW16" s="92"/>
+      <c r="AKX16" s="92"/>
+      <c r="AKY16" s="92"/>
+      <c r="AKZ16" s="92"/>
+      <c r="ALA16" s="92"/>
+      <c r="ALB16" s="92"/>
+      <c r="ALC16" s="92"/>
+      <c r="ALD16" s="92"/>
+      <c r="ALE16" s="92"/>
+      <c r="ALF16" s="92"/>
+      <c r="ALG16" s="92"/>
+      <c r="ALH16" s="92"/>
+      <c r="ALI16" s="92"/>
+      <c r="ALJ16" s="92"/>
+      <c r="ALK16" s="92"/>
+      <c r="ALL16" s="92"/>
+      <c r="ALM16" s="92"/>
+      <c r="ALN16" s="92"/>
+      <c r="ALO16" s="92"/>
+      <c r="ALP16" s="92"/>
+      <c r="ALQ16" s="92"/>
+      <c r="ALR16" s="92"/>
+      <c r="ALS16" s="92"/>
+      <c r="ALT16" s="92"/>
+      <c r="ALU16" s="92"/>
+      <c r="ALV16" s="92"/>
+      <c r="ALW16" s="92"/>
+      <c r="ALX16" s="92"/>
+      <c r="ALY16" s="92"/>
+      <c r="ALZ16" s="92"/>
+      <c r="AMA16" s="92"/>
+      <c r="AMB16" s="92"/>
+      <c r="AMC16" s="92"/>
+      <c r="AMD16" s="92"/>
+      <c r="AME16" s="92"/>
+      <c r="AMF16" s="92"/>
+      <c r="AMG16" s="92"/>
+      <c r="AMH16" s="92"/>
+      <c r="AMI16" s="92"/>
+      <c r="AMJ16" s="92"/>
+      <c r="AMK16" s="92"/>
+      <c r="AML16" s="92"/>
+    </row>
+    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B17" s="60" t="s">
+        <v>38</v>
+      </c>
+      <c r="C17" s="61"/>
+      <c r="D17" s="62" t="s">
+        <v>347</v>
+      </c>
+      <c r="E17" s="63"/>
+      <c r="F17" s="64"/>
+      <c r="G17" s="63"/>
+      <c r="H17" s="65"/>
+      <c r="I17" s="66"/>
+      <c r="J17" s="66"/>
+      <c r="K17" s="76"/>
+    </row>
+    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B18" s="68" t="s">
+        <v>39</v>
+      </c>
+      <c r="C18" s="69" t="s">
         <v>40</v>
       </c>
-      <c r="C15" s="61"/>
-      <c r="D15" s="62" t="s">
-        <v>355</v>
-      </c>
-      <c r="E15" s="63"/>
-      <c r="F15" s="64"/>
-      <c r="G15" s="63"/>
-      <c r="H15" s="65"/>
-      <c r="I15" s="66"/>
-      <c r="J15" s="66"/>
-      <c r="K15" s="76"/>
-    </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B16" s="68" t="s">
-        <v>41</v>
-      </c>
-      <c r="C16" s="69" t="s">
-        <v>42</v>
-      </c>
-      <c r="D16" s="51" t="s">
-        <v>368</v>
-      </c>
-      <c r="E16" s="52" t="s">
-        <v>20</v>
-      </c>
-      <c r="F16" s="53" t="s">
-        <v>20</v>
-      </c>
-      <c r="G16" s="54"/>
-      <c r="H16" s="71" t="str">
+      <c r="D18" s="51" t="s">
+        <v>350</v>
+      </c>
+      <c r="E18" s="52" t="s">
+        <v>18</v>
+      </c>
+      <c r="F18" s="53" t="s">
+        <v>18</v>
+      </c>
+      <c r="G18" s="54"/>
+      <c r="H18" s="71" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x06d-Testing-Data-Storage.md#testing-local-data-storage-mstg-storage-1-and-mstg-storage-2"),"Testing Local Data Storage (MSTG-STORAGE-1 and MSTG-STORAGE-2)")</f>
         <v>Testing Local Data Storage (MSTG-STORAGE-1 and MSTG-STORAGE-2)</v>
-      </c>
-      <c r="I16" s="58"/>
-      <c r="J16" s="58"/>
-      <c r="K16" s="56"/>
-    </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B17" s="68" t="s">
-        <v>43</v>
-      </c>
-      <c r="C17" s="69" t="s">
-        <v>44</v>
-      </c>
-      <c r="D17" s="51" t="s">
-        <v>369</v>
-      </c>
-      <c r="E17" s="52"/>
-      <c r="F17" s="53"/>
-      <c r="G17" s="54"/>
-      <c r="H17" s="71" t="str">
-        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x06d-Testing-Data-Storage.md#testing-local-data-storage-mstg-storage-1-and-mstg-storage-2"),"Testing Local Data Storage (MSTG-STORAGE-1 and MSTG-STORAGE-2)")</f>
-        <v>Testing Local Data Storage (MSTG-STORAGE-1 and MSTG-STORAGE-2)</v>
-      </c>
-      <c r="I17" s="58"/>
-      <c r="J17" s="58"/>
-      <c r="K17" s="56"/>
-    </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B18" s="68" t="s">
-        <v>45</v>
-      </c>
-      <c r="C18" s="69" t="s">
-        <v>46</v>
-      </c>
-      <c r="D18" s="51" t="s">
-        <v>370</v>
-      </c>
-      <c r="E18" s="52" t="s">
-        <v>20</v>
-      </c>
-      <c r="F18" s="53" t="s">
-        <v>20</v>
-      </c>
-      <c r="G18" s="54"/>
-      <c r="H18" s="71" t="str">
-        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x06d-Testing-Data-Storage.md#checking-logs-for-sensitive-data-mstg-storage-3"),"Checking Logs for Sensitive Data (MSTG-STORAGE-3)")</f>
-        <v>Checking Logs for Sensitive Data (MSTG-STORAGE-3)</v>
       </c>
       <c r="I18" s="58"/>
       <c r="J18" s="58"/>
@@ -7995,24 +10013,20 @@
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B19" s="68" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="C19" s="69" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="D19" s="51" t="s">
-        <v>371</v>
-      </c>
-      <c r="E19" s="52" t="s">
-        <v>20</v>
-      </c>
-      <c r="F19" s="53" t="s">
-        <v>20</v>
-      </c>
+        <v>351</v>
+      </c>
+      <c r="E19" s="52"/>
+      <c r="F19" s="53"/>
       <c r="G19" s="54"/>
       <c r="H19" s="71" t="str">
-        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x06d-Testing-Data-Storage.md#determining-whether-sensitive-data-is-sent-to-third-parties-mstg-storage-4"),"Determining Whether Sensitive Data Is Sent to Third Parties (MSTG-STORAGE-4)")</f>
-        <v>Determining Whether Sensitive Data Is Sent to Third Parties (MSTG-STORAGE-4)</v>
+        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x06d-Testing-Data-Storage.md#testing-local-data-storage-mstg-storage-1-and-mstg-storage-2"),"Testing Local Data Storage (MSTG-STORAGE-1 and MSTG-STORAGE-2)")</f>
+        <v>Testing Local Data Storage (MSTG-STORAGE-1 and MSTG-STORAGE-2)</v>
       </c>
       <c r="I19" s="58"/>
       <c r="J19" s="58"/>
@@ -8020,24 +10034,24 @@
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B20" s="68" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C20" s="69" t="s">
-        <v>50</v>
-      </c>
-      <c r="D20" s="73" t="s">
-        <v>372</v>
+        <v>44</v>
+      </c>
+      <c r="D20" s="51" t="s">
+        <v>352</v>
       </c>
       <c r="E20" s="52" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F20" s="53" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G20" s="54"/>
       <c r="H20" s="71" t="str">
-        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x06d-Testing-Data-Storage.md#finding-sensitive-data-in-the-keyboard-cache-mstg-storage-5"),"Finding Sensitive Data in the Keyboard Cache (MSTG-STORAGE-5)")</f>
-        <v>Finding Sensitive Data in the Keyboard Cache (MSTG-STORAGE-5)</v>
+        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x06d-Testing-Data-Storage.md#checking-logs-for-sensitive-data-mstg-storage-3"),"Checking Logs for Sensitive Data (MSTG-STORAGE-3)")</f>
+        <v>Checking Logs for Sensitive Data (MSTG-STORAGE-3)</v>
       </c>
       <c r="I20" s="58"/>
       <c r="J20" s="58"/>
@@ -8045,24 +10059,24 @@
     </row>
     <row r="21" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B21" s="68" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="C21" s="69" t="s">
-        <v>52</v>
-      </c>
-      <c r="D21" s="73" t="s">
-        <v>373</v>
+        <v>46</v>
+      </c>
+      <c r="D21" s="51" t="s">
+        <v>353</v>
       </c>
       <c r="E21" s="52" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F21" s="53" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G21" s="54"/>
-      <c r="H21" s="70" t="str">
-        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x06d-Testing-Data-Storage.md#determining-whether-sensitive-data-is-exposed-via-ipc-mechanisms-mstg-storage-6"),"Determining Whether Sensitive Data Is Exposed via IPC Mechanisms (MSTG-STORAGE-6)")</f>
-        <v>Determining Whether Sensitive Data Is Exposed via IPC Mechanisms (MSTG-STORAGE-6)</v>
+      <c r="H21" s="71" t="str">
+        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x06d-Testing-Data-Storage.md#determining-whether-sensitive-data-is-sent-to-third-parties-mstg-storage-4"),"Determining Whether Sensitive Data Is Sent to Third Parties (MSTG-STORAGE-4)")</f>
+        <v>Determining Whether Sensitive Data Is Sent to Third Parties (MSTG-STORAGE-4)</v>
       </c>
       <c r="I21" s="58"/>
       <c r="J21" s="58"/>
@@ -8070,24 +10084,24 @@
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B22" s="68" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="C22" s="69" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D22" s="73" t="s">
-        <v>374</v>
+        <v>354</v>
       </c>
       <c r="E22" s="52" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F22" s="53" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G22" s="54"/>
       <c r="H22" s="71" t="str">
-        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x06d-Testing-Data-Storage.md#checking-for-sensitive-data-disclosed-through-the-user-interface-mstg-storage-7"),"Checking for Sensitive Data Disclosed Through the User Interface (MSTG-STORAGE-7)")</f>
-        <v>Checking for Sensitive Data Disclosed Through the User Interface (MSTG-STORAGE-7)</v>
+        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x06d-Testing-Data-Storage.md#finding-sensitive-data-in-the-keyboard-cache-mstg-storage-5"),"Finding Sensitive Data in the Keyboard Cache (MSTG-STORAGE-5)")</f>
+        <v>Finding Sensitive Data in the Keyboard Cache (MSTG-STORAGE-5)</v>
       </c>
       <c r="I22" s="58"/>
       <c r="J22" s="58"/>
@@ -8095,24 +10109,24 @@
     </row>
     <row r="23" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B23" s="68" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C23" s="69" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="D23" s="73" t="s">
-        <v>276</v>
-      </c>
-      <c r="E23" s="74"/>
+        <v>355</v>
+      </c>
+      <c r="E23" s="52" t="s">
+        <v>18</v>
+      </c>
       <c r="F23" s="53" t="s">
-        <v>20</v>
-      </c>
-      <c r="G23" s="54" t="s">
-        <v>29</v>
-      </c>
-      <c r="H23" s="71" t="str">
-        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x06d-Testing-Data-Storage.md#testing-backups-for-sensitive-data-mstg-storage-8"),"Testing Backups for Sensitive Data (MSTG-STORAGE-8)")</f>
-        <v>Testing Backups for Sensitive Data (MSTG-STORAGE-8)</v>
+        <v>18</v>
+      </c>
+      <c r="G23" s="54"/>
+      <c r="H23" s="70" t="str">
+        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x06d-Testing-Data-Storage.md#determining-whether-sensitive-data-is-exposed-via-ipc-mechanisms-mstg-storage-6"),"Determining Whether Sensitive Data Is Exposed via IPC Mechanisms (MSTG-STORAGE-6)")</f>
+        <v>Determining Whether Sensitive Data Is Exposed via IPC Mechanisms (MSTG-STORAGE-6)</v>
       </c>
       <c r="I23" s="58"/>
       <c r="J23" s="58"/>
@@ -8120,24 +10134,24 @@
     </row>
     <row r="24" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B24" s="68" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C24" s="69" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="D24" s="73" t="s">
-        <v>375</v>
-      </c>
-      <c r="E24" s="74"/>
+        <v>356</v>
+      </c>
+      <c r="E24" s="52" t="s">
+        <v>18</v>
+      </c>
       <c r="F24" s="53" t="s">
-        <v>20</v>
-      </c>
-      <c r="G24" s="54" t="s">
-        <v>29</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G24" s="54"/>
       <c r="H24" s="71" t="str">
-        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x06d-Testing-Data-Storage.md#testing-auto-generated-screenshots-for-sensitive-information-mstg-storage-9"),"Testing Auto-Generated Screenshots for Sensitive Information (MSTG-STORAGE-9)")</f>
-        <v>Testing Auto-Generated Screenshots for Sensitive Information (MSTG-STORAGE-9)</v>
+        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x06d-Testing-Data-Storage.md#checking-for-sensitive-data-disclosed-through-the-user-interface-mstg-storage-7"),"Checking for Sensitive Data Disclosed Through the User Interface (MSTG-STORAGE-7)")</f>
+        <v>Checking for Sensitive Data Disclosed Through the User Interface (MSTG-STORAGE-7)</v>
       </c>
       <c r="I24" s="58"/>
       <c r="J24" s="58"/>
@@ -8145,24 +10159,24 @@
     </row>
     <row r="25" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B25" s="68" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C25" s="69" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="D25" s="73" t="s">
-        <v>376</v>
+        <v>270</v>
       </c>
       <c r="E25" s="74"/>
       <c r="F25" s="53" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G25" s="54" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H25" s="71" t="str">
-        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x06d-Testing-Data-Storage.md#testing-memory-for-sensitive-data-mstg-storage-10"),"Testing Memory for Sensitive Data (MSTG-STORAGE-10)")</f>
-        <v>Testing Memory for Sensitive Data (MSTG-STORAGE-10)</v>
+        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x06d-Testing-Data-Storage.md#testing-backups-for-sensitive-data-mstg-storage-8"),"Testing Backups for Sensitive Data (MSTG-STORAGE-8)")</f>
+        <v>Testing Backups for Sensitive Data (MSTG-STORAGE-8)</v>
       </c>
       <c r="I25" s="58"/>
       <c r="J25" s="58"/>
@@ -8170,142 +10184,142 @@
     </row>
     <row r="26" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B26" s="68" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C26" s="69" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="D26" s="73" t="s">
-        <v>377</v>
+        <v>357</v>
       </c>
       <c r="E26" s="74"/>
       <c r="F26" s="53" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G26" s="54" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H26" s="71" t="str">
-        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x06f-Testing-Local-Authentication.md#testing-local-authentication-mstg-auth-8-and-mstg-storage-11"),"Testing Local Authentication (MSTG-AUTH-8 and MSTG-STORAGE-11)")</f>
-        <v>Testing Local Authentication (MSTG-AUTH-8 and MSTG-STORAGE-11)</v>
+        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x06d-Testing-Data-Storage.md#testing-auto-generated-screenshots-for-sensitive-information-mstg-storage-9"),"Testing Auto-Generated Screenshots for Sensitive Information (MSTG-STORAGE-9)")</f>
+        <v>Testing Auto-Generated Screenshots for Sensitive Information (MSTG-STORAGE-9)</v>
       </c>
       <c r="I26" s="58"/>
       <c r="J26" s="58"/>
       <c r="K26" s="56"/>
-      <c r="L26" s="112"/>
     </row>
     <row r="27" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B27" s="68" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C27" s="69" t="s">
-        <v>64</v>
-      </c>
-      <c r="D27" s="51" t="s">
-        <v>378</v>
+        <v>58</v>
+      </c>
+      <c r="D27" s="73" t="s">
+        <v>358</v>
       </c>
       <c r="E27" s="74"/>
       <c r="F27" s="53" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G27" s="54" t="s">
-        <v>29</v>
-      </c>
-      <c r="H27" s="80" t="str">
-        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x04i-Testing-user-interaction.md#testing-user-education-mstg-storage-12"),"Testing User Education (MSTG-STORAGE-12)")</f>
-        <v>Testing User Education (MSTG-STORAGE-12)</v>
+        <v>27</v>
+      </c>
+      <c r="H27" s="71" t="str">
+        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x06d-Testing-Data-Storage.md#testing-memory-for-sensitive-data-mstg-storage-10"),"Testing Memory for Sensitive Data (MSTG-STORAGE-10)")</f>
+        <v>Testing Memory for Sensitive Data (MSTG-STORAGE-10)</v>
       </c>
       <c r="I27" s="58"/>
       <c r="J27" s="58"/>
       <c r="K27" s="56"/>
-      <c r="L27" s="30"/>
     </row>
     <row r="28" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B28" s="60" t="s">
-        <v>65</v>
-      </c>
-      <c r="C28" s="61"/>
-      <c r="D28" s="62" t="s">
-        <v>281</v>
-      </c>
-      <c r="E28" s="63"/>
-      <c r="F28" s="64"/>
-      <c r="G28" s="63"/>
-      <c r="H28" s="65"/>
-      <c r="I28" s="66"/>
-      <c r="J28" s="66"/>
-      <c r="K28" s="76"/>
+      <c r="B28" s="68" t="s">
+        <v>59</v>
+      </c>
+      <c r="C28" s="69" t="s">
+        <v>60</v>
+      </c>
+      <c r="D28" s="73" t="s">
+        <v>359</v>
+      </c>
+      <c r="E28" s="74"/>
+      <c r="F28" s="53" t="s">
+        <v>18</v>
+      </c>
+      <c r="G28" s="54" t="s">
+        <v>27</v>
+      </c>
+      <c r="H28" s="71" t="str">
+        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x06f-Testing-Local-Authentication.md#testing-local-authentication-mstg-auth-8-and-mstg-storage-11"),"Testing Local Authentication (MSTG-AUTH-8 and MSTG-STORAGE-11)")</f>
+        <v>Testing Local Authentication (MSTG-AUTH-8 and MSTG-STORAGE-11)</v>
+      </c>
+      <c r="I28" s="58"/>
+      <c r="J28" s="58"/>
+      <c r="K28" s="56"/>
+      <c r="L28" s="112"/>
     </row>
     <row r="29" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B29" s="68" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C29" s="69" t="s">
-        <v>67</v>
-      </c>
-      <c r="D29" s="73" t="s">
-        <v>282</v>
-      </c>
-      <c r="E29" s="52" t="s">
-        <v>20</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="D29" s="51" t="s">
+        <v>360</v>
+      </c>
+      <c r="E29" s="74"/>
       <c r="F29" s="53" t="s">
-        <v>20</v>
-      </c>
-      <c r="G29" s="54"/>
-      <c r="H29" s="71" t="str">
-        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x06e-Testing-Cryptography.md#testing-key-management-mstg-crypto-1-and-mstg-crypto-5"),"Testing Key Management (MSTG-CRYPTO-1 and MSTG-CRYPTO-5)")</f>
-        <v>Testing Key Management (MSTG-CRYPTO-1 and MSTG-CRYPTO-5)</v>
+        <v>18</v>
+      </c>
+      <c r="G29" s="54" t="s">
+        <v>27</v>
+      </c>
+      <c r="H29" s="80" t="str">
+        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x04i-Testing-user-interaction.md#testing-user-education-mstg-storage-12"),"Testing User Education (MSTG-STORAGE-12)")</f>
+        <v>Testing User Education (MSTG-STORAGE-12)</v>
       </c>
       <c r="I29" s="58"/>
       <c r="J29" s="58"/>
       <c r="K29" s="56"/>
+      <c r="L29" s="30"/>
     </row>
     <row r="30" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B30" s="68" t="s">
-        <v>68</v>
-      </c>
-      <c r="C30" s="69" t="s">
-        <v>69</v>
-      </c>
-      <c r="D30" s="73" t="s">
-        <v>379</v>
-      </c>
-      <c r="E30" s="52" t="s">
-        <v>20</v>
-      </c>
-      <c r="F30" s="53" t="s">
-        <v>20</v>
-      </c>
-      <c r="G30" s="54"/>
-      <c r="H30" s="70" t="str">
-        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x06e-Testing-Cryptography.md#verifying-the-configuration-of-cryptographic-standard-algorithms-mstg-crypto-2-and-mstg-crypto-3"),"Verifying the Configuration of Cryptographic Standard Algorithms (MSTG-CRYPTO-2 and MSTG-CRYPTO-3)")</f>
-        <v>Verifying the Configuration of Cryptographic Standard Algorithms (MSTG-CRYPTO-2 and MSTG-CRYPTO-3)</v>
-      </c>
-      <c r="I30" s="58"/>
-      <c r="J30" s="58"/>
-      <c r="K30" s="56"/>
+      <c r="B30" s="60" t="s">
+        <v>63</v>
+      </c>
+      <c r="C30" s="61"/>
+      <c r="D30" s="62" t="s">
+        <v>275</v>
+      </c>
+      <c r="E30" s="63"/>
+      <c r="F30" s="64"/>
+      <c r="G30" s="63"/>
+      <c r="H30" s="65"/>
+      <c r="I30" s="66"/>
+      <c r="J30" s="66"/>
+      <c r="K30" s="76"/>
     </row>
     <row r="31" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B31" s="68" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C31" s="69" t="s">
-        <v>71</v>
-      </c>
-      <c r="D31" s="51" t="s">
-        <v>380</v>
+        <v>65</v>
+      </c>
+      <c r="D31" s="73" t="s">
+        <v>276</v>
       </c>
       <c r="E31" s="52" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F31" s="53" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G31" s="54"/>
-      <c r="H31" s="70" t="str">
-        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x06e-Testing-Cryptography.md#verifying-the-configuration-of-cryptographic-standard-algorithms-mstg-crypto-2-and-mstg-crypto-3"),"Verifying the Configuration of Cryptographic Standard Algorithms (MSTG-CRYPTO-2 and MSTG-CRYPTO-3)")</f>
-        <v>Verifying the Configuration of Cryptographic Standard Algorithms (MSTG-CRYPTO-2 and MSTG-CRYPTO-3)</v>
+      <c r="H31" s="71" t="str">
+        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x06e-Testing-Cryptography.md#testing-key-management-mstg-crypto-1-and-mstg-crypto-5"),"Testing Key Management (MSTG-CRYPTO-1 and MSTG-CRYPTO-5)")</f>
+        <v>Testing Key Management (MSTG-CRYPTO-1 and MSTG-CRYPTO-5)</v>
       </c>
       <c r="I31" s="58"/>
       <c r="J31" s="58"/>
@@ -8313,24 +10327,24 @@
     </row>
     <row r="32" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B32" s="68" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C32" s="69" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="D32" s="73" t="s">
-        <v>381</v>
+        <v>361</v>
       </c>
       <c r="E32" s="52" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F32" s="53" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G32" s="54"/>
-      <c r="H32" s="71" t="str">
-        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x04g-Testing-Cryptography.md#identifying-insecure-andor-deprecated-cryptographic-algorithms-mstg-crypto-4"),"Identifying Insecure and/or Deprecated Cryptographic Algorithms (MSTG-CRYPTO-4)")</f>
-        <v>Identifying Insecure and/or Deprecated Cryptographic Algorithms (MSTG-CRYPTO-4)</v>
+      <c r="H32" s="70" t="str">
+        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x06e-Testing-Cryptography.md#verifying-the-configuration-of-cryptographic-standard-algorithms-mstg-crypto-2-and-mstg-crypto-3"),"Verifying the Configuration of Cryptographic Standard Algorithms (MSTG-CRYPTO-2 and MSTG-CRYPTO-3)")</f>
+        <v>Verifying the Configuration of Cryptographic Standard Algorithms (MSTG-CRYPTO-2 and MSTG-CRYPTO-3)</v>
       </c>
       <c r="I32" s="58"/>
       <c r="J32" s="58"/>
@@ -8338,24 +10352,24 @@
     </row>
     <row r="33" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B33" s="68" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C33" s="69" t="s">
-        <v>75</v>
-      </c>
-      <c r="D33" s="73" t="s">
-        <v>382</v>
+        <v>69</v>
+      </c>
+      <c r="D33" s="51" t="s">
+        <v>362</v>
       </c>
       <c r="E33" s="52" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F33" s="53" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G33" s="54"/>
-      <c r="H33" s="71" t="str">
-        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x06e-Testing-Cryptography.md#testing-key-management-mstg-crypto-1-and-mstg-crypto-5"),"Testing Key Management (MSTG-CRYPTO-1 and MSTG-CRYPTO-5)")</f>
-        <v>Testing Key Management (MSTG-CRYPTO-1 and MSTG-CRYPTO-5)</v>
+      <c r="H33" s="70" t="str">
+        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x06e-Testing-Cryptography.md#verifying-the-configuration-of-cryptographic-standard-algorithms-mstg-crypto-2-and-mstg-crypto-3"),"Verifying the Configuration of Cryptographic Standard Algorithms (MSTG-CRYPTO-2 and MSTG-CRYPTO-3)")</f>
+        <v>Verifying the Configuration of Cryptographic Standard Algorithms (MSTG-CRYPTO-2 and MSTG-CRYPTO-3)</v>
       </c>
       <c r="I33" s="58"/>
       <c r="J33" s="58"/>
@@ -8363,118 +10377,115 @@
     </row>
     <row r="34" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B34" s="68" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C34" s="69" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="D34" s="73" t="s">
-        <v>383</v>
+        <v>363</v>
       </c>
       <c r="E34" s="52" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F34" s="53" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G34" s="54"/>
       <c r="H34" s="71" t="str">
-        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x06e-Testing-Cryptography.md#testing-random-number-generation-mstg-crypto-6")," Testing Random Number Generation (MSTG-CRYPTO-6)")</f>
-        <v xml:space="preserve"> Testing Random Number Generation (MSTG-CRYPTO-6)</v>
+        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x04g-Testing-Cryptography.md#identifying-insecure-andor-deprecated-cryptographic-algorithms-mstg-crypto-4"),"Identifying Insecure and/or Deprecated Cryptographic Algorithms (MSTG-CRYPTO-4)")</f>
+        <v>Identifying Insecure and/or Deprecated Cryptographic Algorithms (MSTG-CRYPTO-4)</v>
       </c>
       <c r="I34" s="58"/>
       <c r="J34" s="58"/>
       <c r="K34" s="56"/>
     </row>
     <row r="35" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B35" s="60" t="s">
-        <v>78</v>
-      </c>
-      <c r="C35" s="61"/>
-      <c r="D35" s="62" t="s">
-        <v>288</v>
-      </c>
-      <c r="E35" s="63"/>
-      <c r="F35" s="64"/>
-      <c r="G35" s="63"/>
-      <c r="H35" s="65"/>
-      <c r="I35" s="66"/>
-      <c r="J35" s="66"/>
-      <c r="K35" s="76"/>
+      <c r="B35" s="68" t="s">
+        <v>72</v>
+      </c>
+      <c r="C35" s="69" t="s">
+        <v>73</v>
+      </c>
+      <c r="D35" s="73" t="s">
+        <v>364</v>
+      </c>
+      <c r="E35" s="52" t="s">
+        <v>18</v>
+      </c>
+      <c r="F35" s="53" t="s">
+        <v>18</v>
+      </c>
+      <c r="G35" s="54"/>
+      <c r="H35" s="71" t="str">
+        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x06e-Testing-Cryptography.md#testing-key-management-mstg-crypto-1-and-mstg-crypto-5"),"Testing Key Management (MSTG-CRYPTO-1 and MSTG-CRYPTO-5)")</f>
+        <v>Testing Key Management (MSTG-CRYPTO-1 and MSTG-CRYPTO-5)</v>
+      </c>
+      <c r="I35" s="58"/>
+      <c r="J35" s="58"/>
+      <c r="K35" s="56"/>
     </row>
     <row r="36" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B36" s="68" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C36" s="69" t="s">
-        <v>80</v>
-      </c>
-      <c r="D36" s="77" t="s">
-        <v>384</v>
+        <v>75</v>
+      </c>
+      <c r="D36" s="73" t="s">
+        <v>365</v>
       </c>
       <c r="E36" s="52" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F36" s="53" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G36" s="54"/>
       <c r="H36" s="71" t="str">
+        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x06e-Testing-Cryptography.md#testing-random-number-generation-mstg-crypto-6")," Testing Random Number Generation (MSTG-CRYPTO-6)")</f>
+        <v xml:space="preserve"> Testing Random Number Generation (MSTG-CRYPTO-6)</v>
+      </c>
+      <c r="I36" s="58"/>
+      <c r="J36" s="58"/>
+      <c r="K36" s="56"/>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B37" s="60" t="s">
+        <v>76</v>
+      </c>
+      <c r="C37" s="61"/>
+      <c r="D37" s="62" t="s">
+        <v>282</v>
+      </c>
+      <c r="E37" s="63"/>
+      <c r="F37" s="64"/>
+      <c r="G37" s="63"/>
+      <c r="H37" s="65"/>
+      <c r="I37" s="66"/>
+      <c r="J37" s="66"/>
+      <c r="K37" s="76"/>
+    </row>
+    <row r="38" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B38" s="68" t="s">
+        <v>77</v>
+      </c>
+      <c r="C38" s="69" t="s">
+        <v>78</v>
+      </c>
+      <c r="D38" s="77" t="s">
+        <v>366</v>
+      </c>
+      <c r="E38" s="52" t="s">
+        <v>18</v>
+      </c>
+      <c r="F38" s="53" t="s">
+        <v>18</v>
+      </c>
+      <c r="G38" s="54"/>
+      <c r="H38" s="71" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x04e-Testing-Authentication-and-Session-Management.md#verifying-that-appropriate-authentication-is-in-place-mstg-arch-2-and-mstg-auth-1"),"Verifying that Appropriate Authentication is in Place (MSTG-ARCH-2 and MSTG-AUTH-1)")</f>
         <v>Verifying that Appropriate Authentication is in Place (MSTG-ARCH-2 and MSTG-AUTH-1)</v>
-      </c>
-      <c r="I36" s="71" t="str">
-        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x04e-Testing-Authentication-and-Session-Management.md#testing-oauth-20-flows-mstg-auth-1-and-mstg-auth-3"),"Testing OAuth 2.0 Flows (MSTG-AUTH-1 and MSTG-AUTH-3)")</f>
-        <v>Testing OAuth 2.0 Flows (MSTG-AUTH-1 and MSTG-AUTH-3)</v>
-      </c>
-      <c r="J36" s="113"/>
-      <c r="K36" s="103"/>
-    </row>
-    <row r="37" spans="2:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="B37" s="68" t="s">
-        <v>81</v>
-      </c>
-      <c r="C37" s="69" t="s">
-        <v>82</v>
-      </c>
-      <c r="D37" s="77" t="s">
-        <v>385</v>
-      </c>
-      <c r="E37" s="52" t="s">
-        <v>20</v>
-      </c>
-      <c r="F37" s="53" t="s">
-        <v>20</v>
-      </c>
-      <c r="G37" s="54"/>
-      <c r="H37" s="71" t="str">
-        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x04e-Testing-Authentication-and-Session-Management.md#testing-stateful-session-management-mstg-auth-2"),"Testing Stateful Session Management (MSTG-AUTH-2)")</f>
-        <v>Testing Stateful Session Management (MSTG-AUTH-2)</v>
-      </c>
-      <c r="I37" s="58"/>
-      <c r="J37" s="58"/>
-      <c r="K37" s="56"/>
-    </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B38" s="68" t="s">
-        <v>83</v>
-      </c>
-      <c r="C38" s="69" t="s">
-        <v>84</v>
-      </c>
-      <c r="D38" s="77" t="s">
-        <v>386</v>
-      </c>
-      <c r="E38" s="52" t="s">
-        <v>20</v>
-      </c>
-      <c r="F38" s="53" t="s">
-        <v>20</v>
-      </c>
-      <c r="G38" s="54"/>
-      <c r="H38" s="71" t="str">
-        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x04e-Testing-Authentication-and-Session-Management.md#testing-stateless-token-based-authentication-mstg-auth-3"),"Testing Stateless (Token-Based) Authentication (MSTG-AUTH-3)")</f>
-        <v>Testing Stateless (Token-Based) Authentication (MSTG-AUTH-3)</v>
       </c>
       <c r="I38" s="71" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x04e-Testing-Authentication-and-Session-Management.md#testing-oauth-20-flows-mstg-auth-1-and-mstg-auth-3"),"Testing OAuth 2.0 Flows (MSTG-AUTH-1 and MSTG-AUTH-3)")</f>
@@ -8483,487 +10494,490 @@
       <c r="J38" s="113"/>
       <c r="K38" s="103"/>
     </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:13" ht="30" x14ac:dyDescent="0.25">
       <c r="B39" s="68" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="C39" s="69" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="D39" s="77" t="s">
-        <v>387</v>
-      </c>
-      <c r="E39" s="52"/>
-      <c r="F39" s="53"/>
+        <v>367</v>
+      </c>
+      <c r="E39" s="52" t="s">
+        <v>18</v>
+      </c>
+      <c r="F39" s="53" t="s">
+        <v>18</v>
+      </c>
       <c r="G39" s="54"/>
       <c r="H39" s="71" t="str">
-        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x04e-Testing-Authentication-and-Session-Management.md#testing-user-logout-mstg-auth-4"),"Testing User Logout (MSTG-AUTH-4)")</f>
-        <v>Testing User Logout (MSTG-AUTH-4)</v>
+        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x04e-Testing-Authentication-and-Session-Management.md#testing-stateful-session-management-mstg-auth-2"),"Testing Stateful Session Management (MSTG-AUTH-2)")</f>
+        <v>Testing Stateful Session Management (MSTG-AUTH-2)</v>
       </c>
       <c r="I39" s="58"/>
       <c r="J39" s="58"/>
       <c r="K39" s="56"/>
-      <c r="M39" s="78"/>
     </row>
     <row r="40" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B40" s="68" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="C40" s="69" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="D40" s="77" t="s">
-        <v>388</v>
+        <v>368</v>
       </c>
       <c r="E40" s="52" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F40" s="53" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G40" s="54"/>
       <c r="H40" s="71" t="str">
+        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x04e-Testing-Authentication-and-Session-Management.md#testing-stateless-token-based-authentication-mstg-auth-3"),"Testing Stateless (Token-Based) Authentication (MSTG-AUTH-3)")</f>
+        <v>Testing Stateless (Token-Based) Authentication (MSTG-AUTH-3)</v>
+      </c>
+      <c r="I40" s="71" t="str">
+        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x04e-Testing-Authentication-and-Session-Management.md#testing-oauth-20-flows-mstg-auth-1-and-mstg-auth-3"),"Testing OAuth 2.0 Flows (MSTG-AUTH-1 and MSTG-AUTH-3)")</f>
+        <v>Testing OAuth 2.0 Flows (MSTG-AUTH-1 and MSTG-AUTH-3)</v>
+      </c>
+      <c r="J40" s="113"/>
+      <c r="K40" s="103"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B41" s="68" t="s">
+        <v>83</v>
+      </c>
+      <c r="C41" s="69" t="s">
+        <v>84</v>
+      </c>
+      <c r="D41" s="77" t="s">
+        <v>369</v>
+      </c>
+      <c r="E41" s="52"/>
+      <c r="F41" s="53"/>
+      <c r="G41" s="54"/>
+      <c r="H41" s="71" t="str">
+        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x04e-Testing-Authentication-and-Session-Management.md#testing-user-logout-mstg-auth-4"),"Testing User Logout (MSTG-AUTH-4)")</f>
+        <v>Testing User Logout (MSTG-AUTH-4)</v>
+      </c>
+      <c r="I41" s="58"/>
+      <c r="J41" s="58"/>
+      <c r="K41" s="56"/>
+      <c r="M41" s="78"/>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B42" s="68" t="s">
+        <v>85</v>
+      </c>
+      <c r="C42" s="69" t="s">
+        <v>86</v>
+      </c>
+      <c r="D42" s="77" t="s">
+        <v>370</v>
+      </c>
+      <c r="E42" s="52" t="s">
+        <v>18</v>
+      </c>
+      <c r="F42" s="53" t="s">
+        <v>18</v>
+      </c>
+      <c r="G42" s="54"/>
+      <c r="H42" s="71" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x04e-Testing-Authentication-and-Session-Management.md#testing-best-practices-for-passwords-mstg-auth-5-and-mstg-auth-6"),"Testing Best Practices for Passwords (MSTG-AUTH-5 and MSTG-AUTH-6)")</f>
         <v>Testing Best Practices for Passwords (MSTG-AUTH-5 and MSTG-AUTH-6)</v>
       </c>
-      <c r="I40" s="58"/>
-      <c r="J40" s="58"/>
-      <c r="K40" s="103"/>
-      <c r="M40" s="78"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B41" s="68" t="s">
-        <v>89</v>
-      </c>
-      <c r="C41" s="69" t="s">
-        <v>90</v>
-      </c>
-      <c r="D41" s="77" t="s">
-        <v>389</v>
-      </c>
-      <c r="E41" s="52" t="s">
-        <v>20</v>
-      </c>
-      <c r="F41" s="53" t="s">
-        <v>20</v>
-      </c>
-      <c r="G41" s="54"/>
-      <c r="H41" s="71" t="str">
+      <c r="I42" s="58"/>
+      <c r="J42" s="58"/>
+      <c r="K42" s="103"/>
+      <c r="M42" s="78"/>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B43" s="68" t="s">
+        <v>87</v>
+      </c>
+      <c r="C43" s="69" t="s">
+        <v>88</v>
+      </c>
+      <c r="D43" s="77" t="s">
+        <v>371</v>
+      </c>
+      <c r="E43" s="52" t="s">
+        <v>18</v>
+      </c>
+      <c r="F43" s="53" t="s">
+        <v>18</v>
+      </c>
+      <c r="G43" s="54"/>
+      <c r="H43" s="71" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x04e-Testing-Authentication-and-Session-Management.md#testing-best-practices-for-passwords-mstg-auth-5-and-mstg-auth-6"),"Testing Best Practices for Passwords (MSTG-AUTH-5 and MSTG-AUTH-6)")</f>
         <v>Testing Best Practices for Passwords (MSTG-AUTH-5 and MSTG-AUTH-6)</v>
       </c>
-      <c r="I41" s="71" t="str">
+      <c r="I43" s="71" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x04e-Testing-Authentication-and-Session-Management.md#dynamic-testing-mstg-auth-6"),"Dynamic Testing (MSTG-AUTH-6)")</f>
         <v>Dynamic Testing (MSTG-AUTH-6)</v>
       </c>
-      <c r="J41" s="113"/>
-      <c r="K41" s="103"/>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B42" s="68" t="s">
-        <v>91</v>
-      </c>
-      <c r="C42" s="69" t="s">
-        <v>92</v>
-      </c>
-      <c r="D42" s="77" t="s">
-        <v>390</v>
-      </c>
-      <c r="E42" s="52" t="s">
-        <v>20</v>
-      </c>
-      <c r="F42" s="53" t="s">
-        <v>20</v>
-      </c>
-      <c r="G42" s="54"/>
-      <c r="H42" s="71" t="str">
+      <c r="J43" s="113"/>
+      <c r="K43" s="103"/>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B44" s="68" t="s">
+        <v>89</v>
+      </c>
+      <c r="C44" s="69" t="s">
+        <v>90</v>
+      </c>
+      <c r="D44" s="77" t="s">
+        <v>372</v>
+      </c>
+      <c r="E44" s="52" t="s">
+        <v>18</v>
+      </c>
+      <c r="F44" s="53" t="s">
+        <v>18</v>
+      </c>
+      <c r="G44" s="54"/>
+      <c r="H44" s="71" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x04e-Testing-Authentication-and-Session-Management.md#testing-session-timeout-mstg-auth-7"),"Testing Session Timeout (MSTG-AUTH-7)")</f>
         <v>Testing Session Timeout (MSTG-AUTH-7)</v>
       </c>
-      <c r="I42" s="78"/>
-      <c r="J42" s="114"/>
-      <c r="K42" s="79"/>
-    </row>
-    <row r="43" spans="2:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="B43" s="68" t="s">
-        <v>93</v>
-      </c>
-      <c r="C43" s="69" t="s">
-        <v>94</v>
-      </c>
-      <c r="D43" s="77" t="s">
-        <v>391</v>
-      </c>
-      <c r="E43" s="74"/>
-      <c r="F43" s="53" t="s">
-        <v>20</v>
-      </c>
-      <c r="G43" s="54" t="s">
-        <v>29</v>
-      </c>
-      <c r="H43" s="71" t="str">
+      <c r="I44" s="78"/>
+      <c r="J44" s="114"/>
+      <c r="K44" s="79"/>
+    </row>
+    <row r="45" spans="2:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="B45" s="68" t="s">
+        <v>91</v>
+      </c>
+      <c r="C45" s="69" t="s">
+        <v>92</v>
+      </c>
+      <c r="D45" s="77" t="s">
+        <v>373</v>
+      </c>
+      <c r="E45" s="74"/>
+      <c r="F45" s="53" t="s">
+        <v>18</v>
+      </c>
+      <c r="G45" s="54" t="s">
+        <v>27</v>
+      </c>
+      <c r="H45" s="71" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x06f-Testing-Local-Authentication.md#testing-local-authentication-mstg-auth-8-and-mstg-storage-11"),"Testing Local Authentication (MSTG-AUTH-8 and MSTG-STORAGE-11)")</f>
         <v>Testing Local Authentication (MSTG-AUTH-8 and MSTG-STORAGE-11)</v>
       </c>
-      <c r="I43" s="71"/>
-      <c r="J43" s="113"/>
-      <c r="K43" s="103"/>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B44" s="68" t="s">
-        <v>95</v>
-      </c>
-      <c r="C44" s="69" t="s">
-        <v>96</v>
-      </c>
-      <c r="D44" s="77" t="s">
-        <v>392</v>
-      </c>
-      <c r="E44" s="74"/>
-      <c r="F44" s="53" t="s">
-        <v>20</v>
-      </c>
-      <c r="G44" s="54" t="s">
-        <v>29</v>
-      </c>
-      <c r="H44" s="70" t="str">
+      <c r="I45" s="71"/>
+      <c r="J45" s="113"/>
+      <c r="K45" s="103"/>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B46" s="68" t="s">
+        <v>93</v>
+      </c>
+      <c r="C46" s="69" t="s">
+        <v>94</v>
+      </c>
+      <c r="D46" s="77" t="s">
+        <v>374</v>
+      </c>
+      <c r="E46" s="74"/>
+      <c r="F46" s="53" t="s">
+        <v>18</v>
+      </c>
+      <c r="G46" s="54" t="s">
+        <v>27</v>
+      </c>
+      <c r="H46" s="70" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x04e-Testing-Authentication-and-Session-Management.md#testing-two-factor-authentication-and-step-up-authentication-mstg-auth-9-and-mstg-auth-10"),"Testing Two-Factor Authentication and Step-up Authentication (MSTG-AUTH-9 and MSTG-AUTH-10)")</f>
         <v>Testing Two-Factor Authentication and Step-up Authentication (MSTG-AUTH-9 and MSTG-AUTH-10)</v>
-      </c>
-      <c r="I44" s="58"/>
-      <c r="J44" s="58"/>
-      <c r="K44" s="56"/>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B45" s="68" t="s">
-        <v>97</v>
-      </c>
-      <c r="C45" s="69" t="s">
-        <v>98</v>
-      </c>
-      <c r="D45" s="77" t="s">
-        <v>393</v>
-      </c>
-      <c r="E45" s="74"/>
-      <c r="F45" s="53" t="s">
-        <v>20</v>
-      </c>
-      <c r="G45" s="54" t="s">
-        <v>29</v>
-      </c>
-      <c r="H45" s="70" t="str">
-        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x04e-Testing-Authentication-and-Session-Management.md#testing-two-factor-authentication-and-step-up-authentication-mstg-auth-9-and-mstg-auth-10"),"Testing Two-Factor Authentication and Step-up Authentication (MSTG-AUTH-9 and MSTG-AUTH-10)")</f>
-        <v>Testing Two-Factor Authentication and Step-up Authentication (MSTG-AUTH-9 and MSTG-AUTH-10)</v>
-      </c>
-      <c r="I45" s="58"/>
-      <c r="J45" s="58"/>
-      <c r="K45" s="56"/>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B46" s="68" t="s">
-        <v>99</v>
-      </c>
-      <c r="C46" s="69" t="s">
-        <v>100</v>
-      </c>
-      <c r="D46" s="77" t="s">
-        <v>394</v>
-      </c>
-      <c r="E46" s="74"/>
-      <c r="F46" s="53" t="s">
-        <v>20</v>
-      </c>
-      <c r="G46" s="54" t="s">
-        <v>29</v>
-      </c>
-      <c r="H46" s="80" t="str">
-        <f>HYPERLINK(CONCATENATE( BASE_URL, "0x04e-Testing-Authentication-and-Session-Management.md#testing-login-activity-and-device-blocking-mstg-auth-11"), "Testing Login Activity and Device Blocking (MSTG-AUTH-11)")</f>
-        <v>Testing Login Activity and Device Blocking (MSTG-AUTH-11)</v>
       </c>
       <c r="I46" s="58"/>
       <c r="J46" s="58"/>
       <c r="K46" s="56"/>
     </row>
     <row r="47" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B47" s="60" t="s">
-        <v>101</v>
-      </c>
-      <c r="C47" s="61"/>
-      <c r="D47" s="62" t="s">
-        <v>356</v>
-      </c>
-      <c r="E47" s="63"/>
-      <c r="F47" s="64"/>
-      <c r="G47" s="63"/>
-      <c r="H47" s="65"/>
-      <c r="I47" s="66"/>
-      <c r="J47" s="66"/>
-      <c r="K47" s="76"/>
+      <c r="B47" s="68" t="s">
+        <v>95</v>
+      </c>
+      <c r="C47" s="69" t="s">
+        <v>96</v>
+      </c>
+      <c r="D47" s="77" t="s">
+        <v>375</v>
+      </c>
+      <c r="E47" s="74"/>
+      <c r="F47" s="53" t="s">
+        <v>18</v>
+      </c>
+      <c r="G47" s="54" t="s">
+        <v>27</v>
+      </c>
+      <c r="H47" s="70" t="str">
+        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x04e-Testing-Authentication-and-Session-Management.md#testing-two-factor-authentication-and-step-up-authentication-mstg-auth-9-and-mstg-auth-10"),"Testing Two-Factor Authentication and Step-up Authentication (MSTG-AUTH-9 and MSTG-AUTH-10)")</f>
+        <v>Testing Two-Factor Authentication and Step-up Authentication (MSTG-AUTH-9 and MSTG-AUTH-10)</v>
+      </c>
+      <c r="I47" s="58"/>
+      <c r="J47" s="58"/>
+      <c r="K47" s="56"/>
     </row>
     <row r="48" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B48" s="68" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="C48" s="69" t="s">
-        <v>103</v>
-      </c>
-      <c r="D48" s="73" t="s">
-        <v>395</v>
-      </c>
-      <c r="E48" s="52" t="s">
-        <v>20</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="D48" s="77" t="s">
+        <v>376</v>
+      </c>
+      <c r="E48" s="74"/>
       <c r="F48" s="53" t="s">
-        <v>20</v>
-      </c>
-      <c r="G48" s="54"/>
-      <c r="H48" s="70" t="str">
+        <v>18</v>
+      </c>
+      <c r="G48" s="54" t="s">
+        <v>27</v>
+      </c>
+      <c r="H48" s="80" t="str">
+        <f>HYPERLINK(CONCATENATE( BASE_URL, "0x04e-Testing-Authentication-and-Session-Management.md#testing-login-activity-and-device-blocking-mstg-auth-11"), "Testing Login Activity and Device Blocking (MSTG-AUTH-11)")</f>
+        <v>Testing Login Activity and Device Blocking (MSTG-AUTH-11)</v>
+      </c>
+      <c r="I48" s="58"/>
+      <c r="J48" s="58"/>
+      <c r="K48" s="56"/>
+    </row>
+    <row r="49" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B49" s="60" t="s">
+        <v>99</v>
+      </c>
+      <c r="C49" s="61"/>
+      <c r="D49" s="62" t="s">
+        <v>348</v>
+      </c>
+      <c r="E49" s="63"/>
+      <c r="F49" s="64"/>
+      <c r="G49" s="63"/>
+      <c r="H49" s="65"/>
+      <c r="I49" s="66"/>
+      <c r="J49" s="66"/>
+      <c r="K49" s="76"/>
+    </row>
+    <row r="50" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B50" s="68" t="s">
+        <v>100</v>
+      </c>
+      <c r="C50" s="69" t="s">
+        <v>101</v>
+      </c>
+      <c r="D50" s="73" t="s">
+        <v>377</v>
+      </c>
+      <c r="E50" s="52" t="s">
+        <v>18</v>
+      </c>
+      <c r="F50" s="53" t="s">
+        <v>18</v>
+      </c>
+      <c r="G50" s="54"/>
+      <c r="H50" s="70" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x04f-Testing-Network-Communication.md#verifying-data-encryption-on-the-network-mstg-network-1-and-mstg-network-2"),"Verifying Data Encryption on the Network (MSTG-NETWORK-1 and MSTG-NETWORK-2)")</f>
         <v>Verifying Data Encryption on the Network (MSTG-NETWORK-1 and MSTG-NETWORK-2)</v>
       </c>
-      <c r="I48" s="57"/>
-      <c r="J48" s="57"/>
-      <c r="K48" s="81"/>
-    </row>
-    <row r="49" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B49" s="68" t="s">
-        <v>104</v>
-      </c>
-      <c r="C49" s="69" t="s">
-        <v>105</v>
-      </c>
-      <c r="D49" s="77" t="s">
-        <v>396</v>
-      </c>
-      <c r="E49" s="52" t="s">
-        <v>20</v>
-      </c>
-      <c r="F49" s="53" t="s">
-        <v>20</v>
-      </c>
-      <c r="G49" s="54"/>
-      <c r="H49" s="70" t="str">
+      <c r="I50" s="57"/>
+      <c r="J50" s="57"/>
+      <c r="K50" s="81"/>
+    </row>
+    <row r="51" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B51" s="68" t="s">
+        <v>102</v>
+      </c>
+      <c r="C51" s="69" t="s">
+        <v>103</v>
+      </c>
+      <c r="D51" s="77" t="s">
+        <v>378</v>
+      </c>
+      <c r="E51" s="52" t="s">
+        <v>18</v>
+      </c>
+      <c r="F51" s="53" t="s">
+        <v>18</v>
+      </c>
+      <c r="G51" s="54"/>
+      <c r="H51" s="70" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x04f-Testing-Network-Communication.md#verifying-data-encryption-on-the-network-mstg-network-1-and-mstg-network-2"),"Verifying Data Encryption on the Network (MSTG-NETWORK-1 and MSTG-NETWORK-2)")</f>
         <v>Verifying Data Encryption on the Network (MSTG-NETWORK-1 and MSTG-NETWORK-2)</v>
       </c>
-      <c r="I49" s="57" t="str">
+      <c r="I51" s="57" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x06g-Testing-Network-Communication.md#app-transport-security-mstg-network-2"),"App Transport Security (MSTG-NETWORK-2)")</f>
         <v>App Transport Security (MSTG-NETWORK-2)</v>
       </c>
-      <c r="J49" s="57"/>
-      <c r="K49" s="81"/>
-    </row>
-    <row r="50" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B50" s="68" t="s">
-        <v>106</v>
-      </c>
-      <c r="C50" s="69" t="s">
-        <v>107</v>
-      </c>
-      <c r="D50" s="77" t="s">
-        <v>397</v>
-      </c>
-      <c r="E50" s="52" t="s">
-        <v>20</v>
-      </c>
-      <c r="F50" s="53" t="s">
-        <v>20</v>
-      </c>
-      <c r="G50" s="54"/>
-      <c r="H50" s="71" t="str">
+      <c r="J51" s="57"/>
+      <c r="K51" s="81"/>
+    </row>
+    <row r="52" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B52" s="68" t="s">
+        <v>104</v>
+      </c>
+      <c r="C52" s="69" t="s">
+        <v>105</v>
+      </c>
+      <c r="D52" s="77" t="s">
+        <v>379</v>
+      </c>
+      <c r="E52" s="52" t="s">
+        <v>18</v>
+      </c>
+      <c r="F52" s="53" t="s">
+        <v>18</v>
+      </c>
+      <c r="G52" s="54"/>
+      <c r="H52" s="71" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x06g-Testing-Network-Communication.md#testing-custom-certificate-stores-and-certificate-pinning-mstg-network-3-and-mstg-network-4"),"Testing Custom Certificate Stores and Certificate Pinning (MSTG-NETWORK-3 and MSTG-NETWORK-4)")</f>
         <v>Testing Custom Certificate Stores and Certificate Pinning (MSTG-NETWORK-3 and MSTG-NETWORK-4)</v>
       </c>
-      <c r="I50" s="58"/>
-      <c r="J50" s="58"/>
-      <c r="K50" s="81"/>
-    </row>
-    <row r="51" spans="2:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="B51" s="68" t="s">
-        <v>108</v>
-      </c>
-      <c r="C51" s="69" t="s">
-        <v>109</v>
-      </c>
-      <c r="D51" s="77" t="s">
-        <v>398</v>
-      </c>
-      <c r="E51" s="74"/>
-      <c r="F51" s="53" t="s">
-        <v>20</v>
-      </c>
-      <c r="G51" s="54" t="s">
-        <v>29</v>
-      </c>
-      <c r="H51" s="71" t="str">
+      <c r="I52" s="58"/>
+      <c r="J52" s="58"/>
+      <c r="K52" s="81"/>
+    </row>
+    <row r="53" spans="2:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="B53" s="68" t="s">
+        <v>106</v>
+      </c>
+      <c r="C53" s="69" t="s">
+        <v>107</v>
+      </c>
+      <c r="D53" s="77" t="s">
+        <v>380</v>
+      </c>
+      <c r="E53" s="74"/>
+      <c r="F53" s="53" t="s">
+        <v>18</v>
+      </c>
+      <c r="G53" s="54" t="s">
+        <v>27</v>
+      </c>
+      <c r="H53" s="71" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x06g-Testing-Network-Communication.md#testing-custom-certificate-stores-and-certificate-pinning-mstg-network-3-and-mstg-network-4"),"Testing Custom Certificate Stores and Certificate Pinning (MSTG-NETWORK-3 and MSTG-NETWORK-4)")</f>
         <v>Testing Custom Certificate Stores and Certificate Pinning (MSTG-NETWORK-3 and MSTG-NETWORK-4)</v>
-      </c>
-      <c r="I51" s="58"/>
-      <c r="J51" s="58"/>
-      <c r="K51" s="56"/>
-    </row>
-    <row r="52" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B52" s="68" t="s">
-        <v>110</v>
-      </c>
-      <c r="C52" s="69" t="s">
-        <v>111</v>
-      </c>
-      <c r="D52" s="77" t="s">
-        <v>399</v>
-      </c>
-      <c r="E52" s="74"/>
-      <c r="F52" s="53" t="s">
-        <v>20</v>
-      </c>
-      <c r="G52" s="54" t="s">
-        <v>29</v>
-      </c>
-      <c r="H52" s="70" t="str">
-        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x04f-Testing-Network-Communication.md#making-sure-that-critical-operations-use-secure-communication-channels-mstg-network-5"),"Making Sure that Critical Operations Use Secure Communication Channels (MSTG-NETWORK-5)")</f>
-        <v>Making Sure that Critical Operations Use Secure Communication Channels (MSTG-NETWORK-5)</v>
-      </c>
-      <c r="I52" s="58"/>
-      <c r="J52" s="58"/>
-      <c r="K52" s="56"/>
-    </row>
-    <row r="53" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B53" s="68" t="s">
-        <v>112</v>
-      </c>
-      <c r="C53" s="69" t="s">
-        <v>113</v>
-      </c>
-      <c r="D53" s="77" t="s">
-        <v>400</v>
-      </c>
-      <c r="E53" s="74"/>
-      <c r="F53" s="53" t="s">
-        <v>20</v>
-      </c>
-      <c r="G53" s="54" t="s">
-        <v>29</v>
-      </c>
-      <c r="H53" s="71" t="str">
-        <f>HYPERLINK(CONCATENATE( BASE_URL, "0x06i-Testing-Code-Quality-and-Build-Settings.md#checking-for-weaknesses-in-third-party-libraries-mstg-code-5"), "Checking for Weaknesses in Third Party Libraries (MSTG-CODE-5)")</f>
-        <v>Checking for Weaknesses in Third Party Libraries (MSTG-CODE-5)</v>
       </c>
       <c r="I53" s="58"/>
       <c r="J53" s="58"/>
       <c r="K53" s="56"/>
     </row>
     <row r="54" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B54" s="60" t="s">
-        <v>114</v>
-      </c>
-      <c r="C54" s="61"/>
-      <c r="D54" s="62" t="s">
-        <v>357</v>
-      </c>
-      <c r="E54" s="63"/>
-      <c r="F54" s="64"/>
-      <c r="G54" s="63"/>
-      <c r="H54" s="65"/>
-      <c r="I54" s="66"/>
-      <c r="J54" s="66"/>
-      <c r="K54" s="76"/>
+      <c r="B54" s="68" t="s">
+        <v>108</v>
+      </c>
+      <c r="C54" s="69" t="s">
+        <v>109</v>
+      </c>
+      <c r="D54" s="77" t="s">
+        <v>381</v>
+      </c>
+      <c r="E54" s="74"/>
+      <c r="F54" s="53" t="s">
+        <v>18</v>
+      </c>
+      <c r="G54" s="54" t="s">
+        <v>27</v>
+      </c>
+      <c r="H54" s="70" t="str">
+        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x04f-Testing-Network-Communication.md#making-sure-that-critical-operations-use-secure-communication-channels-mstg-network-5"),"Making Sure that Critical Operations Use Secure Communication Channels (MSTG-NETWORK-5)")</f>
+        <v>Making Sure that Critical Operations Use Secure Communication Channels (MSTG-NETWORK-5)</v>
+      </c>
+      <c r="I54" s="58"/>
+      <c r="J54" s="58"/>
+      <c r="K54" s="56"/>
     </row>
     <row r="55" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B55" s="68" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="C55" s="69" t="s">
-        <v>116</v>
-      </c>
-      <c r="D55" s="73" t="s">
-        <v>316</v>
-      </c>
-      <c r="E55" s="52" t="s">
-        <v>20</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="D55" s="77" t="s">
+        <v>382</v>
+      </c>
+      <c r="E55" s="74"/>
       <c r="F55" s="53" t="s">
-        <v>20</v>
-      </c>
-      <c r="G55" s="54"/>
+        <v>18</v>
+      </c>
+      <c r="G55" s="54" t="s">
+        <v>27</v>
+      </c>
       <c r="H55" s="71" t="str">
-        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x06h-Testing-Platform-Interaction.md#testing-app-permissions-mstg-platform-1"),"Testing App Permissions (MSTG-PLATFORM-1)")</f>
-        <v>Testing App Permissions (MSTG-PLATFORM-1)</v>
+        <f>HYPERLINK(CONCATENATE( BASE_URL, "0x06i-Testing-Code-Quality-and-Build-Settings.md#checking-for-weaknesses-in-third-party-libraries-mstg-code-5"), "Checking for Weaknesses in Third Party Libraries (MSTG-CODE-5)")</f>
+        <v>Checking for Weaknesses in Third Party Libraries (MSTG-CODE-5)</v>
       </c>
       <c r="I55" s="58"/>
       <c r="J55" s="58"/>
       <c r="K55" s="56"/>
     </row>
-    <row r="56" spans="2:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="B56" s="68" t="s">
-        <v>117</v>
-      </c>
-      <c r="C56" s="69" t="s">
-        <v>118</v>
-      </c>
-      <c r="D56" s="77" t="s">
-        <v>317</v>
-      </c>
-      <c r="E56" s="52" t="s">
-        <v>20</v>
-      </c>
-      <c r="F56" s="53" t="s">
-        <v>20</v>
-      </c>
-      <c r="G56" s="54"/>
-      <c r="H56" s="71" t="str">
-        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x04h-Testing-Code-Quality.md#injection-flaws-mstg-arch-2-and-mstg-platform-2"),"Injection Flaws (MSTG-ARCH-2 and MSTG-PLATFORM-2)")</f>
-        <v>Injection Flaws (MSTG-ARCH-2 and MSTG-PLATFORM-2)</v>
-      </c>
-      <c r="I56" s="58"/>
-      <c r="J56" s="58"/>
-      <c r="K56" s="56"/>
+    <row r="56" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B56" s="60" t="s">
+        <v>112</v>
+      </c>
+      <c r="C56" s="61"/>
+      <c r="D56" s="62" t="s">
+        <v>349</v>
+      </c>
+      <c r="E56" s="63"/>
+      <c r="F56" s="64"/>
+      <c r="G56" s="63"/>
+      <c r="H56" s="65"/>
+      <c r="I56" s="66"/>
+      <c r="J56" s="66"/>
+      <c r="K56" s="76"/>
     </row>
     <row r="57" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B57" s="68" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="C57" s="69" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="D57" s="73" t="s">
-        <v>318</v>
+        <v>308</v>
       </c>
       <c r="E57" s="52" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F57" s="53" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G57" s="54"/>
       <c r="H57" s="71" t="str">
-        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x06h-Testing-Platform-Interaction.md#testing-custom-url-schemes-mstg-platform-3"),"Testing Custom URL Schemes (MSTG-PLATFORM-3)")</f>
-        <v>Testing Custom URL Schemes (MSTG-PLATFORM-3)</v>
+        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x06h-Testing-Platform-Interaction.md#testing-app-permissions-mstg-platform-1"),"Testing App Permissions (MSTG-PLATFORM-1)")</f>
+        <v>Testing App Permissions (MSTG-PLATFORM-1)</v>
       </c>
       <c r="I57" s="58"/>
       <c r="J57" s="58"/>
       <c r="K57" s="56"/>
     </row>
-    <row r="58" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B58" s="68" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="C58" s="69" t="s">
-        <v>122</v>
-      </c>
-      <c r="D58" s="73" t="s">
-        <v>319</v>
+        <v>116</v>
+      </c>
+      <c r="D58" s="77" t="s">
+        <v>309</v>
       </c>
       <c r="E58" s="52" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F58" s="53" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G58" s="54"/>
-      <c r="H58" s="55" t="str">
-        <f>HYPERLINK(CONCATENATE( BASE_URL, "0x06h-Testing-Platform-Interaction.md#testing-for-sensitive-functionality-exposure-through-ipc-mstg-platform-4"), "Testing for Sensitive Functionality Exposure Through IPC (MSTG-PLATFORM-4)")</f>
-        <v>Testing for Sensitive Functionality Exposure Through IPC (MSTG-PLATFORM-4)</v>
+      <c r="H58" s="71" t="str">
+        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x04h-Testing-Code-Quality.md#injection-flaws-mstg-arch-2-and-mstg-platform-2"),"Injection Flaws (MSTG-ARCH-2 and MSTG-PLATFORM-2)")</f>
+        <v>Injection Flaws (MSTG-ARCH-2 and MSTG-PLATFORM-2)</v>
       </c>
       <c r="I58" s="58"/>
       <c r="J58" s="58"/>
@@ -8971,49 +10985,49 @@
     </row>
     <row r="59" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B59" s="68" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="C59" s="69" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="D59" s="73" t="s">
-        <v>320</v>
+        <v>310</v>
       </c>
       <c r="E59" s="52" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F59" s="53" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G59" s="54"/>
       <c r="H59" s="71" t="str">
-        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x06h-Testing-Platform-Interaction.md#testing-ios-webviews-mstg-platform-5"),"Testing iOS WebViews (MSTG-PLATFORM-5)")</f>
-        <v>Testing iOS WebViews (MSTG-PLATFORM-5)</v>
+        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x06h-Testing-Platform-Interaction.md#testing-custom-url-schemes-mstg-platform-3"),"Testing Custom URL Schemes (MSTG-PLATFORM-3)")</f>
+        <v>Testing Custom URL Schemes (MSTG-PLATFORM-3)</v>
       </c>
       <c r="I59" s="58"/>
       <c r="J59" s="58"/>
       <c r="K59" s="56"/>
     </row>
-    <row r="60" spans="2:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B60" s="68" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="C60" s="69" t="s">
-        <v>126</v>
-      </c>
-      <c r="D60" s="77" t="s">
-        <v>321</v>
+        <v>120</v>
+      </c>
+      <c r="D60" s="73" t="s">
+        <v>311</v>
       </c>
       <c r="E60" s="52" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F60" s="53" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G60" s="54"/>
-      <c r="H60" s="71" t="str">
-        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x06h-Testing-Platform-Interaction.md#testing-webview-protocol-handlers-mstg-platform-6"),"Testing WebView Protocol Handlers (MSTG-PLATFORM-6)")</f>
-        <v>Testing WebView Protocol Handlers (MSTG-PLATFORM-6)</v>
+      <c r="H60" s="55" t="str">
+        <f>HYPERLINK(CONCATENATE( BASE_URL, "0x06h-Testing-Platform-Interaction.md#testing-for-sensitive-functionality-exposure-through-ipc-mstg-platform-4"), "Testing for Sensitive Functionality Exposure Through IPC (MSTG-PLATFORM-4)")</f>
+        <v>Testing for Sensitive Functionality Exposure Through IPC (MSTG-PLATFORM-4)</v>
       </c>
       <c r="I60" s="58"/>
       <c r="J60" s="58"/>
@@ -9021,140 +11035,140 @@
     </row>
     <row r="61" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B61" s="68" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="C61" s="69" t="s">
-        <v>128</v>
-      </c>
-      <c r="D61" s="77" t="s">
-        <v>322</v>
+        <v>122</v>
+      </c>
+      <c r="D61" s="73" t="s">
+        <v>312</v>
       </c>
       <c r="E61" s="52" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F61" s="53" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G61" s="54"/>
       <c r="H61" s="71" t="str">
-        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x06h-Testing-Platform-Interaction.md#determining-whether-native-methods-are-exposed-through-webviews-mstg-platform-7"),"Determining Whether Native Methods Are Exposed Through WebViews (MSTG-PLATFORM-7)")</f>
-        <v>Determining Whether Native Methods Are Exposed Through WebViews (MSTG-PLATFORM-7)</v>
+        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x06h-Testing-Platform-Interaction.md#testing-ios-webviews-mstg-platform-5"),"Testing iOS WebViews (MSTG-PLATFORM-5)")</f>
+        <v>Testing iOS WebViews (MSTG-PLATFORM-5)</v>
       </c>
       <c r="I61" s="58"/>
       <c r="J61" s="58"/>
       <c r="K61" s="56"/>
     </row>
-    <row r="62" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B62" s="68" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="C62" s="69" t="s">
-        <v>130</v>
-      </c>
-      <c r="D62" s="73" t="s">
-        <v>323</v>
+        <v>124</v>
+      </c>
+      <c r="D62" s="77" t="s">
+        <v>313</v>
       </c>
       <c r="E62" s="52" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F62" s="53" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G62" s="54"/>
       <c r="H62" s="71" t="str">
-        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x06h-Testing-Platform-Interaction.md#testing-object-persistence-mstg-platform-8"),"Testing Object Persistence (MSTG-PLATFORM-8)")</f>
-        <v>Testing Object Persistence (MSTG-PLATFORM-8)</v>
+        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x06h-Testing-Platform-Interaction.md#testing-webview-protocol-handlers-mstg-platform-6"),"Testing WebView Protocol Handlers (MSTG-PLATFORM-6)")</f>
+        <v>Testing WebView Protocol Handlers (MSTG-PLATFORM-6)</v>
       </c>
       <c r="I62" s="58"/>
       <c r="J62" s="58"/>
       <c r="K62" s="56"/>
     </row>
     <row r="63" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B63" s="60" t="s">
-        <v>131</v>
-      </c>
-      <c r="C63" s="61"/>
-      <c r="D63" s="62" t="s">
-        <v>291</v>
-      </c>
-      <c r="E63" s="63"/>
-      <c r="F63" s="64"/>
-      <c r="G63" s="63"/>
-      <c r="H63" s="65"/>
-      <c r="I63" s="66"/>
-      <c r="J63" s="66"/>
-      <c r="K63" s="76"/>
+      <c r="B63" s="68" t="s">
+        <v>125</v>
+      </c>
+      <c r="C63" s="69" t="s">
+        <v>126</v>
+      </c>
+      <c r="D63" s="77" t="s">
+        <v>314</v>
+      </c>
+      <c r="E63" s="52" t="s">
+        <v>18</v>
+      </c>
+      <c r="F63" s="53" t="s">
+        <v>18</v>
+      </c>
+      <c r="G63" s="54"/>
+      <c r="H63" s="71" t="str">
+        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x06h-Testing-Platform-Interaction.md#determining-whether-native-methods-are-exposed-through-webviews-mstg-platform-7"),"Determining Whether Native Methods Are Exposed Through WebViews (MSTG-PLATFORM-7)")</f>
+        <v>Determining Whether Native Methods Are Exposed Through WebViews (MSTG-PLATFORM-7)</v>
+      </c>
+      <c r="I63" s="58"/>
+      <c r="J63" s="58"/>
+      <c r="K63" s="56"/>
     </row>
     <row r="64" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B64" s="68" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="C64" s="69" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="D64" s="73" t="s">
-        <v>324</v>
+        <v>315</v>
       </c>
       <c r="E64" s="52" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F64" s="53" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G64" s="54"/>
       <c r="H64" s="71" t="str">
-        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x06i-Testing-Code-Quality-and-Build-Settings.md#making-sure-that-the-app-is-properly-signed-mstg-code-1"),"Making Sure that the App Is Properly Signed (MSTG-CODE-1)")</f>
-        <v>Making Sure that the App Is Properly Signed (MSTG-CODE-1)</v>
+        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x06h-Testing-Platform-Interaction.md#testing-object-persistence-mstg-platform-8"),"Testing Object Persistence (MSTG-PLATFORM-8)")</f>
+        <v>Testing Object Persistence (MSTG-PLATFORM-8)</v>
       </c>
       <c r="I64" s="58"/>
       <c r="J64" s="58"/>
       <c r="K64" s="56"/>
     </row>
     <row r="65" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B65" s="68" t="s">
-        <v>134</v>
-      </c>
-      <c r="C65" s="69" t="s">
-        <v>135</v>
-      </c>
-      <c r="D65" s="73" t="s">
-        <v>325</v>
-      </c>
-      <c r="E65" s="52" t="s">
-        <v>20</v>
-      </c>
-      <c r="F65" s="53" t="s">
-        <v>20</v>
-      </c>
-      <c r="G65" s="54"/>
-      <c r="H65" s="71" t="str">
-        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x06i-Testing-Code-Quality-and-Build-Settings.md#determining-whether-the-app-is-debuggable-mstg-code-2"),"Determining Whether the App is Debuggable (MSTG-CODE-2)")</f>
-        <v>Determining Whether the App is Debuggable (MSTG-CODE-2)</v>
-      </c>
-      <c r="I65" s="58"/>
-      <c r="J65" s="58"/>
-      <c r="K65" s="56"/>
+      <c r="B65" s="60" t="s">
+        <v>129</v>
+      </c>
+      <c r="C65" s="61"/>
+      <c r="D65" s="62" t="s">
+        <v>285</v>
+      </c>
+      <c r="E65" s="63"/>
+      <c r="F65" s="64"/>
+      <c r="G65" s="63"/>
+      <c r="H65" s="65"/>
+      <c r="I65" s="66"/>
+      <c r="J65" s="66"/>
+      <c r="K65" s="76"/>
     </row>
     <row r="66" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B66" s="68" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="C66" s="69" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="D66" s="73" t="s">
-        <v>326</v>
+        <v>316</v>
       </c>
       <c r="E66" s="52" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F66" s="53" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G66" s="54"/>
       <c r="H66" s="71" t="str">
-        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x06i-Testing-Code-Quality-and-Build-Settings.md#finding-debugging-symbols-mstg-code-3"),"Finding Debugging Symbols (MSTG-CODE-3)")</f>
-        <v>Finding Debugging Symbols (MSTG-CODE-3)</v>
+        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x06i-Testing-Code-Quality-and-Build-Settings.md#making-sure-that-the-app-is-properly-signed-mstg-code-1"),"Making Sure that the App Is Properly Signed (MSTG-CODE-1)")</f>
+        <v>Making Sure that the App Is Properly Signed (MSTG-CODE-1)</v>
       </c>
       <c r="I66" s="58"/>
       <c r="J66" s="58"/>
@@ -9162,24 +11176,24 @@
     </row>
     <row r="67" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B67" s="68" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="C67" s="69" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="D67" s="73" t="s">
-        <v>327</v>
+        <v>317</v>
       </c>
       <c r="E67" s="52" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F67" s="53" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G67" s="54"/>
       <c r="H67" s="71" t="str">
-        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x06i-Testing-Code-Quality-and-Build-Settings.md#finding-debugging-code-and-verbose-error-logging-mstg-code-4"),"Finding Debugging Code and Verbose Error Logging (MSTG-CODE-4)")</f>
-        <v>Finding Debugging Code and Verbose Error Logging (MSTG-CODE-4)</v>
+        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x06i-Testing-Code-Quality-and-Build-Settings.md#determining-whether-the-app-is-debuggable-mstg-code-2"),"Determining Whether the App is Debuggable (MSTG-CODE-2)")</f>
+        <v>Determining Whether the App is Debuggable (MSTG-CODE-2)</v>
       </c>
       <c r="I67" s="58"/>
       <c r="J67" s="58"/>
@@ -9187,24 +11201,24 @@
     </row>
     <row r="68" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B68" s="68" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="C68" s="69" t="s">
-        <v>141</v>
-      </c>
-      <c r="D68" s="51" t="s">
-        <v>328</v>
+        <v>135</v>
+      </c>
+      <c r="D68" s="73" t="s">
+        <v>318</v>
       </c>
       <c r="E68" s="52" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F68" s="53" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G68" s="54"/>
-      <c r="H68" s="80" t="str">
-        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x06i-Testing-Code-Quality-and-Build-Settings.md#checking-for-weaknesses-in-third-party-libraries-mstg-code-5"),"Checking for Weaknesses in Third Party Libraries (MSTG-CODE-5)")</f>
-        <v>Checking for Weaknesses in Third Party Libraries (MSTG-CODE-5)</v>
+      <c r="H68" s="71" t="str">
+        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x06i-Testing-Code-Quality-and-Build-Settings.md#finding-debugging-symbols-mstg-code-3"),"Finding Debugging Symbols (MSTG-CODE-3)")</f>
+        <v>Finding Debugging Symbols (MSTG-CODE-3)</v>
       </c>
       <c r="I68" s="58"/>
       <c r="J68" s="58"/>
@@ -9212,24 +11226,24 @@
     </row>
     <row r="69" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B69" s="68" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="C69" s="69" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="D69" s="73" t="s">
-        <v>329</v>
+        <v>319</v>
       </c>
       <c r="E69" s="52" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F69" s="53" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G69" s="54"/>
       <c r="H69" s="71" t="str">
-        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x06i-Testing-Code-Quality-and-Build-Settings.md#testing-exception-handling-mstg-code-6"),"Testing Exception Handling (MSTG-CODE-6)")</f>
-        <v>Testing Exception Handling (MSTG-CODE-6)</v>
+        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x06i-Testing-Code-Quality-and-Build-Settings.md#finding-debugging-code-and-verbose-error-logging-mstg-code-4"),"Finding Debugging Code and Verbose Error Logging (MSTG-CODE-4)")</f>
+        <v>Finding Debugging Code and Verbose Error Logging (MSTG-CODE-4)</v>
       </c>
       <c r="I69" s="58"/>
       <c r="J69" s="58"/>
@@ -9237,24 +11251,24 @@
     </row>
     <row r="70" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B70" s="68" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="C70" s="69" t="s">
-        <v>145</v>
-      </c>
-      <c r="D70" s="73" t="s">
-        <v>330</v>
+        <v>139</v>
+      </c>
+      <c r="D70" s="51" t="s">
+        <v>320</v>
       </c>
       <c r="E70" s="52" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F70" s="53" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G70" s="54"/>
-      <c r="H70" s="71" t="str">
-        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x06i-Testing-Code-Quality-and-Build-Settings.md#testing-exception-handling-mstg-code-6"),"Testing Exception Handling (MSTG-CODE-6)")</f>
-        <v>Testing Exception Handling (MSTG-CODE-6)</v>
+      <c r="H70" s="80" t="str">
+        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x06i-Testing-Code-Quality-and-Build-Settings.md#checking-for-weaknesses-in-third-party-libraries-mstg-code-5"),"Checking for Weaknesses in Third Party Libraries (MSTG-CODE-5)")</f>
+        <v>Checking for Weaknesses in Third Party Libraries (MSTG-CODE-5)</v>
       </c>
       <c r="I70" s="58"/>
       <c r="J70" s="58"/>
@@ -9262,24 +11276,24 @@
     </row>
     <row r="71" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B71" s="68" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="C71" s="69" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="D71" s="73" t="s">
-        <v>331</v>
+        <v>321</v>
       </c>
       <c r="E71" s="52" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F71" s="53" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G71" s="54"/>
       <c r="H71" s="71" t="str">
-        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x06i-Testing-Code-Quality-and-Build-Settings.md#memory-corruption-bugs-mstg-code-8"),"Memory Corruption Bugs (MSTG-CODE-8)")</f>
-        <v>Memory Corruption Bugs (MSTG-CODE-8)</v>
+        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x06i-Testing-Code-Quality-and-Build-Settings.md#testing-exception-handling-mstg-code-6"),"Testing Exception Handling (MSTG-CODE-6)")</f>
+        <v>Testing Exception Handling (MSTG-CODE-6)</v>
       </c>
       <c r="I71" s="58"/>
       <c r="J71" s="58"/>
@@ -9287,64 +11301,90 @@
     </row>
     <row r="72" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B72" s="68" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="C72" s="69" t="s">
-        <v>149</v>
-      </c>
-      <c r="D72" s="51" t="s">
-        <v>332</v>
+        <v>143</v>
+      </c>
+      <c r="D72" s="73" t="s">
+        <v>322</v>
       </c>
       <c r="E72" s="52" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F72" s="53" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G72" s="54"/>
       <c r="H72" s="71" t="str">
-        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x06i-Testing-Code-Quality-and-Build-Settings.md#make-sure-that-free-security-features-are-activated-mstg-code-9"),"Make Sure That Free Security Features Are Activated (MSTG-CODE-9)")</f>
-        <v>Make Sure That Free Security Features Are Activated (MSTG-CODE-9)</v>
+        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x06i-Testing-Code-Quality-and-Build-Settings.md#testing-exception-handling-mstg-code-6"),"Testing Exception Handling (MSTG-CODE-6)")</f>
+        <v>Testing Exception Handling (MSTG-CODE-6)</v>
       </c>
       <c r="I72" s="58"/>
       <c r="J72" s="58"/>
       <c r="K72" s="56"/>
     </row>
     <row r="73" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B73" s="84"/>
-      <c r="C73" s="85"/>
-      <c r="D73" s="86"/>
-      <c r="E73" s="87"/>
-      <c r="F73" s="87"/>
-      <c r="G73" s="87"/>
-      <c r="H73" s="87"/>
-      <c r="I73" s="88"/>
-      <c r="J73" s="115"/>
-      <c r="K73" s="116"/>
+      <c r="B73" s="68" t="s">
+        <v>144</v>
+      </c>
+      <c r="C73" s="69" t="s">
+        <v>145</v>
+      </c>
+      <c r="D73" s="73" t="s">
+        <v>323</v>
+      </c>
+      <c r="E73" s="52" t="s">
+        <v>18</v>
+      </c>
+      <c r="F73" s="53" t="s">
+        <v>18</v>
+      </c>
+      <c r="G73" s="54"/>
+      <c r="H73" s="71" t="str">
+        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x06i-Testing-Code-Quality-and-Build-Settings.md#memory-corruption-bugs-mstg-code-8"),"Memory Corruption Bugs (MSTG-CODE-8)")</f>
+        <v>Memory Corruption Bugs (MSTG-CODE-8)</v>
+      </c>
+      <c r="I73" s="58"/>
+      <c r="J73" s="58"/>
+      <c r="K73" s="56"/>
     </row>
     <row r="74" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B74" s="117"/>
-      <c r="C74" s="117"/>
-      <c r="D74" s="73"/>
-      <c r="E74" s="93"/>
-      <c r="F74" s="93"/>
-      <c r="G74" s="93"/>
-      <c r="H74" s="93"/>
-      <c r="I74" s="93"/>
-      <c r="J74" s="93"/>
-      <c r="K74" s="73"/>
+      <c r="B74" s="68" t="s">
+        <v>146</v>
+      </c>
+      <c r="C74" s="69" t="s">
+        <v>147</v>
+      </c>
+      <c r="D74" s="51" t="s">
+        <v>324</v>
+      </c>
+      <c r="E74" s="52" t="s">
+        <v>18</v>
+      </c>
+      <c r="F74" s="53" t="s">
+        <v>18</v>
+      </c>
+      <c r="G74" s="54"/>
+      <c r="H74" s="71" t="str">
+        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x06i-Testing-Code-Quality-and-Build-Settings.md#make-sure-that-free-security-features-are-activated-mstg-code-9"),"Make Sure That Free Security Features Are Activated (MSTG-CODE-9)")</f>
+        <v>Make Sure That Free Security Features Are Activated (MSTG-CODE-9)</v>
+      </c>
+      <c r="I74" s="58"/>
+      <c r="J74" s="58"/>
+      <c r="K74" s="56"/>
     </row>
     <row r="75" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B75" s="117"/>
-      <c r="C75" s="117"/>
-      <c r="D75" s="73"/>
-      <c r="E75" s="93"/>
-      <c r="F75" s="93"/>
-      <c r="G75" s="93"/>
-      <c r="H75" s="93"/>
-      <c r="I75" s="93"/>
-      <c r="J75" s="93"/>
-      <c r="K75" s="73"/>
+      <c r="B75" s="84"/>
+      <c r="C75" s="85"/>
+      <c r="D75" s="86"/>
+      <c r="E75" s="87"/>
+      <c r="F75" s="87"/>
+      <c r="G75" s="87"/>
+      <c r="H75" s="87"/>
+      <c r="I75" s="88"/>
+      <c r="J75" s="115"/>
+      <c r="K75" s="116"/>
     </row>
     <row r="76" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B76" s="117"/>
@@ -9359,10 +11399,8 @@
       <c r="K76" s="73"/>
     </row>
     <row r="77" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B77" s="118" t="s">
-        <v>150</v>
-      </c>
-      <c r="C77" s="118"/>
+      <c r="B77" s="117"/>
+      <c r="C77" s="117"/>
       <c r="D77" s="73"/>
       <c r="E77" s="93"/>
       <c r="F77" s="93"/>
@@ -9373,13 +11411,9 @@
       <c r="K77" s="73"/>
     </row>
     <row r="78" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B78" s="95" t="s">
-        <v>292</v>
-      </c>
-      <c r="C78" s="95"/>
-      <c r="D78" s="96" t="s">
-        <v>295</v>
-      </c>
+      <c r="B78" s="117"/>
+      <c r="C78" s="117"/>
+      <c r="D78" s="73"/>
       <c r="E78" s="93"/>
       <c r="F78" s="93"/>
       <c r="G78" s="93"/>
@@ -9389,13 +11423,11 @@
       <c r="K78" s="73"/>
     </row>
     <row r="79" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B79" s="97" t="s">
-        <v>151</v>
-      </c>
-      <c r="C79" s="97"/>
-      <c r="D79" s="98" t="s">
-        <v>350</v>
-      </c>
+      <c r="B79" s="118" t="s">
+        <v>148</v>
+      </c>
+      <c r="C79" s="118"/>
+      <c r="D79" s="73"/>
       <c r="E79" s="93"/>
       <c r="F79" s="93"/>
       <c r="G79" s="93"/>
@@ -9405,12 +11437,12 @@
       <c r="K79" s="73"/>
     </row>
     <row r="80" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B80" s="97" t="s">
-        <v>152</v>
-      </c>
-      <c r="C80" s="97"/>
-      <c r="D80" s="98" t="s">
-        <v>351</v>
+      <c r="B80" s="95" t="s">
+        <v>286</v>
+      </c>
+      <c r="C80" s="95"/>
+      <c r="D80" s="96" t="s">
+        <v>287</v>
       </c>
       <c r="E80" s="93"/>
       <c r="F80" s="93"/>
@@ -9422,11 +11454,11 @@
     </row>
     <row r="81" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B81" s="97" t="s">
-        <v>29</v>
+        <v>149</v>
       </c>
       <c r="C81" s="97"/>
       <c r="D81" s="98" t="s">
-        <v>352</v>
+        <v>342</v>
       </c>
       <c r="E81" s="93"/>
       <c r="F81" s="93"/>
@@ -9437,9 +11469,13 @@
       <c r="K81" s="73"/>
     </row>
     <row r="82" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B82" s="117"/>
-      <c r="C82" s="117"/>
-      <c r="D82" s="73"/>
+      <c r="B82" s="97" t="s">
+        <v>150</v>
+      </c>
+      <c r="C82" s="97"/>
+      <c r="D82" s="98" t="s">
+        <v>343</v>
+      </c>
       <c r="E82" s="93"/>
       <c r="F82" s="93"/>
       <c r="G82" s="93"/>
@@ -9449,9 +11485,13 @@
       <c r="K82" s="73"/>
     </row>
     <row r="83" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B83" s="117"/>
-      <c r="C83" s="117"/>
-      <c r="D83" s="73"/>
+      <c r="B83" s="97" t="s">
+        <v>27</v>
+      </c>
+      <c r="C83" s="97"/>
+      <c r="D83" s="98" t="s">
+        <v>344</v>
+      </c>
       <c r="E83" s="93"/>
       <c r="F83" s="93"/>
       <c r="G83" s="93"/>
@@ -9484,6 +11524,30 @@
       <c r="J85" s="93"/>
       <c r="K85" s="73"/>
     </row>
+    <row r="86" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B86" s="117"/>
+      <c r="C86" s="117"/>
+      <c r="D86" s="73"/>
+      <c r="E86" s="93"/>
+      <c r="F86" s="93"/>
+      <c r="G86" s="93"/>
+      <c r="H86" s="93"/>
+      <c r="I86" s="93"/>
+      <c r="J86" s="93"/>
+      <c r="K86" s="73"/>
+    </row>
+    <row r="87" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B87" s="117"/>
+      <c r="C87" s="117"/>
+      <c r="D87" s="73"/>
+      <c r="E87" s="93"/>
+      <c r="F87" s="93"/>
+      <c r="G87" s="93"/>
+      <c r="H87" s="93"/>
+      <c r="I87" s="93"/>
+      <c r="J87" s="93"/>
+      <c r="K87" s="73"/>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="H3:J3"/>
@@ -9493,7 +11557,7 @@
       <formula>NOT(ISERROR(SEARCH("0x05",M1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H1:H26 H28:H1048576">
+  <conditionalFormatting sqref="H30:H1048576 H1:H28">
     <cfRule type="containsText" dxfId="10" priority="3" operator="containsText" text="0x05">
       <formula>NOT(ISERROR(SEARCH("0x05",H1)))</formula>
     </cfRule>
@@ -9509,11 +11573,11 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G74:G1081 I74:K1081" xr:uid="{00000000-0002-0000-0400-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G76:G1083 I76:K1083" xr:uid="{00000000-0002-0000-0400-000000000000}">
       <formula1>"Yes,No,N/A"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G5:G14 G16:G27 G29:G34 G36:G46 G48:G53 G55:G62 G64:G72" xr:uid="{00000000-0002-0000-0400-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G18:G29 G31:G36 G38:G48 G50:G55 G57:G64 G66:G74 G5:G16" xr:uid="{00000000-0002-0000-0400-000001000000}">
       <formula1>"Pass,Fail,N/A"</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -9528,7 +11592,7 @@
   <dimension ref="A1:H32"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:G17"/>
+      <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -9546,7 +11610,7 @@
   <sheetData>
     <row r="1" spans="2:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B1" s="108" t="s">
-        <v>401</v>
+        <v>383</v>
       </c>
       <c r="C1" s="108"/>
       <c r="G1" s="93"/>
@@ -9558,32 +11622,32 @@
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B3" s="37" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C3" s="38" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D3" s="39" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="E3" s="40" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F3" s="40" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="100" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="42" t="s">
         <v>14</v>
-      </c>
-      <c r="G3" s="100" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" s="42" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B4" s="60"/>
       <c r="C4" s="61"/>
       <c r="D4" s="62" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="E4" s="63"/>
       <c r="F4" s="63"/>
@@ -9592,19 +11656,19 @@
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B5" s="49" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C5" s="50" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D5" s="77" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="E5" s="102" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F5" s="54" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G5" s="134" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x06j-Testing-Resiliency-Against-Reverse-Engineering.md#jailbreak-detection-mstg-resilience-1"),"越狱检测 (MSTG-RESILIENCE-1)")</f>
@@ -9614,19 +11678,19 @@
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B6" s="49" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C6" s="50" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D6" s="77" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="E6" s="102" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F6" s="54" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G6" s="134" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x06j-Testing-Resiliency-Against-Reverse-Engineering.md#anti-debugging-checks-mstg-resilience-2"),"Anti-Debugging 检查 H7(MSTG-RESILIENCE-2)")</f>
@@ -9636,19 +11700,19 @@
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B7" s="49" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C7" s="50" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D7" s="73" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="E7" s="102" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F7" s="54" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G7" s="134" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x06j-Testing-Resiliency-Against-Reverse-Engineering.md#file-integrity-checks-mstg-resilience-3-and-mstg-resilience-11"),"文件完整性检查 (MSTG-RESILIENCE-3 and MSTG-RESILIENCE-11)")</f>
@@ -9658,127 +11722,127 @@
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B8" s="49" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C8" s="50" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D8" s="73" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
       <c r="E8" s="102" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F8" s="54" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G8" s="119" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="H8" s="103"/>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B9" s="49" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C9" s="50" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D9" s="73" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="E9" s="102" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F9" s="54" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G9" s="119" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="H9" s="103"/>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B10" s="49" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C10" s="50" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D10" s="73" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="E10" s="102" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F10" s="54" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G10" s="119" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="H10" s="103"/>
     </row>
     <row r="11" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B11" s="49" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C11" s="50" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D11" s="77" t="s">
-        <v>342</v>
+        <v>334</v>
       </c>
       <c r="E11" s="102" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F11" s="54" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G11" s="105" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="H11" s="103"/>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B12" s="49" t="s">
+        <v>167</v>
+      </c>
+      <c r="C12" s="50" t="s">
+        <v>168</v>
+      </c>
+      <c r="D12" s="73" t="s">
+        <v>335</v>
+      </c>
+      <c r="E12" s="102" t="s">
+        <v>18</v>
+      </c>
+      <c r="F12" s="54" t="s">
+        <v>27</v>
+      </c>
+      <c r="G12" s="105" t="s">
         <v>169</v>
-      </c>
-      <c r="C12" s="50" t="s">
-        <v>170</v>
-      </c>
-      <c r="D12" s="73" t="s">
-        <v>343</v>
-      </c>
-      <c r="E12" s="102" t="s">
-        <v>20</v>
-      </c>
-      <c r="F12" s="54" t="s">
-        <v>29</v>
-      </c>
-      <c r="G12" s="105" t="s">
-        <v>171</v>
       </c>
       <c r="H12" s="103"/>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B13" s="49" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C13" s="50" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D13" s="73" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="E13" s="102" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F13" s="54" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G13" s="119" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="H13" s="103"/>
     </row>
@@ -9786,7 +11850,7 @@
       <c r="B14" s="60"/>
       <c r="C14" s="61"/>
       <c r="D14" s="62" t="s">
-        <v>345</v>
+        <v>337</v>
       </c>
       <c r="E14" s="63"/>
       <c r="F14" s="63"/>
@@ -9795,19 +11859,19 @@
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B15" s="49" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C15" s="50" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D15" s="77" t="s">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="E15" s="102" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F15" s="54" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G15" s="134" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x06j-Testing-Resiliency-Against-Reverse-Engineering.md#device-binding-mstg-resilience-10"),"设备绑定 (MSTG-RESILIENCE-10)")</f>
@@ -9819,7 +11883,7 @@
       <c r="B16" s="60"/>
       <c r="C16" s="61"/>
       <c r="D16" s="62" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="E16" s="63"/>
       <c r="F16" s="63"/>
@@ -9829,19 +11893,19 @@
     <row r="17" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="136"/>
       <c r="B17" s="49" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C17" s="50" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D17" s="137" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="E17" s="102" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F17" s="54" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G17" s="138" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x06j-Testing-Resiliency-Against-Reverse-Engineering.md#file-integrity-checks-mstg-resilience-3-and-mstg-resilience-11"),"文件完整性检查 (MSTG-RESILIENCE-3 and MSTG-RESILIENCE-11)")</f>
@@ -9851,22 +11915,22 @@
     </row>
     <row r="18" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="B18" s="49" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C18" s="50" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D18" s="77" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="E18" s="102" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F18" s="54" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G18" s="105" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="H18" s="103"/>
     </row>
@@ -9899,7 +11963,7 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B22" s="118" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C22" s="118"/>
       <c r="D22" s="73"/>
@@ -9910,11 +11974,11 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B23" s="95" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="C23" s="95"/>
       <c r="D23" s="96" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="E23" s="93"/>
       <c r="F23" s="93"/>
@@ -9923,11 +11987,11 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B24" s="97" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C24" s="97"/>
       <c r="D24" s="98" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="E24" s="93"/>
       <c r="F24" s="93"/>
@@ -9936,11 +12000,11 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B25" s="97" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C25" s="97"/>
       <c r="D25" s="98" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="E25" s="93"/>
       <c r="F25" s="93"/>
@@ -9949,11 +12013,11 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B26" s="97" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C26" s="97"/>
       <c r="D26" s="98" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
       <c r="E26" s="93"/>
       <c r="F26" s="93"/>
@@ -10064,7 +12128,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:E26"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A22" zoomScale="77" zoomScaleNormal="75" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A10" zoomScale="77" zoomScaleNormal="75" workbookViewId="0">
       <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
@@ -10080,7 +12144,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="157" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B1" s="157"/>
       <c r="C1" s="120"/>
@@ -10089,24 +12153,24 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="121" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B2" s="121" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="121" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D2" s="121" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E2" s="121" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="122" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B3" s="123">
         <v>0.1</v>
@@ -10116,12 +12180,12 @@
         <v>42765</v>
       </c>
       <c r="E3" s="125" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="125" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B4" s="123">
         <v>0.2</v>
@@ -10131,12 +12195,12 @@
         <v>42766</v>
       </c>
       <c r="E4" s="125" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="125" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B5" s="123">
         <v>0.3</v>
@@ -10146,102 +12210,102 @@
         <v>42778</v>
       </c>
       <c r="E5" s="125" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="125" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B6" s="123" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C6" s="123"/>
       <c r="D6" s="124">
         <v>42780</v>
       </c>
       <c r="E6" s="125" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="125" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B7" s="126" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C7" s="126"/>
       <c r="D7" s="124">
         <v>42781</v>
       </c>
       <c r="E7" s="125" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="125" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B8" s="126" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C8" s="126"/>
       <c r="D8" s="124">
         <v>42829</v>
       </c>
       <c r="E8" s="125" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="125" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B9" s="126" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C9" s="126"/>
       <c r="D9" s="124">
         <v>42919</v>
       </c>
       <c r="E9" s="125" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="125" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B10" s="126" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C10" s="126"/>
       <c r="D10" s="124">
         <v>42963</v>
       </c>
       <c r="E10" s="125" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="125" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B11" s="126" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C11" s="126"/>
       <c r="D11" s="124">
         <v>43113</v>
       </c>
       <c r="E11" s="125" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="125" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B12" s="126">
         <v>1.1000000000000001</v>
@@ -10251,130 +12315,130 @@
         <v>43289</v>
       </c>
       <c r="E12" s="125" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="125" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B13" s="127" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C13" s="128"/>
       <c r="D13" s="124">
         <v>43464</v>
       </c>
       <c r="E13" s="129" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="125" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B14" s="127" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C14" s="128"/>
       <c r="D14" s="124">
         <v>43469</v>
       </c>
       <c r="E14" s="129" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="408.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="130" t="s">
+        <v>206</v>
+      </c>
+      <c r="B15" s="126" t="s">
+        <v>207</v>
+      </c>
+      <c r="C15" s="126" t="s">
         <v>208</v>
-      </c>
-      <c r="B15" s="126" t="s">
-        <v>209</v>
-      </c>
-      <c r="C15" s="126" t="s">
-        <v>210</v>
       </c>
       <c r="D15" s="124">
         <v>43471</v>
       </c>
       <c r="E15" s="131" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="125" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B16" s="127" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C16" s="126" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D16" s="132">
         <v>43475</v>
       </c>
       <c r="E16" s="129" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A17" s="130" t="s">
+        <v>206</v>
+      </c>
+      <c r="B17" s="127" t="s">
+        <v>212</v>
+      </c>
+      <c r="C17" s="126" t="s">
         <v>208</v>
-      </c>
-      <c r="B17" s="127" t="s">
-        <v>214</v>
-      </c>
-      <c r="C17" s="126" t="s">
-        <v>210</v>
       </c>
       <c r="D17" s="124">
         <v>43476</v>
       </c>
       <c r="E17" s="130" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A18" s="130" t="s">
+        <v>206</v>
+      </c>
+      <c r="B18" s="127" t="s">
+        <v>214</v>
+      </c>
+      <c r="C18" s="126" t="s">
         <v>208</v>
-      </c>
-      <c r="B18" s="127" t="s">
-        <v>216</v>
-      </c>
-      <c r="C18" s="126" t="s">
-        <v>210</v>
       </c>
       <c r="D18" s="124">
         <v>43478</v>
       </c>
       <c r="E18" s="130" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A19" s="130" t="s">
+        <v>206</v>
+      </c>
+      <c r="B19" s="127" t="s">
+        <v>216</v>
+      </c>
+      <c r="C19" s="126" t="s">
         <v>208</v>
-      </c>
-      <c r="B19" s="127" t="s">
-        <v>218</v>
-      </c>
-      <c r="C19" s="126" t="s">
-        <v>210</v>
       </c>
       <c r="D19" s="124">
         <v>43478</v>
       </c>
       <c r="E19" s="130" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A20" s="130" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B20" s="127" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C20" s="126" t="s">
         <v>0</v>
@@ -10383,15 +12447,15 @@
         <v>43641</v>
       </c>
       <c r="E20" s="131" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="130" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B21" s="127" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C21" s="126" t="s">
         <v>0</v>
@@ -10400,15 +12464,15 @@
         <v>43642</v>
       </c>
       <c r="E21" s="130" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A22" s="130" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B22" s="127" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C22" s="126" t="s">
         <v>0</v>
@@ -10417,15 +12481,15 @@
         <v>43649</v>
       </c>
       <c r="E22" s="130" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="130" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B23" s="127" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C23" s="126" t="s">
         <v>0</v>
@@ -10434,15 +12498,15 @@
         <v>43672</v>
       </c>
       <c r="E23" s="130" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="130" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B24" s="127" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C24" s="126" t="s">
         <v>0</v>
@@ -10451,15 +12515,15 @@
         <v>43674</v>
       </c>
       <c r="E24" s="130" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A25" s="130" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B25" s="127" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C25" s="126" t="s">
         <v>0</v>
@@ -10468,15 +12532,15 @@
         <v>43685</v>
       </c>
       <c r="E25" s="130" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A26" s="130" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B26" s="127" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C26" s="126" t="s">
         <v>0</v>
@@ -10485,7 +12549,7 @@
         <v>43719</v>
       </c>
       <c r="E26" s="130" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
   </sheetData>

--- a/Checklists/Mobile_App_Security_Checklist-Chinese_1.1.2.xlsx
+++ b/Checklists/Mobile_App_Security_Checklist-Chinese_1.1.2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Bob\Documents\GitHub\owasp-mstg\Checklists\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1276F37-EE0C-482D-8F2B-16C59D53B27B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6144EDD6-F77A-40AD-9219-90CBDDE2A8D8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30000" yWindow="2565" windowWidth="20685" windowHeight="19860" tabRatio="500" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3585" yWindow="1065" windowWidth="20685" windowHeight="19860" tabRatio="500" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="1" r:id="rId1"/>
@@ -1527,18 +1527,10 @@
 (Free security features offered by the toolchain, such as byte-code minification, stack protection, PIE support and automatic reference counting, are activated.)</t>
   </si>
   <si>
-    <t>该应用程序通过警告用户或终止应用程序来检测和响应有根设备或越狱设备的存在。
-(The app detects, and responds to, the presence of a rooted or jailbroken device either by alerting the user or terminating the app.)</t>
-  </si>
-  <si>
     <t>对逆向工程需求的弹性 
 (Resiliency Against Reverse Engineering Requirements)</t>
   </si>
   <si>
-    <t>应用程序可以防止调试和/或检测并响应附加的调试器。必须覆盖所有可用的调试协议。
-(The app prevents debugging and/or detects, and responds to, a debugger being attached. All available debugging protocols must be covered.)</t>
-  </si>
-  <si>
     <t>该应用程序在自己的沙箱中检测、响应、篡改可执行文件和关键数据。
 (The app detects, and responds to, tampering with executable files and critical data within its own sandbox.)</t>
   </si>
@@ -1602,6 +1594,14 @@
   <si>
     <t>妨碍动态分析和篡改
 (Impede Dynamic Analysis and Tampering)</t>
+  </si>
+  <si>
+    <t>在一台越狱设备上, 该应用能检测, 并响应, 通过警告该用户 或者 终止应用程序. 
+(The app detects, and responds to, the presence of a rooted or jailbroken device either by alerting the user or terminating the app.)</t>
+  </si>
+  <si>
+    <t>该应用防止调试和/或检测并响应附加的调试器。所有有效调节协议必须被覆盖.
+(The app prevents debugging and/or detects, and responds to, a debugger being attached. All available debugging protocols must be covered.)</t>
   </si>
 </sst>
 </file>
@@ -7368,7 +7368,7 @@
   <dimension ref="A1:AMK31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -7412,7 +7412,7 @@
         <v>9</v>
       </c>
       <c r="D3" s="94" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="E3" s="95" t="s">
         <v>151</v>
@@ -7431,7 +7431,7 @@
       <c r="B4" s="116"/>
       <c r="C4" s="117"/>
       <c r="D4" s="118" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="E4" s="119"/>
       <c r="F4" s="119"/>
@@ -7446,7 +7446,7 @@
         <v>153</v>
       </c>
       <c r="D5" s="115" t="s">
-        <v>413</v>
+        <v>431</v>
       </c>
       <c r="E5" s="219" t="s">
         <v>18</v>
@@ -7468,7 +7468,7 @@
         <v>155</v>
       </c>
       <c r="D6" s="115" t="s">
-        <v>415</v>
+        <v>432</v>
       </c>
       <c r="E6" s="219" t="s">
         <v>18</v>
@@ -7490,7 +7490,7 @@
         <v>157</v>
       </c>
       <c r="D7" s="222" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="E7" s="219" t="s">
         <v>18</v>
@@ -7512,7 +7512,7 @@
         <v>159</v>
       </c>
       <c r="D8" s="222" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="E8" s="219" t="s">
         <v>18</v>
@@ -7534,7 +7534,7 @@
         <v>161</v>
       </c>
       <c r="D9" s="222" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="E9" s="219" t="s">
         <v>18</v>
@@ -7556,7 +7556,7 @@
         <v>163</v>
       </c>
       <c r="D10" s="222" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="E10" s="219" t="s">
         <v>18</v>
@@ -7578,7 +7578,7 @@
         <v>165</v>
       </c>
       <c r="D11" s="115" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="E11" s="219" t="s">
         <v>18</v>
@@ -7599,7 +7599,7 @@
         <v>168</v>
       </c>
       <c r="D12" s="222" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="E12" s="219" t="s">
         <v>18</v>
@@ -7620,7 +7620,7 @@
         <v>171</v>
       </c>
       <c r="D13" s="222" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="E13" s="219" t="s">
         <v>18</v>
@@ -7638,7 +7638,7 @@
       <c r="B14" s="116"/>
       <c r="C14" s="117"/>
       <c r="D14" s="118" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="E14" s="119"/>
       <c r="F14" s="119"/>
@@ -7653,7 +7653,7 @@
         <v>173</v>
       </c>
       <c r="D15" s="115" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="E15" s="219" t="s">
         <v>18</v>
@@ -7671,7 +7671,7 @@
       <c r="B16" s="116"/>
       <c r="C16" s="117"/>
       <c r="D16" s="118" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="E16" s="119"/>
       <c r="F16" s="119"/>
@@ -7686,7 +7686,7 @@
         <v>175</v>
       </c>
       <c r="D17" s="115" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="E17" s="219" t="s">
         <v>18</v>
@@ -7708,7 +7708,7 @@
         <v>177</v>
       </c>
       <c r="D18" s="115" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="E18" s="219" t="s">
         <v>18</v>
@@ -7723,7 +7723,7 @@
       <c r="B19" s="116"/>
       <c r="C19" s="117"/>
       <c r="D19" s="118" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="E19" s="119"/>
       <c r="F19" s="119"/>
@@ -7732,13 +7732,13 @@
     </row>
     <row r="20" spans="2:8" ht="33" x14ac:dyDescent="0.35">
       <c r="B20" s="104" t="s">
+        <v>424</v>
+      </c>
+      <c r="C20" s="105" t="s">
+        <v>425</v>
+      </c>
+      <c r="D20" s="115" t="s">
         <v>426</v>
-      </c>
-      <c r="C20" s="105" t="s">
-        <v>427</v>
-      </c>
-      <c r="D20" s="115" t="s">
-        <v>428</v>
       </c>
       <c r="E20" s="219" t="s">
         <v>18</v>
